--- a/Shear Stress/bedload_tauc/bedload_tauc_analysis.xlsx
+++ b/Shear Stress/bedload_tauc/bedload_tauc_analysis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\GitHub\La_Jara\Shear Stress\bedload_tauc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D27004EB-3D15-4C7A-9FEF-0F2FFEE0D166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B08999-41CA-4366-855F-43B9D076180C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tau_m (Q rating curve)" sheetId="4" r:id="rId1"/>
@@ -1357,6 +1357,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1364,6 +1370,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1375,13 +1390,7 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1394,15 +1403,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -15384,52 +15384,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18846A3F-073E-4AD3-9086-76C467E4EDB2}">
   <dimension ref="A1:AM116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I93" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA99" sqref="AA99"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N108" sqref="N108"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" customWidth="1"/>
-    <col min="13" max="13" width="12.109375" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.88671875" customWidth="1"/>
-    <col min="18" max="18" width="18.44140625" customWidth="1"/>
-    <col min="21" max="21" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.5546875" customWidth="1"/>
-    <col min="24" max="24" width="9.109375" style="1"/>
+    <col min="17" max="17" width="10.85546875" customWidth="1"/>
+    <col min="18" max="18" width="18.42578125" customWidth="1"/>
+    <col min="21" max="21" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" customWidth="1"/>
+    <col min="24" max="24" width="9.140625" style="1"/>
     <col min="25" max="25" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.109375" style="1"/>
+    <col min="26" max="26" width="9.140625" style="1"/>
     <col min="35" max="35" width="12" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A1" s="218" t="s">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A1" s="212" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="219"/>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="219"/>
-      <c r="H1" s="219"/>
-      <c r="I1" s="219"/>
-      <c r="J1" s="219"/>
+      <c r="B1" s="223"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="223"/>
+      <c r="H1" s="223"/>
+      <c r="I1" s="223"/>
+      <c r="J1" s="223"/>
       <c r="K1" s="25"/>
-      <c r="L1" s="218" t="s">
+      <c r="L1" s="212" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="219"/>
-      <c r="N1" s="220"/>
+      <c r="M1" s="223"/>
+      <c r="N1" s="213"/>
       <c r="Q1" s="49"/>
       <c r="R1" s="1" t="s">
         <v>52</v>
@@ -15468,7 +15468,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>70</v>
       </c>
@@ -15555,7 +15555,7 @@
         <v>0.14369522173913041</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="51">
         <v>11.2</v>
       </c>
@@ -15641,7 +15641,7 @@
         <v>0.96557273478260874</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="52">
         <v>8</v>
       </c>
@@ -15727,7 +15727,7 @@
         <v>0.72795068403010044</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="52">
         <v>5.6</v>
       </c>
@@ -15813,7 +15813,7 @@
         <v>4.0363869782461155</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="52">
         <v>4</v>
       </c>
@@ -15892,7 +15892,7 @@
         <v>1.9437556084810153</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="52">
         <v>2.8</v>
       </c>
@@ -15955,7 +15955,7 @@
         <v>0.8005262470803336</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="52">
         <v>2</v>
       </c>
@@ -15986,10 +15986,10 @@
       <c r="J8" s="106">
         <v>0.435</v>
       </c>
-      <c r="L8" s="218" t="s">
+      <c r="L8" s="212" t="s">
         <v>38</v>
       </c>
-      <c r="M8" s="220"/>
+      <c r="M8" s="213"/>
       <c r="Q8" s="49"/>
       <c r="R8" s="7"/>
       <c r="W8" s="1">
@@ -16022,7 +16022,7 @@
         <v>1.8410135952059168</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="52">
         <v>1.4</v>
       </c>
@@ -16092,7 +16092,7 @@
         <v>10.225716559788639</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="52">
         <v>1</v>
       </c>
@@ -16170,7 +16170,7 @@
         <v>19.118067345564235</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="52">
         <v>0.7</v>
       </c>
@@ -16245,7 +16245,7 @@
         <v>4.1888629385561202</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="52">
         <v>0.5</v>
       </c>
@@ -16320,7 +16320,7 @@
         <v>56.008452203917081</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
         <v>9</v>
       </c>
@@ -16387,7 +16387,7 @@
         <v>100.00000011739129</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="53" t="s">
         <v>105</v>
       </c>
@@ -16450,7 +16450,7 @@
         <v>0.11103687826086958</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
       <c r="L15" s="2">
         <v>32</v>
@@ -16480,15 +16480,15 @@
       <c r="Z15" s="13">
         <v>0.11783916521739132</v>
       </c>
-      <c r="AB15" s="221" t="s">
+      <c r="AB15" s="224" t="s">
         <v>44</v>
       </c>
-      <c r="AC15" s="222"/>
-      <c r="AD15" s="222"/>
-      <c r="AE15" s="223"/>
+      <c r="AC15" s="225"/>
+      <c r="AD15" s="225"/>
+      <c r="AE15" s="226"/>
       <c r="AF15" s="31"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="L16" s="2">
         <v>22.6</v>
       </c>
@@ -16551,7 +16551,7 @@
         <v>2.2624434389140274E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>54</v>
       </c>
@@ -16622,7 +16622,7 @@
         <v>4.2986425392484755E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>55</v>
       </c>
@@ -16694,7 +16694,7 @@
         <v>2.5343191042496417E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" s="69">
         <v>2</v>
       </c>
@@ -16776,7 +16776,7 @@
         <v>6.7873303167420851E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" s="57">
         <v>3</v>
       </c>
@@ -16856,7 +16856,7 @@
         <v>3.6199095022624445E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" s="69">
         <v>4</v>
       </c>
@@ -16939,7 +16939,7 @@
         <v>5.4298642533936597E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>5</v>
       </c>
@@ -17021,7 +17021,7 @@
         <v>6.7873303167420851E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" s="69">
         <v>6</v>
       </c>
@@ -17103,7 +17103,7 @@
         <v>4.5248868778280549E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>7</v>
       </c>
@@ -17185,7 +17185,7 @@
         <v>0.11312217194570137</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" s="69">
         <v>8</v>
       </c>
@@ -17267,7 +17267,7 @@
         <v>0.12217194570135748</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>9</v>
       </c>
@@ -17349,7 +17349,7 @@
         <v>0.19457013574660631</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" s="69">
         <v>10</v>
       </c>
@@ -17432,7 +17432,7 @@
         <v>0.19457013574660631</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C28" s="1"/>
       <c r="L28" s="2" t="s">
         <v>78</v>
@@ -17495,7 +17495,7 @@
         <v>0.15837104072398189</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="M29" s="50">
         <f>SUM(M10:M28)</f>
         <v>1.0000000000531182</v>
@@ -17554,19 +17554,19 @@
         <v>4.5248868778280493E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A30" s="224" t="s">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A30" s="227" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="224"/>
-      <c r="C30" s="224"/>
-      <c r="D30" s="224"/>
-      <c r="E30" s="224"/>
-      <c r="F30" s="224"/>
-      <c r="G30" s="224"/>
-      <c r="H30" s="224"/>
-      <c r="I30" s="224"/>
-      <c r="J30" s="224"/>
+      <c r="B30" s="227"/>
+      <c r="C30" s="227"/>
+      <c r="D30" s="227"/>
+      <c r="E30" s="227"/>
+      <c r="F30" s="227"/>
+      <c r="G30" s="227"/>
+      <c r="H30" s="227"/>
+      <c r="I30" s="227"/>
+      <c r="J30" s="227"/>
       <c r="K30" s="25"/>
       <c r="Q30" s="49"/>
       <c r="R30" s="2">
@@ -17622,7 +17622,7 @@
         <v>5.8823529411764719E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" s="53" t="s">
         <v>70</v>
       </c>
@@ -17694,7 +17694,7 @@
       <c r="AG31" s="5"/>
       <c r="AI31" s="46"/>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>180</v>
       </c>
@@ -17767,7 +17767,7 @@
         <v>1.0000000000531182</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>128</v>
       </c>
@@ -17827,7 +17827,7 @@
         <v>4.5248868778280542</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>90</v>
       </c>
@@ -17871,7 +17871,7 @@
         <v>0.56166232608695643</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>64</v>
       </c>
@@ -17915,7 +17915,7 @@
         <v>0.48313567391304357</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>45</v>
       </c>
@@ -17959,7 +17959,7 @@
         <v>0.40172391304347826</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>32</v>
       </c>
@@ -18003,7 +18003,7 @@
         <v>0.31800290000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>22.6</v>
       </c>
@@ -18047,7 +18047,7 @@
         <v>3.0056556521739126E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>16</v>
       </c>
@@ -18091,7 +18091,7 @@
         <v>0.22375436521739128</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="52">
         <v>11</v>
       </c>
@@ -18144,7 +18144,7 @@
         <v>0.20053242608695654</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="52">
         <v>8</v>
       </c>
@@ -18197,7 +18197,7 @@
         <v>0.15758740869565219</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" s="52">
         <v>5.6</v>
       </c>
@@ -18250,7 +18250,7 @@
         <v>0.11821860000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" s="52">
         <v>4</v>
       </c>
@@ -18303,7 +18303,7 @@
         <v>2.7713960869565214E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" s="52">
         <v>2.8</v>
       </c>
@@ -18355,7 +18355,7 @@
         <v>6.5921991304347824E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="52">
         <v>2</v>
       </c>
@@ -18407,7 +18407,7 @@
         <v>3.0966113043478259E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" s="52">
         <v>1.4</v>
       </c>
@@ -18459,7 +18459,7 @@
         <v>1.7120587434782608</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="52">
         <v>1</v>
       </c>
@@ -18511,7 +18511,7 @@
         <v>3.3152842391304347</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="52">
         <v>0.7</v>
       </c>
@@ -18563,7 +18563,7 @@
         <v>3.8885630782608689</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A49" s="52">
         <v>0.5</v>
       </c>
@@ -18615,7 +18615,7 @@
         <v>21.30781896521739</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A50" s="52" t="s">
         <v>78</v>
       </c>
@@ -18667,7 +18667,7 @@
         <v>8.1626277652173904</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B51" s="40">
         <f>SUM(B40:B50)</f>
         <v>0.99999999999999989</v>
@@ -18716,7 +18716,7 @@
         <v>52.866804999999992</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -18735,73 +18735,73 @@
         <v>100.00000011739129</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A53" s="32" t="s">
         <v>73</v>
       </c>
       <c r="Q53" s="49"/>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A54" s="218" t="s">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A54" s="212" t="s">
         <v>74</v>
       </c>
-      <c r="B54" s="220"/>
-      <c r="C54" s="212" t="s">
+      <c r="B54" s="213"/>
+      <c r="C54" s="214" t="s">
         <v>88</v>
       </c>
-      <c r="D54" s="213"/>
-      <c r="E54" s="213"/>
-      <c r="F54" s="214"/>
-      <c r="G54" s="225" t="s">
+      <c r="D54" s="215"/>
+      <c r="E54" s="215"/>
+      <c r="F54" s="216"/>
+      <c r="G54" s="217" t="s">
         <v>89</v>
       </c>
-      <c r="H54" s="226"/>
-      <c r="I54" s="226"/>
-      <c r="J54" s="227"/>
-      <c r="K54" s="212" t="s">
+      <c r="H54" s="218"/>
+      <c r="I54" s="218"/>
+      <c r="J54" s="219"/>
+      <c r="K54" s="214" t="s">
         <v>90</v>
       </c>
-      <c r="L54" s="213"/>
-      <c r="M54" s="213"/>
-      <c r="N54" s="214"/>
-      <c r="O54" s="215" t="s">
+      <c r="L54" s="215"/>
+      <c r="M54" s="215"/>
+      <c r="N54" s="216"/>
+      <c r="O54" s="220" t="s">
         <v>91</v>
       </c>
-      <c r="P54" s="216"/>
-      <c r="Q54" s="216"/>
-      <c r="R54" s="217"/>
-      <c r="S54" s="212" t="s">
+      <c r="P54" s="221"/>
+      <c r="Q54" s="221"/>
+      <c r="R54" s="222"/>
+      <c r="S54" s="214" t="s">
         <v>92</v>
       </c>
-      <c r="T54" s="213"/>
-      <c r="U54" s="213"/>
-      <c r="V54" s="214"/>
-      <c r="W54" s="215" t="s">
+      <c r="T54" s="215"/>
+      <c r="U54" s="215"/>
+      <c r="V54" s="216"/>
+      <c r="W54" s="220" t="s">
         <v>93</v>
       </c>
-      <c r="X54" s="216"/>
-      <c r="Y54" s="216"/>
-      <c r="Z54" s="217"/>
-      <c r="AA54" s="212" t="s">
+      <c r="X54" s="221"/>
+      <c r="Y54" s="221"/>
+      <c r="Z54" s="222"/>
+      <c r="AA54" s="214" t="s">
         <v>94</v>
       </c>
-      <c r="AB54" s="213"/>
-      <c r="AC54" s="213"/>
-      <c r="AD54" s="214"/>
-      <c r="AE54" s="215" t="s">
+      <c r="AB54" s="215"/>
+      <c r="AC54" s="215"/>
+      <c r="AD54" s="216"/>
+      <c r="AE54" s="220" t="s">
         <v>95</v>
       </c>
-      <c r="AF54" s="216"/>
-      <c r="AG54" s="216"/>
-      <c r="AH54" s="217"/>
-      <c r="AI54" s="212" t="s">
+      <c r="AF54" s="221"/>
+      <c r="AG54" s="221"/>
+      <c r="AH54" s="222"/>
+      <c r="AI54" s="214" t="s">
         <v>96</v>
       </c>
-      <c r="AJ54" s="213"/>
-      <c r="AK54" s="213"/>
-      <c r="AL54" s="214"/>
+      <c r="AJ54" s="215"/>
+      <c r="AK54" s="215"/>
+      <c r="AL54" s="216"/>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>75</v>
       </c>
@@ -18917,7 +18917,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>1</v>
       </c>
@@ -18936,12 +18936,12 @@
         <f>M10</f>
         <v>5.8823529411764719E-2</v>
       </c>
-      <c r="F56" s="61" t="e">
-        <f t="shared" ref="F56:F74" si="22">($M$3/$M$2-1)*$M$4*D56/(E56*$E$19^3)</f>
+      <c r="F56" s="68" t="e">
+        <f>($M$3/$M$2-1)*$M$4*D56/(E56*$E$19^3)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="G56" s="152">
-        <f t="shared" ref="G56:G74" si="23">$D$20/(($M$3-$M$2)*$M$4*B56/1000)</f>
+        <f t="shared" ref="G56:G74" si="22">$D$20/(($M$3-$M$2)*$M$4*B56/1000)</f>
         <v>0</v>
       </c>
       <c r="H56" s="153">
@@ -18953,11 +18953,11 @@
         <v>5.8823529411764719E-2</v>
       </c>
       <c r="J56" s="152" t="e">
-        <f t="shared" ref="J56:J74" si="24">($M$3/$M$2-1)*$M$4*H56/(I56*$E$20^3)</f>
+        <f t="shared" ref="J56:J74" si="23">($M$3/$M$2-1)*$M$4*H56/(I56*$E$20^3)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K56" s="60">
-        <f t="shared" ref="K56:K74" si="25">$D$21/(($M$3-$M$2)*$M$4*B56/1000)</f>
+        <f t="shared" ref="K56:K74" si="24">$D$21/(($M$3-$M$2)*$M$4*B56/1000)</f>
         <v>0</v>
       </c>
       <c r="L56" s="68">
@@ -18969,11 +18969,11 @@
         <v>5.8823529411764719E-2</v>
       </c>
       <c r="N56" s="61" t="e">
-        <f t="shared" ref="N56:N74" si="26">($M$3/$M$2-1)*$M$4*L56/(M56*$E$21^3)</f>
+        <f t="shared" ref="N56:N74" si="25">($M$3/$M$2-1)*$M$4*L56/(M56*$E$21^3)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="O56" s="64">
-        <f t="shared" ref="O56:O74" si="27">$D$22/(($M$3-$M$2)*$M$4*B56/1000)</f>
+        <f t="shared" ref="O56:O74" si="26">$D$22/(($M$3-$M$2)*$M$4*B56/1000)</f>
         <v>9.0894501492067119E-3</v>
       </c>
       <c r="P56" s="65">
@@ -18985,11 +18985,11 @@
         <v>5.8823529411764719E-2</v>
       </c>
       <c r="R56" s="64">
-        <f t="shared" ref="R56:R74" si="28">($M$3/$M$2-1)*$M$4*P56/(Q56*$E$22^3)</f>
+        <f t="shared" ref="R56:R74" si="27">($M$3/$M$2-1)*$M$4*P56/(Q56*$E$22^3)</f>
         <v>0</v>
       </c>
       <c r="S56" s="60">
-        <f t="shared" ref="S56:S74" si="29">$D$23/(($M$3-$M$2)*$M$4*B56/1000)</f>
+        <f t="shared" ref="S56:S74" si="28">$D$23/(($M$3-$M$2)*$M$4*B56/1000)</f>
         <v>9.0894501492067119E-3</v>
       </c>
       <c r="T56" s="61">
@@ -19001,11 +19001,11 @@
         <v>5.8823529411764719E-2</v>
       </c>
       <c r="V56" s="61">
-        <f t="shared" ref="V56:V74" si="30">($M$3/$M$2-1)*$M$4*T56/(U56*$E$23^3)</f>
+        <f t="shared" ref="V56:V74" si="29">($M$3/$M$2-1)*$M$4*T56/(U56*$E$23^3)</f>
         <v>0</v>
       </c>
       <c r="W56" s="64">
-        <f t="shared" ref="W56:W74" si="31">$D$24/(($M$3-$M$2)*$M$4*B56/1000)</f>
+        <f t="shared" ref="W56:W74" si="30">$D$24/(($M$3-$M$2)*$M$4*B56/1000)</f>
         <v>7.9006528135763341E-3</v>
       </c>
       <c r="X56" s="65">
@@ -19017,11 +19017,11 @@
         <v>5.8823529411764719E-2</v>
       </c>
       <c r="Z56" s="64">
-        <f t="shared" ref="Z56:Z74" si="32">($M$3/$M$2-1)*$M$4*X56/(Y56*$E$24^3)</f>
+        <f t="shared" ref="Z56:Z74" si="31">($M$3/$M$2-1)*$M$4*X56/(Y56*$E$24^3)</f>
         <v>0</v>
       </c>
       <c r="AA56" s="60">
-        <f t="shared" ref="AA56:AA74" si="33">$D$25/(($M$3-$M$2)*$M$4*B56/1000)</f>
+        <f t="shared" ref="AA56:AA74" si="32">$D$25/(($M$3-$M$2)*$M$4*B56/1000)</f>
         <v>8.8681068026255066E-3</v>
       </c>
       <c r="AB56" s="61">
@@ -19033,11 +19033,11 @@
         <v>5.8823529411764719E-2</v>
       </c>
       <c r="AD56" s="68">
-        <f t="shared" ref="AD56:AD74" si="34">($M$3/$M$2-1)*$M$4*AB56/(AC56*$E$25^3)</f>
+        <f t="shared" ref="AD56:AD74" si="33">($M$3/$M$2-1)*$M$4*AB56/(AC56*$E$25^3)</f>
         <v>0</v>
       </c>
       <c r="AE56" s="64">
-        <f t="shared" ref="AE56:AE74" si="35">$D$26/(($M$3-$M$2)*$M$4*B56/1000)</f>
+        <f t="shared" ref="AE56:AE74" si="34">$D$26/(($M$3-$M$2)*$M$4*B56/1000)</f>
         <v>6.3298641676149533E-3</v>
       </c>
       <c r="AF56" s="65">
@@ -19049,7 +19049,7 @@
         <v>5.8823529411764719E-2</v>
       </c>
       <c r="AH56" s="64">
-        <f t="shared" ref="AH56:AH74" si="36">($M$3/$M$2-1)*$M$4*AF56/(AG56*$E$26^3)</f>
+        <f t="shared" ref="AH56:AH74" si="35">($M$3/$M$2-1)*$M$4*AF56/(AG56*$E$26^3)</f>
         <v>0</v>
       </c>
       <c r="AI56" s="60">
@@ -19069,7 +19069,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>2</v>
       </c>
@@ -19081,19 +19081,19 @@
         <v>0</v>
       </c>
       <c r="D57" s="68">
-        <f t="shared" ref="D57:D74" si="37">($B$14/1000/($M$6*60))*B33/($M$3*$M$5)</f>
+        <f t="shared" ref="D57:D74" si="36">($B$14/1000/($M$6*60))*B33/($M$3*$M$5)</f>
         <v>0</v>
       </c>
       <c r="E57" s="60">
-        <f t="shared" ref="E57:E74" si="38">M11</f>
+        <f t="shared" ref="E57:E74" si="37">M11</f>
         <v>4.5248868778280493E-2</v>
       </c>
       <c r="F57" s="61" t="e">
+        <f t="shared" ref="F56:F74" si="38">($M$3/$M$2-1)*$M$4*D57/(E57*$E$19^3)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G57" s="152">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G57" s="152">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H57" s="153">
@@ -19105,11 +19105,11 @@
         <v>4.5248868778280493E-2</v>
       </c>
       <c r="J57" s="152" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K57" s="60">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K57" s="60">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L57" s="68">
@@ -19121,11 +19121,11 @@
         <v>4.5248868778280493E-2</v>
       </c>
       <c r="N57" s="61" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O57" s="64">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O57" s="64">
-        <f t="shared" si="27"/>
         <v>1.278203927232194E-2</v>
       </c>
       <c r="P57" s="65">
@@ -19137,11 +19137,11 @@
         <v>4.5248868778280493E-2</v>
       </c>
       <c r="R57" s="64">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S57" s="60">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="S57" s="60">
-        <f t="shared" si="29"/>
         <v>1.278203927232194E-2</v>
       </c>
       <c r="T57" s="61">
@@ -19153,11 +19153,11 @@
         <v>4.5248868778280493E-2</v>
       </c>
       <c r="V57" s="61">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="W57" s="64">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="W57" s="64">
-        <f t="shared" si="31"/>
         <v>1.1110293019091722E-2</v>
       </c>
       <c r="X57" s="65">
@@ -19169,11 +19169,11 @@
         <v>4.5248868778280493E-2</v>
       </c>
       <c r="Z57" s="64">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AA57" s="60">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AA57" s="60">
-        <f t="shared" si="33"/>
         <v>1.2470775191192121E-2</v>
       </c>
       <c r="AB57" s="61">
@@ -19185,11 +19185,11 @@
         <v>4.5248868778280493E-2</v>
       </c>
       <c r="AD57" s="68">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AE57" s="64">
         <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="AE57" s="64">
-        <f t="shared" si="35"/>
         <v>8.9013714857085289E-3</v>
       </c>
       <c r="AF57" s="65">
@@ -19201,7 +19201,7 @@
         <v>4.5248868778280493E-2</v>
       </c>
       <c r="AH57" s="64">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AI57" s="60">
@@ -19221,7 +19221,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>3</v>
       </c>
@@ -19233,19 +19233,19 @@
         <v>0</v>
       </c>
       <c r="D58" s="68">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E58" s="60">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E58" s="60">
+        <v>0.15837104072398189</v>
+      </c>
+      <c r="F58" s="61" t="e">
         <f t="shared" si="38"/>
-        <v>0.15837104072398189</v>
-      </c>
-      <c r="F58" s="61" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G58" s="152">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G58" s="152">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H58" s="153">
@@ -19257,11 +19257,11 @@
         <v>0.15837104072398189</v>
       </c>
       <c r="J58" s="152" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K58" s="60">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K58" s="60">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L58" s="68">
@@ -19273,11 +19273,11 @@
         <v>0.15837104072398189</v>
       </c>
       <c r="N58" s="61" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O58" s="64">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O58" s="64">
-        <f t="shared" si="27"/>
         <v>1.8178900298413424E-2</v>
       </c>
       <c r="P58" s="65">
@@ -19289,11 +19289,11 @@
         <v>0.15837104072398189</v>
       </c>
       <c r="R58" s="64">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S58" s="60">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="S58" s="60">
-        <f t="shared" si="29"/>
         <v>1.8178900298413424E-2</v>
       </c>
       <c r="T58" s="61">
@@ -19305,11 +19305,11 @@
         <v>0.15837104072398189</v>
       </c>
       <c r="V58" s="61">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="W58" s="64">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="W58" s="64">
-        <f t="shared" si="31"/>
         <v>1.5801305627152668E-2</v>
       </c>
       <c r="X58" s="65">
@@ -19321,11 +19321,11 @@
         <v>0.15837104072398189</v>
       </c>
       <c r="Z58" s="64">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AA58" s="60">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AA58" s="60">
-        <f t="shared" si="33"/>
         <v>1.7736213605251013E-2</v>
       </c>
       <c r="AB58" s="61">
@@ -19337,11 +19337,11 @@
         <v>0.15837104072398189</v>
       </c>
       <c r="AD58" s="68">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AE58" s="64">
         <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="AE58" s="64">
-        <f t="shared" si="35"/>
         <v>1.2659728335229907E-2</v>
       </c>
       <c r="AF58" s="65">
@@ -19353,7 +19353,7 @@
         <v>0.15837104072398189</v>
       </c>
       <c r="AH58" s="64">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AI58" s="60">
@@ -19373,7 +19373,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>4</v>
       </c>
@@ -19385,19 +19385,19 @@
         <v>0</v>
       </c>
       <c r="D59" s="68">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E59" s="60">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E59" s="60">
+        <v>0.19457013574660631</v>
+      </c>
+      <c r="F59" s="61" t="e">
         <f t="shared" si="38"/>
-        <v>0.19457013574660631</v>
-      </c>
-      <c r="F59" s="61" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G59" s="152">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G59" s="152">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H59" s="153">
@@ -19409,11 +19409,11 @@
         <v>0.19457013574660631</v>
       </c>
       <c r="J59" s="152" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K59" s="60">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K59" s="60">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L59" s="68">
@@ -19425,11 +19425,11 @@
         <v>0.19457013574660631</v>
       </c>
       <c r="N59" s="61" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O59" s="64">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O59" s="64">
-        <f t="shared" si="27"/>
         <v>2.5564078544643879E-2</v>
       </c>
       <c r="P59" s="65">
@@ -19441,11 +19441,11 @@
         <v>0.19457013574660631</v>
       </c>
       <c r="R59" s="64">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S59" s="60">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="S59" s="60">
-        <f t="shared" si="29"/>
         <v>2.5564078544643879E-2</v>
       </c>
       <c r="T59" s="61">
@@ -19457,11 +19457,11 @@
         <v>0.19457013574660631</v>
       </c>
       <c r="V59" s="61">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="W59" s="64">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="W59" s="64">
-        <f t="shared" si="31"/>
         <v>2.2220586038183443E-2</v>
       </c>
       <c r="X59" s="65">
@@ -19473,11 +19473,11 @@
         <v>0.19457013574660631</v>
       </c>
       <c r="Z59" s="64">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AA59" s="60">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AA59" s="60">
-        <f t="shared" si="33"/>
         <v>2.4941550382384242E-2</v>
       </c>
       <c r="AB59" s="61">
@@ -19489,11 +19489,11 @@
         <v>0.19457013574660631</v>
       </c>
       <c r="AD59" s="68">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AE59" s="64">
         <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="AE59" s="64">
-        <f t="shared" si="35"/>
         <v>1.7802742971417058E-2</v>
       </c>
       <c r="AF59" s="65">
@@ -19505,7 +19505,7 @@
         <v>0.19457013574660631</v>
       </c>
       <c r="AH59" s="64">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AI59" s="60">
@@ -19525,7 +19525,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>5</v>
       </c>
@@ -19537,19 +19537,19 @@
         <v>0</v>
       </c>
       <c r="D60" s="68">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E60" s="60">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E60" s="60">
+        <v>0.19457013574660631</v>
+      </c>
+      <c r="F60" s="61" t="e">
         <f t="shared" si="38"/>
-        <v>0.19457013574660631</v>
-      </c>
-      <c r="F60" s="61" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G60" s="152">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G60" s="152">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H60" s="153">
@@ -19561,11 +19561,11 @@
         <v>0.19457013574660631</v>
       </c>
       <c r="J60" s="152" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K60" s="60">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K60" s="60">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L60" s="68">
@@ -19577,11 +19577,11 @@
         <v>0.19457013574660631</v>
       </c>
       <c r="N60" s="61" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O60" s="64">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O60" s="64">
-        <f t="shared" si="27"/>
         <v>3.6357800596826848E-2</v>
       </c>
       <c r="P60" s="65">
@@ -19593,11 +19593,11 @@
         <v>0.19457013574660631</v>
       </c>
       <c r="R60" s="64">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S60" s="60">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="S60" s="60">
-        <f t="shared" si="29"/>
         <v>3.6357800596826848E-2</v>
       </c>
       <c r="T60" s="61">
@@ -19609,11 +19609,11 @@
         <v>0.19457013574660631</v>
       </c>
       <c r="V60" s="61">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="W60" s="64">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="W60" s="64">
-        <f t="shared" si="31"/>
         <v>3.1602611254305336E-2</v>
       </c>
       <c r="X60" s="65">
@@ -19625,11 +19625,11 @@
         <v>0.19457013574660631</v>
       </c>
       <c r="Z60" s="64">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AA60" s="60">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AA60" s="60">
-        <f t="shared" si="33"/>
         <v>3.5472427210502026E-2</v>
       </c>
       <c r="AB60" s="61">
@@ -19641,11 +19641,11 @@
         <v>0.19457013574660631</v>
       </c>
       <c r="AD60" s="68">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AE60" s="64">
         <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="AE60" s="64">
-        <f t="shared" si="35"/>
         <v>2.5319456670459813E-2</v>
       </c>
       <c r="AF60" s="65">
@@ -19657,7 +19657,7 @@
         <v>0.19457013574660631</v>
       </c>
       <c r="AH60" s="64">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AI60" s="60">
@@ -19677,7 +19677,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>6</v>
       </c>
@@ -19689,19 +19689,19 @@
         <v>0</v>
       </c>
       <c r="D61" s="68">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E61" s="60">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E61" s="60">
+        <v>0.12217194570135748</v>
+      </c>
+      <c r="F61" s="61" t="e">
         <f t="shared" si="38"/>
-        <v>0.12217194570135748</v>
-      </c>
-      <c r="F61" s="61" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G61" s="152">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G61" s="152">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H61" s="153">
@@ -19713,11 +19713,11 @@
         <v>0.12217194570135748</v>
       </c>
       <c r="J61" s="152" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K61" s="60">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K61" s="60">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L61" s="68">
@@ -19729,11 +19729,11 @@
         <v>0.12217194570135748</v>
       </c>
       <c r="N61" s="61" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O61" s="64">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O61" s="64">
-        <f t="shared" si="27"/>
         <v>5.1128157089287758E-2</v>
       </c>
       <c r="P61" s="65">
@@ -19745,11 +19745,11 @@
         <v>0.12217194570135748</v>
       </c>
       <c r="R61" s="64">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S61" s="60">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="S61" s="60">
-        <f t="shared" si="29"/>
         <v>5.1128157089287758E-2</v>
       </c>
       <c r="T61" s="61">
@@ -19761,11 +19761,11 @@
         <v>0.12217194570135748</v>
       </c>
       <c r="V61" s="61">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="W61" s="64">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="W61" s="64">
-        <f t="shared" si="31"/>
         <v>4.4441172076366886E-2</v>
       </c>
       <c r="X61" s="65">
@@ -19777,11 +19777,11 @@
         <v>0.12217194570135748</v>
       </c>
       <c r="Z61" s="64">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AA61" s="60">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AA61" s="60">
-        <f t="shared" si="33"/>
         <v>4.9883100764768484E-2</v>
       </c>
       <c r="AB61" s="61">
@@ -19793,11 +19793,11 @@
         <v>0.12217194570135748</v>
       </c>
       <c r="AD61" s="68">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AE61" s="64">
         <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="AE61" s="64">
-        <f t="shared" si="35"/>
         <v>3.5605485942834116E-2</v>
       </c>
       <c r="AF61" s="65">
@@ -19809,7 +19809,7 @@
         <v>0.12217194570135748</v>
       </c>
       <c r="AH61" s="64">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AI61" s="60">
@@ -19829,7 +19829,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>7</v>
       </c>
@@ -19841,19 +19841,19 @@
         <v>0</v>
       </c>
       <c r="D62" s="68">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E62" s="60">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E62" s="60">
+        <v>0.11312217194570137</v>
+      </c>
+      <c r="F62" s="61" t="e">
         <f t="shared" si="38"/>
-        <v>0.11312217194570137</v>
-      </c>
-      <c r="F62" s="61" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G62" s="152">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G62" s="152">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H62" s="153">
@@ -19865,11 +19865,11 @@
         <v>0.11312217194570137</v>
       </c>
       <c r="J62" s="152" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K62" s="60">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K62" s="60">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L62" s="68">
@@ -19881,11 +19881,11 @@
         <v>0.11312217194570137</v>
       </c>
       <c r="N62" s="61" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O62" s="64">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O62" s="64">
-        <f t="shared" si="27"/>
         <v>7.2393850745894162E-2</v>
       </c>
       <c r="P62" s="65">
@@ -19897,11 +19897,11 @@
         <v>0.11312217194570137</v>
       </c>
       <c r="R62" s="64">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S62" s="60">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="S62" s="60">
-        <f t="shared" si="29"/>
         <v>7.2393850745894162E-2</v>
       </c>
       <c r="T62" s="61">
@@ -19913,11 +19913,11 @@
         <v>0.11312217194570137</v>
       </c>
       <c r="V62" s="61">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="W62" s="64">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="W62" s="64">
-        <f t="shared" si="31"/>
         <v>6.2925553382466373E-2</v>
       </c>
       <c r="X62" s="65">
@@ -19929,11 +19929,11 @@
         <v>0.11312217194570137</v>
       </c>
       <c r="Z62" s="64">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AA62" s="60">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AA62" s="60">
-        <f t="shared" si="33"/>
         <v>7.0630939135955362E-2</v>
       </c>
       <c r="AB62" s="61">
@@ -19945,11 +19945,11 @@
         <v>0.11312217194570137</v>
       </c>
       <c r="AD62" s="68">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AE62" s="64">
         <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="AE62" s="64">
-        <f t="shared" si="35"/>
         <v>5.041484735268547E-2</v>
       </c>
       <c r="AF62" s="65">
@@ -19961,7 +19961,7 @@
         <v>0.11312217194570137</v>
       </c>
       <c r="AH62" s="64">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AI62" s="60">
@@ -19981,7 +19981,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>8</v>
       </c>
@@ -19993,19 +19993,19 @@
         <v>0</v>
       </c>
       <c r="D63" s="68">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E63" s="60">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E63" s="60">
+        <v>4.5248868778280549E-2</v>
+      </c>
+      <c r="F63" s="61" t="e">
         <f t="shared" si="38"/>
-        <v>4.5248868778280549E-2</v>
-      </c>
-      <c r="F63" s="61" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G63" s="152">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G63" s="152">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H63" s="153">
@@ -20017,11 +20017,11 @@
         <v>4.5248868778280549E-2</v>
       </c>
       <c r="J63" s="152" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K63" s="60">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K63" s="60">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L63" s="68">
@@ -20033,11 +20033,11 @@
         <v>4.5248868778280549E-2</v>
       </c>
       <c r="N63" s="61" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O63" s="64">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O63" s="64">
-        <f t="shared" si="27"/>
         <v>0.10225631417857552</v>
       </c>
       <c r="P63" s="65">
@@ -20049,11 +20049,11 @@
         <v>4.5248868778280549E-2</v>
       </c>
       <c r="R63" s="64">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S63" s="60">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="S63" s="60">
-        <f t="shared" si="29"/>
         <v>0.10225631417857552</v>
       </c>
       <c r="T63" s="61">
@@ -20065,11 +20065,11 @@
         <v>4.5248868778280549E-2</v>
       </c>
       <c r="V63" s="61">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="W63" s="64">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="W63" s="64">
-        <f t="shared" si="31"/>
         <v>8.8882344152733772E-2</v>
       </c>
       <c r="X63" s="65">
@@ -20081,11 +20081,11 @@
         <v>4.5248868778280549E-2</v>
       </c>
       <c r="Z63" s="64">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AA63" s="60">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AA63" s="60">
-        <f t="shared" si="33"/>
         <v>9.9766201529536969E-2</v>
       </c>
       <c r="AB63" s="61">
@@ -20097,11 +20097,11 @@
         <v>4.5248868778280549E-2</v>
       </c>
       <c r="AD63" s="68">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AE63" s="64">
         <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="AE63" s="64">
-        <f t="shared" si="35"/>
         <v>7.1210971885668231E-2</v>
       </c>
       <c r="AF63" s="65">
@@ -20113,7 +20113,7 @@
         <v>4.5248868778280549E-2</v>
       </c>
       <c r="AH63" s="64">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AI63" s="60">
@@ -20133,7 +20133,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>9</v>
       </c>
@@ -20149,15 +20149,15 @@
         <v>1.0062893081761007E-11</v>
       </c>
       <c r="E64" s="60">
+        <f t="shared" si="37"/>
+        <v>6.7873303167420851E-3</v>
+      </c>
+      <c r="F64" s="61" t="e">
         <f t="shared" si="38"/>
-        <v>6.7873303167420851E-3</v>
-      </c>
-      <c r="F64" s="61" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G64" s="152">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G64" s="152">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H64" s="153">
@@ -20169,11 +20169,11 @@
         <v>6.7873303167420851E-3</v>
       </c>
       <c r="J64" s="152" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K64" s="60">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K64" s="60">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L64" s="68">
@@ -20185,11 +20185,11 @@
         <v>6.7873303167420851E-3</v>
       </c>
       <c r="N64" s="61" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O64" s="64">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O64" s="64">
-        <f t="shared" si="27"/>
         <v>0.14873645698701893</v>
       </c>
       <c r="P64" s="65">
@@ -20201,11 +20201,11 @@
         <v>6.7873303167420851E-3</v>
       </c>
       <c r="R64" s="64">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S64" s="60">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="S64" s="60">
-        <f t="shared" si="29"/>
         <v>0.14873645698701893</v>
       </c>
       <c r="T64" s="61">
@@ -20217,11 +20217,11 @@
         <v>6.7873303167420851E-3</v>
       </c>
       <c r="V64" s="61">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="W64" s="64">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="W64" s="64">
-        <f t="shared" si="31"/>
         <v>0.12928340967670365</v>
       </c>
       <c r="X64" s="65">
@@ -20233,11 +20233,11 @@
         <v>6.7873303167420851E-3</v>
       </c>
       <c r="Z64" s="64">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AA64" s="60">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AA64" s="60">
-        <f t="shared" si="33"/>
         <v>0.14511447495205376</v>
       </c>
       <c r="AB64" s="61">
@@ -20249,11 +20249,11 @@
         <v>6.7873303167420851E-3</v>
       </c>
       <c r="AD64" s="68">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AE64" s="64">
         <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="AE64" s="64">
-        <f t="shared" si="35"/>
         <v>0.10357959547006287</v>
       </c>
       <c r="AF64" s="65">
@@ -20265,7 +20265,7 @@
         <v>6.7873303167420851E-3</v>
       </c>
       <c r="AH64" s="64">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>0</v>
       </c>
       <c r="AI64" s="60">
@@ -20285,7 +20285,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>10</v>
       </c>
@@ -20297,19 +20297,19 @@
         <v>0</v>
       </c>
       <c r="D65" s="68">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E65" s="60">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E65" s="60">
+        <v>5.4298642533936597E-3</v>
+      </c>
+      <c r="F65" s="61" t="e">
         <f t="shared" si="38"/>
-        <v>5.4298642533936597E-3</v>
-      </c>
-      <c r="F65" s="61" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G65" s="152">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G65" s="152">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H65" s="153">
@@ -20321,11 +20321,11 @@
         <v>5.4298642533936597E-3</v>
       </c>
       <c r="J65" s="152" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K65" s="60">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K65" s="60">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L65" s="68">
@@ -20337,11 +20337,11 @@
         <v>5.4298642533936597E-3</v>
       </c>
       <c r="N65" s="68" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O65" s="64">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O65" s="64">
-        <f t="shared" si="27"/>
         <v>0.20451262835715103</v>
       </c>
       <c r="P65" s="65">
@@ -20353,11 +20353,11 @@
         <v>5.4298642533936597E-3</v>
       </c>
       <c r="R65" s="64">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S65" s="60">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="S65" s="60">
-        <f t="shared" si="29"/>
         <v>0.20451262835715103</v>
       </c>
       <c r="T65" s="61">
@@ -20369,11 +20369,11 @@
         <v>5.4298642533936597E-3</v>
       </c>
       <c r="V65" s="61">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="W65" s="64">
         <f t="shared" si="30"/>
-        <v>0</v>
-      </c>
-      <c r="W65" s="64">
-        <f t="shared" si="31"/>
         <v>0.17776468830546754</v>
       </c>
       <c r="X65" s="65">
@@ -20385,11 +20385,11 @@
         <v>5.4298642533936597E-3</v>
       </c>
       <c r="Z65" s="64">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AA65" s="60">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AA65" s="60">
-        <f t="shared" si="33"/>
         <v>0.19953240305907394</v>
       </c>
       <c r="AB65" s="61">
@@ -20401,11 +20401,11 @@
         <v>5.4298642533936597E-3</v>
       </c>
       <c r="AD65" s="68">
+        <f t="shared" si="33"/>
+        <v>0</v>
+      </c>
+      <c r="AE65" s="64">
         <f t="shared" si="34"/>
-        <v>0</v>
-      </c>
-      <c r="AE65" s="64">
-        <f t="shared" si="35"/>
         <v>0.14242194377133646</v>
       </c>
       <c r="AF65" s="65">
@@ -20417,7 +20417,7 @@
         <v>5.4298642533936597E-3</v>
       </c>
       <c r="AH65" s="64">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>2.9823349202297402E-6</v>
       </c>
       <c r="AI65" s="60">
@@ -20437,7 +20437,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <f>A65+1</f>
         <v>11</v>
@@ -20450,19 +20450,19 @@
         <v>0</v>
       </c>
       <c r="D66" s="68">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E66" s="60">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E66" s="60">
+        <v>3.6199095022624445E-3</v>
+      </c>
+      <c r="F66" s="61" t="e">
         <f t="shared" si="38"/>
-        <v>3.6199095022624445E-3</v>
-      </c>
-      <c r="F66" s="61" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G66" s="152">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G66" s="152">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H66" s="153">
@@ -20474,11 +20474,11 @@
         <v>3.6199095022624445E-3</v>
       </c>
       <c r="J66" s="152" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K66" s="60">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K66" s="60">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L66" s="68">
@@ -20490,11 +20490,11 @@
         <v>3.6199095022624445E-3</v>
       </c>
       <c r="N66" s="61" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O66" s="64">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O66" s="64">
-        <f t="shared" si="27"/>
         <v>0.2921608976530729</v>
       </c>
       <c r="P66" s="65">
@@ -20506,11 +20506,11 @@
         <v>3.6199095022624445E-3</v>
       </c>
       <c r="R66" s="64">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S66" s="60">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="S66" s="60">
-        <f t="shared" si="29"/>
         <v>0.2921608976530729</v>
       </c>
       <c r="T66" s="61">
@@ -20522,11 +20522,11 @@
         <v>3.6199095022624445E-3</v>
       </c>
       <c r="V66" s="61">
+        <f t="shared" si="29"/>
+        <v>2.6459580142658723E-6</v>
+      </c>
+      <c r="W66" s="64">
         <f t="shared" si="30"/>
-        <v>2.6459580142658723E-6</v>
-      </c>
-      <c r="W66" s="64">
-        <f t="shared" si="31"/>
         <v>0.25394955472209652</v>
       </c>
       <c r="X66" s="65">
@@ -20538,11 +20538,11 @@
         <v>3.6199095022624445E-3</v>
       </c>
       <c r="Z66" s="64">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AA66" s="60">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AA66" s="60">
-        <f t="shared" si="33"/>
         <v>0.28504629008439136</v>
       </c>
       <c r="AB66" s="61">
@@ -20554,11 +20554,11 @@
         <v>3.6199095022624445E-3</v>
       </c>
       <c r="AD66" s="68">
+        <f t="shared" si="33"/>
+        <v>2.6353990691174777E-6</v>
+      </c>
+      <c r="AE66" s="64">
         <f t="shared" si="34"/>
-        <v>2.6353990691174777E-6</v>
-      </c>
-      <c r="AE66" s="64">
-        <f t="shared" si="35"/>
         <v>0.20345991967333782</v>
       </c>
       <c r="AF66" s="65">
@@ -20570,7 +20570,7 @@
         <v>3.6199095022624445E-3</v>
       </c>
       <c r="AH66" s="64">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>4.6531611104789272E-6</v>
       </c>
       <c r="AI66" s="60">
@@ -20590,7 +20590,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <f t="shared" ref="A67:A74" si="57">A66+1</f>
         <v>12</v>
@@ -20603,19 +20603,19 @@
         <v>0</v>
       </c>
       <c r="D67" s="68">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E67" s="60">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E67" s="60">
+        <v>2.7149321266968368E-3</v>
+      </c>
+      <c r="F67" s="61" t="e">
         <f t="shared" si="38"/>
-        <v>2.7149321266968368E-3</v>
-      </c>
-      <c r="F67" s="61" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G67" s="152">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G67" s="152">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H67" s="153">
@@ -20627,11 +20627,11 @@
         <v>2.7149321266968368E-3</v>
       </c>
       <c r="J67" s="152" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K67" s="60">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K67" s="60">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L67" s="68">
@@ -20643,11 +20643,11 @@
         <v>2.7149321266968368E-3</v>
       </c>
       <c r="N67" s="61" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O67" s="64">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O67" s="64">
-        <f t="shared" si="27"/>
         <v>0.40902525671430207</v>
       </c>
       <c r="P67" s="65">
@@ -20659,11 +20659,11 @@
         <v>2.7149321266968368E-3</v>
       </c>
       <c r="R67" s="64">
+        <f t="shared" si="27"/>
+        <v>0</v>
+      </c>
+      <c r="S67" s="60">
         <f t="shared" si="28"/>
-        <v>0</v>
-      </c>
-      <c r="S67" s="60">
-        <f t="shared" si="29"/>
         <v>0.40902525671430207</v>
       </c>
       <c r="T67" s="61">
@@ -20675,11 +20675,11 @@
         <v>2.7149321266968368E-3</v>
       </c>
       <c r="V67" s="61">
+        <f t="shared" si="29"/>
+        <v>3.669938806409995E-6</v>
+      </c>
+      <c r="W67" s="64">
         <f t="shared" si="30"/>
-        <v>3.669938806409995E-6</v>
-      </c>
-      <c r="W67" s="64">
-        <f t="shared" si="31"/>
         <v>0.35552937661093509</v>
       </c>
       <c r="X67" s="65">
@@ -20691,11 +20691,11 @@
         <v>2.7149321266968368E-3</v>
       </c>
       <c r="Z67" s="64">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="AA67" s="60">
         <f t="shared" si="32"/>
-        <v>0</v>
-      </c>
-      <c r="AA67" s="60">
-        <f t="shared" si="33"/>
         <v>0.39906480611814787</v>
       </c>
       <c r="AB67" s="61">
@@ -20707,11 +20707,11 @@
         <v>2.7149321266968368E-3</v>
       </c>
       <c r="AD67" s="68">
+        <f t="shared" si="33"/>
+        <v>2.1487666270981803E-6</v>
+      </c>
+      <c r="AE67" s="64">
         <f t="shared" si="34"/>
-        <v>2.1487666270981803E-6</v>
-      </c>
-      <c r="AE67" s="64">
-        <f t="shared" si="35"/>
         <v>0.28484388754267292</v>
       </c>
       <c r="AF67" s="65">
@@ -20723,7 +20723,7 @@
         <v>2.7149321266968368E-3</v>
       </c>
       <c r="AH67" s="64">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>9.3841743373493836E-6</v>
       </c>
       <c r="AI67" s="60">
@@ -20743,7 +20743,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <f t="shared" si="57"/>
         <v>13</v>
@@ -20756,19 +20756,19 @@
         <v>0</v>
       </c>
       <c r="D68" s="68">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E68" s="60">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E68" s="60">
+        <v>1.8099547511312222E-3</v>
+      </c>
+      <c r="F68" s="61" t="e">
         <f t="shared" si="38"/>
-        <v>1.8099547511312222E-3</v>
-      </c>
-      <c r="F68" s="61" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G68" s="152">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G68" s="152">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H68" s="153">
@@ -20780,11 +20780,11 @@
         <v>1.8099547511312222E-3</v>
       </c>
       <c r="J68" s="152" t="e">
-        <f t="shared" si="24"/>
+        <f t="shared" si="23"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K68" s="60">
-        <f t="shared" si="25"/>
+        <f>$D$21/(($M$3-$M$2)*$M$4*B68/1000)</f>
         <v>0</v>
       </c>
       <c r="L68" s="68">
@@ -20796,11 +20796,11 @@
         <v>1.8099547511312222E-3</v>
       </c>
       <c r="N68" s="61" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O68" s="64">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O68" s="64">
-        <f t="shared" si="27"/>
         <v>0.58432179530614581</v>
       </c>
       <c r="P68" s="65">
@@ -20812,11 +20812,11 @@
         <v>1.8099547511312222E-3</v>
       </c>
       <c r="R68" s="64">
+        <f t="shared" si="27"/>
+        <v>4.7140181254455619E-6</v>
+      </c>
+      <c r="S68" s="60">
         <f t="shared" si="28"/>
-        <v>4.7140181254455619E-6</v>
-      </c>
-      <c r="S68" s="60">
-        <f t="shared" si="29"/>
         <v>0.58432179530614581</v>
       </c>
       <c r="T68" s="61">
@@ -20828,11 +20828,11 @@
         <v>1.8099547511312222E-3</v>
       </c>
       <c r="V68" s="61">
+        <f t="shared" si="29"/>
+        <v>7.9851186319839774E-6</v>
+      </c>
+      <c r="W68" s="64">
         <f t="shared" si="30"/>
-        <v>7.9851186319839774E-6</v>
-      </c>
-      <c r="W68" s="64">
-        <f t="shared" si="31"/>
         <v>0.50789910944419303</v>
       </c>
       <c r="X68" s="65">
@@ -20844,11 +20844,11 @@
         <v>1.8099547511312222E-3</v>
       </c>
       <c r="Z68" s="64">
+        <f t="shared" si="31"/>
+        <v>6.4870152681704804E-7</v>
+      </c>
+      <c r="AA68" s="60">
         <f t="shared" si="32"/>
-        <v>6.4870152681704804E-7</v>
-      </c>
-      <c r="AA68" s="60">
-        <f t="shared" si="33"/>
         <v>0.57009258016878273</v>
       </c>
       <c r="AB68" s="61">
@@ -20860,11 +20860,11 @@
         <v>1.8099547511312222E-3</v>
       </c>
       <c r="AD68" s="68">
+        <f t="shared" si="33"/>
+        <v>3.4577085833868152E-6</v>
+      </c>
+      <c r="AE68" s="64">
         <f t="shared" si="34"/>
-        <v>3.4577085833868152E-6</v>
-      </c>
-      <c r="AE68" s="64">
-        <f t="shared" si="35"/>
         <v>0.40691983934667564</v>
       </c>
       <c r="AF68" s="65">
@@ -20876,7 +20876,7 @@
         <v>1.8099547511312222E-3</v>
       </c>
       <c r="AH68" s="64">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>3.5392769836461339E-5</v>
       </c>
       <c r="AI68" s="60">
@@ -20896,7 +20896,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <f t="shared" si="57"/>
         <v>14</v>
@@ -20909,19 +20909,19 @@
         <v>0</v>
       </c>
       <c r="D69" s="68">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+      <c r="E69" s="60">
         <f t="shared" si="37"/>
-        <v>0</v>
-      </c>
-      <c r="E69" s="60">
+        <v>1.3574660633484115E-3</v>
+      </c>
+      <c r="F69" s="61" t="e">
         <f t="shared" si="38"/>
-        <v>1.3574660633484115E-3</v>
-      </c>
-      <c r="F69" s="61" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G69" s="152">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G69" s="152">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H69" s="153">
@@ -20933,11 +20933,11 @@
         <v>1.3574660633484115E-3</v>
       </c>
       <c r="J69" s="152" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K69" s="60">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K69" s="60">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L69" s="68">
@@ -20949,11 +20949,11 @@
         <v>1.3574660633484115E-3</v>
       </c>
       <c r="N69" s="61" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O69" s="64">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O69" s="64">
-        <f t="shared" si="27"/>
         <v>0.81805051342860413</v>
       </c>
       <c r="P69" s="65">
@@ -20965,11 +20965,11 @@
         <v>1.3574660633484115E-3</v>
       </c>
       <c r="R69" s="64">
+        <f t="shared" si="27"/>
+        <v>4.7909319686145326E-6</v>
+      </c>
+      <c r="S69" s="60">
         <f t="shared" si="28"/>
-        <v>4.7909319686145326E-6</v>
-      </c>
-      <c r="S69" s="60">
-        <f t="shared" si="29"/>
         <v>0.81805051342860413</v>
       </c>
       <c r="T69" s="61">
@@ -20981,11 +20981,11 @@
         <v>1.3574660633484115E-3</v>
       </c>
       <c r="V69" s="61">
+        <f t="shared" si="29"/>
+        <v>1.6652369085737913E-5</v>
+      </c>
+      <c r="W69" s="64">
         <f t="shared" si="30"/>
-        <v>1.6652369085737913E-5</v>
-      </c>
-      <c r="W69" s="64">
-        <f t="shared" si="31"/>
         <v>0.71105875322187018</v>
       </c>
       <c r="X69" s="65">
@@ -20997,11 +20997,11 @@
         <v>1.3574660633484115E-3</v>
       </c>
       <c r="Z69" s="64">
+        <f t="shared" si="31"/>
+        <v>7.318023182365138E-7</v>
+      </c>
+      <c r="AA69" s="60">
         <f t="shared" si="32"/>
-        <v>7.318023182365138E-7</v>
-      </c>
-      <c r="AA69" s="60">
-        <f t="shared" si="33"/>
         <v>0.79812961223629575</v>
       </c>
       <c r="AB69" s="61">
@@ -21013,11 +21013,11 @@
         <v>1.3574660633484115E-3</v>
       </c>
       <c r="AD69" s="68">
+        <f t="shared" si="33"/>
+        <v>1.0043949148378976E-5</v>
+      </c>
+      <c r="AE69" s="64">
         <f t="shared" si="34"/>
-        <v>1.0043949148378976E-5</v>
-      </c>
-      <c r="AE69" s="64">
-        <f t="shared" si="35"/>
         <v>0.56968777508534585</v>
       </c>
       <c r="AF69" s="65">
@@ -21029,7 +21029,7 @@
         <v>1.3574660633484115E-3</v>
       </c>
       <c r="AH69" s="64">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>1.7486783066407361E-6</v>
       </c>
       <c r="AI69" s="60">
@@ -21049,7 +21049,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <f t="shared" si="57"/>
         <v>15</v>
@@ -21062,19 +21062,19 @@
         <v>0</v>
       </c>
       <c r="D70" s="68">
+        <f t="shared" si="36"/>
+        <v>1.4138364779874215E-12</v>
+      </c>
+      <c r="E70" s="60">
         <f t="shared" si="37"/>
-        <v>1.4138364779874215E-12</v>
-      </c>
-      <c r="E70" s="60">
+        <v>9.0497737556561458E-4</v>
+      </c>
+      <c r="F70" s="61" t="e">
         <f t="shared" si="38"/>
-        <v>9.0497737556561458E-4</v>
-      </c>
-      <c r="F70" s="61" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G70" s="152">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G70" s="152">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H70" s="153">
@@ -21086,11 +21086,11 @@
         <v>9.0497737556561458E-4</v>
       </c>
       <c r="J70" s="152" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K70" s="60">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K70" s="60">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L70" s="68">
@@ -21102,11 +21102,11 @@
         <v>9.0497737556561458E-4</v>
       </c>
       <c r="N70" s="61" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O70" s="64">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O70" s="64">
-        <f t="shared" si="27"/>
         <v>1.1686435906122916</v>
       </c>
       <c r="P70" s="65">
@@ -21118,11 +21118,11 @@
         <v>9.0497737556561458E-4</v>
       </c>
       <c r="R70" s="64">
+        <f t="shared" si="27"/>
+        <v>1.0649609054162688E-5</v>
+      </c>
+      <c r="S70" s="60">
         <f t="shared" si="28"/>
-        <v>1.0649609054162688E-5</v>
-      </c>
-      <c r="S70" s="60">
-        <f t="shared" si="29"/>
         <v>1.1686435906122916</v>
       </c>
       <c r="T70" s="61">
@@ -21134,11 +21134,11 @@
         <v>9.0497737556561458E-4</v>
       </c>
       <c r="V70" s="61">
+        <f t="shared" si="29"/>
+        <v>3.6844515089445802E-5</v>
+      </c>
+      <c r="W70" s="64">
         <f t="shared" si="30"/>
-        <v>3.6844515089445802E-5</v>
-      </c>
-      <c r="W70" s="64">
-        <f t="shared" si="31"/>
         <v>1.0157982188883861</v>
       </c>
       <c r="X70" s="65">
@@ -21150,11 +21150,11 @@
         <v>9.0497737556561458E-4</v>
       </c>
       <c r="Z70" s="64">
+        <f t="shared" si="31"/>
+        <v>6.0811741937963365E-6</v>
+      </c>
+      <c r="AA70" s="60">
         <f t="shared" si="32"/>
-        <v>6.0811741937963365E-6</v>
-      </c>
-      <c r="AA70" s="60">
-        <f t="shared" si="33"/>
         <v>1.1401851603375655</v>
       </c>
       <c r="AB70" s="61">
@@ -21166,11 +21166,11 @@
         <v>9.0497737556561458E-4</v>
       </c>
       <c r="AD70" s="68">
+        <f t="shared" si="33"/>
+        <v>3.1928144117941109E-5</v>
+      </c>
+      <c r="AE70" s="64">
         <f t="shared" si="34"/>
-        <v>3.1928144117941109E-5</v>
-      </c>
-      <c r="AE70" s="64">
-        <f t="shared" si="35"/>
         <v>0.81383967869335128</v>
       </c>
       <c r="AF70" s="65">
@@ -21182,7 +21182,7 @@
         <v>9.0497737556561458E-4</v>
       </c>
       <c r="AH70" s="64">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>8.5032476972574035E-5</v>
       </c>
       <c r="AI70" s="60">
@@ -21202,7 +21202,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <f t="shared" si="57"/>
         <v>16</v>
@@ -21215,19 +21215,19 @@
         <v>0</v>
       </c>
       <c r="D71" s="68">
+        <f t="shared" si="36"/>
+        <v>1.7640251572327042E-12</v>
+      </c>
+      <c r="E71" s="60">
         <f t="shared" si="37"/>
-        <v>1.7640251572327042E-12</v>
-      </c>
-      <c r="E71" s="60">
+        <v>2.5343191042496417E-2</v>
+      </c>
+      <c r="F71" s="61" t="e">
         <f t="shared" si="38"/>
-        <v>2.5343191042496417E-2</v>
-      </c>
-      <c r="F71" s="61" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G71" s="152">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G71" s="152">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H71" s="153">
@@ -21239,11 +21239,11 @@
         <v>2.5343191042496417E-2</v>
       </c>
       <c r="J71" s="152" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K71" s="60">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K71" s="60">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L71" s="68">
@@ -21255,11 +21255,11 @@
         <v>2.5343191042496417E-2</v>
       </c>
       <c r="N71" s="61" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O71" s="64">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O71" s="64">
-        <f t="shared" si="27"/>
         <v>1.6361010268572083</v>
       </c>
       <c r="P71" s="65">
@@ -21271,11 +21271,11 @@
         <v>2.5343191042496417E-2</v>
       </c>
       <c r="R71" s="64">
+        <f t="shared" si="27"/>
+        <v>5.2434698568189284E-7</v>
+      </c>
+      <c r="S71" s="60">
         <f t="shared" si="28"/>
-        <v>5.2434698568189284E-7</v>
-      </c>
-      <c r="S71" s="60">
-        <f t="shared" si="29"/>
         <v>1.6361010268572083</v>
       </c>
       <c r="T71" s="61">
@@ -21287,11 +21287,11 @@
         <v>2.5343191042496417E-2</v>
       </c>
       <c r="V71" s="61">
+        <f t="shared" si="29"/>
+        <v>1.478566037981549E-6</v>
+      </c>
+      <c r="W71" s="64">
         <f t="shared" si="30"/>
-        <v>1.478566037981549E-6</v>
-      </c>
-      <c r="W71" s="64">
-        <f t="shared" si="31"/>
         <v>1.4221175064437404</v>
       </c>
       <c r="X71" s="65">
@@ -21303,11 +21303,11 @@
         <v>2.5343191042496417E-2</v>
       </c>
       <c r="Z71" s="64">
+        <f t="shared" si="31"/>
+        <v>1.9884131762870344E-7</v>
+      </c>
+      <c r="AA71" s="60">
         <f t="shared" si="32"/>
-        <v>1.9884131762870344E-7</v>
-      </c>
-      <c r="AA71" s="60">
-        <f t="shared" si="33"/>
         <v>1.5962592244725915</v>
       </c>
       <c r="AB71" s="61">
@@ -21319,11 +21319,11 @@
         <v>2.5343191042496417E-2</v>
       </c>
       <c r="AD71" s="68">
+        <f t="shared" si="33"/>
+        <v>2.0527554293921522E-6</v>
+      </c>
+      <c r="AE71" s="64">
         <f t="shared" si="34"/>
-        <v>2.0527554293921522E-6</v>
-      </c>
-      <c r="AE71" s="64">
-        <f t="shared" si="35"/>
         <v>1.1393755501706917</v>
       </c>
       <c r="AF71" s="65">
@@ -21335,7 +21335,7 @@
         <v>2.5343191042496417E-2</v>
       </c>
       <c r="AH71" s="64">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>2.6495663645668649E-6</v>
       </c>
       <c r="AI71" s="60">
@@ -21355,7 +21355,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <f t="shared" si="57"/>
         <v>17</v>
@@ -21368,19 +21368,19 @@
         <v>0</v>
       </c>
       <c r="D72" s="68">
+        <f t="shared" si="36"/>
+        <v>2.1308176100628931E-12</v>
+      </c>
+      <c r="E72" s="60">
         <f t="shared" si="37"/>
-        <v>2.1308176100628931E-12</v>
-      </c>
-      <c r="E72" s="60">
+        <v>1.8954130943692853E-3</v>
+      </c>
+      <c r="F72" s="61" t="e">
         <f t="shared" si="38"/>
-        <v>1.8954130943692853E-3</v>
-      </c>
-      <c r="F72" s="61" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G72" s="152">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G72" s="152">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H72" s="153">
@@ -21392,11 +21392,11 @@
         <v>1.8954130943692853E-3</v>
       </c>
       <c r="J72" s="152" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K72" s="60">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K72" s="60">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L72" s="68">
@@ -21408,11 +21408,11 @@
         <v>1.8954130943692853E-3</v>
       </c>
       <c r="N72" s="61" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O72" s="64">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O72" s="64">
-        <f t="shared" si="27"/>
         <v>2.3372871812245832</v>
       </c>
       <c r="P72" s="65">
@@ -21424,11 +21424,11 @@
         <v>1.8954130943692853E-3</v>
       </c>
       <c r="R72" s="64">
+        <f t="shared" si="27"/>
+        <v>9.6046476263041247E-6</v>
+      </c>
+      <c r="S72" s="60">
         <f t="shared" si="28"/>
-        <v>9.6046476263041247E-6</v>
-      </c>
-      <c r="S72" s="60">
-        <f t="shared" si="29"/>
         <v>2.3372871812245832</v>
       </c>
       <c r="T72" s="61">
@@ -21440,11 +21440,11 @@
         <v>1.8954130943692853E-3</v>
       </c>
       <c r="V72" s="61">
+        <f t="shared" si="29"/>
+        <v>2.1526334862670091E-5</v>
+      </c>
+      <c r="W72" s="64">
         <f t="shared" si="30"/>
-        <v>2.1526334862670091E-5</v>
-      </c>
-      <c r="W72" s="64">
-        <f t="shared" si="31"/>
         <v>2.0315964377767721</v>
       </c>
       <c r="X72" s="65">
@@ -21456,11 +21456,11 @@
         <v>1.8954130943692853E-3</v>
       </c>
       <c r="Z72" s="64">
+        <f t="shared" si="31"/>
+        <v>8.7350950481177565E-6</v>
+      </c>
+      <c r="AA72" s="60">
         <f t="shared" si="32"/>
-        <v>8.7350950481177565E-6</v>
-      </c>
-      <c r="AA72" s="60">
-        <f t="shared" si="33"/>
         <v>2.2803703206751309</v>
       </c>
       <c r="AB72" s="61">
@@ -21472,11 +21472,11 @@
         <v>1.8954130943692853E-3</v>
       </c>
       <c r="AD72" s="68">
+        <f t="shared" si="33"/>
+        <v>4.468023462496148E-5</v>
+      </c>
+      <c r="AE72" s="64">
         <f t="shared" si="34"/>
-        <v>4.468023462496148E-5</v>
-      </c>
-      <c r="AE72" s="64">
-        <f t="shared" si="35"/>
         <v>1.6276793573867026</v>
       </c>
       <c r="AF72" s="65">
@@ -21488,7 +21488,7 @@
         <v>1.8954130943692853E-3</v>
       </c>
       <c r="AH72" s="64">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>3.3068753057819528E-5</v>
       </c>
       <c r="AI72" s="60">
@@ -21508,7 +21508,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <f t="shared" si="57"/>
         <v>18</v>
@@ -21521,19 +21521,19 @@
         <v>0</v>
       </c>
       <c r="D73" s="68">
+        <f t="shared" si="36"/>
+        <v>2.6867924528301891E-12</v>
+      </c>
+      <c r="E73" s="60">
         <f t="shared" si="37"/>
-        <v>2.6867924528301891E-12</v>
-      </c>
-      <c r="E73" s="60">
+        <v>8.650709206137662E-3</v>
+      </c>
+      <c r="F73" s="61" t="e">
         <f t="shared" si="38"/>
-        <v>8.650709206137662E-3</v>
-      </c>
-      <c r="F73" s="61" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G73" s="152">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G73" s="152">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H73" s="153">
@@ -21545,11 +21545,11 @@
         <v>8.650709206137662E-3</v>
       </c>
       <c r="J73" s="152" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K73" s="60">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K73" s="60">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L73" s="68">
@@ -21561,11 +21561,11 @@
         <v>8.650709206137662E-3</v>
       </c>
       <c r="N73" s="61" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O73" s="64">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O73" s="64">
-        <f t="shared" si="27"/>
         <v>3.2722020537144165</v>
       </c>
       <c r="P73" s="65">
@@ -21577,11 +21577,11 @@
         <v>8.650709206137662E-3</v>
       </c>
       <c r="R73" s="64">
+        <f t="shared" si="27"/>
+        <v>2.0477382697179757E-6</v>
+      </c>
+      <c r="S73" s="60">
         <f t="shared" si="28"/>
-        <v>2.0477382697179757E-6</v>
-      </c>
-      <c r="S73" s="60">
-        <f t="shared" si="29"/>
         <v>3.2722020537144165</v>
       </c>
       <c r="T73" s="61">
@@ -21593,11 +21593,11 @@
         <v>8.650709206137662E-3</v>
       </c>
       <c r="V73" s="61">
+        <f t="shared" si="29"/>
+        <v>4.3209156150012333E-6</v>
+      </c>
+      <c r="W73" s="64">
         <f t="shared" si="30"/>
-        <v>4.3209156150012333E-6</v>
-      </c>
-      <c r="W73" s="64">
-        <f t="shared" si="31"/>
         <v>2.8442350128874807</v>
       </c>
       <c r="X73" s="65">
@@ -21609,11 +21609,11 @@
         <v>8.650709206137662E-3</v>
       </c>
       <c r="Z73" s="64">
+        <f t="shared" si="31"/>
+        <v>1.966467375362628E-6</v>
+      </c>
+      <c r="AA73" s="60">
         <f t="shared" si="32"/>
-        <v>1.966467375362628E-6</v>
-      </c>
-      <c r="AA73" s="60">
-        <f t="shared" si="33"/>
         <v>3.192518448945183</v>
       </c>
       <c r="AB73" s="61">
@@ -21625,11 +21625,11 @@
         <v>8.650709206137662E-3</v>
       </c>
       <c r="AD73" s="68">
+        <f t="shared" si="33"/>
+        <v>1.2659971293307011E-5</v>
+      </c>
+      <c r="AE73" s="64">
         <f t="shared" si="34"/>
-        <v>1.2659971293307011E-5</v>
-      </c>
-      <c r="AE73" s="64">
-        <f t="shared" si="35"/>
         <v>2.2787511003413834</v>
       </c>
       <c r="AF73" s="65">
@@ -21641,7 +21641,7 @@
         <v>8.650709206137662E-3</v>
       </c>
       <c r="AH73" s="64">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>3.9468773329707136E-8</v>
       </c>
       <c r="AI73" s="60">
@@ -21661,7 +21661,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <f t="shared" si="57"/>
         <v>19</v>
@@ -21674,19 +21674,19 @@
         <v>0</v>
       </c>
       <c r="D74" s="68">
+        <f t="shared" si="36"/>
+        <v>6.9710691823899367E-12</v>
+      </c>
+      <c r="E74" s="60">
         <f t="shared" si="37"/>
-        <v>6.9710691823899367E-12</v>
-      </c>
-      <c r="E74" s="60">
+        <v>9.3595554883954112E-3</v>
+      </c>
+      <c r="F74" s="61" t="e">
         <f t="shared" si="38"/>
-        <v>9.3595554883954112E-3</v>
-      </c>
-      <c r="F74" s="61" t="e">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G74" s="152">
         <f t="shared" si="22"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G74" s="152">
-        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H74" s="153">
@@ -21698,11 +21698,11 @@
         <v>9.3595554883954112E-3</v>
       </c>
       <c r="J74" s="152" t="e">
+        <f t="shared" si="23"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K74" s="60">
         <f t="shared" si="24"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K74" s="60">
-        <f t="shared" si="25"/>
         <v>0</v>
       </c>
       <c r="L74" s="68">
@@ -21714,11 +21714,11 @@
         <v>9.3595554883954112E-3</v>
       </c>
       <c r="N74" s="61" t="e">
+        <f t="shared" si="25"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="O74" s="64">
         <f t="shared" si="26"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O74" s="64">
-        <f t="shared" si="27"/>
         <v>16.36101026857208</v>
       </c>
       <c r="P74" s="65">
@@ -21730,11 +21730,11 @@
         <v>9.3595554883954112E-3</v>
       </c>
       <c r="R74" s="64">
+        <f t="shared" si="27"/>
+        <v>2.2411398941884645E-6</v>
+      </c>
+      <c r="S74" s="60">
         <f t="shared" si="28"/>
-        <v>2.2411398941884645E-6</v>
-      </c>
-      <c r="S74" s="60">
-        <f t="shared" si="29"/>
         <v>16.36101026857208</v>
       </c>
       <c r="T74" s="61">
@@ -21746,11 +21746,11 @@
         <v>9.3595554883954112E-3</v>
       </c>
       <c r="V74" s="61">
+        <f t="shared" si="29"/>
+        <v>4.9708886662090091E-6</v>
+      </c>
+      <c r="W74" s="64">
         <f t="shared" si="30"/>
-        <v>4.9708886662090091E-6</v>
-      </c>
-      <c r="W74" s="64">
-        <f t="shared" si="31"/>
         <v>14.2211750644374</v>
       </c>
       <c r="X74" s="65">
@@ -21762,11 +21762,11 @@
         <v>9.3595554883954112E-3</v>
       </c>
       <c r="Z74" s="64">
+        <f t="shared" si="31"/>
+        <v>1.2702950979616834E-5</v>
+      </c>
+      <c r="AA74" s="60">
         <f t="shared" si="32"/>
-        <v>1.2702950979616834E-5</v>
-      </c>
-      <c r="AA74" s="60">
-        <f t="shared" si="33"/>
         <v>15.962592244725913</v>
       </c>
       <c r="AB74" s="61">
@@ -21778,11 +21778,11 @@
         <v>9.3595554883954112E-3</v>
       </c>
       <c r="AD74" s="68">
+        <f t="shared" si="33"/>
+        <v>2.3139399972219167E-5</v>
+      </c>
+      <c r="AE74" s="64">
         <f t="shared" si="34"/>
-        <v>2.3139399972219167E-5</v>
-      </c>
-      <c r="AE74" s="64">
-        <f t="shared" si="35"/>
         <v>11.393755501706917</v>
       </c>
       <c r="AF74" s="65">
@@ -21794,7 +21794,7 @@
         <v>9.3595554883954112E-3</v>
       </c>
       <c r="AH74" s="64">
-        <f t="shared" si="36"/>
+        <f t="shared" si="35"/>
         <v>3.9728026225063782E-6</v>
       </c>
       <c r="AI74" s="60">
@@ -21814,18 +21814,18 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
       <c r="P75" s="66"/>
       <c r="Q75" s="66"/>
       <c r="X75" s="67"/>
       <c r="Y75" s="67"/>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A77" s="32" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A78" s="71" t="s">
         <v>76</v>
       </c>
@@ -21869,7 +21869,7 @@
       <c r="Y78"/>
       <c r="Z78"/>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A79" s="74">
         <f>B56</f>
         <v>180</v>
@@ -21923,7 +21923,7 @@
       <c r="Y79"/>
       <c r="Z79"/>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A80" s="78"/>
       <c r="B80" s="79" t="s">
         <v>87</v>
@@ -21968,7 +21968,7 @@
       <c r="Y80"/>
       <c r="Z80"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="74">
         <f>B57</f>
         <v>128</v>
@@ -22028,7 +22028,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="78"/>
       <c r="B82" s="79" t="s">
         <v>87</v>
@@ -22077,7 +22077,7 @@
       <c r="Y82" s="2"/>
       <c r="Z82" s="30"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="74">
         <f>B58</f>
         <v>90</v>
@@ -22129,7 +22129,7 @@
       <c r="Y83" s="2"/>
       <c r="Z83" s="30"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="78"/>
       <c r="B84" s="79" t="s">
         <v>87</v>
@@ -22178,7 +22178,7 @@
       <c r="Y84" s="34"/>
       <c r="Z84" s="30"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="74">
         <f>B59</f>
         <v>64</v>
@@ -22230,7 +22230,7 @@
       <c r="Y85" s="34"/>
       <c r="Z85" s="30"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="78"/>
       <c r="B86" s="79" t="s">
         <v>87</v>
@@ -22279,7 +22279,7 @@
       <c r="Y86" s="34"/>
       <c r="Z86" s="30"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="74">
         <f>B60</f>
         <v>45</v>
@@ -22331,7 +22331,7 @@
       <c r="Y87" s="34"/>
       <c r="Z87" s="134"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="78"/>
       <c r="B88" s="79" t="s">
         <v>87</v>
@@ -22380,7 +22380,7 @@
       <c r="Y88" s="34"/>
       <c r="Z88" s="30"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="74">
         <f>B61</f>
         <v>32</v>
@@ -22432,7 +22432,7 @@
       <c r="Y89" s="34"/>
       <c r="Z89" s="30"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="78"/>
       <c r="B90" s="79" t="s">
         <v>87</v>
@@ -22481,7 +22481,7 @@
       <c r="Y90" s="34"/>
       <c r="Z90" s="30"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="74">
         <f>B62</f>
         <v>22.6</v>
@@ -22533,7 +22533,7 @@
       <c r="Y91" s="34"/>
       <c r="Z91" s="30"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" s="78"/>
       <c r="B92" s="79" t="s">
         <v>87</v>
@@ -22592,7 +22592,7 @@
         <v>9.4915254237288124E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" s="74">
         <f>B63</f>
         <v>16</v>
@@ -22654,7 +22654,7 @@
         <v>6.7796610169491525E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" s="74"/>
       <c r="B94" s="79" t="s">
         <v>87</v>
@@ -22713,7 +22713,7 @@
         <v>4.7457627118644062E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" s="74">
         <f>B64</f>
         <v>11</v>
@@ -22775,7 +22775,7 @@
         <v>3.3898305084745763E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" s="78"/>
       <c r="B96" s="79" t="s">
         <v>87</v>
@@ -22834,7 +22834,7 @@
         <v>2.3728813559322031E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" s="74">
         <f>B65</f>
         <v>8</v>
@@ -22896,7 +22896,7 @@
         <v>1.6949152542372881E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" s="78"/>
       <c r="B98" s="79" t="s">
         <v>87</v>
@@ -22955,7 +22955,7 @@
         <v>1.1864406779661016E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" s="74">
         <f>B66</f>
         <v>5.6</v>
@@ -23017,7 +23017,7 @@
         <v>8.4745762711864406E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" s="78"/>
       <c r="B100" s="79" t="s">
         <v>87</v>
@@ -23076,7 +23076,7 @@
         <v>1.6949152542372883E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101" s="174">
         <f>B67</f>
         <v>4</v>
@@ -23121,7 +23121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102" s="179"/>
       <c r="B102" s="180" t="s">
         <v>87</v>
@@ -23163,7 +23163,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103" s="183">
         <f>B68</f>
         <v>2.8</v>
@@ -23212,7 +23212,7 @@
       </c>
       <c r="O103" s="1"/>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104" s="188"/>
       <c r="B104" s="189" t="s">
         <v>87</v>
@@ -23263,7 +23263,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105" s="165">
         <f>B69</f>
         <v>2</v>
@@ -23311,15 +23311,15 @@
         <v>2</v>
       </c>
       <c r="O105" s="41">
-        <f>2.3799*N105^(-0.582)</f>
-        <v>1.5898613495802989</v>
+        <f>0.1965*N105^(-0.609)</f>
+        <v>0.12883542289668734</v>
       </c>
       <c r="P105" s="41">
-        <f>O105*($M$3-$M$2)*$M$4*$W$78/1000</f>
-        <v>1518.3231533639091</v>
+        <f>O105*($M$3-$M$2)*$M$4*($N$105/1000)</f>
+        <v>4.1707891454344601</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106" s="19"/>
       <c r="B106" s="170" t="s">
         <v>87</v>
@@ -23364,15 +23364,15 @@
         <v>1.4</v>
       </c>
       <c r="O106" s="41">
-        <f t="shared" ref="O106:O110" si="60">2.3799*N106^(-0.582)</f>
-        <v>1.9566456973946389</v>
+        <f t="shared" ref="O106:O112" si="60">0.1965*N106^(-0.609)</f>
+        <v>0.16009235047736453</v>
       </c>
       <c r="P106" s="41">
-        <f t="shared" ref="P106:P109" si="61">O106*($M$3-$M$2)*$M$4*$W$78/1000</f>
-        <v>1868.603489271821</v>
+        <f t="shared" ref="P106:P112" si="61">O106*($M$3-$M$2)*$M$4*($N$105/1000)</f>
+        <v>5.1826696620037218</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107" s="120">
         <f>B70</f>
         <v>1.4</v>
@@ -23421,14 +23421,14 @@
       </c>
       <c r="O107" s="41">
         <f t="shared" si="60"/>
-        <v>2.3799000000000001</v>
+        <v>0.19650000000000001</v>
       </c>
       <c r="P107" s="41">
         <f t="shared" si="61"/>
-        <v>2272.8128296500004</v>
+        <v>6.3612945000000014</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108" s="120"/>
       <c r="B108" s="124" t="s">
         <v>87</v>
@@ -23474,14 +23474,14 @@
       </c>
       <c r="O108" s="41">
         <f t="shared" si="60"/>
-        <v>2.9289479214390512</v>
+        <v>0.24417311762176089</v>
       </c>
       <c r="P108" s="41">
         <f t="shared" si="61"/>
-        <v>2797.155516292019</v>
+        <v>7.9046163367692666</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109" s="81">
         <f>B71</f>
         <v>1</v>
@@ -23530,14 +23530,14 @@
       </c>
       <c r="O109" s="41">
         <f t="shared" si="60"/>
-        <v>3.5625270162679259</v>
+        <v>0.29970212486485981</v>
       </c>
       <c r="P109" s="41">
         <f t="shared" si="61"/>
-        <v>3402.2257693804258</v>
+        <v>9.7022568882501083</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110" s="85"/>
       <c r="B110" s="86" t="s">
         <v>87</v>
@@ -23583,14 +23583,14 @@
       </c>
       <c r="O110" s="41">
         <f t="shared" si="60"/>
-        <v>6.0723843390221948</v>
+        <v>0.52364298196537673</v>
       </c>
       <c r="P110" s="41">
-        <f>O110*($M$3-$M$2)*$M$4*$W$78/1000</f>
-        <v>5799.1482971113828</v>
+        <f t="shared" si="61"/>
+        <v>16.951894255165143</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111" s="98">
         <f>B72</f>
         <v>0.7</v>
@@ -23634,8 +23634,10 @@
         <f>AI72</f>
         <v>0</v>
       </c>
+      <c r="O111" s="41"/>
+      <c r="P111" s="41"/>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112" s="102"/>
       <c r="B112" s="103" t="s">
         <v>87</v>
@@ -23676,8 +23678,19 @@
         <f>AL72</f>
         <v>#DIV/0!</v>
       </c>
+      <c r="N112" s="1">
+        <v>59</v>
+      </c>
+      <c r="O112" s="41">
+        <f t="shared" si="60"/>
+        <v>1.6402637219523231E-2</v>
+      </c>
+      <c r="P112" s="41">
+        <f t="shared" si="61"/>
+        <v>0.53100257470762557</v>
+      </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="94">
         <f>B73</f>
         <v>0.5</v>
@@ -23722,7 +23735,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="97"/>
       <c r="B114" s="59" t="s">
         <v>87</v>
@@ -23764,7 +23777,7 @@
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="87">
         <f>B74</f>
         <v>0.1</v>
@@ -23809,7 +23822,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="91"/>
       <c r="B116" s="92" t="s">
         <v>87</v>
@@ -23853,21 +23866,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="S54:V54"/>
+    <mergeCell ref="W54:Z54"/>
+    <mergeCell ref="AA54:AD54"/>
+    <mergeCell ref="AE54:AH54"/>
+    <mergeCell ref="AI54:AL54"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="AB15:AE15"/>
+    <mergeCell ref="A30:J30"/>
     <mergeCell ref="A54:B54"/>
     <mergeCell ref="C54:F54"/>
     <mergeCell ref="G54:J54"/>
     <mergeCell ref="K54:N54"/>
     <mergeCell ref="O54:R54"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="AB15:AE15"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="S54:V54"/>
-    <mergeCell ref="W54:Z54"/>
-    <mergeCell ref="AA54:AD54"/>
-    <mergeCell ref="AE54:AH54"/>
-    <mergeCell ref="AI54:AL54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -23879,52 +23892,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM116"/>
   <sheetViews>
-    <sheetView topLeftCell="F94" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="O115" sqref="O115"/>
+    <sheetView topLeftCell="E76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P105" sqref="P105"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" customWidth="1"/>
-    <col min="13" max="13" width="12.109375" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.88671875" customWidth="1"/>
-    <col min="18" max="18" width="18.44140625" customWidth="1"/>
-    <col min="21" max="21" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.5546875" customWidth="1"/>
-    <col min="24" max="24" width="8.88671875" style="1"/>
+    <col min="17" max="17" width="10.85546875" customWidth="1"/>
+    <col min="18" max="18" width="18.42578125" customWidth="1"/>
+    <col min="21" max="21" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" customWidth="1"/>
+    <col min="24" max="24" width="8.85546875" style="1"/>
     <col min="25" max="25" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.88671875" style="1"/>
+    <col min="26" max="26" width="8.85546875" style="1"/>
     <col min="35" max="35" width="12" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A1" s="218" t="s">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A1" s="212" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="219"/>
-      <c r="C1" s="219"/>
-      <c r="D1" s="219"/>
-      <c r="E1" s="219"/>
-      <c r="F1" s="219"/>
-      <c r="G1" s="219"/>
-      <c r="H1" s="219"/>
-      <c r="I1" s="219"/>
-      <c r="J1" s="219"/>
+      <c r="B1" s="223"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="223"/>
+      <c r="H1" s="223"/>
+      <c r="I1" s="223"/>
+      <c r="J1" s="223"/>
       <c r="K1" s="25"/>
-      <c r="L1" s="218" t="s">
+      <c r="L1" s="212" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="219"/>
-      <c r="N1" s="220"/>
+      <c r="M1" s="223"/>
+      <c r="N1" s="213"/>
       <c r="Q1" s="49"/>
       <c r="R1" s="1" t="s">
         <v>52</v>
@@ -23963,7 +23976,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>70</v>
       </c>
@@ -24050,7 +24063,7 @@
         <v>0.14369522173913041</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="51">
         <v>11.2</v>
       </c>
@@ -24136,7 +24149,7 @@
         <v>0.96557273478260874</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="52">
         <v>8</v>
       </c>
@@ -24222,7 +24235,7 @@
         <v>0.72795068403010044</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="52">
         <v>5.6</v>
       </c>
@@ -24308,7 +24321,7 @@
         <v>4.0363869782461155</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="52">
         <v>4</v>
       </c>
@@ -24387,7 +24400,7 @@
         <v>1.9437556084810153</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="52">
         <v>2.8</v>
       </c>
@@ -24450,7 +24463,7 @@
         <v>0.8005262470803336</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="52">
         <v>2</v>
       </c>
@@ -24481,10 +24494,10 @@
       <c r="J8" s="106">
         <v>0.435</v>
       </c>
-      <c r="L8" s="218" t="s">
+      <c r="L8" s="212" t="s">
         <v>38</v>
       </c>
-      <c r="M8" s="220"/>
+      <c r="M8" s="213"/>
       <c r="Q8" s="49"/>
       <c r="R8" s="7"/>
       <c r="W8" s="1">
@@ -24517,7 +24530,7 @@
         <v>1.8410135952059168</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="52">
         <v>1.4</v>
       </c>
@@ -24587,7 +24600,7 @@
         <v>10.225716559788639</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="52">
         <v>1</v>
       </c>
@@ -24665,7 +24678,7 @@
         <v>19.118067345564235</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="52">
         <v>0.7</v>
       </c>
@@ -24740,7 +24753,7 @@
         <v>4.1888629385561202</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="52">
         <v>0.5</v>
       </c>
@@ -24815,7 +24828,7 @@
         <v>56.008452203917081</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
         <v>9</v>
       </c>
@@ -24882,7 +24895,7 @@
         <v>100.00000011739129</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="53" t="s">
         <v>105</v>
       </c>
@@ -24945,7 +24958,7 @@
         <v>0.11103687826086958</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
       <c r="L15" s="2">
         <v>32</v>
@@ -24975,15 +24988,15 @@
       <c r="Z15" s="13">
         <v>0.11783916521739132</v>
       </c>
-      <c r="AB15" s="221" t="s">
+      <c r="AB15" s="224" t="s">
         <v>44</v>
       </c>
-      <c r="AC15" s="222"/>
-      <c r="AD15" s="222"/>
-      <c r="AE15" s="223"/>
+      <c r="AC15" s="225"/>
+      <c r="AD15" s="225"/>
+      <c r="AE15" s="226"/>
       <c r="AF15" s="31"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="L16" s="2">
         <v>22.6</v>
       </c>
@@ -25046,7 +25059,7 @@
         <v>2.2624434389140274E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>54</v>
       </c>
@@ -25117,7 +25130,7 @@
         <v>4.2986425392484755E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>55</v>
       </c>
@@ -25189,7 +25202,7 @@
         <v>2.5343191042496417E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" s="69">
         <v>2</v>
       </c>
@@ -25271,7 +25284,7 @@
         <v>6.7873303167420851E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" s="57">
         <v>3</v>
       </c>
@@ -25351,7 +25364,7 @@
         <v>3.6199095022624445E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" s="69">
         <v>4</v>
       </c>
@@ -25433,7 +25446,7 @@
         <v>5.4298642533936597E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>5</v>
       </c>
@@ -25515,7 +25528,7 @@
         <v>6.7873303167420851E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" s="69">
         <v>6</v>
       </c>
@@ -25597,7 +25610,7 @@
         <v>4.5248868778280549E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>7</v>
       </c>
@@ -25679,7 +25692,7 @@
         <v>0.11312217194570137</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" s="69">
         <v>8</v>
       </c>
@@ -25761,7 +25774,7 @@
         <v>0.12217194570135748</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>9</v>
       </c>
@@ -25843,7 +25856,7 @@
         <v>0.19457013574660631</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" s="69">
         <v>10</v>
       </c>
@@ -25925,7 +25938,7 @@
         <v>0.19457013574660631</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C28" s="1"/>
       <c r="L28" s="2" t="s">
         <v>78</v>
@@ -25988,7 +26001,7 @@
         <v>0.15837104072398189</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="M29" s="50">
         <f>SUM(M10:M28)</f>
         <v>1.0000000000531182</v>
@@ -26047,19 +26060,19 @@
         <v>4.5248868778280493E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A30" s="224" t="s">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A30" s="227" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="224"/>
-      <c r="C30" s="224"/>
-      <c r="D30" s="224"/>
-      <c r="E30" s="224"/>
-      <c r="F30" s="224"/>
-      <c r="G30" s="224"/>
-      <c r="H30" s="224"/>
-      <c r="I30" s="224"/>
-      <c r="J30" s="224"/>
+      <c r="B30" s="227"/>
+      <c r="C30" s="227"/>
+      <c r="D30" s="227"/>
+      <c r="E30" s="227"/>
+      <c r="F30" s="227"/>
+      <c r="G30" s="227"/>
+      <c r="H30" s="227"/>
+      <c r="I30" s="227"/>
+      <c r="J30" s="227"/>
       <c r="K30" s="25"/>
       <c r="Q30" s="49"/>
       <c r="R30" s="2">
@@ -26115,7 +26128,7 @@
         <v>5.8823529411764719E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" s="53" t="s">
         <v>70</v>
       </c>
@@ -26187,7 +26200,7 @@
       <c r="AG31" s="5"/>
       <c r="AI31" s="46"/>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>180</v>
       </c>
@@ -26260,7 +26273,7 @@
         <v>1.0000000000531182</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>128</v>
       </c>
@@ -26320,7 +26333,7 @@
         <v>4.5248868778280542</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>90</v>
       </c>
@@ -26364,7 +26377,7 @@
         <v>0.56166232608695643</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>64</v>
       </c>
@@ -26408,7 +26421,7 @@
         <v>0.48313567391304357</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>45</v>
       </c>
@@ -26452,7 +26465,7 @@
         <v>0.40172391304347826</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>32</v>
       </c>
@@ -26496,7 +26509,7 @@
         <v>0.31800290000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>22.6</v>
       </c>
@@ -26540,7 +26553,7 @@
         <v>3.0056556521739126E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>16</v>
       </c>
@@ -26584,7 +26597,7 @@
         <v>0.22375436521739128</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="52">
         <v>11</v>
       </c>
@@ -26637,7 +26650,7 @@
         <v>0.20053242608695654</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="52">
         <v>8</v>
       </c>
@@ -26690,7 +26703,7 @@
         <v>0.15758740869565219</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" s="52">
         <v>5.6</v>
       </c>
@@ -26743,7 +26756,7 @@
         <v>0.11821860000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" s="52">
         <v>4</v>
       </c>
@@ -26796,7 +26809,7 @@
         <v>2.7713960869565214E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" s="52">
         <v>2.8</v>
       </c>
@@ -26848,7 +26861,7 @@
         <v>6.5921991304347824E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="52">
         <v>2</v>
       </c>
@@ -26900,7 +26913,7 @@
         <v>3.0966113043478259E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" s="52">
         <v>1.4</v>
       </c>
@@ -26952,7 +26965,7 @@
         <v>1.7120587434782608</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="52">
         <v>1</v>
       </c>
@@ -27004,7 +27017,7 @@
         <v>3.3152842391304347</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="52">
         <v>0.7</v>
       </c>
@@ -27056,7 +27069,7 @@
         <v>3.8885630782608689</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A49" s="52">
         <v>0.5</v>
       </c>
@@ -27108,7 +27121,7 @@
         <v>21.30781896521739</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A50" s="52" t="s">
         <v>78</v>
       </c>
@@ -27160,7 +27173,7 @@
         <v>8.1626277652173904</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B51" s="40">
         <f>SUM(B40:B50)</f>
         <v>0.99999999999999989</v>
@@ -27209,7 +27222,7 @@
         <v>52.866804999999992</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -27228,73 +27241,73 @@
         <v>100.00000011739129</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A53" s="32" t="s">
         <v>73</v>
       </c>
       <c r="Q53" s="49"/>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A54" s="218" t="s">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A54" s="212" t="s">
         <v>74</v>
       </c>
-      <c r="B54" s="220"/>
-      <c r="C54" s="212" t="s">
+      <c r="B54" s="213"/>
+      <c r="C54" s="214" t="s">
         <v>88</v>
       </c>
-      <c r="D54" s="213"/>
-      <c r="E54" s="213"/>
-      <c r="F54" s="214"/>
-      <c r="G54" s="225" t="s">
+      <c r="D54" s="215"/>
+      <c r="E54" s="215"/>
+      <c r="F54" s="216"/>
+      <c r="G54" s="217" t="s">
         <v>89</v>
       </c>
-      <c r="H54" s="226"/>
-      <c r="I54" s="226"/>
-      <c r="J54" s="227"/>
-      <c r="K54" s="212" t="s">
+      <c r="H54" s="218"/>
+      <c r="I54" s="218"/>
+      <c r="J54" s="219"/>
+      <c r="K54" s="214" t="s">
         <v>90</v>
       </c>
-      <c r="L54" s="213"/>
-      <c r="M54" s="213"/>
-      <c r="N54" s="214"/>
-      <c r="O54" s="215" t="s">
+      <c r="L54" s="215"/>
+      <c r="M54" s="215"/>
+      <c r="N54" s="216"/>
+      <c r="O54" s="220" t="s">
         <v>91</v>
       </c>
-      <c r="P54" s="216"/>
-      <c r="Q54" s="216"/>
-      <c r="R54" s="217"/>
-      <c r="S54" s="212" t="s">
+      <c r="P54" s="221"/>
+      <c r="Q54" s="221"/>
+      <c r="R54" s="222"/>
+      <c r="S54" s="214" t="s">
         <v>92</v>
       </c>
-      <c r="T54" s="213"/>
-      <c r="U54" s="213"/>
-      <c r="V54" s="214"/>
-      <c r="W54" s="215" t="s">
+      <c r="T54" s="215"/>
+      <c r="U54" s="215"/>
+      <c r="V54" s="216"/>
+      <c r="W54" s="220" t="s">
         <v>93</v>
       </c>
-      <c r="X54" s="216"/>
-      <c r="Y54" s="216"/>
-      <c r="Z54" s="217"/>
-      <c r="AA54" s="212" t="s">
+      <c r="X54" s="221"/>
+      <c r="Y54" s="221"/>
+      <c r="Z54" s="222"/>
+      <c r="AA54" s="214" t="s">
         <v>94</v>
       </c>
-      <c r="AB54" s="213"/>
-      <c r="AC54" s="213"/>
-      <c r="AD54" s="214"/>
-      <c r="AE54" s="215" t="s">
+      <c r="AB54" s="215"/>
+      <c r="AC54" s="215"/>
+      <c r="AD54" s="216"/>
+      <c r="AE54" s="220" t="s">
         <v>95</v>
       </c>
-      <c r="AF54" s="216"/>
-      <c r="AG54" s="216"/>
-      <c r="AH54" s="217"/>
-      <c r="AI54" s="212" t="s">
+      <c r="AF54" s="221"/>
+      <c r="AG54" s="221"/>
+      <c r="AH54" s="222"/>
+      <c r="AI54" s="214" t="s">
         <v>96</v>
       </c>
-      <c r="AJ54" s="213"/>
-      <c r="AK54" s="213"/>
-      <c r="AL54" s="214"/>
+      <c r="AJ54" s="215"/>
+      <c r="AK54" s="215"/>
+      <c r="AL54" s="216"/>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>75</v>
       </c>
@@ -27410,7 +27423,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>1</v>
       </c>
@@ -27562,7 +27575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>2</v>
       </c>
@@ -27714,7 +27727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>3</v>
       </c>
@@ -27866,7 +27879,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>4</v>
       </c>
@@ -28018,7 +28031,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>5</v>
       </c>
@@ -28170,7 +28183,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>6</v>
       </c>
@@ -28322,7 +28335,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>7</v>
       </c>
@@ -28474,7 +28487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>8</v>
       </c>
@@ -28626,7 +28639,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>9</v>
       </c>
@@ -28778,7 +28791,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>10</v>
       </c>
@@ -28930,7 +28943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <f>A65+1</f>
         <v>11</v>
@@ -29083,7 +29096,7 @@
         <v>4.4250813266616357E-6</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <f t="shared" ref="A67:A74" si="57">A66+1</f>
         <v>12</v>
@@ -29236,7 +29249,7 @@
         <v>1.1306207791917831E-5</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <f t="shared" si="57"/>
         <v>13</v>
@@ -29389,7 +29402,7 @@
         <v>2.3220426758210894E-5</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <f t="shared" si="57"/>
         <v>14</v>
@@ -29542,7 +29555,7 @@
         <v>1.7400319792974639E-5</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <f t="shared" si="57"/>
         <v>15</v>
@@ -29695,7 +29708,7 @@
         <v>5.3280979228142622E-5</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <f t="shared" si="57"/>
         <v>16</v>
@@ -29848,7 +29861,7 @@
         <v>1.4790182405596351E-6</v>
       </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <f t="shared" si="57"/>
         <v>17</v>
@@ -30001,7 +30014,7 @@
         <v>2.1385671409275137E-5</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <f t="shared" si="57"/>
         <v>18</v>
@@ -30154,7 +30167,7 @@
         <v>4.5281559825277573E-6</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <f t="shared" si="57"/>
         <v>19</v>
@@ -30307,18 +30320,18 @@
         <v>6.6317165504044697E-6</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
       <c r="P75" s="66"/>
       <c r="Q75" s="66"/>
       <c r="X75" s="67"/>
       <c r="Y75" s="67"/>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A77" s="32" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A78" s="71" t="s">
         <v>76</v>
       </c>
@@ -30362,7 +30375,7 @@
       <c r="Y78"/>
       <c r="Z78"/>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A79" s="74">
         <f>B56</f>
         <v>180</v>
@@ -30416,7 +30429,7 @@
       <c r="Y79"/>
       <c r="Z79"/>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A80" s="78"/>
       <c r="B80" s="79" t="s">
         <v>87</v>
@@ -30461,7 +30474,7 @@
       <c r="Y80"/>
       <c r="Z80"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="74">
         <f>B57</f>
         <v>128</v>
@@ -30521,7 +30534,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="78"/>
       <c r="B82" s="79" t="s">
         <v>87</v>
@@ -30570,7 +30583,7 @@
       <c r="Y82" s="2"/>
       <c r="Z82" s="30"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="74">
         <f>B58</f>
         <v>90</v>
@@ -30622,7 +30635,7 @@
       <c r="Y83" s="2"/>
       <c r="Z83" s="30"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="78"/>
       <c r="B84" s="79" t="s">
         <v>87</v>
@@ -30671,7 +30684,7 @@
       <c r="Y84" s="34"/>
       <c r="Z84" s="30"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="74">
         <f>B59</f>
         <v>64</v>
@@ -30723,7 +30736,7 @@
       <c r="Y85" s="34"/>
       <c r="Z85" s="30"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="78"/>
       <c r="B86" s="79" t="s">
         <v>87</v>
@@ -30772,7 +30785,7 @@
       <c r="Y86" s="34"/>
       <c r="Z86" s="30"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="74">
         <f>B60</f>
         <v>45</v>
@@ -30824,7 +30837,7 @@
       <c r="Y87" s="34"/>
       <c r="Z87" s="134"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="78"/>
       <c r="B88" s="79" t="s">
         <v>87</v>
@@ -30873,7 +30886,7 @@
       <c r="Y88" s="34"/>
       <c r="Z88" s="30"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="74">
         <f>B61</f>
         <v>32</v>
@@ -30925,7 +30938,7 @@
       <c r="Y89" s="34"/>
       <c r="Z89" s="30"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="78"/>
       <c r="B90" s="79" t="s">
         <v>87</v>
@@ -30974,7 +30987,7 @@
       <c r="Y90" s="34"/>
       <c r="Z90" s="30"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="74">
         <f>B62</f>
         <v>22.6</v>
@@ -31026,7 +31039,7 @@
       <c r="Y91" s="34"/>
       <c r="Z91" s="30"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" s="78"/>
       <c r="B92" s="79" t="s">
         <v>87</v>
@@ -31085,7 +31098,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" s="74">
         <f>B63</f>
         <v>16</v>
@@ -31147,7 +31160,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" s="74"/>
       <c r="B94" s="79" t="s">
         <v>87</v>
@@ -31206,7 +31219,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" s="74">
         <f>B64</f>
         <v>11</v>
@@ -31268,7 +31281,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" s="78"/>
       <c r="B96" s="79" t="s">
         <v>87</v>
@@ -31327,7 +31340,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" s="74">
         <f>B65</f>
         <v>8</v>
@@ -31389,7 +31402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" s="78"/>
       <c r="B98" s="79" t="s">
         <v>87</v>
@@ -31449,7 +31462,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" s="74">
         <f>B66</f>
         <v>5.6</v>
@@ -31511,7 +31524,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" s="78"/>
       <c r="B100" s="79" t="s">
         <v>87</v>
@@ -31570,7 +31583,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101" s="174">
         <f>B67</f>
         <v>4</v>
@@ -31615,7 +31628,7 @@
         <v>0.30105114447387948</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102" s="179"/>
       <c r="B102" s="180" t="s">
         <v>87</v>
@@ -31657,7 +31670,7 @@
         <v>1.1306207791917831E-5</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103" s="183">
         <f>B68</f>
         <v>2.8</v>
@@ -31706,7 +31719,7 @@
       </c>
       <c r="O103" s="1"/>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104" s="188"/>
       <c r="B104" s="189" t="s">
         <v>87</v>
@@ -31757,7 +31770,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105" s="165">
         <f>B69</f>
         <v>2</v>
@@ -31816,7 +31829,7 @@
         <v>24.95575235493418</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106" s="19"/>
       <c r="B106" s="170" t="s">
         <v>87</v>
@@ -31872,7 +31885,7 @@
         <v>31.010299517052808</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107" s="120">
         <f>B70</f>
         <v>1.4</v>
@@ -31931,7 +31944,7 @@
         <v>38.062554750000004</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108" s="120"/>
       <c r="B108" s="124" t="s">
         <v>87</v>
@@ -31987,7 +32000,7 @@
         <v>47.296960091381493</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109" s="81">
         <f>B71</f>
         <v>1</v>
@@ -32046,7 +32059,7 @@
         <v>58.05307143185783</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110" s="85"/>
       <c r="B110" s="86" t="s">
         <v>87</v>
@@ -32102,7 +32115,7 @@
         <v>101.43099068962043</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111" s="98">
         <f>B72</f>
         <v>0.7</v>
@@ -32147,7 +32160,7 @@
         <v>1.7202922541364543</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112" s="102"/>
       <c r="B112" s="103" t="s">
         <v>87</v>
@@ -32189,7 +32202,7 @@
         <v>2.1385671409275137E-5</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="94">
         <f>B73</f>
         <v>0.5</v>
@@ -32234,7 +32247,7 @@
         <v>2.4084091557910359</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="97"/>
       <c r="B114" s="59" t="s">
         <v>87</v>
@@ -32276,7 +32289,7 @@
         <v>4.5281559825277573E-6</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="87">
         <f>B74</f>
         <v>0.1</v>
@@ -32321,7 +32334,7 @@
         <v>12.042045778955178</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="91"/>
       <c r="B116" s="92" t="s">
         <v>87</v>
@@ -32365,21 +32378,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="S54:V54"/>
+    <mergeCell ref="W54:Z54"/>
+    <mergeCell ref="AA54:AD54"/>
+    <mergeCell ref="AE54:AH54"/>
+    <mergeCell ref="AI54:AL54"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="G54:J54"/>
+    <mergeCell ref="K54:N54"/>
+    <mergeCell ref="O54:R54"/>
     <mergeCell ref="AB15:AE15"/>
     <mergeCell ref="A1:J1"/>
     <mergeCell ref="L1:N1"/>
     <mergeCell ref="A30:J30"/>
     <mergeCell ref="L8:M8"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="G54:J54"/>
-    <mergeCell ref="K54:N54"/>
-    <mergeCell ref="O54:R54"/>
-    <mergeCell ref="S54:V54"/>
-    <mergeCell ref="W54:Z54"/>
-    <mergeCell ref="AA54:AD54"/>
-    <mergeCell ref="AE54:AH54"/>
-    <mergeCell ref="AI54:AL54"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32396,19 +32409,19 @@
       <selection activeCell="AE53" sqref="AE53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="26" max="26" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>10</v>
       </c>
@@ -32497,7 +32510,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>0.37</v>
       </c>
@@ -32589,7 +32602,7 @@
         <v>0.10345145454545455</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>0.44</v>
       </c>
@@ -32681,7 +32694,7 @@
         <v>0.10918303181818181</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>0.52</v>
       </c>
@@ -32773,7 +32786,7 @@
         <v>0.11806485454545455</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>0.61</v>
       </c>
@@ -32865,7 +32878,7 @@
         <v>0.13053725909090907</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>0.72</v>
       </c>
@@ -32957,7 +32970,7 @@
         <v>0.14702484090909088</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>0.85</v>
       </c>
@@ -33049,7 +33062,7 @@
         <v>0.16995316363636359</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>1.01</v>
       </c>
@@ -33141,7 +33154,7 @@
         <v>0.20881921818181817</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>1.19</v>
       </c>
@@ -33233,7 +33246,7 @@
         <v>0.28798042727272721</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>1.4</v>
       </c>
@@ -33325,7 +33338,7 @@
         <v>0.4164124818181818</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>1.65</v>
       </c>
@@ -33417,7 +33430,7 @@
         <v>0.51386996818181818</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>1.95</v>
       </c>
@@ -33509,7 +33522,7 @@
         <v>0.59205577272727272</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>2.2999999999999998</v>
       </c>
@@ -33601,7 +33614,7 @@
         <v>0.6660419500000001</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>2.72</v>
       </c>
@@ -33693,7 +33706,7 @@
         <v>0.72373427272727275</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>3.2</v>
       </c>
@@ -33785,7 +33798,7 @@
         <v>0.77374282727272736</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>3.78</v>
       </c>
@@ -33877,7 +33890,7 @@
         <v>0.83793021818181801</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>4.46</v>
       </c>
@@ -33969,7 +33982,7 @@
         <v>0.9276544636363635</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>5.27</v>
       </c>
@@ -34061,7 +34074,7 @@
         <v>1.0303185818181819</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>6.21</v>
       </c>
@@ -34153,7 +34166,7 @@
         <v>1.1507959272727271</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>7.33</v>
       </c>
@@ -34245,7 +34258,7 @@
         <v>1.2857054272727275</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>8.65</v>
       </c>
@@ -34337,7 +34350,7 @@
         <v>1.4414075272727267</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>10.210000000000001</v>
       </c>
@@ -34429,7 +34442,7 @@
         <v>1.6246772090909092</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>12.05</v>
       </c>
@@ -34521,7 +34534,7 @@
         <v>1.8360353999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>14.22</v>
       </c>
@@ -34613,7 +34626,7 @@
         <v>2.132178763636364</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>16.78</v>
       </c>
@@ -34705,7 +34718,7 @@
         <v>2.4587393727272731</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>19.809999999999999</v>
       </c>
@@ -34797,7 +34810,7 @@
         <v>2.7979305863636363</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>23.37</v>
       </c>
@@ -34889,7 +34902,7 @@
         <v>1.1893333681818183</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>25</v>
       </c>
@@ -34981,7 +34994,7 @@
         <v>1.8825031136363639</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>27.58</v>
       </c>
@@ -35073,7 +35086,7 @@
         <v>3.3140245409090907</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>32.549999999999997</v>
       </c>
@@ -35165,7 +35178,7 @@
         <v>3.4339506454545448</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>38.409999999999997</v>
       </c>
@@ -35257,7 +35270,7 @@
         <v>3.4267308181818183</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
         <v>45.32</v>
       </c>
@@ -35349,7 +35362,7 @@
         <v>3.2748958136363631</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
         <v>53.48</v>
       </c>
@@ -35441,7 +35454,7 @@
         <v>2.9197439590909102</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
         <v>63.11</v>
       </c>
@@ -35533,7 +35546,7 @@
         <v>2.4945463636363634</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
         <v>74.48</v>
       </c>
@@ -35625,7 +35638,7 @@
         <v>1.9734895909090913</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
         <v>87.89</v>
       </c>
@@ -35717,7 +35730,7 @@
         <v>1.5051432454545455</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
         <v>103.72</v>
       </c>
@@ -35809,7 +35822,7 @@
         <v>1.0947431136363637</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <v>122.39</v>
       </c>
@@ -35901,7 +35914,7 @@
         <v>9.8260886363636363E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
         <v>125</v>
       </c>
@@ -35993,7 +36006,7 @@
         <v>0.73149481818181816</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
         <v>144.43</v>
       </c>
@@ -36085,7 +36098,7 @@
         <v>0.61875227272727262</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
         <v>170.44</v>
       </c>
@@ -36177,7 +36190,7 @@
         <v>0.47022736363636364</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
         <v>201.13</v>
       </c>
@@ -36269,7 +36282,7 @@
         <v>0.35589850454545446</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
         <v>237.35</v>
       </c>
@@ -36361,7 +36374,7 @@
         <v>9.0109809090909085E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
         <v>250</v>
       </c>
@@ -36453,7 +36466,7 @@
         <v>0.21433984545454551</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
         <v>280.08999999999997</v>
       </c>
@@ -36545,7 +36558,7 @@
         <v>0.12128648636363637</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
         <v>300</v>
       </c>
@@ -36637,7 +36650,7 @@
         <v>1.8120921590909094</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
         <v>330.52</v>
       </c>
@@ -36729,7 +36742,7 @@
         <v>3.484536859090908</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
         <v>390.04</v>
       </c>
@@ -36821,7 +36834,7 @@
         <v>4.0028678454545457</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" s="9">
         <v>460.27</v>
       </c>
@@ -36913,7 +36926,7 @@
         <v>20.949027127272725</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" s="9">
         <v>850</v>
       </c>
@@ -37005,7 +37018,7 @@
         <v>3.67216955</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" s="9">
         <v>1000</v>
       </c>
@@ -37097,7 +37110,7 @@
         <v>14.385586940909089</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
         <v>5000</v>
       </c>
@@ -37189,12 +37202,12 @@
         <v>100.0000000409091</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" s="19" t="s">
         <v>10</v>
       </c>
@@ -37271,7 +37284,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" s="19">
         <v>0.37</v>
       </c>
@@ -37350,7 +37363,7 @@
         <v>0.10345145454545455</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" s="19">
         <v>0.44</v>
       </c>
@@ -37429,7 +37442,7 @@
         <v>0.10918303181818181</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" s="19">
         <v>0.52</v>
       </c>
@@ -37508,7 +37521,7 @@
         <v>0.11806485454545455</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" s="19">
         <v>0.61</v>
       </c>
@@ -37587,7 +37600,7 @@
         <v>0.13053725909090907</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" s="19">
         <v>0.72</v>
       </c>
@@ -37666,7 +37679,7 @@
         <v>0.14702484090909088</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" s="19">
         <v>0.85</v>
       </c>
@@ -37745,7 +37758,7 @@
         <v>0.16995316363636359</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" s="19">
         <v>1.01</v>
       </c>
@@ -37824,7 +37837,7 @@
         <v>0.20881921818181817</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" s="19">
         <v>1.19</v>
       </c>
@@ -37903,7 +37916,7 @@
         <v>0.28798042727272721</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="19">
         <v>1.4</v>
       </c>
@@ -37982,7 +37995,7 @@
         <v>0.4164124818181818</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="19">
         <v>1.65</v>
       </c>
@@ -38061,7 +38074,7 @@
         <v>0.51386996818181818</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="19">
         <v>1.95</v>
       </c>
@@ -38140,7 +38153,7 @@
         <v>0.59205577272727272</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="19">
         <v>2.2999999999999998</v>
       </c>
@@ -38219,7 +38232,7 @@
         <v>0.6660419500000001</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="19">
         <v>2.72</v>
       </c>
@@ -38298,7 +38311,7 @@
         <v>0.72373427272727275</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="19">
         <v>3.2</v>
       </c>
@@ -38377,7 +38390,7 @@
         <v>0.77374282727272736</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="19">
         <v>3.78</v>
       </c>
@@ -38456,7 +38469,7 @@
         <v>0.83793021818181801</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="19">
         <v>4.46</v>
       </c>
@@ -38535,7 +38548,7 @@
         <v>0.9276544636363635</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="19">
         <v>5.27</v>
       </c>
@@ -38614,7 +38627,7 @@
         <v>1.0303185818181819</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="19">
         <v>6.21</v>
       </c>
@@ -38693,7 +38706,7 @@
         <v>1.1507959272727271</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="19">
         <v>7.33</v>
       </c>
@@ -38772,7 +38785,7 @@
         <v>1.2857054272727275</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="19">
         <v>8.65</v>
       </c>
@@ -38851,7 +38864,7 @@
         <v>1.4414075272727267</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="19">
         <v>10.210000000000001</v>
       </c>
@@ -38930,7 +38943,7 @@
         <v>1.6246772090909092</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="19">
         <v>12.05</v>
       </c>
@@ -39009,7 +39022,7 @@
         <v>1.8360353999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="19">
         <v>14.22</v>
       </c>
@@ -39088,7 +39101,7 @@
         <v>2.132178763636364</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="19">
         <v>16.78</v>
       </c>
@@ -39167,7 +39180,7 @@
         <v>2.4587393727272731</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="19">
         <v>19.809999999999999</v>
       </c>
@@ -39246,7 +39259,7 @@
         <v>2.7979305863636363</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="19">
         <v>23.37</v>
       </c>
@@ -39325,7 +39338,7 @@
         <v>1.1893333681818183</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="19">
         <v>25</v>
       </c>
@@ -39404,7 +39417,7 @@
         <v>1.8825031136363639</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="19">
         <v>27.58</v>
       </c>
@@ -39483,7 +39496,7 @@
         <v>3.3140245409090907</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="19">
         <v>32.549999999999997</v>
       </c>
@@ -39562,7 +39575,7 @@
         <v>3.4339506454545448</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="19">
         <v>38.409999999999997</v>
       </c>
@@ -39641,7 +39654,7 @@
         <v>3.4267308181818183</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="19">
         <v>45.32</v>
       </c>
@@ -39720,7 +39733,7 @@
         <v>3.2748958136363631</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="19">
         <v>53.48</v>
       </c>
@@ -39799,7 +39812,7 @@
         <v>2.9197439590909102</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="19">
         <v>63.11</v>
       </c>
@@ -39878,7 +39891,7 @@
         <v>2.4945463636363634</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="19">
         <v>74.48</v>
       </c>
@@ -39957,7 +39970,7 @@
         <v>1.9734895909090913</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="19">
         <v>87.89</v>
       </c>
@@ -40036,7 +40049,7 @@
         <v>1.5051432454545455</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" s="19">
         <v>103.72</v>
       </c>
@@ -40115,7 +40128,7 @@
         <v>1.0947431136363637</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" s="19">
         <v>122.39</v>
       </c>
@@ -40194,7 +40207,7 @@
         <v>9.8260886363636363E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" s="19">
         <v>125</v>
       </c>
@@ -40273,7 +40286,7 @@
         <v>0.73149481818181816</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" s="19">
         <v>144.43</v>
       </c>
@@ -40352,7 +40365,7 @@
         <v>0.61875227272727262</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" s="19">
         <v>170.44</v>
       </c>
@@ -40431,7 +40444,7 @@
         <v>0.47022736363636364</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" s="19">
         <v>201.13</v>
       </c>
@@ -40510,7 +40523,7 @@
         <v>0.35589850454545446</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" s="19">
         <v>237.35</v>
       </c>
@@ -40589,7 +40602,7 @@
         <v>9.0109809090909085E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" s="19">
         <v>250</v>
       </c>
@@ -40668,7 +40681,7 @@
         <v>0.21433984545454551</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" s="19">
         <v>280.08999999999997</v>
       </c>
@@ -40747,7 +40760,7 @@
         <v>0.12128648636363637</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101" s="19">
         <v>300</v>
       </c>
@@ -40826,7 +40839,7 @@
         <v>1.8120921590909094</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102" s="19">
         <v>330.52</v>
       </c>
@@ -40905,7 +40918,7 @@
         <v>3.484536859090908</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103" s="19">
         <v>390.04</v>
       </c>
@@ -40984,7 +40997,7 @@
         <v>4.0028678454545457</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104" s="19">
         <v>460.27</v>
       </c>
@@ -41063,7 +41076,7 @@
         <v>20.949027127272725</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105" s="19">
         <v>850</v>
       </c>
@@ -41142,7 +41155,7 @@
         <v>3.67216955</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106" s="19">
         <v>1000</v>
       </c>
@@ -41221,7 +41234,7 @@
         <v>14.385586940909089</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107" s="19">
         <v>5000</v>
       </c>

--- a/Shear Stress/bedload_tauc/bedload_tauc_analysis.xlsx
+++ b/Shear Stress/bedload_tauc/bedload_tauc_analysis.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\GitHub\La_Jara\Shear Stress\bedload_tauc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B08999-41CA-4366-855F-43B9D076180C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F690D8-C3C8-4EF3-82BE-98C534F6BA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="tau_m (Q rating curve)" sheetId="4" r:id="rId1"/>
+    <sheet name="tau_m (cm=0.44)" sheetId="4" r:id="rId1"/>
     <sheet name="tau_m (CS calibration)" sheetId="1" r:id="rId2"/>
     <sheet name="Bed GSD" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -1492,7 +1492,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1587,7 +1587,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'tau_m (Q rating curve)'!$A$99</c:f>
+              <c:f>'tau_m (cm=0.44)'!$A$99</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1640,8 +1640,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.60686928501877579"/>
-                  <c:y val="-0.21175572256491126"/>
+                  <c:x val="8.4020630252707534E-2"/>
+                  <c:y val="0.14993229729909216"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1726,50 +1726,50 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'tau_m (Q rating curve)'!$C$99:$K$99</c:f>
+              <c:f>'tau_m (cm=0.44)'!$C$99:$K$99</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="0.0000">
-                  <c:v>0</c:v>
+                  <c:v>0.52670134106515798</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.44042237113285543</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.2921608976530729</c:v>
+                  <c:v>0.77988262433421263</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.2921608976530729</c:v>
+                  <c:v>0.78831433439080301</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.25394955472209652</c:v>
+                  <c:v>0.73294377215982576</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.28504629008439136</c:v>
+                  <c:v>0.7714962594833713</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.20345991967333782</c:v>
+                  <c:v>0.68798320951797143</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.55656514104414734</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'tau_m (Q rating curve)'!$C$100:$K$100</c:f>
+              <c:f>'tau_m (cm=0.44)'!$C$100:$K$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1786,19 +1786,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.6459580142658723E-6</c:v>
+                  <c:v>5.9698985144301188E-7</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.6353990691174777E-6</c:v>
+                  <c:v>5.9185966025312658E-7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.6531611104789272E-6</c:v>
+                  <c:v>7.4834116195776135E-7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1.0627120967914573E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1815,7 +1815,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>'tau_m (Q rating curve)'!$A$101</c:f>
+              <c:f>'tau_m (cm=0.44)'!$A$101</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1868,8 +1868,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.43118363431413459"/>
-                  <c:y val="-0.19817532421681927"/>
+                  <c:x val="0.1862818858212737"/>
+                  <c:y val="0.19470089759963574"/>
                 </c:manualLayout>
               </c:layout>
               <c:tx>
@@ -1958,50 +1958,50 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'tau_m (Q rating curve)'!$C$101:$K$101</c:f>
+              <c:f>'tau_m (cm=0.44)'!$C$101:$K$101</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="0.0000">
-                  <c:v>0</c:v>
+                  <c:v>0.73738187749122119</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.61659131958599755</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.40902525671430207</c:v>
+                  <c:v>1.0918356740678976</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.40902525671430207</c:v>
+                  <c:v>1.1036400681471243</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.35552937661093509</c:v>
+                  <c:v>1.0261212810237561</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.39906480611814787</c:v>
+                  <c:v>1.0800947632767197</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.28484388754267292</c:v>
+                  <c:v>0.96317649332515998</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>0.77919119746180621</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'tau_m (Q rating curve)'!$C$102:$K$102</c:f>
+              <c:f>'tau_m (cm=0.44)'!$C$102:$K$102</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2018,19 +2018,19 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.669938806409995E-6</c:v>
+                  <c:v>8.2802380500036868E-7</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.1487666270981803E-6</c:v>
+                  <c:v>4.8257142562604972E-7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.3841743373493836E-6</c:v>
+                  <c:v>1.5092028324167451E-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>2.7152594274178989E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2047,7 +2047,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>'tau_m (Q rating curve)'!$A$103</c:f>
+              <c:f>'tau_m (cm=0.44)'!$A$103</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2100,8 +2100,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="0.24235240559666368"/>
-                  <c:y val="-0.16222134010222131"/>
+                  <c:x val="-0.14461653129295249"/>
+                  <c:y val="-0.38151071976907214"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2141,43 +2141,43 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'tau_m (Q rating curve)'!$C$103:$K$103</c:f>
+              <c:f>'tau_m (cm=0.44)'!$C$103:$K$103</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="0.0000">
-                  <c:v>0</c:v>
+                  <c:v>1.053402682130316</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>0.88084474226571086</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.58432179530614581</c:v>
+                  <c:v>1.5597652486684253</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.58432179530614581</c:v>
+                  <c:v>1.576628668781606</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.50789910944419303</c:v>
+                  <c:v>1.4658875443196515</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.57009258016878273</c:v>
+                  <c:v>1.5429925189667426</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.40691983934667564</c:v>
+                  <c:v>1.3759664190359429</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1.1131302820882947</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'tau_m (Q rating curve)'!$C$104:$K$104</c:f>
+              <c:f>'tau_m (cm=0.44)'!$C$104:$K$104</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2188,25 +2188,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>7.6154635031688742E-8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.7140181254455619E-6</c:v>
+                  <c:v>1.0808875554473613E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>7.9851186319839774E-6</c:v>
+                  <c:v>1.801629035744759E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.4870152681704804E-7</c:v>
+                  <c:v>1.3230008254005486E-7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.4577085833868152E-6</c:v>
+                  <c:v>7.7653447305153264E-7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.5392769836461339E-5</c:v>
+                  <c:v>5.6920157878640537E-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>5.5765366977395804E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2223,7 +2223,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>'tau_m (Q rating curve)'!$A$105</c:f>
+              <c:f>'tau_m (cm=0.44)'!$A$105</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2270,8 +2270,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-9.5314263128594631E-3"/>
-                  <c:y val="-0.2997251648015411"/>
+                  <c:x val="-7.2697781649636375E-2"/>
+                  <c:y val="-0.2373844737469408"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2311,43 +2311,43 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'tau_m (Q rating curve)'!$C$105:$K$105</c:f>
+              <c:f>'tau_m (cm=0.44)'!$C$105:$K$105</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="0.0000">
-                  <c:v>0</c:v>
+                  <c:v>1.4747637549824424</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.2331826391719951</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.81805051342860413</c:v>
+                  <c:v>2.1836713481357952</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.81805051342860413</c:v>
+                  <c:v>2.2072801362942487</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.71105875322187018</c:v>
+                  <c:v>2.0522425620475122</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.79812961223629575</c:v>
+                  <c:v>2.1601895265534394</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.56968777508534585</c:v>
+                  <c:v>1.92635298665032</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1.5583823949236124</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'tau_m (Q rating curve)'!$C$106:$K$106</c:f>
+              <c:f>'tau_m (cm=0.44)'!$C$106:$K$106</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -2358,25 +2358,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4.8137250785462698E-7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>4.7909319686145326E-6</c:v>
+                  <c:v>1.0985232992461006E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6652369085737913E-5</c:v>
+                  <c:v>3.7571629228694016E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>7.318023182365138E-7</c:v>
+                  <c:v>1.4924815666882116E-7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.0043949148378976E-5</c:v>
+                  <c:v>2.2556767209263471E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.7486783066407361E-6</c:v>
+                  <c:v>2.812298832582589E-7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>4.178800109417273E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2393,7 +2393,7 @@
           <c:order val="5"/>
           <c:tx>
             <c:strRef>
-              <c:f>'tau_m (Q rating curve)'!$A$107</c:f>
+              <c:f>'tau_m (cm=0.44)'!$A$107</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2440,8 +2440,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="5.3007999393009521E-2"/>
-                  <c:y val="-0.24639527746948842"/>
+                  <c:x val="-0.46563932537065905"/>
+                  <c:y val="-0.26338133222977117"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2481,72 +2481,72 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'tau_m (Q rating curve)'!$C$107:$K$107</c:f>
+              <c:f>'tau_m (cm=0.44)'!$C$107:$K$107</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="0.0000">
-                  <c:v>0</c:v>
+                  <c:v>2.1068053642606319</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.7616894845314217</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.1686435906122916</c:v>
+                  <c:v>3.1195304973368505</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.1686435906122916</c:v>
+                  <c:v>3.153257337563212</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.0157982188883861</c:v>
+                  <c:v>2.931775088639303</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.1401851603375655</c:v>
+                  <c:v>3.0859850379334852</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.81383967869335128</c:v>
+                  <c:v>2.7519328380718857</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>2.2262605641765894</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'tau_m (Q rating curve)'!$C$108:$K$108</c:f>
+              <c:f>'tau_m (cm=0.44)'!$C$108:$K$108</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>2.4241322429707223E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1.7724286168115935E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0649609054162688E-5</c:v>
+                  <c:v>2.4418722182863879E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.6844515089445802E-5</c:v>
+                  <c:v>8.3129820923635666E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>6.0811741937963365E-6</c:v>
+                  <c:v>1.2402311610507579E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.1928144117941109E-5</c:v>
+                  <c:v>7.1704436537141096E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>8.5032476972574035E-5</c:v>
+                  <c:v>1.3675284631452009E-5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1.2795774128146584E-5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2563,7 +2563,7 @@
           <c:order val="6"/>
           <c:tx>
             <c:strRef>
-              <c:f>'tau_m (Q rating curve)'!$A$109</c:f>
+              <c:f>'tau_m (cm=0.44)'!$A$109</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2651,72 +2651,72 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'tau_m (Q rating curve)'!$C$109:$K$109</c:f>
+              <c:f>'tau_m (cm=0.44)'!$C$109:$K$109</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="0.0000">
-                  <c:v>0</c:v>
+                  <c:v>2.9495275099648848</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.4663652783439902</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.6361010268572083</c:v>
+                  <c:v>4.3673426962715904</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6361010268572083</c:v>
+                  <c:v>4.4145602725884974</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.4221175064437404</c:v>
+                  <c:v>4.1044851240950244</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.5962592244725915</c:v>
+                  <c:v>4.3203790531068789</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.1393755501706917</c:v>
+                  <c:v>3.8527059733006399</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>3.1167647898472248</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'tau_m (Q rating curve)'!$C$110:$K$110</c:f>
+              <c:f>'tau_m (cm=0.44)'!$C$110:$K$110</c:f>
               <c:numCache>
                 <c:formatCode>0.00000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.0800362307330651E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>9.1653782733607663E-8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5.2434698568189284E-7</c:v>
+                  <c:v>1.2022867042038037E-7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.478566037981549E-6</c:v>
+                  <c:v>3.3359898932795121E-7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.9884131762870344E-7</c:v>
+                  <c:v>4.0552891656858944E-8</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.0527554293921522E-6</c:v>
+                  <c:v>4.6100916755262078E-7</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.6495663645668649E-6</c:v>
+                  <c:v>4.2611453265156593E-7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>3.5519586185859211E-7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2733,7 +2733,7 @@
           <c:order val="7"/>
           <c:tx>
             <c:strRef>
-              <c:f>'tau_m (Q rating curve)'!$A$111</c:f>
+              <c:f>'tau_m (cm=0.44)'!$A$111</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2780,8 +2780,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="6.6994070962006338E-2"/>
-                  <c:y val="-0.25942731803936409"/>
+                  <c:x val="-1.0646816591937809E-2"/>
+                  <c:y val="-0.16574124496074502"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2821,72 +2821,72 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'tau_m (Q rating curve)'!$C$111:$K$111</c:f>
+              <c:f>'tau_m (cm=0.44)'!$C$111:$K$111</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="0.0000">
-                  <c:v>0</c:v>
+                  <c:v>4.2136107285212638</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>3.5233789690628434</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.3372871812245832</c:v>
+                  <c:v>6.239060994673701</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.3372871812245832</c:v>
+                  <c:v>6.3065146751264241</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.0315964377767721</c:v>
+                  <c:v>5.8635501772786061</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.2803703206751309</c:v>
+                  <c:v>6.1719700758669704</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.6276793573867026</c:v>
+                  <c:v>5.5038656761437714</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>4.4525211283531787</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'tau_m (Q rating curve)'!$C$112:$K$112</c:f>
+              <c:f>'tau_m (cm=0.44)'!$C$112:$K$112</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.7443645343935165E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.2354991567442641E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>9.6046476263041247E-6</c:v>
+                  <c:v>2.2022707205326916E-6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.1526334862670091E-5</c:v>
+                  <c:v>4.8568432992854902E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>8.7350950481177565E-6</c:v>
+                  <c:v>1.7814877075002325E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4.468023462496148E-5</c:v>
+                  <c:v>1.0034316546228117E-5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.3068753057819528E-5</c:v>
+                  <c:v>5.3182575243426037E-6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>5.1359082527392634E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2903,7 +2903,7 @@
           <c:order val="8"/>
           <c:tx>
             <c:strRef>
-              <c:f>'tau_m (Q rating curve)'!$A$113</c:f>
+              <c:f>'tau_m (cm=0.44)'!$A$113</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2950,8 +2950,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-1.4070473826036656E-3"/>
-                  <c:y val="-0.32024524243614788"/>
+                  <c:x val="-6.4787134489252732E-2"/>
+                  <c:y val="-0.46216932455982757"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2988,72 +2988,72 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'tau_m (Q rating curve)'!$C$113:$K$113</c:f>
+              <c:f>'tau_m (cm=0.44)'!$C$113:$K$113</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="0.0000">
-                  <c:v>0</c:v>
+                  <c:v>5.8990550199297695</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>4.9327305566879804</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>3.2722020537144165</c:v>
+                  <c:v>8.7346853925431809</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>3.2722020537144165</c:v>
+                  <c:v>8.8291205451769947</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2.8442350128874807</c:v>
+                  <c:v>8.2089702481900488</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3.192518448945183</c:v>
+                  <c:v>8.6407581062137577</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>2.2787511003413834</c:v>
+                  <c:v>7.7054119466012798</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>6.2335295796944497</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'tau_m (Q rating curve)'!$C$114:$K$114</c:f>
+              <c:f>'tau_m (cm=0.44)'!$C$114:$K$114</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>4.8192255617582104E-7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>7.5902675808667702E-7</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0477382697179757E-6</c:v>
+                  <c:v>4.6953039925833273E-7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.3209156150012333E-6</c:v>
+                  <c:v>9.7489935864045726E-7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.966467375362628E-6</c:v>
+                  <c:v>4.0105315822105996E-7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.2659971293307011E-5</c:v>
+                  <c:v>2.8431846987713314E-6</c:v>
                 </c:pt>
                 <c:pt idx="7" formatCode="0.000">
-                  <c:v>3.9468773329707136E-8</c:v>
+                  <c:v>6.3475360068846906E-9</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1.0874661466213577E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3070,7 +3070,7 @@
           <c:order val="9"/>
           <c:tx>
             <c:strRef>
-              <c:f>'tau_m (Q rating curve)'!$A$115</c:f>
+              <c:f>'tau_m (cm=0.44)'!$A$115</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -3117,8 +3117,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-2.7560277768710173E-2"/>
-                  <c:y val="-0.29895796180189055"/>
+                  <c:x val="-0.21847577884292088"/>
+                  <c:y val="-0.43867645239245334"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -3158,72 +3158,72 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'tau_m (Q rating curve)'!$C$115:$K$115</c:f>
+              <c:f>'tau_m (cm=0.44)'!$C$115:$K$115</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0" formatCode="0.0000">
-                  <c:v>0</c:v>
+                  <c:v>29.495275099648843</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>24.6636527834399</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16.36101026857208</c:v>
+                  <c:v>43.673426962715901</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16.36101026857208</c:v>
+                  <c:v>44.145602725884963</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>14.2211750644374</c:v>
+                  <c:v>41.044851240950237</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15.962592244725913</c:v>
+                  <c:v>43.203790531068783</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>11.393755501706917</c:v>
+                  <c:v>38.527059733006396</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>31.167647898472243</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'tau_m (Q rating curve)'!$C$116:$K$116</c:f>
+              <c:f>'tau_m (cm=0.44)'!$C$116:$K$116</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>0</c:v>
+                  <c:v>1.1556837770843574E-6</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2.5221034526019734E-6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.2411398941884645E-6</c:v>
+                  <c:v>5.1387588192948751E-7</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>4.9708886662090091E-6</c:v>
+                  <c:v>1.1215484411997474E-6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.2702950979616834E-5</c:v>
+                  <c:v>2.5907160591276902E-6</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3139399972219167E-5</c:v>
+                  <c:v>5.1966616997421235E-6</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>3.9728026225063782E-6</c:v>
+                  <c:v>6.3892301602453366E-7</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1.5926499154138236E-6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3995,7 +3995,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'tau_m (Q rating curve)'!$V$92:$V$100</c:f>
+              <c:f>'tau_m (cm=0.44)'!$V$92:$V$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4031,36 +4031,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'tau_m (Q rating curve)'!$Y$92:$Y$100</c:f>
+              <c:f>'tau_m (cm=0.44)'!$Y$92:$Y$100</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.9799999999999998</c:v>
+                  <c:v>39.979999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.25</c:v>
+                  <c:v>49.750000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8</c:v>
+                  <c:v>19.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.05</c:v>
+                  <c:v>20.05</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.20000000000000004</c:v>
+                  <c:v>6.5333333333333341</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.387500000000001</c:v>
+                  <c:v>249.88750000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.91</c:v>
+                  <c:v>19.91</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.1500000000000012</c:v>
+                  <c:v>100.15000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.75</c:v>
+                  <c:v>333.41666666666669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4542,7 +4542,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>'tau_m (Q rating curve)'!$Z$92:$Z$100</c:f>
+              <c:f>'tau_m (cm=0.44)'!$Z$92:$Z$100</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="9"/>
@@ -4578,36 +4578,36 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'tau_m (Q rating curve)'!$Y$92:$Y$100</c:f>
+              <c:f>'tau_m (cm=0.44)'!$Y$92:$Y$100</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
-                  <c:v>1.9799999999999998</c:v>
+                  <c:v>39.979999999999997</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.25</c:v>
+                  <c:v>49.750000000000007</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.8</c:v>
+                  <c:v>19.8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.05</c:v>
+                  <c:v>20.05</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.20000000000000004</c:v>
+                  <c:v>6.5333333333333341</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>12.387500000000001</c:v>
+                  <c:v>249.88750000000002</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.91</c:v>
+                  <c:v>19.91</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>5.1500000000000012</c:v>
+                  <c:v>100.15000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16.75</c:v>
+                  <c:v>333.41666666666669</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4987,7 +4987,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'tau_m (Q rating curve)'!$AI$16</c:f>
+              <c:f>'tau_m (cm=0.44)'!$AI$16</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5022,7 +5022,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'tau_m (Q rating curve)'!$AB$18:$AB$30</c:f>
+              <c:f>'tau_m (cm=0.44)'!$AB$18:$AB$30</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="13"/>
@@ -5070,7 +5070,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'tau_m (Q rating curve)'!$AI$18:$AI$30</c:f>
+              <c:f>'tau_m (cm=0.44)'!$AI$18:$AI$30</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="13"/>
@@ -5437,7 +5437,7 @@
           </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>('tau_m (Q rating curve)'!$AB$18,'tau_m (Q rating curve)'!$AB$22)</c:f>
+              <c:f>('tau_m (cm=0.44)'!$AB$18,'tau_m (cm=0.44)'!$AB$22)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5452,7 +5452,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>('tau_m (Q rating curve)'!$AI$18,'tau_m (Q rating curve)'!$AI$22)</c:f>
+              <c:f>('tau_m (cm=0.44)'!$AI$18,'tau_m (cm=0.44)'!$AI$22)</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="2"/>
@@ -5729,7 +5729,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="es-AR"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -5963,7 +5963,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -6195,7 +6195,7 @@
                       <a:cs typeface="+mn-cs"/>
                     </a:defRPr>
                   </a:pPr>
-                  <a:endParaRPr lang="es-AR"/>
+                  <a:endParaRPr lang="en-US"/>
                 </a:p>
               </c:txPr>
             </c:trendlineLbl>
@@ -15384,34 +15384,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18846A3F-073E-4AD3-9086-76C467E4EDB2}">
   <dimension ref="A1:AM116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="N108" sqref="N108"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M113" sqref="M113"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" customWidth="1"/>
-    <col min="18" max="18" width="18.42578125" customWidth="1"/>
-    <col min="21" max="21" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" customWidth="1"/>
-    <col min="24" max="24" width="9.140625" style="1"/>
+    <col min="17" max="17" width="10.88671875" customWidth="1"/>
+    <col min="18" max="18" width="18.44140625" customWidth="1"/>
+    <col min="21" max="21" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5546875" customWidth="1"/>
+    <col min="24" max="24" width="9.109375" style="1"/>
     <col min="25" max="25" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.140625" style="1"/>
+    <col min="26" max="26" width="9.109375" style="1"/>
     <col min="35" max="35" width="12" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" s="212" t="s">
         <v>71</v>
       </c>
@@ -15468,7 +15468,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="53" t="s">
         <v>70</v>
       </c>
@@ -15555,7 +15555,7 @@
         <v>0.14369522173913041</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" s="51">
         <v>11.2</v>
       </c>
@@ -15641,7 +15641,7 @@
         <v>0.96557273478260874</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" s="52">
         <v>8</v>
       </c>
@@ -15727,7 +15727,7 @@
         <v>0.72795068403010044</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" s="52">
         <v>5.6</v>
       </c>
@@ -15813,7 +15813,7 @@
         <v>4.0363869782461155</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" s="52">
         <v>4</v>
       </c>
@@ -15892,7 +15892,7 @@
         <v>1.9437556084810153</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" s="52">
         <v>2.8</v>
       </c>
@@ -15955,7 +15955,7 @@
         <v>0.8005262470803336</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" s="52">
         <v>2</v>
       </c>
@@ -16022,7 +16022,7 @@
         <v>1.8410135952059168</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" s="52">
         <v>1.4</v>
       </c>
@@ -16092,7 +16092,7 @@
         <v>10.225716559788639</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" s="52">
         <v>1</v>
       </c>
@@ -16170,7 +16170,7 @@
         <v>19.118067345564235</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11" s="52">
         <v>0.7</v>
       </c>
@@ -16245,7 +16245,7 @@
         <v>4.1888629385561202</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" s="52">
         <v>0.5</v>
       </c>
@@ -16320,7 +16320,7 @@
         <v>56.008452203917081</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" s="52" t="s">
         <v>9</v>
       </c>
@@ -16387,7 +16387,7 @@
         <v>100.00000011739129</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" s="53" t="s">
         <v>105</v>
       </c>
@@ -16450,7 +16450,7 @@
         <v>0.11103687826086958</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="C15" s="1"/>
       <c r="L15" s="2">
         <v>32</v>
@@ -16488,7 +16488,7 @@
       <c r="AE15" s="226"/>
       <c r="AF15" s="31"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="L16" s="2">
         <v>22.6</v>
       </c>
@@ -16551,7 +16551,7 @@
         <v>2.2624434389140274E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A17" s="32" t="s">
         <v>54</v>
       </c>
@@ -16622,7 +16622,7 @@
         <v>4.2986425392484755E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>55</v>
       </c>
@@ -16694,7 +16694,7 @@
         <v>2.5343191042496417E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A19" s="69">
         <v>2</v>
       </c>
@@ -16704,17 +16704,17 @@
       <c r="C19" s="113">
         <v>0.65277777777777779</v>
       </c>
+      <c r="D19" s="33">
+        <v>47.742527040046603</v>
+      </c>
       <c r="E19" s="70">
         <f>SQRT(D19/$M$2)</f>
-        <v>0</v>
+        <v>0.21850063395799704</v>
       </c>
       <c r="F19" s="137">
         <f>B14</f>
         <v>9.9492000000000018E-3</v>
       </c>
-      <c r="H19">
-        <v>10.346979763166001</v>
-      </c>
       <c r="L19" s="2">
         <v>8</v>
       </c>
@@ -16776,7 +16776,7 @@
         <v>6.7873303167420851E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A20" s="57">
         <v>3</v>
       </c>
@@ -16791,10 +16791,7 @@
         <f t="shared" ref="E20:E27" si="13">SQRT(D20/$M$2)</f>
         <v>0</v>
       </c>
-      <c r="F20" s="150">
-        <f>C14</f>
-        <v>0.14232199999999998</v>
-      </c>
+      <c r="F20" s="150"/>
       <c r="L20" s="2">
         <v>5.6</v>
       </c>
@@ -16856,7 +16853,7 @@
         <v>3.6199095022624445E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A21" s="69">
         <v>4</v>
       </c>
@@ -16866,18 +16863,17 @@
       <c r="C21" s="113">
         <v>0.58333333333333337</v>
       </c>
-      <c r="D21" s="90"/>
+      <c r="D21" s="90">
+        <v>39.921821577914997</v>
+      </c>
       <c r="E21" s="70">
         <f>SQRT(D21/$M$2)</f>
-        <v>0</v>
+        <v>0.19980445835344865</v>
       </c>
       <c r="F21" s="137">
         <f>D14</f>
         <v>7.6644E-3</v>
       </c>
-      <c r="H21">
-        <v>6.7316958777680398</v>
-      </c>
       <c r="L21" s="2">
         <v>4</v>
       </c>
@@ -16939,7 +16935,7 @@
         <v>5.4298642533936597E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>5</v>
       </c>
@@ -16950,11 +16946,11 @@
         <v>0.625</v>
       </c>
       <c r="D22" s="117">
-        <v>26.482749271224201</v>
+        <v>70.691992553200095</v>
       </c>
       <c r="E22" s="34">
         <f t="shared" si="13"/>
-        <v>0.16273521214299075</v>
+        <v>0.26587965802821412</v>
       </c>
       <c r="F22" s="39">
         <f>E14</f>
@@ -17021,7 +17017,7 @@
         <v>6.7873303167420851E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A23" s="69">
         <v>6</v>
       </c>
@@ -17032,11 +17028,11 @@
         <v>0.63888888888888884</v>
       </c>
       <c r="D23" s="117">
-        <v>26.482749271224201</v>
+        <v>71.456279852253701</v>
       </c>
       <c r="E23" s="70">
         <f t="shared" si="13"/>
-        <v>0.16273521214299075</v>
+        <v>0.26731307460027781</v>
       </c>
       <c r="F23" s="137">
         <f>F14</f>
@@ -17103,7 +17099,7 @@
         <v>4.5248868778280549E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>7</v>
       </c>
@@ -17114,11 +17110,11 @@
         <v>0.6875</v>
       </c>
       <c r="D24" s="101">
-        <v>23.019105018051601</v>
+        <v>66.437248461164103</v>
       </c>
       <c r="E24" s="34">
         <f t="shared" si="13"/>
-        <v>0.15172048318553299</v>
+        <v>0.25775424043294437</v>
       </c>
       <c r="F24" s="39">
         <f>G14</f>
@@ -17185,7 +17181,7 @@
         <v>0.11312217194570137</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A25" s="69">
         <v>8</v>
       </c>
@@ -17196,11 +17192,11 @@
         <v>0.72916666666666663</v>
       </c>
       <c r="D25" s="101">
-        <v>25.837849936925601</v>
+        <v>69.931815543114496</v>
       </c>
       <c r="E25" s="70">
         <f t="shared" si="13"/>
-        <v>0.16074156256838365</v>
+        <v>0.26444624320098498</v>
       </c>
       <c r="F25" s="137">
         <f>H14</f>
@@ -17267,7 +17263,7 @@
         <v>0.12217194570135748</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>9</v>
       </c>
@@ -17278,11 +17274,11 @@
         <v>0.57986111111111116</v>
       </c>
       <c r="D26" s="118">
-        <v>18.442502342837901</v>
+        <v>62.361825236830803</v>
       </c>
       <c r="E26" s="34">
         <f t="shared" si="13"/>
-        <v>0.13580317501015174</v>
+        <v>0.24972349756647011</v>
       </c>
       <c r="F26" s="39">
         <f>I14</f>
@@ -17349,7 +17345,7 @@
         <v>0.19457013574660631</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A27" s="69">
         <v>10</v>
       </c>
@@ -17359,18 +17355,17 @@
       <c r="C27" s="116">
         <v>0.70833333333333337</v>
       </c>
-      <c r="D27" s="73"/>
+      <c r="D27" s="73">
+        <v>50.449513270862099</v>
+      </c>
       <c r="E27" s="70">
         <f t="shared" si="13"/>
-        <v>0</v>
+        <v>0.22460969095491426</v>
       </c>
       <c r="F27" s="137">
         <f>J14</f>
         <v>6.2585999999999996E-3</v>
       </c>
-      <c r="H27">
-        <v>10.961320932168199</v>
-      </c>
       <c r="L27" s="2">
         <v>0.5</v>
       </c>
@@ -17432,7 +17427,7 @@
         <v>0.19457013574660631</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
       <c r="C28" s="1"/>
       <c r="L28" s="2" t="s">
         <v>78</v>
@@ -17495,7 +17490,7 @@
         <v>0.15837104072398189</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
       <c r="M29" s="50">
         <f>SUM(M10:M28)</f>
         <v>1.0000000000531182</v>
@@ -17554,7 +17549,7 @@
         <v>4.5248868778280493E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A30" s="227" t="s">
         <v>72</v>
       </c>
@@ -17622,7 +17617,7 @@
         <v>5.8823529411764719E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A31" s="53" t="s">
         <v>70</v>
       </c>
@@ -17694,7 +17689,7 @@
       <c r="AG31" s="5"/>
       <c r="AI31" s="46"/>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>180</v>
       </c>
@@ -17767,7 +17762,7 @@
         <v>1.0000000000531182</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>128</v>
       </c>
@@ -17827,7 +17822,7 @@
         <v>4.5248868778280542</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>90</v>
       </c>
@@ -17871,7 +17866,7 @@
         <v>0.56166232608695643</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>64</v>
       </c>
@@ -17915,7 +17910,7 @@
         <v>0.48313567391304357</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>45</v>
       </c>
@@ -17959,7 +17954,7 @@
         <v>0.40172391304347826</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>32</v>
       </c>
@@ -18003,7 +17998,7 @@
         <v>0.31800290000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>22.6</v>
       </c>
@@ -18047,7 +18042,7 @@
         <v>3.0056556521739126E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>16</v>
       </c>
@@ -18091,7 +18086,7 @@
         <v>0.22375436521739128</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A40" s="52">
         <v>11</v>
       </c>
@@ -18144,7 +18139,7 @@
         <v>0.20053242608695654</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A41" s="52">
         <v>8</v>
       </c>
@@ -18197,7 +18192,7 @@
         <v>0.15758740869565219</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A42" s="52">
         <v>5.6</v>
       </c>
@@ -18250,7 +18245,7 @@
         <v>0.11821860000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A43" s="52">
         <v>4</v>
       </c>
@@ -18303,7 +18298,7 @@
         <v>2.7713960869565214E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A44" s="52">
         <v>2.8</v>
       </c>
@@ -18355,7 +18350,7 @@
         <v>6.5921991304347824E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A45" s="52">
         <v>2</v>
       </c>
@@ -18407,7 +18402,7 @@
         <v>3.0966113043478259E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A46" s="52">
         <v>1.4</v>
       </c>
@@ -18459,7 +18454,7 @@
         <v>1.7120587434782608</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A47" s="52">
         <v>1</v>
       </c>
@@ -18511,7 +18506,7 @@
         <v>3.3152842391304347</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A48" s="52">
         <v>0.7</v>
       </c>
@@ -18563,7 +18558,7 @@
         <v>3.8885630782608689</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A49" s="52">
         <v>0.5</v>
       </c>
@@ -18615,7 +18610,7 @@
         <v>21.30781896521739</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A50" s="52" t="s">
         <v>78</v>
       </c>
@@ -18667,7 +18662,7 @@
         <v>8.1626277652173904</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B51" s="40">
         <f>SUM(B40:B50)</f>
         <v>0.99999999999999989</v>
@@ -18716,7 +18711,7 @@
         <v>52.866804999999992</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -18735,13 +18730,13 @@
         <v>100.00000011739129</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A53" s="32" t="s">
         <v>73</v>
       </c>
       <c r="Q53" s="49"/>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A54" s="212" t="s">
         <v>74</v>
       </c>
@@ -18801,7 +18796,7 @@
       <c r="AK54" s="215"/>
       <c r="AL54" s="216"/>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>75</v>
       </c>
@@ -18917,7 +18912,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>1</v>
       </c>
@@ -18926,7 +18921,7 @@
       </c>
       <c r="C56" s="60">
         <f t="shared" ref="C56:C74" si="21">$D$19/(($M$3-$M$2)*$M$4*B56/1000)</f>
-        <v>0</v>
+        <v>1.6386263944249357E-2</v>
       </c>
       <c r="D56" s="68">
         <f>($B$14/1000/($M$6*60))*B32/($M$3*$M$5)</f>
@@ -18936,9 +18931,9 @@
         <f>M10</f>
         <v>5.8823529411764719E-2</v>
       </c>
-      <c r="F56" s="68" t="e">
+      <c r="F56" s="68">
         <f>($M$3/$M$2-1)*$M$4*D56/(E56*$E$19^3)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="G56" s="152">
         <f t="shared" ref="G56:G74" si="22">$D$20/(($M$3-$M$2)*$M$4*B56/1000)</f>
@@ -18958,7 +18953,7 @@
       </c>
       <c r="K56" s="60">
         <f t="shared" ref="K56:K74" si="24">$D$21/(($M$3-$M$2)*$M$4*B56/1000)</f>
-        <v>0</v>
+        <v>1.3702029324133278E-2</v>
       </c>
       <c r="L56" s="68">
         <f>($D$14/1000/($M$6*60))*D32/($M$3*$M$5)</f>
@@ -18968,13 +18963,13 @@
         <f>I56</f>
         <v>5.8823529411764719E-2</v>
       </c>
-      <c r="N56" s="61" t="e">
+      <c r="N56" s="61">
         <f t="shared" ref="N56:N74" si="25">($M$3/$M$2-1)*$M$4*L56/(M56*$E$21^3)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="O56" s="64">
         <f t="shared" ref="O56:O74" si="26">$D$22/(($M$3-$M$2)*$M$4*B56/1000)</f>
-        <v>9.0894501492067119E-3</v>
+        <v>2.426301497928661E-2</v>
       </c>
       <c r="P56" s="65">
         <f>($E$14/1000/($M$6*60))*E32/($M$3*$M$5)</f>
@@ -18990,7 +18985,7 @@
       </c>
       <c r="S56" s="60">
         <f t="shared" ref="S56:S74" si="28">$D$23/(($M$3-$M$2)*$M$4*B56/1000)</f>
-        <v>9.0894501492067119E-3</v>
+        <v>2.4525334847713867E-2</v>
       </c>
       <c r="T56" s="61">
         <f>($F$14/1000/($M$6*60))*F32/($M$3*$M$5)</f>
@@ -19006,7 +19001,7 @@
       </c>
       <c r="W56" s="64">
         <f t="shared" ref="W56:W74" si="30">$D$24/(($M$3-$M$2)*$M$4*B56/1000)</f>
-        <v>7.9006528135763341E-3</v>
+        <v>2.2802695133861243E-2</v>
       </c>
       <c r="X56" s="65">
         <f>($G$14/1000/($M$6*60))*G32/($M$3*$M$5)</f>
@@ -19022,7 +19017,7 @@
       </c>
       <c r="AA56" s="60">
         <f t="shared" ref="AA56:AA74" si="32">$D$25/(($M$3-$M$2)*$M$4*B56/1000)</f>
-        <v>8.8681068026255066E-3</v>
+        <v>2.4002105850593772E-2</v>
       </c>
       <c r="AB56" s="61">
         <f>($H$14/1000/($M$6*60))*H32/($M$3*$M$5)</f>
@@ -19038,7 +19033,7 @@
       </c>
       <c r="AE56" s="64">
         <f t="shared" ref="AE56:AE74" si="34">$D$26/(($M$3-$M$2)*$M$4*B56/1000)</f>
-        <v>6.3298641676149533E-3</v>
+        <v>2.140392207389244E-2</v>
       </c>
       <c r="AF56" s="65">
         <f>($I$14/1000/($M$6*60))*I32/($M$3*$M$5)</f>
@@ -19054,7 +19049,7 @@
       </c>
       <c r="AI56" s="60">
         <f>$D$27/(($M$3-$M$2)*$M$4*B56/1000)</f>
-        <v>0</v>
+        <v>1.731535994359569E-2</v>
       </c>
       <c r="AJ56" s="61">
         <f>($I$14/1000/($M$6*60))*J32/($M$3*$M$5)</f>
@@ -19064,12 +19059,12 @@
         <f>AG56</f>
         <v>5.8823529411764719E-2</v>
       </c>
-      <c r="AL56" s="61" t="e">
+      <c r="AL56" s="61">
         <f>($M$3/$M$2-1)*$M$4*AJ56/(AK56*$E$27^3)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>2</v>
       </c>
@@ -19078,7 +19073,7 @@
       </c>
       <c r="C57" s="60">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>2.3043183671600662E-2</v>
       </c>
       <c r="D57" s="68">
         <f t="shared" ref="D57:D74" si="36">($B$14/1000/($M$6*60))*B33/($M$3*$M$5)</f>
@@ -19088,9 +19083,9 @@
         <f t="shared" ref="E57:E74" si="37">M11</f>
         <v>4.5248868778280493E-2</v>
       </c>
-      <c r="F57" s="61" t="e">
-        <f t="shared" ref="F56:F74" si="38">($M$3/$M$2-1)*$M$4*D57/(E57*$E$19^3)</f>
-        <v>#DIV/0!</v>
+      <c r="F57" s="61">
+        <f t="shared" ref="F57:F74" si="38">($M$3/$M$2-1)*$M$4*D57/(E57*$E$19^3)</f>
+        <v>0</v>
       </c>
       <c r="G57" s="152">
         <f t="shared" si="22"/>
@@ -19110,7 +19105,7 @@
       </c>
       <c r="K57" s="60">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1.9268478737062424E-2</v>
       </c>
       <c r="L57" s="68">
         <f t="shared" ref="L57:L74" si="41">($D$14/1000/($M$6*60))*D33/($M$3*$M$5)</f>
@@ -19120,13 +19115,13 @@
         <f t="shared" ref="M57:M74" si="42">I57</f>
         <v>4.5248868778280493E-2</v>
       </c>
-      <c r="N57" s="61" t="e">
+      <c r="N57" s="61">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="O57" s="64">
         <f t="shared" si="26"/>
-        <v>1.278203927232194E-2</v>
+        <v>3.41198648146218E-2</v>
       </c>
       <c r="P57" s="65">
         <f t="shared" ref="P57:P74" si="43">($E$14/1000/($M$6*60))*E33/($M$3*$M$5)</f>
@@ -19142,7 +19137,7 @@
       </c>
       <c r="S57" s="60">
         <f t="shared" si="28"/>
-        <v>1.278203927232194E-2</v>
+        <v>3.4488752129597636E-2</v>
       </c>
       <c r="T57" s="61">
         <f t="shared" ref="T57:T74" si="45">($F$14/1000/($M$6*60))*F33/($M$3*$M$5)</f>
@@ -19158,7 +19153,7 @@
       </c>
       <c r="W57" s="64">
         <f t="shared" si="30"/>
-        <v>1.1110293019091722E-2</v>
+        <v>3.2066290031992378E-2</v>
       </c>
       <c r="X57" s="65">
         <f t="shared" ref="X57:X74" si="47">($G$14/1000/($M$6*60))*G33/($M$3*$M$5)</f>
@@ -19174,7 +19169,7 @@
       </c>
       <c r="AA57" s="60">
         <f t="shared" si="32"/>
-        <v>1.2470775191192121E-2</v>
+        <v>3.3752961352397491E-2</v>
       </c>
       <c r="AB57" s="61">
         <f t="shared" ref="AB57:AB74" si="49">($H$14/1000/($M$6*60))*H33/($M$3*$M$5)</f>
@@ -19190,7 +19185,7 @@
       </c>
       <c r="AE57" s="64">
         <f t="shared" si="34"/>
-        <v>8.9013714857085289E-3</v>
+        <v>3.0099265416411249E-2</v>
       </c>
       <c r="AF57" s="65">
         <f t="shared" ref="AF57:AF74" si="51">($I$14/1000/($M$6*60))*I33/($M$3*$M$5)</f>
@@ -19206,7 +19201,7 @@
       </c>
       <c r="AI57" s="60">
         <f t="shared" ref="AI57:AI74" si="53">$D$27/(($M$3-$M$2)*$M$4*B57/1000)</f>
-        <v>0</v>
+        <v>2.4349724920681444E-2</v>
       </c>
       <c r="AJ57" s="61">
         <f t="shared" ref="AJ57:AJ74" si="54">($I$14/1000/($M$6*60))*J33/($M$3*$M$5)</f>
@@ -19216,12 +19211,12 @@
         <f t="shared" ref="AK57:AK74" si="55">AG57</f>
         <v>4.5248868778280493E-2</v>
       </c>
-      <c r="AL57" s="61" t="e">
+      <c r="AL57" s="61">
         <f t="shared" ref="AL57:AL74" si="56">($M$3/$M$2-1)*$M$4*AJ57/(AK57*$E$27^3)</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>3</v>
       </c>
@@ -19230,7 +19225,7 @@
       </c>
       <c r="C58" s="60">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>3.2772527888498715E-2</v>
       </c>
       <c r="D58" s="68">
         <f t="shared" si="36"/>
@@ -19240,9 +19235,9 @@
         <f t="shared" si="37"/>
         <v>0.15837104072398189</v>
       </c>
-      <c r="F58" s="61" t="e">
+      <c r="F58" s="61">
         <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="G58" s="152">
         <f t="shared" si="22"/>
@@ -19262,7 +19257,7 @@
       </c>
       <c r="K58" s="60">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>2.7404058648266557E-2</v>
       </c>
       <c r="L58" s="68">
         <f t="shared" si="41"/>
@@ -19272,13 +19267,13 @@
         <f t="shared" si="42"/>
         <v>0.15837104072398189</v>
       </c>
-      <c r="N58" s="61" t="e">
+      <c r="N58" s="61">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="O58" s="64">
         <f t="shared" si="26"/>
-        <v>1.8178900298413424E-2</v>
+        <v>4.8526029958573219E-2</v>
       </c>
       <c r="P58" s="65">
         <f t="shared" si="43"/>
@@ -19294,7 +19289,7 @@
       </c>
       <c r="S58" s="60">
         <f t="shared" si="28"/>
-        <v>1.8178900298413424E-2</v>
+        <v>4.9050669695427734E-2</v>
       </c>
       <c r="T58" s="61">
         <f t="shared" si="45"/>
@@ -19310,7 +19305,7 @@
       </c>
       <c r="W58" s="64">
         <f t="shared" si="30"/>
-        <v>1.5801305627152668E-2</v>
+        <v>4.5605390267722486E-2</v>
       </c>
       <c r="X58" s="65">
         <f t="shared" si="47"/>
@@ -19326,7 +19321,7 @@
       </c>
       <c r="AA58" s="60">
         <f t="shared" si="32"/>
-        <v>1.7736213605251013E-2</v>
+        <v>4.8004211701187544E-2</v>
       </c>
       <c r="AB58" s="61">
         <f t="shared" si="49"/>
@@ -19342,7 +19337,7 @@
       </c>
       <c r="AE58" s="64">
         <f t="shared" si="34"/>
-        <v>1.2659728335229907E-2</v>
+        <v>4.2807844147784879E-2</v>
       </c>
       <c r="AF58" s="65">
         <f t="shared" si="51"/>
@@ -19358,7 +19353,7 @@
       </c>
       <c r="AI58" s="60">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>3.463071988719138E-2</v>
       </c>
       <c r="AJ58" s="61">
         <f t="shared" si="54"/>
@@ -19368,12 +19363,12 @@
         <f t="shared" si="55"/>
         <v>0.15837104072398189</v>
       </c>
-      <c r="AL58" s="61" t="e">
+      <c r="AL58" s="61">
         <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>4</v>
       </c>
@@ -19382,7 +19377,7 @@
       </c>
       <c r="C59" s="60">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>4.6086367343201325E-2</v>
       </c>
       <c r="D59" s="68">
         <f t="shared" si="36"/>
@@ -19392,9 +19387,9 @@
         <f t="shared" si="37"/>
         <v>0.19457013574660631</v>
       </c>
-      <c r="F59" s="61" t="e">
+      <c r="F59" s="61">
         <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="G59" s="152">
         <f t="shared" si="22"/>
@@ -19414,7 +19409,7 @@
       </c>
       <c r="K59" s="60">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>3.8536957474124847E-2</v>
       </c>
       <c r="L59" s="68">
         <f t="shared" si="41"/>
@@ -19424,13 +19419,13 @@
         <f t="shared" si="42"/>
         <v>0.19457013574660631</v>
       </c>
-      <c r="N59" s="61" t="e">
+      <c r="N59" s="61">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="O59" s="64">
         <f t="shared" si="26"/>
-        <v>2.5564078544643879E-2</v>
+        <v>6.8239729629243601E-2</v>
       </c>
       <c r="P59" s="65">
         <f t="shared" si="43"/>
@@ -19446,7 +19441,7 @@
       </c>
       <c r="S59" s="60">
         <f t="shared" si="28"/>
-        <v>2.5564078544643879E-2</v>
+        <v>6.8977504259195271E-2</v>
       </c>
       <c r="T59" s="61">
         <f t="shared" si="45"/>
@@ -19462,7 +19457,7 @@
       </c>
       <c r="W59" s="64">
         <f t="shared" si="30"/>
-        <v>2.2220586038183443E-2</v>
+        <v>6.4132580063984757E-2</v>
       </c>
       <c r="X59" s="65">
         <f t="shared" si="47"/>
@@ -19478,7 +19473,7 @@
       </c>
       <c r="AA59" s="60">
         <f t="shared" si="32"/>
-        <v>2.4941550382384242E-2</v>
+        <v>6.7505922704794982E-2</v>
       </c>
       <c r="AB59" s="61">
         <f t="shared" si="49"/>
@@ -19494,7 +19489,7 @@
       </c>
       <c r="AE59" s="64">
         <f t="shared" si="34"/>
-        <v>1.7802742971417058E-2</v>
+        <v>6.0198530832822499E-2</v>
       </c>
       <c r="AF59" s="65">
         <f t="shared" si="51"/>
@@ -19510,7 +19505,7 @@
       </c>
       <c r="AI59" s="60">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>4.8699449841362888E-2</v>
       </c>
       <c r="AJ59" s="61">
         <f t="shared" si="54"/>
@@ -19520,12 +19515,12 @@
         <f t="shared" si="55"/>
         <v>0.19457013574660631</v>
       </c>
-      <c r="AL59" s="61" t="e">
+      <c r="AL59" s="61">
         <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>5</v>
       </c>
@@ -19534,7 +19529,7 @@
       </c>
       <c r="C60" s="60">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>6.554505577699743E-2</v>
       </c>
       <c r="D60" s="68">
         <f t="shared" si="36"/>
@@ -19544,9 +19539,9 @@
         <f t="shared" si="37"/>
         <v>0.19457013574660631</v>
       </c>
-      <c r="F60" s="61" t="e">
+      <c r="F60" s="61">
         <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="G60" s="152">
         <f t="shared" si="22"/>
@@ -19566,7 +19561,7 @@
       </c>
       <c r="K60" s="60">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>5.4808117296533114E-2</v>
       </c>
       <c r="L60" s="68">
         <f t="shared" si="41"/>
@@ -19576,13 +19571,13 @@
         <f t="shared" si="42"/>
         <v>0.19457013574660631</v>
       </c>
-      <c r="N60" s="61" t="e">
+      <c r="N60" s="61">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="O60" s="64">
         <f t="shared" si="26"/>
-        <v>3.6357800596826848E-2</v>
+        <v>9.7052059917146438E-2</v>
       </c>
       <c r="P60" s="65">
         <f t="shared" si="43"/>
@@ -19598,7 +19593,7 @@
       </c>
       <c r="S60" s="60">
         <f t="shared" si="28"/>
-        <v>3.6357800596826848E-2</v>
+        <v>9.8101339390855469E-2</v>
       </c>
       <c r="T60" s="61">
         <f t="shared" si="45"/>
@@ -19614,7 +19609,7 @@
       </c>
       <c r="W60" s="64">
         <f t="shared" si="30"/>
-        <v>3.1602611254305336E-2</v>
+        <v>9.1210780535444971E-2</v>
       </c>
       <c r="X60" s="65">
         <f t="shared" si="47"/>
@@ -19630,7 +19625,7 @@
       </c>
       <c r="AA60" s="60">
         <f t="shared" si="32"/>
-        <v>3.5472427210502026E-2</v>
+        <v>9.6008423402375087E-2</v>
       </c>
       <c r="AB60" s="61">
         <f t="shared" si="49"/>
@@ -19646,7 +19641,7 @@
       </c>
       <c r="AE60" s="64">
         <f t="shared" si="34"/>
-        <v>2.5319456670459813E-2</v>
+        <v>8.5615688295569758E-2</v>
       </c>
       <c r="AF60" s="65">
         <f t="shared" si="51"/>
@@ -19662,7 +19657,7 @@
       </c>
       <c r="AI60" s="60">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>6.926143977438276E-2</v>
       </c>
       <c r="AJ60" s="61">
         <f t="shared" si="54"/>
@@ -19672,12 +19667,12 @@
         <f t="shared" si="55"/>
         <v>0.19457013574660631</v>
       </c>
-      <c r="AL60" s="61" t="e">
+      <c r="AL60" s="61">
         <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>6</v>
       </c>
@@ -19686,7 +19681,7 @@
       </c>
       <c r="C61" s="60">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>9.2172734686402649E-2</v>
       </c>
       <c r="D61" s="68">
         <f t="shared" si="36"/>
@@ -19696,9 +19691,9 @@
         <f t="shared" si="37"/>
         <v>0.12217194570135748</v>
       </c>
-      <c r="F61" s="61" t="e">
+      <c r="F61" s="61">
         <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="G61" s="152">
         <f t="shared" si="22"/>
@@ -19718,7 +19713,7 @@
       </c>
       <c r="K61" s="60">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>7.7073914948249694E-2</v>
       </c>
       <c r="L61" s="68">
         <f t="shared" si="41"/>
@@ -19728,13 +19723,13 @@
         <f t="shared" si="42"/>
         <v>0.12217194570135748</v>
       </c>
-      <c r="N61" s="61" t="e">
+      <c r="N61" s="61">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="O61" s="64">
         <f t="shared" si="26"/>
-        <v>5.1128157089287758E-2</v>
+        <v>0.1364794592584872</v>
       </c>
       <c r="P61" s="65">
         <f t="shared" si="43"/>
@@ -19750,7 +19745,7 @@
       </c>
       <c r="S61" s="60">
         <f t="shared" si="28"/>
-        <v>5.1128157089287758E-2</v>
+        <v>0.13795500851839054</v>
       </c>
       <c r="T61" s="61">
         <f t="shared" si="45"/>
@@ -19766,7 +19761,7 @@
       </c>
       <c r="W61" s="64">
         <f t="shared" si="30"/>
-        <v>4.4441172076366886E-2</v>
+        <v>0.12826516012796951</v>
       </c>
       <c r="X61" s="65">
         <f t="shared" si="47"/>
@@ -19782,7 +19777,7 @@
       </c>
       <c r="AA61" s="60">
         <f t="shared" si="32"/>
-        <v>4.9883100764768484E-2</v>
+        <v>0.13501184540958996</v>
       </c>
       <c r="AB61" s="61">
         <f t="shared" si="49"/>
@@ -19798,7 +19793,7 @@
       </c>
       <c r="AE61" s="64">
         <f t="shared" si="34"/>
-        <v>3.5605485942834116E-2</v>
+        <v>0.120397061665645</v>
       </c>
       <c r="AF61" s="65">
         <f t="shared" si="51"/>
@@ -19814,7 +19809,7 @@
       </c>
       <c r="AI61" s="60">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>9.7398899682725776E-2</v>
       </c>
       <c r="AJ61" s="61">
         <f t="shared" si="54"/>
@@ -19824,12 +19819,12 @@
         <f t="shared" si="55"/>
         <v>0.12217194570135748</v>
       </c>
-      <c r="AL61" s="61" t="e">
+      <c r="AL61" s="61">
         <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>7</v>
       </c>
@@ -19838,7 +19833,7 @@
       </c>
       <c r="C62" s="60">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>0.13051006681260549</v>
       </c>
       <c r="D62" s="68">
         <f t="shared" si="36"/>
@@ -19848,9 +19843,9 @@
         <f t="shared" si="37"/>
         <v>0.11312217194570137</v>
       </c>
-      <c r="F62" s="61" t="e">
+      <c r="F62" s="61">
         <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="G62" s="152">
         <f t="shared" si="22"/>
@@ -19870,7 +19865,7 @@
       </c>
       <c r="K62" s="60">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>0.10913120700637124</v>
       </c>
       <c r="L62" s="68">
         <f t="shared" si="41"/>
@@ -19880,13 +19875,13 @@
         <f t="shared" si="42"/>
         <v>0.11312217194570137</v>
       </c>
-      <c r="N62" s="61" t="e">
+      <c r="N62" s="61">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="O62" s="64">
         <f t="shared" si="26"/>
-        <v>7.2393850745894162E-2</v>
+        <v>0.19324525204741549</v>
       </c>
       <c r="P62" s="65">
         <f t="shared" si="43"/>
@@ -19902,7 +19897,7 @@
       </c>
       <c r="S62" s="60">
         <f t="shared" si="28"/>
-        <v>7.2393850745894162E-2</v>
+        <v>0.19533452533577417</v>
       </c>
       <c r="T62" s="61">
         <f t="shared" si="45"/>
@@ -19918,7 +19913,7 @@
       </c>
       <c r="W62" s="64">
         <f t="shared" si="30"/>
-        <v>6.2925553382466373E-2</v>
+        <v>0.18161438602190369</v>
       </c>
       <c r="X62" s="65">
         <f t="shared" si="47"/>
@@ -19934,7 +19929,7 @@
       </c>
       <c r="AA62" s="60">
         <f t="shared" si="32"/>
-        <v>7.0630939135955362E-2</v>
+        <v>0.19116721473924242</v>
       </c>
       <c r="AB62" s="61">
         <f t="shared" si="49"/>
@@ -19950,7 +19945,7 @@
       </c>
       <c r="AE62" s="64">
         <f t="shared" si="34"/>
-        <v>5.041484735268547E-2</v>
+        <v>0.17047371563277167</v>
       </c>
       <c r="AF62" s="65">
         <f t="shared" si="51"/>
@@ -19966,7 +19961,7 @@
       </c>
       <c r="AI62" s="60">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>0.137909946453417</v>
       </c>
       <c r="AJ62" s="61">
         <f t="shared" si="54"/>
@@ -19976,12 +19971,12 @@
         <f t="shared" si="55"/>
         <v>0.11312217194570137</v>
       </c>
-      <c r="AL62" s="61" t="e">
+      <c r="AL62" s="61">
         <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>8</v>
       </c>
@@ -19990,7 +19985,7 @@
       </c>
       <c r="C63" s="60">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>0.1843454693728053</v>
       </c>
       <c r="D63" s="68">
         <f t="shared" si="36"/>
@@ -20000,9 +19995,9 @@
         <f t="shared" si="37"/>
         <v>4.5248868778280549E-2</v>
       </c>
-      <c r="F63" s="61" t="e">
+      <c r="F63" s="61">
         <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="G63" s="152">
         <f t="shared" si="22"/>
@@ -20022,7 +20017,7 @@
       </c>
       <c r="K63" s="60">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>0.15414782989649939</v>
       </c>
       <c r="L63" s="68">
         <f t="shared" si="41"/>
@@ -20032,13 +20027,13 @@
         <f t="shared" si="42"/>
         <v>4.5248868778280549E-2</v>
       </c>
-      <c r="N63" s="61" t="e">
+      <c r="N63" s="61">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="O63" s="64">
         <f t="shared" si="26"/>
-        <v>0.10225631417857552</v>
+        <v>0.2729589185169744</v>
       </c>
       <c r="P63" s="65">
         <f t="shared" si="43"/>
@@ -20054,7 +20049,7 @@
       </c>
       <c r="S63" s="60">
         <f t="shared" si="28"/>
-        <v>0.10225631417857552</v>
+        <v>0.27591001703678109</v>
       </c>
       <c r="T63" s="61">
         <f t="shared" si="45"/>
@@ -20070,7 +20065,7 @@
       </c>
       <c r="W63" s="64">
         <f t="shared" si="30"/>
-        <v>8.8882344152733772E-2</v>
+        <v>0.25653032025593903</v>
       </c>
       <c r="X63" s="65">
         <f t="shared" si="47"/>
@@ -20086,7 +20081,7 @@
       </c>
       <c r="AA63" s="60">
         <f t="shared" si="32"/>
-        <v>9.9766201529536969E-2</v>
+        <v>0.27002369081917993</v>
       </c>
       <c r="AB63" s="61">
         <f t="shared" si="49"/>
@@ -20102,7 +20097,7 @@
       </c>
       <c r="AE63" s="64">
         <f t="shared" si="34"/>
-        <v>7.1210971885668231E-2</v>
+        <v>0.24079412333128999</v>
       </c>
       <c r="AF63" s="65">
         <f t="shared" si="51"/>
@@ -20118,7 +20113,7 @@
       </c>
       <c r="AI63" s="60">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>0.19479779936545155</v>
       </c>
       <c r="AJ63" s="61">
         <f t="shared" si="54"/>
@@ -20128,12 +20123,12 @@
         <f t="shared" si="55"/>
         <v>4.5248868778280549E-2</v>
       </c>
-      <c r="AL63" s="61" t="e">
+      <c r="AL63" s="61">
         <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>9</v>
       </c>
@@ -20142,7 +20137,7 @@
       </c>
       <c r="C64" s="60">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>0.26813886454226221</v>
       </c>
       <c r="D64" s="68">
         <f>($B$14/1000/($M$6*60))*B40/($M$3*$M$5)</f>
@@ -20152,9 +20147,9 @@
         <f t="shared" si="37"/>
         <v>6.7873303167420851E-3</v>
       </c>
-      <c r="F64" s="61" t="e">
+      <c r="F64" s="61">
         <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
+        <v>2.3004813693672412E-6</v>
       </c>
       <c r="G64" s="152">
         <f t="shared" si="22"/>
@@ -20174,7 +20169,7 @@
       </c>
       <c r="K64" s="60">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>0.22421502530399912</v>
       </c>
       <c r="L64" s="68">
         <f t="shared" si="41"/>
@@ -20184,13 +20179,13 @@
         <f t="shared" si="42"/>
         <v>6.7873303167420851E-3</v>
       </c>
-      <c r="N64" s="61" t="e">
+      <c r="N64" s="61">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="O64" s="64">
         <f t="shared" si="26"/>
-        <v>0.14873645698701893</v>
+        <v>0.3970311542065082</v>
       </c>
       <c r="P64" s="65">
         <f t="shared" si="43"/>
@@ -20206,7 +20201,7 @@
       </c>
       <c r="S64" s="60">
         <f t="shared" si="28"/>
-        <v>0.14873645698701893</v>
+        <v>0.40132366114440876</v>
       </c>
       <c r="T64" s="61">
         <f t="shared" si="45"/>
@@ -20222,7 +20217,7 @@
       </c>
       <c r="W64" s="64">
         <f t="shared" si="30"/>
-        <v>0.12928340967670365</v>
+        <v>0.37313501128136578</v>
       </c>
       <c r="X64" s="65">
         <f t="shared" si="47"/>
@@ -20238,7 +20233,7 @@
       </c>
       <c r="AA64" s="60">
         <f t="shared" si="32"/>
-        <v>0.14511447495205376</v>
+        <v>0.39276173210062537</v>
       </c>
       <c r="AB64" s="61">
         <f t="shared" si="49"/>
@@ -20254,7 +20249,7 @@
       </c>
       <c r="AE64" s="64">
         <f t="shared" si="34"/>
-        <v>0.10357959547006287</v>
+        <v>0.35024599757278541</v>
       </c>
       <c r="AF64" s="65">
         <f t="shared" si="51"/>
@@ -20270,7 +20265,7 @@
       </c>
       <c r="AI64" s="60">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>0.28334225362247495</v>
       </c>
       <c r="AJ64" s="61">
         <f t="shared" si="54"/>
@@ -20280,12 +20275,12 @@
         <f t="shared" si="55"/>
         <v>6.7873303167420851E-3</v>
       </c>
-      <c r="AL64" s="61" t="e">
+      <c r="AL64" s="61">
         <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>10</v>
       </c>
@@ -20294,7 +20289,7 @@
       </c>
       <c r="C65" s="60">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>0.3686909387456106</v>
       </c>
       <c r="D65" s="68">
         <f t="shared" si="36"/>
@@ -20304,9 +20299,9 @@
         <f t="shared" si="37"/>
         <v>5.4298642533936597E-3</v>
       </c>
-      <c r="F65" s="61" t="e">
+      <c r="F65" s="61">
         <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="G65" s="152">
         <f t="shared" si="22"/>
@@ -20326,7 +20321,7 @@
       </c>
       <c r="K65" s="60">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>0.30829565979299878</v>
       </c>
       <c r="L65" s="68">
         <f t="shared" si="41"/>
@@ -20336,13 +20331,13 @@
         <f t="shared" si="42"/>
         <v>5.4298642533936597E-3</v>
       </c>
-      <c r="N65" s="68" t="e">
+      <c r="N65" s="68">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="O65" s="64">
         <f t="shared" si="26"/>
-        <v>0.20451262835715103</v>
+        <v>0.54591783703394881</v>
       </c>
       <c r="P65" s="65">
         <f t="shared" si="43"/>
@@ -20358,7 +20353,7 @@
       </c>
       <c r="S65" s="60">
         <f t="shared" si="28"/>
-        <v>0.20451262835715103</v>
+        <v>0.55182003407356217</v>
       </c>
       <c r="T65" s="61">
         <f t="shared" si="45"/>
@@ -20374,7 +20369,7 @@
       </c>
       <c r="W65" s="64">
         <f t="shared" si="30"/>
-        <v>0.17776468830546754</v>
+        <v>0.51306064051187805</v>
       </c>
       <c r="X65" s="65">
         <f t="shared" si="47"/>
@@ -20390,7 +20385,7 @@
       </c>
       <c r="AA65" s="60">
         <f t="shared" si="32"/>
-        <v>0.19953240305907394</v>
+        <v>0.54004738163835986</v>
       </c>
       <c r="AB65" s="61">
         <f t="shared" si="49"/>
@@ -20406,7 +20401,7 @@
       </c>
       <c r="AE65" s="64">
         <f t="shared" si="34"/>
-        <v>0.14242194377133646</v>
+        <v>0.48158824666257999</v>
       </c>
       <c r="AF65" s="65">
         <f t="shared" si="51"/>
@@ -20418,11 +20413,11 @@
       </c>
       <c r="AH65" s="64">
         <f t="shared" si="35"/>
-        <v>2.9823349202297402E-6</v>
+        <v>4.79631787200728E-7</v>
       </c>
       <c r="AI65" s="60">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>0.3895955987309031</v>
       </c>
       <c r="AJ65" s="61">
         <f t="shared" si="54"/>
@@ -20432,12 +20427,12 @@
         <f t="shared" si="55"/>
         <v>5.4298642533936597E-3</v>
       </c>
-      <c r="AL65" s="61" t="e">
+      <c r="AL65" s="61">
         <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <f>A65+1</f>
         <v>11</v>
@@ -20447,7 +20442,7 @@
       </c>
       <c r="C66" s="60">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>0.52670134106515798</v>
       </c>
       <c r="D66" s="68">
         <f t="shared" si="36"/>
@@ -20457,9 +20452,9 @@
         <f t="shared" si="37"/>
         <v>3.6199095022624445E-3</v>
       </c>
-      <c r="F66" s="61" t="e">
+      <c r="F66" s="61">
         <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="G66" s="152">
         <f t="shared" si="22"/>
@@ -20479,7 +20474,7 @@
       </c>
       <c r="K66" s="60">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>0.44042237113285543</v>
       </c>
       <c r="L66" s="68">
         <f t="shared" si="41"/>
@@ -20489,13 +20484,13 @@
         <f t="shared" si="42"/>
         <v>3.6199095022624445E-3</v>
       </c>
-      <c r="N66" s="61" t="e">
+      <c r="N66" s="61">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="O66" s="64">
         <f t="shared" si="26"/>
-        <v>0.2921608976530729</v>
+        <v>0.77988262433421263</v>
       </c>
       <c r="P66" s="65">
         <f t="shared" si="43"/>
@@ -20511,7 +20506,7 @@
       </c>
       <c r="S66" s="60">
         <f t="shared" si="28"/>
-        <v>0.2921608976530729</v>
+        <v>0.78831433439080301</v>
       </c>
       <c r="T66" s="61">
         <f t="shared" si="45"/>
@@ -20523,11 +20518,11 @@
       </c>
       <c r="V66" s="61">
         <f t="shared" si="29"/>
-        <v>2.6459580142658723E-6</v>
+        <v>5.9698985144301188E-7</v>
       </c>
       <c r="W66" s="64">
         <f t="shared" si="30"/>
-        <v>0.25394955472209652</v>
+        <v>0.73294377215982576</v>
       </c>
       <c r="X66" s="65">
         <f t="shared" si="47"/>
@@ -20543,7 +20538,7 @@
       </c>
       <c r="AA66" s="60">
         <f t="shared" si="32"/>
-        <v>0.28504629008439136</v>
+        <v>0.7714962594833713</v>
       </c>
       <c r="AB66" s="61">
         <f t="shared" si="49"/>
@@ -20555,11 +20550,11 @@
       </c>
       <c r="AD66" s="68">
         <f t="shared" si="33"/>
-        <v>2.6353990691174777E-6</v>
+        <v>5.9185966025312658E-7</v>
       </c>
       <c r="AE66" s="64">
         <f t="shared" si="34"/>
-        <v>0.20345991967333782</v>
+        <v>0.68798320951797143</v>
       </c>
       <c r="AF66" s="65">
         <f t="shared" si="51"/>
@@ -20571,11 +20566,11 @@
       </c>
       <c r="AH66" s="64">
         <f t="shared" si="35"/>
-        <v>4.6531611104789272E-6</v>
+        <v>7.4834116195776135E-7</v>
       </c>
       <c r="AI66" s="60">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>0.55656514104414734</v>
       </c>
       <c r="AJ66" s="61">
         <f t="shared" si="54"/>
@@ -20585,12 +20580,12 @@
         <f t="shared" si="55"/>
         <v>3.6199095022624445E-3</v>
       </c>
-      <c r="AL66" s="61" t="e">
+      <c r="AL66" s="61">
         <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
+        <v>1.0627120967914573E-6</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <f t="shared" ref="A67:A74" si="57">A66+1</f>
         <v>12</v>
@@ -20600,7 +20595,7 @@
       </c>
       <c r="C67" s="60">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>0.73738187749122119</v>
       </c>
       <c r="D67" s="68">
         <f t="shared" si="36"/>
@@ -20610,9 +20605,9 @@
         <f t="shared" si="37"/>
         <v>2.7149321266968368E-3</v>
       </c>
-      <c r="F67" s="61" t="e">
+      <c r="F67" s="61">
         <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="G67" s="152">
         <f t="shared" si="22"/>
@@ -20632,7 +20627,7 @@
       </c>
       <c r="K67" s="60">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>0.61659131958599755</v>
       </c>
       <c r="L67" s="68">
         <f t="shared" si="41"/>
@@ -20642,13 +20637,13 @@
         <f t="shared" si="42"/>
         <v>2.7149321266968368E-3</v>
       </c>
-      <c r="N67" s="61" t="e">
+      <c r="N67" s="61">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="O67" s="64">
         <f t="shared" si="26"/>
-        <v>0.40902525671430207</v>
+        <v>1.0918356740678976</v>
       </c>
       <c r="P67" s="65">
         <f t="shared" si="43"/>
@@ -20664,7 +20659,7 @@
       </c>
       <c r="S67" s="60">
         <f t="shared" si="28"/>
-        <v>0.40902525671430207</v>
+        <v>1.1036400681471243</v>
       </c>
       <c r="T67" s="61">
         <f t="shared" si="45"/>
@@ -20676,11 +20671,11 @@
       </c>
       <c r="V67" s="61">
         <f t="shared" si="29"/>
-        <v>3.669938806409995E-6</v>
+        <v>8.2802380500036868E-7</v>
       </c>
       <c r="W67" s="64">
         <f t="shared" si="30"/>
-        <v>0.35552937661093509</v>
+        <v>1.0261212810237561</v>
       </c>
       <c r="X67" s="65">
         <f t="shared" si="47"/>
@@ -20696,7 +20691,7 @@
       </c>
       <c r="AA67" s="60">
         <f t="shared" si="32"/>
-        <v>0.39906480611814787</v>
+        <v>1.0800947632767197</v>
       </c>
       <c r="AB67" s="61">
         <f t="shared" si="49"/>
@@ -20708,11 +20703,11 @@
       </c>
       <c r="AD67" s="68">
         <f t="shared" si="33"/>
-        <v>2.1487666270981803E-6</v>
+        <v>4.8257142562604972E-7</v>
       </c>
       <c r="AE67" s="64">
         <f t="shared" si="34"/>
-        <v>0.28484388754267292</v>
+        <v>0.96317649332515998</v>
       </c>
       <c r="AF67" s="65">
         <f t="shared" si="51"/>
@@ -20724,11 +20719,11 @@
       </c>
       <c r="AH67" s="64">
         <f t="shared" si="35"/>
-        <v>9.3841743373493836E-6</v>
+        <v>1.5092028324167451E-6</v>
       </c>
       <c r="AI67" s="60">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>0.77919119746180621</v>
       </c>
       <c r="AJ67" s="61">
         <f t="shared" si="54"/>
@@ -20738,12 +20733,12 @@
         <f t="shared" si="55"/>
         <v>2.7149321266968368E-3</v>
       </c>
-      <c r="AL67" s="61" t="e">
+      <c r="AL67" s="61">
         <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
+        <v>2.7152594274178989E-6</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <f t="shared" si="57"/>
         <v>13</v>
@@ -20753,7 +20748,7 @@
       </c>
       <c r="C68" s="60">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1.053402682130316</v>
       </c>
       <c r="D68" s="68">
         <f t="shared" si="36"/>
@@ -20763,9 +20758,9 @@
         <f t="shared" si="37"/>
         <v>1.8099547511312222E-3</v>
       </c>
-      <c r="F68" s="61" t="e">
+      <c r="F68" s="61">
         <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="G68" s="152">
         <f t="shared" si="22"/>
@@ -20785,7 +20780,7 @@
       </c>
       <c r="K68" s="60">
         <f>$D$21/(($M$3-$M$2)*$M$4*B68/1000)</f>
-        <v>0</v>
+        <v>0.88084474226571086</v>
       </c>
       <c r="L68" s="68">
         <f t="shared" si="41"/>
@@ -20795,13 +20790,13 @@
         <f t="shared" si="42"/>
         <v>1.8099547511312222E-3</v>
       </c>
-      <c r="N68" s="61" t="e">
+      <c r="N68" s="61">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>7.6154635031688742E-8</v>
       </c>
       <c r="O68" s="64">
         <f t="shared" si="26"/>
-        <v>0.58432179530614581</v>
+        <v>1.5597652486684253</v>
       </c>
       <c r="P68" s="65">
         <f t="shared" si="43"/>
@@ -20813,11 +20808,11 @@
       </c>
       <c r="R68" s="64">
         <f t="shared" si="27"/>
-        <v>4.7140181254455619E-6</v>
+        <v>1.0808875554473613E-6</v>
       </c>
       <c r="S68" s="60">
         <f t="shared" si="28"/>
-        <v>0.58432179530614581</v>
+        <v>1.576628668781606</v>
       </c>
       <c r="T68" s="61">
         <f t="shared" si="45"/>
@@ -20829,11 +20824,11 @@
       </c>
       <c r="V68" s="61">
         <f t="shared" si="29"/>
-        <v>7.9851186319839774E-6</v>
+        <v>1.801629035744759E-6</v>
       </c>
       <c r="W68" s="64">
         <f t="shared" si="30"/>
-        <v>0.50789910944419303</v>
+        <v>1.4658875443196515</v>
       </c>
       <c r="X68" s="65">
         <f t="shared" si="47"/>
@@ -20845,11 +20840,11 @@
       </c>
       <c r="Z68" s="64">
         <f t="shared" si="31"/>
-        <v>6.4870152681704804E-7</v>
+        <v>1.3230008254005486E-7</v>
       </c>
       <c r="AA68" s="60">
         <f t="shared" si="32"/>
-        <v>0.57009258016878273</v>
+        <v>1.5429925189667426</v>
       </c>
       <c r="AB68" s="61">
         <f t="shared" si="49"/>
@@ -20861,11 +20856,11 @@
       </c>
       <c r="AD68" s="68">
         <f t="shared" si="33"/>
-        <v>3.4577085833868152E-6</v>
+        <v>7.7653447305153264E-7</v>
       </c>
       <c r="AE68" s="64">
         <f t="shared" si="34"/>
-        <v>0.40691983934667564</v>
+        <v>1.3759664190359429</v>
       </c>
       <c r="AF68" s="65">
         <f t="shared" si="51"/>
@@ -20877,11 +20872,11 @@
       </c>
       <c r="AH68" s="64">
         <f t="shared" si="35"/>
-        <v>3.5392769836461339E-5</v>
+        <v>5.6920157878640537E-6</v>
       </c>
       <c r="AI68" s="60">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>1.1131302820882947</v>
       </c>
       <c r="AJ68" s="61">
         <f t="shared" si="54"/>
@@ -20891,12 +20886,12 @@
         <f t="shared" si="55"/>
         <v>1.8099547511312222E-3</v>
       </c>
-      <c r="AL68" s="61" t="e">
+      <c r="AL68" s="61">
         <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
+        <v>5.5765366977395804E-6</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <f t="shared" si="57"/>
         <v>14</v>
@@ -20906,7 +20901,7 @@
       </c>
       <c r="C69" s="60">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>1.4747637549824424</v>
       </c>
       <c r="D69" s="68">
         <f t="shared" si="36"/>
@@ -20916,9 +20911,9 @@
         <f t="shared" si="37"/>
         <v>1.3574660633484115E-3</v>
       </c>
-      <c r="F69" s="61" t="e">
+      <c r="F69" s="61">
         <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="G69" s="152">
         <f t="shared" si="22"/>
@@ -20938,7 +20933,7 @@
       </c>
       <c r="K69" s="60">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1.2331826391719951</v>
       </c>
       <c r="L69" s="68">
         <f t="shared" si="41"/>
@@ -20948,13 +20943,13 @@
         <f t="shared" si="42"/>
         <v>1.3574660633484115E-3</v>
       </c>
-      <c r="N69" s="61" t="e">
+      <c r="N69" s="61">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>4.8137250785462698E-7</v>
       </c>
       <c r="O69" s="64">
         <f t="shared" si="26"/>
-        <v>0.81805051342860413</v>
+        <v>2.1836713481357952</v>
       </c>
       <c r="P69" s="65">
         <f t="shared" si="43"/>
@@ -20966,11 +20961,11 @@
       </c>
       <c r="R69" s="64">
         <f t="shared" si="27"/>
-        <v>4.7909319686145326E-6</v>
+        <v>1.0985232992461006E-6</v>
       </c>
       <c r="S69" s="60">
         <f t="shared" si="28"/>
-        <v>0.81805051342860413</v>
+        <v>2.2072801362942487</v>
       </c>
       <c r="T69" s="61">
         <f t="shared" si="45"/>
@@ -20982,11 +20977,11 @@
       </c>
       <c r="V69" s="61">
         <f t="shared" si="29"/>
-        <v>1.6652369085737913E-5</v>
+        <v>3.7571629228694016E-6</v>
       </c>
       <c r="W69" s="64">
         <f t="shared" si="30"/>
-        <v>0.71105875322187018</v>
+        <v>2.0522425620475122</v>
       </c>
       <c r="X69" s="65">
         <f t="shared" si="47"/>
@@ -20998,11 +20993,11 @@
       </c>
       <c r="Z69" s="64">
         <f t="shared" si="31"/>
-        <v>7.318023182365138E-7</v>
+        <v>1.4924815666882116E-7</v>
       </c>
       <c r="AA69" s="60">
         <f t="shared" si="32"/>
-        <v>0.79812961223629575</v>
+        <v>2.1601895265534394</v>
       </c>
       <c r="AB69" s="61">
         <f t="shared" si="49"/>
@@ -21014,11 +21009,11 @@
       </c>
       <c r="AD69" s="68">
         <f t="shared" si="33"/>
-        <v>1.0043949148378976E-5</v>
+        <v>2.2556767209263471E-6</v>
       </c>
       <c r="AE69" s="64">
         <f t="shared" si="34"/>
-        <v>0.56968777508534585</v>
+        <v>1.92635298665032</v>
       </c>
       <c r="AF69" s="65">
         <f t="shared" si="51"/>
@@ -21030,11 +21025,11 @@
       </c>
       <c r="AH69" s="64">
         <f t="shared" si="35"/>
-        <v>1.7486783066407361E-6</v>
+        <v>2.812298832582589E-7</v>
       </c>
       <c r="AI69" s="60">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>1.5583823949236124</v>
       </c>
       <c r="AJ69" s="61">
         <f t="shared" si="54"/>
@@ -21044,12 +21039,12 @@
         <f t="shared" si="55"/>
         <v>1.3574660633484115E-3</v>
       </c>
-      <c r="AL69" s="61" t="e">
+      <c r="AL69" s="61">
         <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
+        <v>4.178800109417273E-6</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <f t="shared" si="57"/>
         <v>15</v>
@@ -21059,7 +21054,7 @@
       </c>
       <c r="C70" s="60">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>2.1068053642606319</v>
       </c>
       <c r="D70" s="68">
         <f t="shared" si="36"/>
@@ -21069,9 +21064,9 @@
         <f t="shared" si="37"/>
         <v>9.0497737556561458E-4</v>
       </c>
-      <c r="F70" s="61" t="e">
+      <c r="F70" s="61">
         <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
+        <v>2.4241322429707223E-6</v>
       </c>
       <c r="G70" s="152">
         <f t="shared" si="22"/>
@@ -21091,7 +21086,7 @@
       </c>
       <c r="K70" s="60">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>1.7616894845314217</v>
       </c>
       <c r="L70" s="68">
         <f t="shared" si="41"/>
@@ -21101,13 +21096,13 @@
         <f t="shared" si="42"/>
         <v>9.0497737556561458E-4</v>
       </c>
-      <c r="N70" s="61" t="e">
+      <c r="N70" s="61">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>1.7724286168115935E-6</v>
       </c>
       <c r="O70" s="64">
         <f t="shared" si="26"/>
-        <v>1.1686435906122916</v>
+        <v>3.1195304973368505</v>
       </c>
       <c r="P70" s="65">
         <f t="shared" si="43"/>
@@ -21119,11 +21114,11 @@
       </c>
       <c r="R70" s="64">
         <f t="shared" si="27"/>
-        <v>1.0649609054162688E-5</v>
+        <v>2.4418722182863879E-6</v>
       </c>
       <c r="S70" s="60">
         <f t="shared" si="28"/>
-        <v>1.1686435906122916</v>
+        <v>3.153257337563212</v>
       </c>
       <c r="T70" s="61">
         <f t="shared" si="45"/>
@@ -21135,11 +21130,11 @@
       </c>
       <c r="V70" s="61">
         <f t="shared" si="29"/>
-        <v>3.6844515089445802E-5</v>
+        <v>8.3129820923635666E-6</v>
       </c>
       <c r="W70" s="64">
         <f t="shared" si="30"/>
-        <v>1.0157982188883861</v>
+        <v>2.931775088639303</v>
       </c>
       <c r="X70" s="65">
         <f t="shared" si="47"/>
@@ -21151,11 +21146,11 @@
       </c>
       <c r="Z70" s="64">
         <f t="shared" si="31"/>
-        <v>6.0811741937963365E-6</v>
+        <v>1.2402311610507579E-6</v>
       </c>
       <c r="AA70" s="60">
         <f t="shared" si="32"/>
-        <v>1.1401851603375655</v>
+        <v>3.0859850379334852</v>
       </c>
       <c r="AB70" s="61">
         <f t="shared" si="49"/>
@@ -21167,11 +21162,11 @@
       </c>
       <c r="AD70" s="68">
         <f t="shared" si="33"/>
-        <v>3.1928144117941109E-5</v>
+        <v>7.1704436537141096E-6</v>
       </c>
       <c r="AE70" s="64">
         <f t="shared" si="34"/>
-        <v>0.81383967869335128</v>
+        <v>2.7519328380718857</v>
       </c>
       <c r="AF70" s="65">
         <f t="shared" si="51"/>
@@ -21183,11 +21178,11 @@
       </c>
       <c r="AH70" s="64">
         <f t="shared" si="35"/>
-        <v>8.5032476972574035E-5</v>
+        <v>1.3675284631452009E-5</v>
       </c>
       <c r="AI70" s="60">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>2.2262605641765894</v>
       </c>
       <c r="AJ70" s="61">
         <f t="shared" si="54"/>
@@ -21197,12 +21192,12 @@
         <f t="shared" si="55"/>
         <v>9.0497737556561458E-4</v>
       </c>
-      <c r="AL70" s="61" t="e">
+      <c r="AL70" s="61">
         <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
+        <v>1.2795774128146584E-5</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <f t="shared" si="57"/>
         <v>16</v>
@@ -21212,7 +21207,7 @@
       </c>
       <c r="C71" s="60">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>2.9495275099648848</v>
       </c>
       <c r="D71" s="68">
         <f t="shared" si="36"/>
@@ -21222,9 +21217,9 @@
         <f t="shared" si="37"/>
         <v>2.5343191042496417E-2</v>
       </c>
-      <c r="F71" s="61" t="e">
+      <c r="F71" s="61">
         <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
+        <v>1.0800362307330651E-7</v>
       </c>
       <c r="G71" s="152">
         <f t="shared" si="22"/>
@@ -21244,7 +21239,7 @@
       </c>
       <c r="K71" s="60">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>2.4663652783439902</v>
       </c>
       <c r="L71" s="68">
         <f t="shared" si="41"/>
@@ -21254,13 +21249,13 @@
         <f t="shared" si="42"/>
         <v>2.5343191042496417E-2</v>
       </c>
-      <c r="N71" s="61" t="e">
+      <c r="N71" s="61">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>9.1653782733607663E-8</v>
       </c>
       <c r="O71" s="64">
         <f t="shared" si="26"/>
-        <v>1.6361010268572083</v>
+        <v>4.3673426962715904</v>
       </c>
       <c r="P71" s="65">
         <f t="shared" si="43"/>
@@ -21272,11 +21267,11 @@
       </c>
       <c r="R71" s="64">
         <f t="shared" si="27"/>
-        <v>5.2434698568189284E-7</v>
+        <v>1.2022867042038037E-7</v>
       </c>
       <c r="S71" s="60">
         <f t="shared" si="28"/>
-        <v>1.6361010268572083</v>
+        <v>4.4145602725884974</v>
       </c>
       <c r="T71" s="61">
         <f t="shared" si="45"/>
@@ -21288,11 +21283,11 @@
       </c>
       <c r="V71" s="61">
         <f t="shared" si="29"/>
-        <v>1.478566037981549E-6</v>
+        <v>3.3359898932795121E-7</v>
       </c>
       <c r="W71" s="64">
         <f t="shared" si="30"/>
-        <v>1.4221175064437404</v>
+        <v>4.1044851240950244</v>
       </c>
       <c r="X71" s="65">
         <f t="shared" si="47"/>
@@ -21304,11 +21299,11 @@
       </c>
       <c r="Z71" s="64">
         <f t="shared" si="31"/>
-        <v>1.9884131762870344E-7</v>
+        <v>4.0552891656858944E-8</v>
       </c>
       <c r="AA71" s="60">
         <f t="shared" si="32"/>
-        <v>1.5962592244725915</v>
+        <v>4.3203790531068789</v>
       </c>
       <c r="AB71" s="61">
         <f t="shared" si="49"/>
@@ -21320,11 +21315,11 @@
       </c>
       <c r="AD71" s="68">
         <f t="shared" si="33"/>
-        <v>2.0527554293921522E-6</v>
+        <v>4.6100916755262078E-7</v>
       </c>
       <c r="AE71" s="64">
         <f t="shared" si="34"/>
-        <v>1.1393755501706917</v>
+        <v>3.8527059733006399</v>
       </c>
       <c r="AF71" s="65">
         <f t="shared" si="51"/>
@@ -21336,11 +21331,11 @@
       </c>
       <c r="AH71" s="64">
         <f t="shared" si="35"/>
-        <v>2.6495663645668649E-6</v>
+        <v>4.2611453265156593E-7</v>
       </c>
       <c r="AI71" s="60">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>3.1167647898472248</v>
       </c>
       <c r="AJ71" s="61">
         <f t="shared" si="54"/>
@@ -21350,12 +21345,12 @@
         <f t="shared" si="55"/>
         <v>2.5343191042496417E-2</v>
       </c>
-      <c r="AL71" s="61" t="e">
+      <c r="AL71" s="61">
         <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
+        <v>3.5519586185859211E-7</v>
       </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <f t="shared" si="57"/>
         <v>17</v>
@@ -21365,7 +21360,7 @@
       </c>
       <c r="C72" s="60">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>4.2136107285212638</v>
       </c>
       <c r="D72" s="68">
         <f t="shared" si="36"/>
@@ -21375,9 +21370,9 @@
         <f t="shared" si="37"/>
         <v>1.8954130943692853E-3</v>
       </c>
-      <c r="F72" s="61" t="e">
+      <c r="F72" s="61">
         <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
+        <v>1.7443645343935165E-6</v>
       </c>
       <c r="G72" s="152">
         <f t="shared" si="22"/>
@@ -21397,7 +21392,7 @@
       </c>
       <c r="K72" s="60">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>3.5233789690628434</v>
       </c>
       <c r="L72" s="68">
         <f t="shared" si="41"/>
@@ -21407,13 +21402,13 @@
         <f t="shared" si="42"/>
         <v>1.8954130943692853E-3</v>
       </c>
-      <c r="N72" s="61" t="e">
+      <c r="N72" s="61">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>2.2354991567442641E-6</v>
       </c>
       <c r="O72" s="64">
         <f t="shared" si="26"/>
-        <v>2.3372871812245832</v>
+        <v>6.239060994673701</v>
       </c>
       <c r="P72" s="65">
         <f t="shared" si="43"/>
@@ -21425,11 +21420,11 @@
       </c>
       <c r="R72" s="64">
         <f t="shared" si="27"/>
-        <v>9.6046476263041247E-6</v>
+        <v>2.2022707205326916E-6</v>
       </c>
       <c r="S72" s="60">
         <f t="shared" si="28"/>
-        <v>2.3372871812245832</v>
+        <v>6.3065146751264241</v>
       </c>
       <c r="T72" s="61">
         <f t="shared" si="45"/>
@@ -21441,11 +21436,11 @@
       </c>
       <c r="V72" s="61">
         <f t="shared" si="29"/>
-        <v>2.1526334862670091E-5</v>
+        <v>4.8568432992854902E-6</v>
       </c>
       <c r="W72" s="64">
         <f t="shared" si="30"/>
-        <v>2.0315964377767721</v>
+        <v>5.8635501772786061</v>
       </c>
       <c r="X72" s="65">
         <f t="shared" si="47"/>
@@ -21457,11 +21452,11 @@
       </c>
       <c r="Z72" s="64">
         <f t="shared" si="31"/>
-        <v>8.7350950481177565E-6</v>
+        <v>1.7814877075002325E-6</v>
       </c>
       <c r="AA72" s="60">
         <f t="shared" si="32"/>
-        <v>2.2803703206751309</v>
+        <v>6.1719700758669704</v>
       </c>
       <c r="AB72" s="61">
         <f t="shared" si="49"/>
@@ -21473,11 +21468,11 @@
       </c>
       <c r="AD72" s="68">
         <f t="shared" si="33"/>
-        <v>4.468023462496148E-5</v>
+        <v>1.0034316546228117E-5</v>
       </c>
       <c r="AE72" s="64">
         <f t="shared" si="34"/>
-        <v>1.6276793573867026</v>
+        <v>5.5038656761437714</v>
       </c>
       <c r="AF72" s="65">
         <f t="shared" si="51"/>
@@ -21489,11 +21484,11 @@
       </c>
       <c r="AH72" s="64">
         <f t="shared" si="35"/>
-        <v>3.3068753057819528E-5</v>
+        <v>5.3182575243426037E-6</v>
       </c>
       <c r="AI72" s="60">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>4.4525211283531787</v>
       </c>
       <c r="AJ72" s="61">
         <f t="shared" si="54"/>
@@ -21503,12 +21498,12 @@
         <f t="shared" si="55"/>
         <v>1.8954130943692853E-3</v>
       </c>
-      <c r="AL72" s="61" t="e">
+      <c r="AL72" s="61">
         <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
+        <v>5.1359082527392634E-6</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <f t="shared" si="57"/>
         <v>18</v>
@@ -21518,7 +21513,7 @@
       </c>
       <c r="C73" s="60">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>5.8990550199297695</v>
       </c>
       <c r="D73" s="68">
         <f t="shared" si="36"/>
@@ -21528,9 +21523,9 @@
         <f t="shared" si="37"/>
         <v>8.650709206137662E-3</v>
       </c>
-      <c r="F73" s="61" t="e">
+      <c r="F73" s="61">
         <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
+        <v>4.8192255617582104E-7</v>
       </c>
       <c r="G73" s="152">
         <f t="shared" si="22"/>
@@ -21550,7 +21545,7 @@
       </c>
       <c r="K73" s="60">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>4.9327305566879804</v>
       </c>
       <c r="L73" s="68">
         <f t="shared" si="41"/>
@@ -21560,13 +21555,13 @@
         <f t="shared" si="42"/>
         <v>8.650709206137662E-3</v>
       </c>
-      <c r="N73" s="61" t="e">
+      <c r="N73" s="61">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>7.5902675808667702E-7</v>
       </c>
       <c r="O73" s="64">
         <f t="shared" si="26"/>
-        <v>3.2722020537144165</v>
+        <v>8.7346853925431809</v>
       </c>
       <c r="P73" s="65">
         <f t="shared" si="43"/>
@@ -21578,11 +21573,11 @@
       </c>
       <c r="R73" s="64">
         <f t="shared" si="27"/>
-        <v>2.0477382697179757E-6</v>
+        <v>4.6953039925833273E-7</v>
       </c>
       <c r="S73" s="60">
         <f t="shared" si="28"/>
-        <v>3.2722020537144165</v>
+        <v>8.8291205451769947</v>
       </c>
       <c r="T73" s="61">
         <f t="shared" si="45"/>
@@ -21594,11 +21589,11 @@
       </c>
       <c r="V73" s="61">
         <f t="shared" si="29"/>
-        <v>4.3209156150012333E-6</v>
+        <v>9.7489935864045726E-7</v>
       </c>
       <c r="W73" s="64">
         <f t="shared" si="30"/>
-        <v>2.8442350128874807</v>
+        <v>8.2089702481900488</v>
       </c>
       <c r="X73" s="65">
         <f t="shared" si="47"/>
@@ -21610,11 +21605,11 @@
       </c>
       <c r="Z73" s="64">
         <f t="shared" si="31"/>
-        <v>1.966467375362628E-6</v>
+        <v>4.0105315822105996E-7</v>
       </c>
       <c r="AA73" s="60">
         <f t="shared" si="32"/>
-        <v>3.192518448945183</v>
+        <v>8.6407581062137577</v>
       </c>
       <c r="AB73" s="61">
         <f t="shared" si="49"/>
@@ -21626,11 +21621,11 @@
       </c>
       <c r="AD73" s="68">
         <f t="shared" si="33"/>
-        <v>1.2659971293307011E-5</v>
+        <v>2.8431846987713314E-6</v>
       </c>
       <c r="AE73" s="64">
         <f t="shared" si="34"/>
-        <v>2.2787511003413834</v>
+        <v>7.7054119466012798</v>
       </c>
       <c r="AF73" s="65">
         <f t="shared" si="51"/>
@@ -21642,11 +21637,11 @@
       </c>
       <c r="AH73" s="64">
         <f t="shared" si="35"/>
-        <v>3.9468773329707136E-8</v>
+        <v>6.3475360068846906E-9</v>
       </c>
       <c r="AI73" s="60">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>6.2335295796944497</v>
       </c>
       <c r="AJ73" s="61">
         <f t="shared" si="54"/>
@@ -21656,12 +21651,12 @@
         <f t="shared" si="55"/>
         <v>8.650709206137662E-3</v>
       </c>
-      <c r="AL73" s="61" t="e">
+      <c r="AL73" s="61">
         <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
+        <v>1.0874661466213577E-6</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <f t="shared" si="57"/>
         <v>19</v>
@@ -21671,7 +21666,7 @@
       </c>
       <c r="C74" s="60">
         <f t="shared" si="21"/>
-        <v>0</v>
+        <v>29.495275099648843</v>
       </c>
       <c r="D74" s="68">
         <f t="shared" si="36"/>
@@ -21681,9 +21676,9 @@
         <f t="shared" si="37"/>
         <v>9.3595554883954112E-3</v>
       </c>
-      <c r="F74" s="61" t="e">
+      <c r="F74" s="61">
         <f t="shared" si="38"/>
-        <v>#DIV/0!</v>
+        <v>1.1556837770843574E-6</v>
       </c>
       <c r="G74" s="152">
         <f t="shared" si="22"/>
@@ -21703,7 +21698,7 @@
       </c>
       <c r="K74" s="60">
         <f t="shared" si="24"/>
-        <v>0</v>
+        <v>24.6636527834399</v>
       </c>
       <c r="L74" s="68">
         <f t="shared" si="41"/>
@@ -21713,13 +21708,13 @@
         <f t="shared" si="42"/>
         <v>9.3595554883954112E-3</v>
       </c>
-      <c r="N74" s="61" t="e">
+      <c r="N74" s="61">
         <f t="shared" si="25"/>
-        <v>#DIV/0!</v>
+        <v>2.5221034526019734E-6</v>
       </c>
       <c r="O74" s="64">
         <f t="shared" si="26"/>
-        <v>16.36101026857208</v>
+        <v>43.673426962715901</v>
       </c>
       <c r="P74" s="65">
         <f t="shared" si="43"/>
@@ -21731,11 +21726,11 @@
       </c>
       <c r="R74" s="64">
         <f t="shared" si="27"/>
-        <v>2.2411398941884645E-6</v>
+        <v>5.1387588192948751E-7</v>
       </c>
       <c r="S74" s="60">
         <f t="shared" si="28"/>
-        <v>16.36101026857208</v>
+        <v>44.145602725884963</v>
       </c>
       <c r="T74" s="61">
         <f t="shared" si="45"/>
@@ -21747,11 +21742,11 @@
       </c>
       <c r="V74" s="61">
         <f t="shared" si="29"/>
-        <v>4.9708886662090091E-6</v>
+        <v>1.1215484411997474E-6</v>
       </c>
       <c r="W74" s="64">
         <f t="shared" si="30"/>
-        <v>14.2211750644374</v>
+        <v>41.044851240950237</v>
       </c>
       <c r="X74" s="65">
         <f t="shared" si="47"/>
@@ -21763,11 +21758,11 @@
       </c>
       <c r="Z74" s="64">
         <f t="shared" si="31"/>
-        <v>1.2702950979616834E-5</v>
+        <v>2.5907160591276902E-6</v>
       </c>
       <c r="AA74" s="60">
         <f t="shared" si="32"/>
-        <v>15.962592244725913</v>
+        <v>43.203790531068783</v>
       </c>
       <c r="AB74" s="61">
         <f t="shared" si="49"/>
@@ -21779,11 +21774,11 @@
       </c>
       <c r="AD74" s="68">
         <f t="shared" si="33"/>
-        <v>2.3139399972219167E-5</v>
+        <v>5.1966616997421235E-6</v>
       </c>
       <c r="AE74" s="64">
         <f t="shared" si="34"/>
-        <v>11.393755501706917</v>
+        <v>38.527059733006396</v>
       </c>
       <c r="AF74" s="65">
         <f t="shared" si="51"/>
@@ -21795,11 +21790,11 @@
       </c>
       <c r="AH74" s="64">
         <f t="shared" si="35"/>
-        <v>3.9728026225063782E-6</v>
+        <v>6.3892301602453366E-7</v>
       </c>
       <c r="AI74" s="60">
         <f t="shared" si="53"/>
-        <v>0</v>
+        <v>31.167647898472243</v>
       </c>
       <c r="AJ74" s="61">
         <f t="shared" si="54"/>
@@ -21809,23 +21804,23 @@
         <f t="shared" si="55"/>
         <v>9.3595554883954112E-3</v>
       </c>
-      <c r="AL74" s="61" t="e">
+      <c r="AL74" s="61">
         <f t="shared" si="56"/>
-        <v>#DIV/0!</v>
+        <v>1.5926499154138236E-6</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.3">
       <c r="P75" s="66"/>
       <c r="Q75" s="66"/>
       <c r="X75" s="67"/>
       <c r="Y75" s="67"/>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A77" s="32" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A78" s="71" t="s">
         <v>76</v>
       </c>
@@ -21869,7 +21864,7 @@
       <c r="Y78"/>
       <c r="Z78"/>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A79" s="74">
         <f>B56</f>
         <v>180</v>
@@ -21879,7 +21874,7 @@
       </c>
       <c r="C79" s="76">
         <f>C56</f>
-        <v>0</v>
+        <v>1.6386263944249357E-2</v>
       </c>
       <c r="D79" s="155">
         <f>G56</f>
@@ -21887,58 +21882,58 @@
       </c>
       <c r="E79" s="77">
         <f>K56</f>
-        <v>0</v>
+        <v>1.3702029324133278E-2</v>
       </c>
       <c r="F79" s="77">
         <f>O56</f>
-        <v>9.0894501492067119E-3</v>
+        <v>2.426301497928661E-2</v>
       </c>
       <c r="G79" s="77">
         <f>S56</f>
-        <v>9.0894501492067119E-3</v>
+        <v>2.4525334847713867E-2</v>
       </c>
       <c r="H79" s="77">
         <f>W56</f>
-        <v>7.9006528135763341E-3</v>
+        <v>2.2802695133861243E-2</v>
       </c>
       <c r="I79" s="77">
         <f>AA56</f>
-        <v>8.8681068026255066E-3</v>
+        <v>2.4002105850593772E-2</v>
       </c>
       <c r="J79" s="77">
         <f>AE56</f>
-        <v>6.3298641676149533E-3</v>
+        <v>2.140392207389244E-2</v>
       </c>
       <c r="K79" s="77">
         <f>AI56</f>
-        <v>0</v>
+        <v>1.731535994359569E-2</v>
       </c>
       <c r="V79" s="6" t="s">
         <v>101</v>
       </c>
       <c r="W79" s="2">
-        <v>1.0000000000000001E-5</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="X79"/>
       <c r="Y79"/>
       <c r="Z79"/>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A80" s="78"/>
       <c r="B80" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="C80" s="80" t="e">
+      <c r="C80" s="80">
         <f>F56</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="D80" s="156" t="e">
         <f>J56</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E80" s="80" t="e">
+      <c r="E80" s="80">
         <f>N56</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="F80" s="80">
         <f>R56</f>
@@ -21960,15 +21955,15 @@
         <f>AH56</f>
         <v>0</v>
       </c>
-      <c r="K80" s="80" t="e">
+      <c r="K80" s="80">
         <f>AL56</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="X80"/>
       <c r="Y80"/>
       <c r="Z80"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A81" s="74">
         <f>B57</f>
         <v>128</v>
@@ -21978,7 +21973,7 @@
       </c>
       <c r="C81" s="76">
         <f>C57</f>
-        <v>0</v>
+        <v>2.3043183671600662E-2</v>
       </c>
       <c r="D81" s="155">
         <f>G57</f>
@@ -21986,31 +21981,31 @@
       </c>
       <c r="E81" s="77">
         <f>K57</f>
-        <v>0</v>
+        <v>1.9268478737062424E-2</v>
       </c>
       <c r="F81" s="77">
         <f>O57</f>
-        <v>1.278203927232194E-2</v>
+        <v>3.41198648146218E-2</v>
       </c>
       <c r="G81" s="77">
         <f>S57</f>
-        <v>1.278203927232194E-2</v>
+        <v>3.4488752129597636E-2</v>
       </c>
       <c r="H81" s="77">
         <f>W57</f>
-        <v>1.1110293019091722E-2</v>
+        <v>3.2066290031992378E-2</v>
       </c>
       <c r="I81" s="77">
         <f>AA57</f>
-        <v>1.2470775191192121E-2</v>
+        <v>3.3752961352397491E-2</v>
       </c>
       <c r="J81" s="77">
         <f>AE57</f>
-        <v>8.9013714857085289E-3</v>
+        <v>3.0099265416411249E-2</v>
       </c>
       <c r="K81" s="77">
         <f>AI57</f>
-        <v>0</v>
+        <v>2.4349724920681444E-2</v>
       </c>
       <c r="V81" s="6" t="s">
         <v>70</v>
@@ -22028,22 +22023,22 @@
         <v>104</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A82" s="78"/>
       <c r="B82" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="C82" s="80" t="e">
+      <c r="C82" s="80">
         <f>F57</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="D82" s="156" t="e">
         <f>J57</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E82" s="80" t="e">
+      <c r="E82" s="80">
         <f>N57</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="F82" s="80">
         <f>R57</f>
@@ -22065,9 +22060,9 @@
         <f>AH57</f>
         <v>0</v>
       </c>
-      <c r="K82" s="80" t="e">
+      <c r="K82" s="80">
         <f>AL57</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="V82" s="38">
         <v>180</v>
@@ -22077,7 +22072,7 @@
       <c r="Y82" s="2"/>
       <c r="Z82" s="30"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A83" s="74">
         <f>B58</f>
         <v>90</v>
@@ -22087,7 +22082,7 @@
       </c>
       <c r="C83" s="76">
         <f>C58</f>
-        <v>0</v>
+        <v>3.2772527888498715E-2</v>
       </c>
       <c r="D83" s="155">
         <f>G58</f>
@@ -22095,31 +22090,31 @@
       </c>
       <c r="E83" s="77">
         <f>K58</f>
-        <v>0</v>
+        <v>2.7404058648266557E-2</v>
       </c>
       <c r="F83" s="77">
         <f>O58</f>
-        <v>1.8178900298413424E-2</v>
+        <v>4.8526029958573219E-2</v>
       </c>
       <c r="G83" s="77">
         <f>S58</f>
-        <v>1.8178900298413424E-2</v>
+        <v>4.9050669695427734E-2</v>
       </c>
       <c r="H83" s="77">
         <f>W58</f>
-        <v>1.5801305627152668E-2</v>
+        <v>4.5605390267722486E-2</v>
       </c>
       <c r="I83" s="77">
         <f>AA58</f>
-        <v>1.7736213605251013E-2</v>
+        <v>4.8004211701187544E-2</v>
       </c>
       <c r="J83" s="77">
         <f>AE58</f>
-        <v>1.2659728335229907E-2</v>
+        <v>4.2807844147784879E-2</v>
       </c>
       <c r="K83" s="77">
         <f>AI58</f>
-        <v>0</v>
+        <v>3.463071988719138E-2</v>
       </c>
       <c r="V83" s="38">
         <v>128</v>
@@ -22129,22 +22124,22 @@
       <c r="Y83" s="2"/>
       <c r="Z83" s="30"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A84" s="78"/>
       <c r="B84" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="C84" s="80" t="e">
+      <c r="C84" s="80">
         <f>F58</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="D84" s="156" t="e">
         <f>J58</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E84" s="80" t="e">
+      <c r="E84" s="80">
         <f>N58</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="F84" s="80">
         <f>R58</f>
@@ -22166,9 +22161,9 @@
         <f>AH58</f>
         <v>0</v>
       </c>
-      <c r="K84" s="80" t="e">
+      <c r="K84" s="80">
         <f>AL58</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="V84" s="38">
         <v>90</v>
@@ -22178,7 +22173,7 @@
       <c r="Y84" s="34"/>
       <c r="Z84" s="30"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A85" s="74">
         <f>B59</f>
         <v>64</v>
@@ -22188,7 +22183,7 @@
       </c>
       <c r="C85" s="76">
         <f>C59</f>
-        <v>0</v>
+        <v>4.6086367343201325E-2</v>
       </c>
       <c r="D85" s="155">
         <f>G59</f>
@@ -22196,31 +22191,31 @@
       </c>
       <c r="E85" s="77">
         <f>K59</f>
-        <v>0</v>
+        <v>3.8536957474124847E-2</v>
       </c>
       <c r="F85" s="77">
         <f>O59</f>
-        <v>2.5564078544643879E-2</v>
+        <v>6.8239729629243601E-2</v>
       </c>
       <c r="G85" s="77">
         <f>S59</f>
-        <v>2.5564078544643879E-2</v>
+        <v>6.8977504259195271E-2</v>
       </c>
       <c r="H85" s="77">
         <f>W59</f>
-        <v>2.2220586038183443E-2</v>
+        <v>6.4132580063984757E-2</v>
       </c>
       <c r="I85" s="77">
         <f>AA59</f>
-        <v>2.4941550382384242E-2</v>
+        <v>6.7505922704794982E-2</v>
       </c>
       <c r="J85" s="77">
         <f>AE59</f>
-        <v>1.7802742971417058E-2</v>
+        <v>6.0198530832822499E-2</v>
       </c>
       <c r="K85" s="77">
         <f>AI59</f>
-        <v>0</v>
+        <v>4.8699449841362888E-2</v>
       </c>
       <c r="V85" s="38">
         <v>64</v>
@@ -22230,22 +22225,22 @@
       <c r="Y85" s="34"/>
       <c r="Z85" s="30"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A86" s="78"/>
       <c r="B86" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="C86" s="80" t="e">
+      <c r="C86" s="80">
         <f>F59</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="D86" s="156" t="e">
         <f>J59</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E86" s="80" t="e">
+      <c r="E86" s="80">
         <f>N59</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="F86" s="80">
         <f>R59</f>
@@ -22267,9 +22262,9 @@
         <f>AH59</f>
         <v>0</v>
       </c>
-      <c r="K86" s="80" t="e">
+      <c r="K86" s="80">
         <f>AL59</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="V86" s="38">
         <v>45</v>
@@ -22279,7 +22274,7 @@
       <c r="Y86" s="34"/>
       <c r="Z86" s="30"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A87" s="74">
         <f>B60</f>
         <v>45</v>
@@ -22289,7 +22284,7 @@
       </c>
       <c r="C87" s="76">
         <f>C60</f>
-        <v>0</v>
+        <v>6.554505577699743E-2</v>
       </c>
       <c r="D87" s="155">
         <f>G60</f>
@@ -22297,31 +22292,31 @@
       </c>
       <c r="E87" s="77">
         <f>K60</f>
-        <v>0</v>
+        <v>5.4808117296533114E-2</v>
       </c>
       <c r="F87" s="77">
         <f>O60</f>
-        <v>3.6357800596826848E-2</v>
+        <v>9.7052059917146438E-2</v>
       </c>
       <c r="G87" s="77">
         <f>S60</f>
-        <v>3.6357800596826848E-2</v>
+        <v>9.8101339390855469E-2</v>
       </c>
       <c r="H87" s="77">
         <f>W60</f>
-        <v>3.1602611254305336E-2</v>
+        <v>9.1210780535444971E-2</v>
       </c>
       <c r="I87" s="77">
         <f>AA60</f>
-        <v>3.5472427210502026E-2</v>
+        <v>9.6008423402375087E-2</v>
       </c>
       <c r="J87" s="77">
         <f>AE60</f>
-        <v>2.5319456670459813E-2</v>
+        <v>8.5615688295569758E-2</v>
       </c>
       <c r="K87" s="77">
         <f>AI60</f>
-        <v>0</v>
+        <v>6.926143977438276E-2</v>
       </c>
       <c r="V87" s="38">
         <v>32</v>
@@ -22331,22 +22326,22 @@
       <c r="Y87" s="34"/>
       <c r="Z87" s="134"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A88" s="78"/>
       <c r="B88" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="C88" s="80" t="e">
+      <c r="C88" s="80">
         <f>F60</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="D88" s="156" t="e">
         <f>J60</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E88" s="80" t="e">
+      <c r="E88" s="80">
         <f>N60</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="F88" s="80">
         <f>R60</f>
@@ -22368,9 +22363,9 @@
         <f>AH60</f>
         <v>0</v>
       </c>
-      <c r="K88" s="80" t="e">
+      <c r="K88" s="80">
         <f>AL60</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="V88" s="62">
         <v>22.6</v>
@@ -22380,7 +22375,7 @@
       <c r="Y88" s="34"/>
       <c r="Z88" s="30"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A89" s="74">
         <f>B61</f>
         <v>32</v>
@@ -22390,7 +22385,7 @@
       </c>
       <c r="C89" s="76">
         <f>C61</f>
-        <v>0</v>
+        <v>9.2172734686402649E-2</v>
       </c>
       <c r="D89" s="155">
         <f>G61</f>
@@ -22398,31 +22393,31 @@
       </c>
       <c r="E89" s="77">
         <f>K61</f>
-        <v>0</v>
+        <v>7.7073914948249694E-2</v>
       </c>
       <c r="F89" s="77">
         <f>O61</f>
-        <v>5.1128157089287758E-2</v>
+        <v>0.1364794592584872</v>
       </c>
       <c r="G89" s="77">
         <f>S61</f>
-        <v>5.1128157089287758E-2</v>
+        <v>0.13795500851839054</v>
       </c>
       <c r="H89" s="77">
         <f>W61</f>
-        <v>4.4441172076366886E-2</v>
+        <v>0.12826516012796951</v>
       </c>
       <c r="I89" s="77">
         <f>AA61</f>
-        <v>4.9883100764768484E-2</v>
+        <v>0.13501184540958996</v>
       </c>
       <c r="J89" s="77">
         <f>AE61</f>
-        <v>3.5605485942834116E-2</v>
+        <v>0.120397061665645</v>
       </c>
       <c r="K89" s="77">
         <f>AI61</f>
-        <v>0</v>
+        <v>9.7398899682725776E-2</v>
       </c>
       <c r="V89" s="62">
         <v>16</v>
@@ -22432,22 +22427,22 @@
       <c r="Y89" s="34"/>
       <c r="Z89" s="30"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A90" s="78"/>
       <c r="B90" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="C90" s="80" t="e">
+      <c r="C90" s="80">
         <f>F61</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="D90" s="156" t="e">
         <f>J61</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E90" s="80" t="e">
+      <c r="E90" s="80">
         <f>N61</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="F90" s="80">
         <f>R61</f>
@@ -22469,9 +22464,9 @@
         <f>AH61</f>
         <v>0</v>
       </c>
-      <c r="K90" s="80" t="e">
+      <c r="K90" s="80">
         <f>AL61</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="V90" s="62">
         <v>11</v>
@@ -22481,7 +22476,7 @@
       <c r="Y90" s="34"/>
       <c r="Z90" s="30"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A91" s="74">
         <f>B62</f>
         <v>22.6</v>
@@ -22491,7 +22486,7 @@
       </c>
       <c r="C91" s="76">
         <f>C62</f>
-        <v>0</v>
+        <v>0.13051006681260549</v>
       </c>
       <c r="D91" s="155">
         <f>G62</f>
@@ -22499,31 +22494,31 @@
       </c>
       <c r="E91" s="77">
         <f>K62</f>
-        <v>0</v>
+        <v>0.10913120700637124</v>
       </c>
       <c r="F91" s="77">
         <f>O62</f>
-        <v>7.2393850745894162E-2</v>
+        <v>0.19324525204741549</v>
       </c>
       <c r="G91" s="77">
         <f>S62</f>
-        <v>7.2393850745894162E-2</v>
+        <v>0.19533452533577417</v>
       </c>
       <c r="H91" s="77">
         <f>W62</f>
-        <v>6.2925553382466373E-2</v>
+        <v>0.18161438602190369</v>
       </c>
       <c r="I91" s="77">
         <f>AA62</f>
-        <v>7.0630939135955362E-2</v>
+        <v>0.19116721473924242</v>
       </c>
       <c r="J91" s="77">
         <f>AE62</f>
-        <v>5.041484735268547E-2</v>
+        <v>0.17047371563277167</v>
       </c>
       <c r="K91" s="77">
         <f>AI62</f>
-        <v>0</v>
+        <v>0.137909946453417</v>
       </c>
       <c r="V91" s="62">
         <v>8</v>
@@ -22533,22 +22528,22 @@
       <c r="Y91" s="34"/>
       <c r="Z91" s="30"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A92" s="78"/>
       <c r="B92" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="C92" s="80" t="e">
+      <c r="C92" s="80">
         <f>F62</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="D92" s="156" t="e">
         <f>J62</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E92" s="80" t="e">
+      <c r="E92" s="80">
         <f>N62</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="F92" s="80">
         <f>R62</f>
@@ -22570,9 +22565,9 @@
         <f>AH62</f>
         <v>0</v>
       </c>
-      <c r="K92" s="80" t="e">
+      <c r="K92" s="80">
         <f>AL62</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="V92" s="196">
         <v>5.6</v>
@@ -22585,14 +22580,14 @@
       </c>
       <c r="Y92" s="197">
         <f>($W$79-X92)/W92</f>
-        <v>1.9799999999999998</v>
+        <v>39.979999999999997</v>
       </c>
       <c r="Z92" s="127">
         <f>V92/$W$78</f>
         <v>9.4915254237288124E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A93" s="74">
         <f>B63</f>
         <v>16</v>
@@ -22602,7 +22597,7 @@
       </c>
       <c r="C93" s="76">
         <f>C63</f>
-        <v>0</v>
+        <v>0.1843454693728053</v>
       </c>
       <c r="D93" s="155">
         <f>G63</f>
@@ -22610,31 +22605,31 @@
       </c>
       <c r="E93" s="77">
         <f>K63</f>
-        <v>0</v>
+        <v>0.15414782989649939</v>
       </c>
       <c r="F93" s="77">
         <f>O63</f>
-        <v>0.10225631417857552</v>
+        <v>0.2729589185169744</v>
       </c>
       <c r="G93" s="77">
         <f>S63</f>
-        <v>0.10225631417857552</v>
+        <v>0.27591001703678109</v>
       </c>
       <c r="H93" s="77">
         <f>W63</f>
-        <v>8.8882344152733772E-2</v>
+        <v>0.25653032025593903</v>
       </c>
       <c r="I93" s="77">
         <f>AA63</f>
-        <v>9.9766201529536969E-2</v>
+        <v>0.27002369081917993</v>
       </c>
       <c r="J93" s="77">
         <f>AE63</f>
-        <v>7.1210971885668231E-2</v>
+        <v>0.24079412333128999</v>
       </c>
       <c r="K93" s="77">
         <f>AI63</f>
-        <v>0</v>
+        <v>0.19479779936545155</v>
       </c>
       <c r="V93" s="195">
         <v>4</v>
@@ -22647,29 +22642,29 @@
       </c>
       <c r="Y93" s="197">
         <f t="shared" ref="Y93:Y95" si="58">($W$79-X93)/W93</f>
-        <v>2.25</v>
+        <v>49.750000000000007</v>
       </c>
       <c r="Z93" s="127">
         <f t="shared" ref="Z93:Z96" si="59">V93/$W$78</f>
         <v>6.7796610169491525E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A94" s="74"/>
       <c r="B94" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="C94" s="80" t="e">
+      <c r="C94" s="80">
         <f>F63</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="D94" s="156" t="e">
         <f>J63</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E94" s="80" t="e">
+      <c r="E94" s="80">
         <f>N63</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="F94" s="80">
         <f>R63</f>
@@ -22691,9 +22686,9 @@
         <f>AH63</f>
         <v>0</v>
       </c>
-      <c r="K94" s="80" t="e">
+      <c r="K94" s="80">
         <f>AL63</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="V94" s="194">
         <v>2.8</v>
@@ -22706,14 +22701,14 @@
       </c>
       <c r="Y94" s="197">
         <f t="shared" si="58"/>
-        <v>0.8</v>
+        <v>19.8</v>
       </c>
       <c r="Z94" s="127">
         <f t="shared" si="59"/>
         <v>4.7457627118644062E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A95" s="74">
         <f>B64</f>
         <v>11</v>
@@ -22723,7 +22718,7 @@
       </c>
       <c r="C95" s="76">
         <f>C64</f>
-        <v>0</v>
+        <v>0.26813886454226221</v>
       </c>
       <c r="D95" s="155">
         <f>G64</f>
@@ -22731,31 +22726,31 @@
       </c>
       <c r="E95" s="77">
         <f>K64</f>
-        <v>0</v>
+        <v>0.22421502530399912</v>
       </c>
       <c r="F95" s="77">
         <f>O64</f>
-        <v>0.14873645698701893</v>
+        <v>0.3970311542065082</v>
       </c>
       <c r="G95" s="77">
         <f>S64</f>
-        <v>0.14873645698701893</v>
+        <v>0.40132366114440876</v>
       </c>
       <c r="H95" s="77">
         <f>W64</f>
-        <v>0.12928340967670365</v>
+        <v>0.37313501128136578</v>
       </c>
       <c r="I95" s="77">
         <f>AA64</f>
-        <v>0.14511447495205376</v>
+        <v>0.39276173210062537</v>
       </c>
       <c r="J95" s="77">
         <f>AE64</f>
-        <v>0.10357959547006287</v>
+        <v>0.35024599757278541</v>
       </c>
       <c r="K95" s="77">
         <f>AI64</f>
-        <v>0</v>
+        <v>0.28334225362247495</v>
       </c>
       <c r="V95" s="193">
         <v>2</v>
@@ -22768,29 +22763,29 @@
       </c>
       <c r="Y95" s="197">
         <f t="shared" si="58"/>
-        <v>1.05</v>
+        <v>20.05</v>
       </c>
       <c r="Z95" s="127">
         <f t="shared" si="59"/>
         <v>3.3898305084745763E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A96" s="78"/>
       <c r="B96" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="C96" s="80" t="e">
+      <c r="C96" s="80">
         <f>F64</f>
-        <v>#DIV/0!</v>
+        <v>2.3004813693672412E-6</v>
       </c>
       <c r="D96" s="155" t="e">
         <f>J64</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E96" s="80" t="e">
+      <c r="E96" s="80">
         <f>N64</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="F96" s="80">
         <f>R64</f>
@@ -22812,9 +22807,9 @@
         <f>AH64</f>
         <v>0</v>
       </c>
-      <c r="K96" s="80" t="e">
+      <c r="K96" s="80">
         <f>AL64</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="V96" s="192">
         <v>1.4</v>
@@ -22827,14 +22822,14 @@
       </c>
       <c r="Y96" s="197">
         <f>($W$79-X96)/W96</f>
-        <v>0.20000000000000004</v>
+        <v>6.5333333333333341</v>
       </c>
       <c r="Z96" s="127">
         <f t="shared" si="59"/>
         <v>2.3728813559322031E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A97" s="74">
         <f>B65</f>
         <v>8</v>
@@ -22844,7 +22839,7 @@
       </c>
       <c r="C97" s="76">
         <f>C65</f>
-        <v>0</v>
+        <v>0.3686909387456106</v>
       </c>
       <c r="D97" s="155">
         <f>G65</f>
@@ -22852,31 +22847,31 @@
       </c>
       <c r="E97" s="77">
         <f>K65</f>
-        <v>0</v>
+        <v>0.30829565979299878</v>
       </c>
       <c r="F97" s="77">
         <f>O65</f>
-        <v>0.20451262835715103</v>
+        <v>0.54591783703394881</v>
       </c>
       <c r="G97" s="77">
         <f>S65</f>
-        <v>0.20451262835715103</v>
+        <v>0.55182003407356217</v>
       </c>
       <c r="H97" s="77">
         <f>W65</f>
-        <v>0.17776468830546754</v>
+        <v>0.51306064051187805</v>
       </c>
       <c r="I97" s="77">
         <f>AA65</f>
-        <v>0.19953240305907394</v>
+        <v>0.54004738163835986</v>
       </c>
       <c r="J97" s="77">
         <f>AE65</f>
-        <v>0.14242194377133646</v>
+        <v>0.48158824666257999</v>
       </c>
       <c r="K97" s="77">
         <f>AI65</f>
-        <v>0</v>
+        <v>0.3895955987309031</v>
       </c>
       <c r="V97" s="129">
         <v>1</v>
@@ -22889,29 +22884,29 @@
       </c>
       <c r="Y97" s="197">
         <f>($W$79-X97)/W97</f>
-        <v>12.387500000000001</v>
+        <v>249.88750000000002</v>
       </c>
       <c r="Z97" s="127">
         <f>V97/$W$78</f>
         <v>1.6949152542372881E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A98" s="78"/>
       <c r="B98" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="C98" s="80" t="e">
+      <c r="C98" s="80">
         <f>F65</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="D98" s="156" t="e">
         <f>J65</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E98" s="80" t="e">
+      <c r="E98" s="80">
         <f>N65</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="F98" s="80">
         <f>R65</f>
@@ -22931,11 +22926,11 @@
       </c>
       <c r="J98" s="80">
         <f>AH65</f>
-        <v>2.9823349202297402E-6</v>
-      </c>
-      <c r="K98" s="80" t="e">
+        <v>4.79631787200728E-7</v>
+      </c>
+      <c r="K98" s="80">
         <f>AL65</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="V98" s="130">
         <v>0.7</v>
@@ -22948,14 +22943,14 @@
       </c>
       <c r="Y98" s="197">
         <f>($W$79-X98)/W98</f>
-        <v>0.91</v>
+        <v>19.91</v>
       </c>
       <c r="Z98" s="127">
         <f>V98/$W$78</f>
         <v>1.1864406779661016E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A99" s="74">
         <f>B66</f>
         <v>5.6</v>
@@ -22965,7 +22960,7 @@
       </c>
       <c r="C99" s="76">
         <f>C66</f>
-        <v>0</v>
+        <v>0.52670134106515798</v>
       </c>
       <c r="D99" s="155">
         <f>G66</f>
@@ -22973,31 +22968,31 @@
       </c>
       <c r="E99" s="77">
         <f>K66</f>
-        <v>0</v>
+        <v>0.44042237113285543</v>
       </c>
       <c r="F99" s="77">
         <f>O66</f>
-        <v>0.2921608976530729</v>
+        <v>0.77988262433421263</v>
       </c>
       <c r="G99" s="77">
         <f>S66</f>
-        <v>0.2921608976530729</v>
+        <v>0.78831433439080301</v>
       </c>
       <c r="H99" s="77">
         <f>W66</f>
-        <v>0.25394955472209652</v>
+        <v>0.73294377215982576</v>
       </c>
       <c r="I99" s="77">
         <f>AA66</f>
-        <v>0.28504629008439136</v>
+        <v>0.7714962594833713</v>
       </c>
       <c r="J99" s="77">
         <f>AE66</f>
-        <v>0.20345991967333782</v>
+        <v>0.68798320951797143</v>
       </c>
       <c r="K99" s="77">
         <f>AI66</f>
-        <v>0</v>
+        <v>0.55656514104414734</v>
       </c>
       <c r="V99" s="131">
         <v>0.5</v>
@@ -23010,29 +23005,29 @@
       </c>
       <c r="Y99" s="197">
         <f>($W$79-X99)/W99</f>
-        <v>5.1500000000000012</v>
+        <v>100.15000000000002</v>
       </c>
       <c r="Z99" s="127">
         <f>V99/$W$78</f>
         <v>8.4745762711864406E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A100" s="78"/>
       <c r="B100" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="C100" s="80" t="e">
+      <c r="C100" s="80">
         <f>F66</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="D100" s="156" t="e">
         <f>J66</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E100" s="80" t="e">
+      <c r="E100" s="80">
         <f>N66</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="F100" s="80">
         <f>R66</f>
@@ -23040,7 +23035,7 @@
       </c>
       <c r="G100" s="80">
         <f>V66</f>
-        <v>2.6459580142658723E-6</v>
+        <v>5.9698985144301188E-7</v>
       </c>
       <c r="H100" s="80">
         <f>Z66</f>
@@ -23048,15 +23043,15 @@
       </c>
       <c r="I100" s="80">
         <f>AD66</f>
-        <v>2.6353990691174777E-6</v>
+        <v>5.9185966025312658E-7</v>
       </c>
       <c r="J100" s="80">
         <f>AH66</f>
-        <v>4.6531611104789272E-6</v>
-      </c>
-      <c r="K100" s="80" t="e">
+        <v>7.4834116195776135E-7</v>
+      </c>
+      <c r="K100" s="80">
         <f>AL66</f>
-        <v>#DIV/0!</v>
+        <v>1.0627120967914573E-6</v>
       </c>
       <c r="V100" s="132">
         <v>0.1</v>
@@ -23069,14 +23064,14 @@
       </c>
       <c r="Y100" s="197">
         <f>($W$79-X100)/W100</f>
-        <v>16.75</v>
+        <v>333.41666666666669</v>
       </c>
       <c r="Z100" s="127">
         <f>V100/$W$78</f>
         <v>1.6949152542372883E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A101" s="174">
         <f>B67</f>
         <v>4</v>
@@ -23086,7 +23081,7 @@
       </c>
       <c r="C101" s="176">
         <f>C67</f>
-        <v>0</v>
+        <v>0.73738187749122119</v>
       </c>
       <c r="D101" s="177">
         <f>G67</f>
@@ -23094,49 +23089,49 @@
       </c>
       <c r="E101" s="178">
         <f>K67</f>
-        <v>0</v>
+        <v>0.61659131958599755</v>
       </c>
       <c r="F101" s="178">
         <f>O67</f>
-        <v>0.40902525671430207</v>
+        <v>1.0918356740678976</v>
       </c>
       <c r="G101" s="178">
         <f>S67</f>
-        <v>0.40902525671430207</v>
+        <v>1.1036400681471243</v>
       </c>
       <c r="H101" s="178">
         <f>W67</f>
-        <v>0.35552937661093509</v>
+        <v>1.0261212810237561</v>
       </c>
       <c r="I101" s="178">
         <f>AA67</f>
-        <v>0.39906480611814787</v>
+        <v>1.0800947632767197</v>
       </c>
       <c r="J101" s="178">
         <f>AE67</f>
-        <v>0.28484388754267292</v>
+        <v>0.96317649332515998</v>
       </c>
       <c r="K101" s="178">
         <f>AI67</f>
-        <v>0</v>
+        <v>0.77919119746180621</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A102" s="179"/>
       <c r="B102" s="180" t="s">
         <v>87</v>
       </c>
-      <c r="C102" s="181" t="e">
+      <c r="C102" s="181">
         <f>F67</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="D102" s="182" t="e">
         <f>J67</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E102" s="181" t="e">
+      <c r="E102" s="181">
         <f>N67</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="F102" s="181">
         <f>R67</f>
@@ -23144,7 +23139,7 @@
       </c>
       <c r="G102" s="181">
         <f>V67</f>
-        <v>3.669938806409995E-6</v>
+        <v>8.2802380500036868E-7</v>
       </c>
       <c r="H102" s="181">
         <f>Z67</f>
@@ -23152,18 +23147,18 @@
       </c>
       <c r="I102" s="181">
         <f>AD67</f>
-        <v>2.1487666270981803E-6</v>
+        <v>4.8257142562604972E-7</v>
       </c>
       <c r="J102" s="181">
         <f>AH67</f>
-        <v>9.3841743373493836E-6</v>
-      </c>
-      <c r="K102" s="181" t="e">
+        <v>1.5092028324167451E-6</v>
+      </c>
+      <c r="K102" s="181">
         <f>AL67</f>
-        <v>#DIV/0!</v>
+        <v>2.7152594274178989E-6</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A103" s="183">
         <f>B68</f>
         <v>2.8</v>
@@ -23173,7 +23168,7 @@
       </c>
       <c r="C103" s="185">
         <f>C68</f>
-        <v>0</v>
+        <v>1.053402682130316</v>
       </c>
       <c r="D103" s="186">
         <f>G68</f>
@@ -23181,77 +23176,77 @@
       </c>
       <c r="E103" s="187">
         <f>K68</f>
-        <v>0</v>
+        <v>0.88084474226571086</v>
       </c>
       <c r="F103" s="187">
         <f>O68</f>
-        <v>0.58432179530614581</v>
+        <v>1.5597652486684253</v>
       </c>
       <c r="G103" s="187">
         <f>S68</f>
-        <v>0.58432179530614581</v>
+        <v>1.576628668781606</v>
       </c>
       <c r="H103" s="187">
         <f>W68</f>
-        <v>0.50789910944419303</v>
+        <v>1.4658875443196515</v>
       </c>
       <c r="I103" s="187">
         <f>AA68</f>
-        <v>0.57009258016878273</v>
+        <v>1.5429925189667426</v>
       </c>
       <c r="J103" s="187">
         <f>AE68</f>
-        <v>0.40691983934667564</v>
+        <v>1.3759664190359429</v>
       </c>
       <c r="K103" s="187">
         <f>AI68</f>
-        <v>0</v>
+        <v>1.1131302820882947</v>
       </c>
       <c r="N103" s="211" t="s">
         <v>110</v>
       </c>
       <c r="O103" s="1"/>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A104" s="188"/>
       <c r="B104" s="189" t="s">
         <v>87</v>
       </c>
-      <c r="C104" s="190" t="e">
+      <c r="C104" s="190">
         <f>F68</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="D104" s="191" t="e">
         <f>J68</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E104" s="190" t="e">
+      <c r="E104" s="190">
         <f>N68</f>
-        <v>#DIV/0!</v>
+        <v>7.6154635031688742E-8</v>
       </c>
       <c r="F104" s="190">
         <f>R68</f>
-        <v>4.7140181254455619E-6</v>
+        <v>1.0808875554473613E-6</v>
       </c>
       <c r="G104" s="190">
         <f>V68</f>
-        <v>7.9851186319839774E-6</v>
+        <v>1.801629035744759E-6</v>
       </c>
       <c r="H104" s="190">
         <f>Z68</f>
-        <v>6.4870152681704804E-7</v>
+        <v>1.3230008254005486E-7</v>
       </c>
       <c r="I104" s="190">
         <f>AD68</f>
-        <v>3.4577085833868152E-6</v>
+        <v>7.7653447305153264E-7</v>
       </c>
       <c r="J104" s="190">
         <f>AH68</f>
-        <v>3.5392769836461339E-5</v>
-      </c>
-      <c r="K104" s="190" t="e">
+        <v>5.6920157878640537E-6</v>
+      </c>
+      <c r="K104" s="190">
         <f>AL68</f>
-        <v>#DIV/0!</v>
+        <v>5.5765366977395804E-6</v>
       </c>
       <c r="N104" s="1" t="s">
         <v>107</v>
@@ -23263,7 +23258,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A105" s="165">
         <f>B69</f>
         <v>2</v>
@@ -23273,7 +23268,7 @@
       </c>
       <c r="C105" s="167">
         <f>C69</f>
-        <v>0</v>
+        <v>1.4747637549824424</v>
       </c>
       <c r="D105" s="168">
         <f>G69</f>
@@ -23281,98 +23276,98 @@
       </c>
       <c r="E105" s="169">
         <f>K69</f>
-        <v>0</v>
+        <v>1.2331826391719951</v>
       </c>
       <c r="F105" s="169">
         <f>O69</f>
-        <v>0.81805051342860413</v>
+        <v>2.1836713481357952</v>
       </c>
       <c r="G105" s="169">
         <f>S69</f>
-        <v>0.81805051342860413</v>
+        <v>2.2072801362942487</v>
       </c>
       <c r="H105" s="169">
         <f>W69</f>
-        <v>0.71105875322187018</v>
+        <v>2.0522425620475122</v>
       </c>
       <c r="I105" s="169">
         <f>AA69</f>
-        <v>0.79812961223629575</v>
+        <v>2.1601895265534394</v>
       </c>
       <c r="J105" s="169">
         <f>AE69</f>
-        <v>0.56968777508534585</v>
+        <v>1.92635298665032</v>
       </c>
       <c r="K105" s="169">
         <f>AI69</f>
-        <v>0</v>
+        <v>1.5583823949236124</v>
       </c>
       <c r="N105" s="1">
         <v>2</v>
       </c>
       <c r="O105" s="41">
-        <f>0.1965*N105^(-0.609)</f>
-        <v>0.12883542289668734</v>
+        <f>4.8438*N105^(-0.581)</f>
+        <v>3.238081499821694</v>
       </c>
       <c r="P105" s="41">
         <f>O105*($M$3-$M$2)*$M$4*($N$105/1000)</f>
-        <v>4.1707891454344601</v>
+        <v>104.82641239372772</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A106" s="19"/>
       <c r="B106" s="170" t="s">
         <v>87</v>
       </c>
-      <c r="C106" s="171" t="e">
+      <c r="C106" s="171">
         <f>F69</f>
-        <v>#DIV/0!</v>
+        <v>0</v>
       </c>
       <c r="D106" s="172" t="e">
         <f>J69</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E106" s="171" t="e">
+      <c r="E106" s="171">
         <f>N69</f>
-        <v>#DIV/0!</v>
+        <v>4.8137250785462698E-7</v>
       </c>
       <c r="F106" s="171">
         <f>R69</f>
-        <v>4.7909319686145326E-6</v>
+        <v>1.0985232992461006E-6</v>
       </c>
       <c r="G106" s="171">
         <f>V69</f>
-        <v>1.6652369085737913E-5</v>
+        <v>3.7571629228694016E-6</v>
       </c>
       <c r="H106" s="171">
         <f>Z69</f>
-        <v>7.318023182365138E-7</v>
+        <v>1.4924815666882116E-7</v>
       </c>
       <c r="I106" s="171">
         <f>AD69</f>
-        <v>1.0043949148378976E-5</v>
+        <v>2.2556767209263471E-6</v>
       </c>
       <c r="J106" s="171">
         <f>AH69</f>
-        <v>1.7486783066407361E-6</v>
-      </c>
-      <c r="K106" s="171" t="e">
+        <v>2.812298832582589E-7</v>
+      </c>
+      <c r="K106" s="171">
         <f>AL69</f>
-        <v>#DIV/0!</v>
+        <v>4.178800109417273E-6</v>
       </c>
       <c r="N106" s="1">
         <v>1.4</v>
       </c>
       <c r="O106" s="41">
-        <f t="shared" ref="O106:O112" si="60">0.1965*N106^(-0.609)</f>
-        <v>0.16009235047736453</v>
+        <f t="shared" ref="O106:O111" si="60">4.8438*N106^(-0.581)</f>
+        <v>3.9836925564145389</v>
       </c>
       <c r="P106" s="41">
         <f t="shared" ref="P106:P112" si="61">O106*($M$3-$M$2)*$M$4*($N$105/1000)</f>
-        <v>5.1826696620037218</v>
+        <v>128.96407912880787</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A107" s="120">
         <f>B70</f>
         <v>1.4</v>
@@ -23382,7 +23377,7 @@
       </c>
       <c r="C107" s="122">
         <f>C70</f>
-        <v>0</v>
+        <v>2.1068053642606319</v>
       </c>
       <c r="D107" s="157">
         <f>G70</f>
@@ -23390,98 +23385,98 @@
       </c>
       <c r="E107" s="123">
         <f>K70</f>
-        <v>0</v>
+        <v>1.7616894845314217</v>
       </c>
       <c r="F107" s="123">
         <f>O70</f>
-        <v>1.1686435906122916</v>
+        <v>3.1195304973368505</v>
       </c>
       <c r="G107" s="123">
         <f>S70</f>
-        <v>1.1686435906122916</v>
+        <v>3.153257337563212</v>
       </c>
       <c r="H107" s="123">
         <f>W70</f>
-        <v>1.0157982188883861</v>
+        <v>2.931775088639303</v>
       </c>
       <c r="I107" s="123">
         <f>AA70</f>
-        <v>1.1401851603375655</v>
+        <v>3.0859850379334852</v>
       </c>
       <c r="J107" s="123">
         <f>AE70</f>
-        <v>0.81383967869335128</v>
+        <v>2.7519328380718857</v>
       </c>
       <c r="K107" s="123">
         <f>AI70</f>
-        <v>0</v>
+        <v>2.2262605641765894</v>
       </c>
       <c r="N107" s="1">
         <v>1</v>
       </c>
       <c r="O107" s="41">
         <f t="shared" si="60"/>
-        <v>0.19650000000000001</v>
+        <v>4.8437999999999999</v>
       </c>
       <c r="P107" s="41">
         <f t="shared" si="61"/>
-        <v>6.3612945000000014</v>
+        <v>156.8083374</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A108" s="120"/>
       <c r="B108" s="124" t="s">
         <v>87</v>
       </c>
-      <c r="C108" s="125" t="e">
+      <c r="C108" s="125">
         <f>F70</f>
-        <v>#DIV/0!</v>
+        <v>2.4241322429707223E-6</v>
       </c>
       <c r="D108" s="173" t="e">
         <f>J70</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E108" s="125" t="e">
+      <c r="E108" s="125">
         <f>N70</f>
-        <v>#DIV/0!</v>
+        <v>1.7724286168115935E-6</v>
       </c>
       <c r="F108" s="125">
         <f>R70</f>
-        <v>1.0649609054162688E-5</v>
+        <v>2.4418722182863879E-6</v>
       </c>
       <c r="G108" s="125">
         <f>V70</f>
-        <v>3.6844515089445802E-5</v>
+        <v>8.3129820923635666E-6</v>
       </c>
       <c r="H108" s="125">
         <f>Z70</f>
-        <v>6.0811741937963365E-6</v>
+        <v>1.2402311610507579E-6</v>
       </c>
       <c r="I108" s="125">
         <f>AD70</f>
-        <v>3.1928144117941109E-5</v>
+        <v>7.1704436537141096E-6</v>
       </c>
       <c r="J108" s="125">
         <f>AH70</f>
-        <v>8.5032476972574035E-5</v>
-      </c>
-      <c r="K108" s="125" t="e">
+        <v>1.3675284631452009E-5</v>
+      </c>
+      <c r="K108" s="125">
         <f>AL70</f>
-        <v>#DIV/0!</v>
+        <v>1.2795774128146584E-5</v>
       </c>
       <c r="N108" s="1">
         <v>0.7</v>
       </c>
       <c r="O108" s="41">
         <f t="shared" si="60"/>
-        <v>0.24417311762176089</v>
+        <v>5.9591489608347707</v>
       </c>
       <c r="P108" s="41">
         <f t="shared" si="61"/>
-        <v>7.9046163367692666</v>
+        <v>192.91552930910404</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A109" s="81">
         <f>B71</f>
         <v>1</v>
@@ -23491,7 +23486,7 @@
       </c>
       <c r="C109" s="83">
         <f>C71</f>
-        <v>0</v>
+        <v>2.9495275099648848</v>
       </c>
       <c r="D109" s="158">
         <f>G71</f>
@@ -23499,98 +23494,98 @@
       </c>
       <c r="E109" s="84">
         <f>K71</f>
-        <v>0</v>
+        <v>2.4663652783439902</v>
       </c>
       <c r="F109" s="84">
         <f>O71</f>
-        <v>1.6361010268572083</v>
+        <v>4.3673426962715904</v>
       </c>
       <c r="G109" s="84">
         <f>S71</f>
-        <v>1.6361010268572083</v>
+        <v>4.4145602725884974</v>
       </c>
       <c r="H109" s="84">
         <f>W71</f>
-        <v>1.4221175064437404</v>
+        <v>4.1044851240950244</v>
       </c>
       <c r="I109" s="84">
         <f>AA71</f>
-        <v>1.5962592244725915</v>
+        <v>4.3203790531068789</v>
       </c>
       <c r="J109" s="84">
         <f>AE71</f>
-        <v>1.1393755501706917</v>
+        <v>3.8527059733006399</v>
       </c>
       <c r="K109" s="84">
         <f>AI71</f>
-        <v>0</v>
+        <v>3.1167647898472248</v>
       </c>
       <c r="N109" s="1">
         <v>0.5</v>
       </c>
       <c r="O109" s="41">
         <f t="shared" si="60"/>
-        <v>0.29970212486485981</v>
+        <v>7.2457714363557439</v>
       </c>
       <c r="P109" s="41">
         <f t="shared" si="61"/>
-        <v>9.7022568882501083</v>
+        <v>234.56735870914449</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A110" s="85"/>
       <c r="B110" s="86" t="s">
         <v>87</v>
       </c>
-      <c r="C110" s="138" t="e">
+      <c r="C110" s="138">
         <f>F71</f>
-        <v>#DIV/0!</v>
+        <v>1.0800362307330651E-7</v>
       </c>
       <c r="D110" s="159" t="e">
         <f>J71</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E110" s="138" t="e">
+      <c r="E110" s="138">
         <f>N71</f>
-        <v>#DIV/0!</v>
+        <v>9.1653782733607663E-8</v>
       </c>
       <c r="F110" s="138">
         <f>R71</f>
-        <v>5.2434698568189284E-7</v>
+        <v>1.2022867042038037E-7</v>
       </c>
       <c r="G110" s="138">
         <f>V71</f>
-        <v>1.478566037981549E-6</v>
+        <v>3.3359898932795121E-7</v>
       </c>
       <c r="H110" s="138">
         <f>Z71</f>
-        <v>1.9884131762870344E-7</v>
+        <v>4.0552891656858944E-8</v>
       </c>
       <c r="I110" s="138">
         <f>AD71</f>
-        <v>2.0527554293921522E-6</v>
+        <v>4.6100916755262078E-7</v>
       </c>
       <c r="J110" s="138">
         <f>AH71</f>
-        <v>2.6495663645668649E-6</v>
-      </c>
-      <c r="K110" s="138" t="e">
+        <v>4.2611453265156593E-7</v>
+      </c>
+      <c r="K110" s="138">
         <f>AL71</f>
-        <v>#DIV/0!</v>
+        <v>3.5519586185859211E-7</v>
       </c>
       <c r="N110" s="1">
         <v>0.2</v>
       </c>
       <c r="O110" s="41">
         <f t="shared" si="60"/>
-        <v>0.52364298196537673</v>
+        <v>12.339221929456972</v>
       </c>
       <c r="P110" s="41">
         <f t="shared" si="61"/>
-        <v>16.951894255165143</v>
+        <v>399.45763152231058</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A111" s="98">
         <f>B72</f>
         <v>0.7</v>
@@ -23600,7 +23595,7 @@
       </c>
       <c r="C111" s="100">
         <f>C72</f>
-        <v>0</v>
+        <v>4.2136107285212638</v>
       </c>
       <c r="D111" s="160">
         <f>G72</f>
@@ -23608,89 +23603,89 @@
       </c>
       <c r="E111" s="101">
         <f>K72</f>
-        <v>0</v>
+        <v>3.5233789690628434</v>
       </c>
       <c r="F111" s="101">
         <f>O72</f>
-        <v>2.3372871812245832</v>
+        <v>6.239060994673701</v>
       </c>
       <c r="G111" s="101">
         <f>S72</f>
-        <v>2.3372871812245832</v>
+        <v>6.3065146751264241</v>
       </c>
       <c r="H111" s="101">
         <f>W72</f>
-        <v>2.0315964377767721</v>
+        <v>5.8635501772786061</v>
       </c>
       <c r="I111" s="101">
         <f>AA72</f>
-        <v>2.2803703206751309</v>
+        <v>6.1719700758669704</v>
       </c>
       <c r="J111" s="101">
         <f>AE72</f>
-        <v>1.6276793573867026</v>
+        <v>5.5038656761437714</v>
       </c>
       <c r="K111" s="101">
         <f>AI72</f>
-        <v>0</v>
+        <v>4.4525211283531787</v>
       </c>
       <c r="O111" s="41"/>
       <c r="P111" s="41"/>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A112" s="102"/>
       <c r="B112" s="103" t="s">
         <v>87</v>
       </c>
-      <c r="C112" s="104" t="e">
+      <c r="C112" s="104">
         <f>F72</f>
-        <v>#DIV/0!</v>
+        <v>1.7443645343935165E-6</v>
       </c>
       <c r="D112" s="161" t="e">
         <f>J72</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E112" s="104" t="e">
+      <c r="E112" s="104">
         <f>N72</f>
-        <v>#DIV/0!</v>
+        <v>2.2354991567442641E-6</v>
       </c>
       <c r="F112" s="104">
         <f>R72</f>
-        <v>9.6046476263041247E-6</v>
+        <v>2.2022707205326916E-6</v>
       </c>
       <c r="G112" s="104">
         <f>V72</f>
-        <v>2.1526334862670091E-5</v>
+        <v>4.8568432992854902E-6</v>
       </c>
       <c r="H112" s="104">
         <f>Z72</f>
-        <v>8.7350950481177565E-6</v>
+        <v>1.7814877075002325E-6</v>
       </c>
       <c r="I112" s="104">
         <f>AD72</f>
-        <v>4.468023462496148E-5</v>
+        <v>1.0034316546228117E-5</v>
       </c>
       <c r="J112" s="104">
         <f>AH72</f>
-        <v>3.3068753057819528E-5</v>
-      </c>
-      <c r="K112" s="104" t="e">
+        <v>5.3182575243426037E-6</v>
+      </c>
+      <c r="K112" s="104">
         <f>AL72</f>
-        <v>#DIV/0!</v>
+        <v>5.1359082527392634E-6</v>
       </c>
       <c r="N112" s="1">
         <v>59</v>
       </c>
       <c r="O112" s="41">
-        <f t="shared" si="60"/>
-        <v>1.6402637219523231E-2</v>
+        <f>4.8438*N112^(-0.581)</f>
+        <v>0.45323264588144163</v>
       </c>
       <c r="P112" s="41">
-        <f t="shared" si="61"/>
-        <v>0.53100257470762557</v>
+        <f>O112*($M$3-$M$2)*$M$4*($N$105/1000)</f>
+        <v>14.672500445119912</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="94">
         <f>B73</f>
         <v>0.5</v>
@@ -23700,7 +23695,7 @@
       </c>
       <c r="C113" s="96">
         <f>C73</f>
-        <v>0</v>
+        <v>5.8990550199297695</v>
       </c>
       <c r="D113" s="162">
         <f>G73</f>
@@ -23708,76 +23703,76 @@
       </c>
       <c r="E113" s="60">
         <f>K73</f>
-        <v>0</v>
+        <v>4.9327305566879804</v>
       </c>
       <c r="F113" s="60">
         <f>O73</f>
-        <v>3.2722020537144165</v>
+        <v>8.7346853925431809</v>
       </c>
       <c r="G113" s="60">
         <f>S73</f>
-        <v>3.2722020537144165</v>
+        <v>8.8291205451769947</v>
       </c>
       <c r="H113" s="60">
         <f>W73</f>
-        <v>2.8442350128874807</v>
+        <v>8.2089702481900488</v>
       </c>
       <c r="I113" s="60">
         <f>AA73</f>
-        <v>3.192518448945183</v>
+        <v>8.6407581062137577</v>
       </c>
       <c r="J113" s="60">
         <f>AE73</f>
-        <v>2.2787511003413834</v>
+        <v>7.7054119466012798</v>
       </c>
       <c r="K113" s="60">
         <f>AI73</f>
-        <v>0</v>
+        <v>6.2335295796944497</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="97"/>
       <c r="B114" s="59" t="s">
         <v>87</v>
       </c>
-      <c r="C114" s="61" t="e">
+      <c r="C114" s="61">
         <f>F73</f>
-        <v>#DIV/0!</v>
+        <v>4.8192255617582104E-7</v>
       </c>
       <c r="D114" s="163" t="e">
         <f>J73</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E114" s="61" t="e">
+      <c r="E114" s="61">
         <f>N73</f>
-        <v>#DIV/0!</v>
+        <v>7.5902675808667702E-7</v>
       </c>
       <c r="F114" s="61">
         <f>R73</f>
-        <v>2.0477382697179757E-6</v>
+        <v>4.6953039925833273E-7</v>
       </c>
       <c r="G114" s="61">
         <f>V73</f>
-        <v>4.3209156150012333E-6</v>
+        <v>9.7489935864045726E-7</v>
       </c>
       <c r="H114" s="61">
         <f>Z73</f>
-        <v>1.966467375362628E-6</v>
+        <v>4.0105315822105996E-7</v>
       </c>
       <c r="I114" s="61">
         <f>AD73</f>
-        <v>1.2659971293307011E-5</v>
+        <v>2.8431846987713314E-6</v>
       </c>
       <c r="J114" s="60">
         <f>AH73</f>
-        <v>3.9468773329707136E-8</v>
-      </c>
-      <c r="K114" s="61" t="e">
+        <v>6.3475360068846906E-9</v>
+      </c>
+      <c r="K114" s="61">
         <f>AL73</f>
-        <v>#DIV/0!</v>
+        <v>1.0874661466213577E-6</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="87">
         <f>B74</f>
         <v>0.1</v>
@@ -23787,7 +23782,7 @@
       </c>
       <c r="C115" s="89">
         <f>C74</f>
-        <v>0</v>
+        <v>29.495275099648843</v>
       </c>
       <c r="D115" s="148">
         <f>G74</f>
@@ -23795,73 +23790,73 @@
       </c>
       <c r="E115" s="90">
         <f>K74</f>
-        <v>0</v>
+        <v>24.6636527834399</v>
       </c>
       <c r="F115" s="90">
         <f>O74</f>
-        <v>16.36101026857208</v>
+        <v>43.673426962715901</v>
       </c>
       <c r="G115" s="90">
         <f>S74</f>
-        <v>16.36101026857208</v>
+        <v>44.145602725884963</v>
       </c>
       <c r="H115" s="90">
         <f>W74</f>
-        <v>14.2211750644374</v>
+        <v>41.044851240950237</v>
       </c>
       <c r="I115" s="90">
         <f>AA74</f>
-        <v>15.962592244725913</v>
+        <v>43.203790531068783</v>
       </c>
       <c r="J115" s="90">
         <f>AE74</f>
-        <v>11.393755501706917</v>
+        <v>38.527059733006396</v>
       </c>
       <c r="K115" s="90">
         <f>AI74</f>
-        <v>0</v>
+        <v>31.167647898472243</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="91"/>
       <c r="B116" s="92" t="s">
         <v>87</v>
       </c>
-      <c r="C116" s="93" t="e">
+      <c r="C116" s="93">
         <f>F74</f>
-        <v>#DIV/0!</v>
+        <v>1.1556837770843574E-6</v>
       </c>
       <c r="D116" s="164" t="e">
         <f>J74</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E116" s="93" t="e">
+      <c r="E116" s="93">
         <f>N74</f>
-        <v>#DIV/0!</v>
+        <v>2.5221034526019734E-6</v>
       </c>
       <c r="F116" s="93">
         <f>R74</f>
-        <v>2.2411398941884645E-6</v>
+        <v>5.1387588192948751E-7</v>
       </c>
       <c r="G116" s="93">
         <f>V74</f>
-        <v>4.9708886662090091E-6</v>
+        <v>1.1215484411997474E-6</v>
       </c>
       <c r="H116" s="93">
         <f>Z74</f>
-        <v>1.2702950979616834E-5</v>
+        <v>2.5907160591276902E-6</v>
       </c>
       <c r="I116" s="93">
         <f>AD74</f>
-        <v>2.3139399972219167E-5</v>
+        <v>5.1966616997421235E-6</v>
       </c>
       <c r="J116" s="93">
         <f>AH74</f>
-        <v>3.9728026225063782E-6</v>
-      </c>
-      <c r="K116" s="93" t="e">
+        <v>6.3892301602453366E-7</v>
+      </c>
+      <c r="K116" s="93">
         <f>AL74</f>
-        <v>#DIV/0!</v>
+        <v>1.5926499154138236E-6</v>
       </c>
     </row>
   </sheetData>
@@ -23892,34 +23887,34 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AM116"/>
   <sheetViews>
-    <sheetView topLeftCell="E76" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P105" sqref="P105"/>
+    <sheetView topLeftCell="J89" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M112" sqref="M112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="9.140625" customWidth="1"/>
-    <col min="12" max="12" width="17.7109375" customWidth="1"/>
-    <col min="13" max="13" width="12.140625" customWidth="1"/>
+    <col min="9" max="9" width="9.109375" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" customWidth="1"/>
+    <col min="13" max="13" width="12.109375" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" customWidth="1"/>
-    <col min="18" max="18" width="18.42578125" customWidth="1"/>
-    <col min="21" max="21" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.5703125" customWidth="1"/>
-    <col min="24" max="24" width="8.85546875" style="1"/>
+    <col min="17" max="17" width="10.88671875" customWidth="1"/>
+    <col min="18" max="18" width="18.44140625" customWidth="1"/>
+    <col min="21" max="21" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5546875" customWidth="1"/>
+    <col min="24" max="24" width="8.88671875" style="1"/>
     <col min="25" max="25" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.85546875" style="1"/>
+    <col min="26" max="26" width="8.88671875" style="1"/>
     <col min="35" max="35" width="12" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" s="212" t="s">
         <v>71</v>
       </c>
@@ -23976,7 +23971,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="53" t="s">
         <v>70</v>
       </c>
@@ -24063,7 +24058,7 @@
         <v>0.14369522173913041</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" s="51">
         <v>11.2</v>
       </c>
@@ -24149,7 +24144,7 @@
         <v>0.96557273478260874</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" s="52">
         <v>8</v>
       </c>
@@ -24235,7 +24230,7 @@
         <v>0.72795068403010044</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" s="52">
         <v>5.6</v>
       </c>
@@ -24321,7 +24316,7 @@
         <v>4.0363869782461155</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" s="52">
         <v>4</v>
       </c>
@@ -24400,7 +24395,7 @@
         <v>1.9437556084810153</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" s="52">
         <v>2.8</v>
       </c>
@@ -24463,7 +24458,7 @@
         <v>0.8005262470803336</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" s="52">
         <v>2</v>
       </c>
@@ -24530,7 +24525,7 @@
         <v>1.8410135952059168</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" s="52">
         <v>1.4</v>
       </c>
@@ -24600,7 +24595,7 @@
         <v>10.225716559788639</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" s="52">
         <v>1</v>
       </c>
@@ -24678,7 +24673,7 @@
         <v>19.118067345564235</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11" s="52">
         <v>0.7</v>
       </c>
@@ -24753,7 +24748,7 @@
         <v>4.1888629385561202</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" s="52">
         <v>0.5</v>
       </c>
@@ -24828,7 +24823,7 @@
         <v>56.008452203917081</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" s="52" t="s">
         <v>9</v>
       </c>
@@ -24895,7 +24890,7 @@
         <v>100.00000011739129</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" s="53" t="s">
         <v>105</v>
       </c>
@@ -24958,7 +24953,7 @@
         <v>0.11103687826086958</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="C15" s="1"/>
       <c r="L15" s="2">
         <v>32</v>
@@ -24996,7 +24991,7 @@
       <c r="AE15" s="226"/>
       <c r="AF15" s="31"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="L16" s="2">
         <v>22.6</v>
       </c>
@@ -25059,7 +25054,7 @@
         <v>2.2624434389140274E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A17" s="32" t="s">
         <v>54</v>
       </c>
@@ -25130,7 +25125,7 @@
         <v>4.2986425392484755E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>55</v>
       </c>
@@ -25202,7 +25197,7 @@
         <v>2.5343191042496417E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A19" s="69">
         <v>2</v>
       </c>
@@ -25284,7 +25279,7 @@
         <v>6.7873303167420851E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A20" s="57">
         <v>3</v>
       </c>
@@ -25364,7 +25359,7 @@
         <v>3.6199095022624445E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A21" s="69">
         <v>4</v>
       </c>
@@ -25446,7 +25441,7 @@
         <v>5.4298642533936597E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A22" s="2">
         <v>5</v>
       </c>
@@ -25528,7 +25523,7 @@
         <v>6.7873303167420851E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A23" s="69">
         <v>6</v>
       </c>
@@ -25610,7 +25605,7 @@
         <v>4.5248868778280549E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A24" s="2">
         <v>7</v>
       </c>
@@ -25692,7 +25687,7 @@
         <v>0.11312217194570137</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A25" s="69">
         <v>8</v>
       </c>
@@ -25774,7 +25769,7 @@
         <v>0.12217194570135748</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A26" s="2">
         <v>9</v>
       </c>
@@ -25856,7 +25851,7 @@
         <v>0.19457013574660631</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A27" s="69">
         <v>10</v>
       </c>
@@ -25938,7 +25933,7 @@
         <v>0.19457013574660631</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
       <c r="C28" s="1"/>
       <c r="L28" s="2" t="s">
         <v>78</v>
@@ -26001,7 +25996,7 @@
         <v>0.15837104072398189</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
       <c r="M29" s="50">
         <f>SUM(M10:M28)</f>
         <v>1.0000000000531182</v>
@@ -26060,7 +26055,7 @@
         <v>4.5248868778280493E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A30" s="227" t="s">
         <v>72</v>
       </c>
@@ -26128,7 +26123,7 @@
         <v>5.8823529411764719E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A31" s="53" t="s">
         <v>70</v>
       </c>
@@ -26200,7 +26195,7 @@
       <c r="AG31" s="5"/>
       <c r="AI31" s="46"/>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A32" s="2">
         <v>180</v>
       </c>
@@ -26273,7 +26268,7 @@
         <v>1.0000000000531182</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A33" s="2">
         <v>128</v>
       </c>
@@ -26333,7 +26328,7 @@
         <v>4.5248868778280542</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A34" s="2">
         <v>90</v>
       </c>
@@ -26377,7 +26372,7 @@
         <v>0.56166232608695643</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A35" s="2">
         <v>64</v>
       </c>
@@ -26421,7 +26416,7 @@
         <v>0.48313567391304357</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A36" s="2">
         <v>45</v>
       </c>
@@ -26465,7 +26460,7 @@
         <v>0.40172391304347826</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A37" s="2">
         <v>32</v>
       </c>
@@ -26509,7 +26504,7 @@
         <v>0.31800290000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A38" s="2">
         <v>22.6</v>
       </c>
@@ -26553,7 +26548,7 @@
         <v>3.0056556521739126E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A39" s="2">
         <v>16</v>
       </c>
@@ -26597,7 +26592,7 @@
         <v>0.22375436521739128</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A40" s="52">
         <v>11</v>
       </c>
@@ -26650,7 +26645,7 @@
         <v>0.20053242608695654</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A41" s="52">
         <v>8</v>
       </c>
@@ -26703,7 +26698,7 @@
         <v>0.15758740869565219</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A42" s="52">
         <v>5.6</v>
       </c>
@@ -26756,7 +26751,7 @@
         <v>0.11821860000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A43" s="52">
         <v>4</v>
       </c>
@@ -26809,7 +26804,7 @@
         <v>2.7713960869565214E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A44" s="52">
         <v>2.8</v>
       </c>
@@ -26861,7 +26856,7 @@
         <v>6.5921991304347824E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A45" s="52">
         <v>2</v>
       </c>
@@ -26913,7 +26908,7 @@
         <v>3.0966113043478259E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A46" s="52">
         <v>1.4</v>
       </c>
@@ -26965,7 +26960,7 @@
         <v>1.7120587434782608</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A47" s="52">
         <v>1</v>
       </c>
@@ -27017,7 +27012,7 @@
         <v>3.3152842391304347</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A48" s="52">
         <v>0.7</v>
       </c>
@@ -27069,7 +27064,7 @@
         <v>3.8885630782608689</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A49" s="52">
         <v>0.5</v>
       </c>
@@ -27121,7 +27116,7 @@
         <v>21.30781896521739</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A50" s="52" t="s">
         <v>78</v>
       </c>
@@ -27173,7 +27168,7 @@
         <v>8.1626277652173904</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B51" s="40">
         <f>SUM(B40:B50)</f>
         <v>0.99999999999999989</v>
@@ -27222,7 +27217,7 @@
         <v>52.866804999999992</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -27241,13 +27236,13 @@
         <v>100.00000011739129</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A53" s="32" t="s">
         <v>73</v>
       </c>
       <c r="Q53" s="49"/>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A54" s="212" t="s">
         <v>74</v>
       </c>
@@ -27307,7 +27302,7 @@
       <c r="AK54" s="215"/>
       <c r="AL54" s="216"/>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>75</v>
       </c>
@@ -27423,7 +27418,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A56" s="2">
         <v>1</v>
       </c>
@@ -27575,7 +27570,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A57" s="2">
         <v>2</v>
       </c>
@@ -27727,7 +27722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A58" s="2">
         <v>3</v>
       </c>
@@ -27879,7 +27874,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A59" s="2">
         <v>4</v>
       </c>
@@ -28031,7 +28026,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A60" s="2">
         <v>5</v>
       </c>
@@ -28183,7 +28178,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A61" s="2">
         <v>6</v>
       </c>
@@ -28335,7 +28330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A62" s="2">
         <v>7</v>
       </c>
@@ -28487,7 +28482,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A63" s="2">
         <v>8</v>
       </c>
@@ -28639,7 +28634,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A64" s="2">
         <v>9</v>
       </c>
@@ -28791,7 +28786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A65" s="2">
         <v>10</v>
       </c>
@@ -28943,7 +28938,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A66" s="2">
         <f>A65+1</f>
         <v>11</v>
@@ -29096,7 +29091,7 @@
         <v>4.4250813266616357E-6</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A67" s="2">
         <f t="shared" ref="A67:A74" si="57">A66+1</f>
         <v>12</v>
@@ -29249,7 +29244,7 @@
         <v>1.1306207791917831E-5</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A68" s="2">
         <f t="shared" si="57"/>
         <v>13</v>
@@ -29402,7 +29397,7 @@
         <v>2.3220426758210894E-5</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A69" s="2">
         <f t="shared" si="57"/>
         <v>14</v>
@@ -29555,7 +29550,7 @@
         <v>1.7400319792974639E-5</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A70" s="2">
         <f t="shared" si="57"/>
         <v>15</v>
@@ -29708,7 +29703,7 @@
         <v>5.3280979228142622E-5</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A71" s="2">
         <f t="shared" si="57"/>
         <v>16</v>
@@ -29861,7 +29856,7 @@
         <v>1.4790182405596351E-6</v>
       </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A72" s="2">
         <f t="shared" si="57"/>
         <v>17</v>
@@ -30014,7 +30009,7 @@
         <v>2.1385671409275137E-5</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A73" s="2">
         <f t="shared" si="57"/>
         <v>18</v>
@@ -30167,7 +30162,7 @@
         <v>4.5281559825277573E-6</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A74" s="2">
         <f t="shared" si="57"/>
         <v>19</v>
@@ -30320,18 +30315,18 @@
         <v>6.6317165504044697E-6</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.3">
       <c r="P75" s="66"/>
       <c r="Q75" s="66"/>
       <c r="X75" s="67"/>
       <c r="Y75" s="67"/>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A77" s="32" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A78" s="71" t="s">
         <v>76</v>
       </c>
@@ -30375,7 +30370,7 @@
       <c r="Y78"/>
       <c r="Z78"/>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A79" s="74">
         <f>B56</f>
         <v>180</v>
@@ -30429,7 +30424,7 @@
       <c r="Y79"/>
       <c r="Z79"/>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.3">
       <c r="A80" s="78"/>
       <c r="B80" s="79" t="s">
         <v>87</v>
@@ -30474,7 +30469,7 @@
       <c r="Y80"/>
       <c r="Z80"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A81" s="74">
         <f>B57</f>
         <v>128</v>
@@ -30534,7 +30529,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A82" s="78"/>
       <c r="B82" s="79" t="s">
         <v>87</v>
@@ -30583,7 +30578,7 @@
       <c r="Y82" s="2"/>
       <c r="Z82" s="30"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A83" s="74">
         <f>B58</f>
         <v>90</v>
@@ -30635,7 +30630,7 @@
       <c r="Y83" s="2"/>
       <c r="Z83" s="30"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A84" s="78"/>
       <c r="B84" s="79" t="s">
         <v>87</v>
@@ -30684,7 +30679,7 @@
       <c r="Y84" s="34"/>
       <c r="Z84" s="30"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A85" s="74">
         <f>B59</f>
         <v>64</v>
@@ -30736,7 +30731,7 @@
       <c r="Y85" s="34"/>
       <c r="Z85" s="30"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A86" s="78"/>
       <c r="B86" s="79" t="s">
         <v>87</v>
@@ -30785,7 +30780,7 @@
       <c r="Y86" s="34"/>
       <c r="Z86" s="30"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A87" s="74">
         <f>B60</f>
         <v>45</v>
@@ -30837,7 +30832,7 @@
       <c r="Y87" s="34"/>
       <c r="Z87" s="134"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A88" s="78"/>
       <c r="B88" s="79" t="s">
         <v>87</v>
@@ -30886,7 +30881,7 @@
       <c r="Y88" s="34"/>
       <c r="Z88" s="30"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A89" s="74">
         <f>B61</f>
         <v>32</v>
@@ -30938,7 +30933,7 @@
       <c r="Y89" s="34"/>
       <c r="Z89" s="30"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A90" s="78"/>
       <c r="B90" s="79" t="s">
         <v>87</v>
@@ -30987,7 +30982,7 @@
       <c r="Y90" s="34"/>
       <c r="Z90" s="30"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A91" s="74">
         <f>B62</f>
         <v>22.6</v>
@@ -31039,7 +31034,7 @@
       <c r="Y91" s="34"/>
       <c r="Z91" s="30"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A92" s="78"/>
       <c r="B92" s="79" t="s">
         <v>87</v>
@@ -31098,7 +31093,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A93" s="74">
         <f>B63</f>
         <v>16</v>
@@ -31160,7 +31155,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A94" s="74"/>
       <c r="B94" s="79" t="s">
         <v>87</v>
@@ -31219,7 +31214,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A95" s="74">
         <f>B64</f>
         <v>11</v>
@@ -31281,7 +31276,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A96" s="78"/>
       <c r="B96" s="79" t="s">
         <v>87</v>
@@ -31340,7 +31335,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A97" s="74">
         <f>B65</f>
         <v>8</v>
@@ -31402,7 +31397,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A98" s="78"/>
       <c r="B98" s="79" t="s">
         <v>87</v>
@@ -31462,7 +31457,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A99" s="74">
         <f>B66</f>
         <v>5.6</v>
@@ -31524,7 +31519,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A100" s="78"/>
       <c r="B100" s="79" t="s">
         <v>87</v>
@@ -31583,7 +31578,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A101" s="174">
         <f>B67</f>
         <v>4</v>
@@ -31628,7 +31623,7 @@
         <v>0.30105114447387948</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A102" s="179"/>
       <c r="B102" s="180" t="s">
         <v>87</v>
@@ -31670,7 +31665,7 @@
         <v>1.1306207791917831E-5</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A103" s="183">
         <f>B68</f>
         <v>2.8</v>
@@ -31719,7 +31714,7 @@
       </c>
       <c r="O103" s="1"/>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A104" s="188"/>
       <c r="B104" s="189" t="s">
         <v>87</v>
@@ -31770,7 +31765,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A105" s="165">
         <f>B69</f>
         <v>2</v>
@@ -31829,7 +31824,7 @@
         <v>24.95575235493418</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A106" s="19"/>
       <c r="B106" s="170" t="s">
         <v>87</v>
@@ -31885,7 +31880,7 @@
         <v>31.010299517052808</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A107" s="120">
         <f>B70</f>
         <v>1.4</v>
@@ -31944,7 +31939,7 @@
         <v>38.062554750000004</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A108" s="120"/>
       <c r="B108" s="124" t="s">
         <v>87</v>
@@ -32000,7 +31995,7 @@
         <v>47.296960091381493</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A109" s="81">
         <f>B71</f>
         <v>1</v>
@@ -32059,7 +32054,7 @@
         <v>58.05307143185783</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A110" s="85"/>
       <c r="B110" s="86" t="s">
         <v>87</v>
@@ -32115,7 +32110,7 @@
         <v>101.43099068962043</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A111" s="98">
         <f>B72</f>
         <v>0.7</v>
@@ -32160,7 +32155,7 @@
         <v>1.7202922541364543</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A112" s="102"/>
       <c r="B112" s="103" t="s">
         <v>87</v>
@@ -32202,7 +32197,7 @@
         <v>2.1385671409275137E-5</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="94">
         <f>B73</f>
         <v>0.5</v>
@@ -32247,7 +32242,7 @@
         <v>2.4084091557910359</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="97"/>
       <c r="B114" s="59" t="s">
         <v>87</v>
@@ -32289,7 +32284,7 @@
         <v>4.5281559825277573E-6</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="87">
         <f>B74</f>
         <v>0.1</v>
@@ -32334,7 +32329,7 @@
         <v>12.042045778955178</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="91"/>
       <c r="B116" s="92" t="s">
         <v>87</v>
@@ -32406,22 +32401,22 @@
   <dimension ref="A1:AG107"/>
   <sheetViews>
     <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AE53" sqref="AE53"/>
+      <selection activeCell="AC33" sqref="AC33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.85546875" style="1"/>
-    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="8.88671875" style="1"/>
+    <col min="26" max="26" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>10</v>
       </c>
@@ -32510,7 +32505,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" s="9">
         <v>0.37</v>
       </c>
@@ -32602,7 +32597,7 @@
         <v>0.10345145454545455</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" s="9">
         <v>0.44</v>
       </c>
@@ -32694,7 +32689,7 @@
         <v>0.10918303181818181</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="9">
         <v>0.52</v>
       </c>
@@ -32786,7 +32781,7 @@
         <v>0.11806485454545455</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="9">
         <v>0.61</v>
       </c>
@@ -32878,7 +32873,7 @@
         <v>0.13053725909090907</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <v>0.72</v>
       </c>
@@ -32970,7 +32965,7 @@
         <v>0.14702484090909088</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="9">
         <v>0.85</v>
       </c>
@@ -33062,7 +33057,7 @@
         <v>0.16995316363636359</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="9">
         <v>1.01</v>
       </c>
@@ -33154,7 +33149,7 @@
         <v>0.20881921818181817</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" s="9">
         <v>1.19</v>
       </c>
@@ -33246,7 +33241,7 @@
         <v>0.28798042727272721</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="9">
         <v>1.4</v>
       </c>
@@ -33338,7 +33333,7 @@
         <v>0.4164124818181818</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="9">
         <v>1.65</v>
       </c>
@@ -33430,7 +33425,7 @@
         <v>0.51386996818181818</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="9">
         <v>1.95</v>
       </c>
@@ -33522,7 +33517,7 @@
         <v>0.59205577272727272</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="9">
         <v>2.2999999999999998</v>
       </c>
@@ -33614,7 +33609,7 @@
         <v>0.6660419500000001</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" s="9">
         <v>2.72</v>
       </c>
@@ -33706,7 +33701,7 @@
         <v>0.72373427272727275</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" s="9">
         <v>3.2</v>
       </c>
@@ -33798,7 +33793,7 @@
         <v>0.77374282727272736</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" s="9">
         <v>3.78</v>
       </c>
@@ -33890,7 +33885,7 @@
         <v>0.83793021818181801</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18" s="9">
         <v>4.46</v>
       </c>
@@ -33982,7 +33977,7 @@
         <v>0.9276544636363635</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" s="9">
         <v>5.27</v>
       </c>
@@ -34074,7 +34069,7 @@
         <v>1.0303185818181819</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" s="9">
         <v>6.21</v>
       </c>
@@ -34166,7 +34161,7 @@
         <v>1.1507959272727271</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21" s="9">
         <v>7.33</v>
       </c>
@@ -34258,7 +34253,7 @@
         <v>1.2857054272727275</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A22" s="9">
         <v>8.65</v>
       </c>
@@ -34350,7 +34345,7 @@
         <v>1.4414075272727267</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A23" s="9">
         <v>10.210000000000001</v>
       </c>
@@ -34442,7 +34437,7 @@
         <v>1.6246772090909092</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24" s="9">
         <v>12.05</v>
       </c>
@@ -34534,7 +34529,7 @@
         <v>1.8360353999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25" s="9">
         <v>14.22</v>
       </c>
@@ -34626,7 +34621,7 @@
         <v>2.132178763636364</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A26" s="9">
         <v>16.78</v>
       </c>
@@ -34718,7 +34713,7 @@
         <v>2.4587393727272731</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" s="9">
         <v>19.809999999999999</v>
       </c>
@@ -34810,7 +34805,7 @@
         <v>2.7979305863636363</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A28" s="9">
         <v>23.37</v>
       </c>
@@ -34902,7 +34897,7 @@
         <v>1.1893333681818183</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A29" s="9">
         <v>25</v>
       </c>
@@ -34994,7 +34989,7 @@
         <v>1.8825031136363639</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A30" s="9">
         <v>27.58</v>
       </c>
@@ -35086,7 +35081,7 @@
         <v>3.3140245409090907</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" s="9">
         <v>32.549999999999997</v>
       </c>
@@ -35178,7 +35173,7 @@
         <v>3.4339506454545448</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A32" s="9">
         <v>38.409999999999997</v>
       </c>
@@ -35270,7 +35265,7 @@
         <v>3.4267308181818183</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A33" s="9">
         <v>45.32</v>
       </c>
@@ -35362,7 +35357,7 @@
         <v>3.2748958136363631</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A34" s="9">
         <v>53.48</v>
       </c>
@@ -35454,7 +35449,7 @@
         <v>2.9197439590909102</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A35" s="9">
         <v>63.11</v>
       </c>
@@ -35546,7 +35541,7 @@
         <v>2.4945463636363634</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A36" s="9">
         <v>74.48</v>
       </c>
@@ -35638,7 +35633,7 @@
         <v>1.9734895909090913</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A37" s="9">
         <v>87.89</v>
       </c>
@@ -35730,7 +35725,7 @@
         <v>1.5051432454545455</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A38" s="9">
         <v>103.72</v>
       </c>
@@ -35822,7 +35817,7 @@
         <v>1.0947431136363637</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A39" s="9">
         <v>122.39</v>
       </c>
@@ -35914,7 +35909,7 @@
         <v>9.8260886363636363E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A40" s="9">
         <v>125</v>
       </c>
@@ -36006,7 +36001,7 @@
         <v>0.73149481818181816</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A41" s="9">
         <v>144.43</v>
       </c>
@@ -36098,7 +36093,7 @@
         <v>0.61875227272727262</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A42" s="9">
         <v>170.44</v>
       </c>
@@ -36190,7 +36185,7 @@
         <v>0.47022736363636364</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A43" s="9">
         <v>201.13</v>
       </c>
@@ -36282,7 +36277,7 @@
         <v>0.35589850454545446</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A44" s="9">
         <v>237.35</v>
       </c>
@@ -36374,7 +36369,7 @@
         <v>9.0109809090909085E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A45" s="9">
         <v>250</v>
       </c>
@@ -36466,7 +36461,7 @@
         <v>0.21433984545454551</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A46" s="9">
         <v>280.08999999999997</v>
       </c>
@@ -36558,7 +36553,7 @@
         <v>0.12128648636363637</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A47" s="9">
         <v>300</v>
       </c>
@@ -36650,7 +36645,7 @@
         <v>1.8120921590909094</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A48" s="9">
         <v>330.52</v>
       </c>
@@ -36742,7 +36737,7 @@
         <v>3.484536859090908</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A49" s="9">
         <v>390.04</v>
       </c>
@@ -36834,7 +36829,7 @@
         <v>4.0028678454545457</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A50" s="9">
         <v>460.27</v>
       </c>
@@ -36926,7 +36921,7 @@
         <v>20.949027127272725</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A51" s="9">
         <v>850</v>
       </c>
@@ -37018,7 +37013,7 @@
         <v>3.67216955</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A52" s="9">
         <v>1000</v>
       </c>
@@ -37110,7 +37105,7 @@
         <v>14.385586940909089</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A53" s="9">
         <v>5000</v>
       </c>
@@ -37202,12 +37197,12 @@
         <v>100.0000000409091</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A55" s="18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A56" s="19" t="s">
         <v>10</v>
       </c>
@@ -37284,7 +37279,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A57" s="19">
         <v>0.37</v>
       </c>
@@ -37363,7 +37358,7 @@
         <v>0.10345145454545455</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A58" s="19">
         <v>0.44</v>
       </c>
@@ -37442,7 +37437,7 @@
         <v>0.10918303181818181</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A59" s="19">
         <v>0.52</v>
       </c>
@@ -37521,7 +37516,7 @@
         <v>0.11806485454545455</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A60" s="19">
         <v>0.61</v>
       </c>
@@ -37600,7 +37595,7 @@
         <v>0.13053725909090907</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A61" s="19">
         <v>0.72</v>
       </c>
@@ -37679,7 +37674,7 @@
         <v>0.14702484090909088</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A62" s="19">
         <v>0.85</v>
       </c>
@@ -37758,7 +37753,7 @@
         <v>0.16995316363636359</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A63" s="19">
         <v>1.01</v>
       </c>
@@ -37837,7 +37832,7 @@
         <v>0.20881921818181817</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A64" s="19">
         <v>1.19</v>
       </c>
@@ -37916,7 +37911,7 @@
         <v>0.28798042727272721</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A65" s="19">
         <v>1.4</v>
       </c>
@@ -37995,7 +37990,7 @@
         <v>0.4164124818181818</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A66" s="19">
         <v>1.65</v>
       </c>
@@ -38074,7 +38069,7 @@
         <v>0.51386996818181818</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A67" s="19">
         <v>1.95</v>
       </c>
@@ -38153,7 +38148,7 @@
         <v>0.59205577272727272</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A68" s="19">
         <v>2.2999999999999998</v>
       </c>
@@ -38232,7 +38227,7 @@
         <v>0.6660419500000001</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A69" s="19">
         <v>2.72</v>
       </c>
@@ -38311,7 +38306,7 @@
         <v>0.72373427272727275</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A70" s="19">
         <v>3.2</v>
       </c>
@@ -38390,7 +38385,7 @@
         <v>0.77374282727272736</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A71" s="19">
         <v>3.78</v>
       </c>
@@ -38469,7 +38464,7 @@
         <v>0.83793021818181801</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A72" s="19">
         <v>4.46</v>
       </c>
@@ -38548,7 +38543,7 @@
         <v>0.9276544636363635</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A73" s="19">
         <v>5.27</v>
       </c>
@@ -38627,7 +38622,7 @@
         <v>1.0303185818181819</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A74" s="19">
         <v>6.21</v>
       </c>
@@ -38706,7 +38701,7 @@
         <v>1.1507959272727271</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A75" s="19">
         <v>7.33</v>
       </c>
@@ -38785,7 +38780,7 @@
         <v>1.2857054272727275</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A76" s="19">
         <v>8.65</v>
       </c>
@@ -38864,7 +38859,7 @@
         <v>1.4414075272727267</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A77" s="19">
         <v>10.210000000000001</v>
       </c>
@@ -38943,7 +38938,7 @@
         <v>1.6246772090909092</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A78" s="19">
         <v>12.05</v>
       </c>
@@ -39022,7 +39017,7 @@
         <v>1.8360353999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A79" s="19">
         <v>14.22</v>
       </c>
@@ -39101,7 +39096,7 @@
         <v>2.132178763636364</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A80" s="19">
         <v>16.78</v>
       </c>
@@ -39180,7 +39175,7 @@
         <v>2.4587393727272731</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A81" s="19">
         <v>19.809999999999999</v>
       </c>
@@ -39259,7 +39254,7 @@
         <v>2.7979305863636363</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A82" s="19">
         <v>23.37</v>
       </c>
@@ -39338,7 +39333,7 @@
         <v>1.1893333681818183</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A83" s="19">
         <v>25</v>
       </c>
@@ -39417,7 +39412,7 @@
         <v>1.8825031136363639</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A84" s="19">
         <v>27.58</v>
       </c>
@@ -39496,7 +39491,7 @@
         <v>3.3140245409090907</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A85" s="19">
         <v>32.549999999999997</v>
       </c>
@@ -39575,7 +39570,7 @@
         <v>3.4339506454545448</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A86" s="19">
         <v>38.409999999999997</v>
       </c>
@@ -39654,7 +39649,7 @@
         <v>3.4267308181818183</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A87" s="19">
         <v>45.32</v>
       </c>
@@ -39733,7 +39728,7 @@
         <v>3.2748958136363631</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A88" s="19">
         <v>53.48</v>
       </c>
@@ -39812,7 +39807,7 @@
         <v>2.9197439590909102</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A89" s="19">
         <v>63.11</v>
       </c>
@@ -39891,7 +39886,7 @@
         <v>2.4945463636363634</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A90" s="19">
         <v>74.48</v>
       </c>
@@ -39970,7 +39965,7 @@
         <v>1.9734895909090913</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A91" s="19">
         <v>87.89</v>
       </c>
@@ -40049,7 +40044,7 @@
         <v>1.5051432454545455</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A92" s="19">
         <v>103.72</v>
       </c>
@@ -40128,7 +40123,7 @@
         <v>1.0947431136363637</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A93" s="19">
         <v>122.39</v>
       </c>
@@ -40207,7 +40202,7 @@
         <v>9.8260886363636363E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A94" s="19">
         <v>125</v>
       </c>
@@ -40286,7 +40281,7 @@
         <v>0.73149481818181816</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A95" s="19">
         <v>144.43</v>
       </c>
@@ -40365,7 +40360,7 @@
         <v>0.61875227272727262</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A96" s="19">
         <v>170.44</v>
       </c>
@@ -40444,7 +40439,7 @@
         <v>0.47022736363636364</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A97" s="19">
         <v>201.13</v>
       </c>
@@ -40523,7 +40518,7 @@
         <v>0.35589850454545446</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A98" s="19">
         <v>237.35</v>
       </c>
@@ -40602,7 +40597,7 @@
         <v>9.0109809090909085E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A99" s="19">
         <v>250</v>
       </c>
@@ -40681,7 +40676,7 @@
         <v>0.21433984545454551</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A100" s="19">
         <v>280.08999999999997</v>
       </c>
@@ -40760,7 +40755,7 @@
         <v>0.12128648636363637</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A101" s="19">
         <v>300</v>
       </c>
@@ -40839,7 +40834,7 @@
         <v>1.8120921590909094</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A102" s="19">
         <v>330.52</v>
       </c>
@@ -40918,7 +40913,7 @@
         <v>3.484536859090908</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A103" s="19">
         <v>390.04</v>
       </c>
@@ -40997,7 +40992,7 @@
         <v>4.0028678454545457</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A104" s="19">
         <v>460.27</v>
       </c>
@@ -41076,7 +41071,7 @@
         <v>20.949027127272725</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A105" s="19">
         <v>850</v>
       </c>
@@ -41155,7 +41150,7 @@
         <v>3.67216955</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A106" s="19">
         <v>1000</v>
       </c>
@@ -41234,7 +41229,7 @@
         <v>14.385586940909089</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
       <c r="A107" s="19">
         <v>5000</v>
       </c>

--- a/Shear Stress/bedload_tauc/bedload_tauc_analysis.xlsx
+++ b/Shear Stress/bedload_tauc/bedload_tauc_analysis.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nicol\Documents\GitHub\La_Jara\Shear Stress\bedload_tauc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78F690D8-C3C8-4EF3-82BE-98C534F6BA6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38E12788-3C3E-4D3B-BA3C-821F5DAD6659}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tau_m (cm=0.44)" sheetId="4" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="442" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="446" uniqueCount="114">
   <si>
     <t>#2</t>
   </si>
@@ -374,6 +374,15 @@
   </si>
   <si>
     <t>solving tau_c using hiding function</t>
+  </si>
+  <si>
+    <t>Q (partitioned)</t>
+  </si>
+  <si>
+    <t>Q m3/s</t>
+  </si>
+  <si>
+    <t>max</t>
   </si>
 </sst>
 </file>
@@ -766,7 +775,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="228">
+  <cellXfs count="231">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1357,12 +1366,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1370,15 +1373,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1390,7 +1384,13 @@
     <xf numFmtId="0" fontId="2" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1405,6 +1405,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -15384,52 +15400,52 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18846A3F-073E-4AD3-9086-76C467E4EDB2}">
   <dimension ref="A1:AM116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M113" sqref="M113"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" customWidth="1"/>
-    <col min="13" max="13" width="12.109375" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.88671875" customWidth="1"/>
-    <col min="18" max="18" width="18.44140625" customWidth="1"/>
-    <col min="21" max="21" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.5546875" customWidth="1"/>
-    <col min="24" max="24" width="9.109375" style="1"/>
+    <col min="17" max="17" width="10.85546875" customWidth="1"/>
+    <col min="18" max="18" width="18.42578125" customWidth="1"/>
+    <col min="21" max="21" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" customWidth="1"/>
+    <col min="24" max="24" width="9.140625" style="1"/>
     <col min="25" max="25" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="9.109375" style="1"/>
+    <col min="26" max="26" width="9.140625" style="1"/>
     <col min="35" max="35" width="12" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A1" s="212" t="s">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A1" s="218" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="223"/>
-      <c r="C1" s="223"/>
-      <c r="D1" s="223"/>
-      <c r="E1" s="223"/>
-      <c r="F1" s="223"/>
-      <c r="G1" s="223"/>
-      <c r="H1" s="223"/>
-      <c r="I1" s="223"/>
-      <c r="J1" s="223"/>
+      <c r="B1" s="219"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
+      <c r="F1" s="219"/>
+      <c r="G1" s="219"/>
+      <c r="H1" s="219"/>
+      <c r="I1" s="219"/>
+      <c r="J1" s="219"/>
       <c r="K1" s="25"/>
-      <c r="L1" s="212" t="s">
+      <c r="L1" s="218" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="223"/>
-      <c r="N1" s="213"/>
+      <c r="M1" s="219"/>
+      <c r="N1" s="220"/>
       <c r="Q1" s="49"/>
       <c r="R1" s="1" t="s">
         <v>52</v>
@@ -15468,7 +15484,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>70</v>
       </c>
@@ -15555,7 +15571,7 @@
         <v>0.14369522173913041</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="51">
         <v>11.2</v>
       </c>
@@ -15641,7 +15657,7 @@
         <v>0.96557273478260874</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="52">
         <v>8</v>
       </c>
@@ -15727,7 +15743,7 @@
         <v>0.72795068403010044</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="52">
         <v>5.6</v>
       </c>
@@ -15813,7 +15829,7 @@
         <v>4.0363869782461155</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="52">
         <v>4</v>
       </c>
@@ -15892,7 +15908,7 @@
         <v>1.9437556084810153</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="52">
         <v>2.8</v>
       </c>
@@ -15955,7 +15971,7 @@
         <v>0.8005262470803336</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="52">
         <v>2</v>
       </c>
@@ -15986,10 +16002,10 @@
       <c r="J8" s="106">
         <v>0.435</v>
       </c>
-      <c r="L8" s="212" t="s">
+      <c r="L8" s="218" t="s">
         <v>38</v>
       </c>
-      <c r="M8" s="213"/>
+      <c r="M8" s="220"/>
       <c r="Q8" s="49"/>
       <c r="R8" s="7"/>
       <c r="W8" s="1">
@@ -16022,7 +16038,7 @@
         <v>1.8410135952059168</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="52">
         <v>1.4</v>
       </c>
@@ -16092,7 +16108,7 @@
         <v>10.225716559788639</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="52">
         <v>1</v>
       </c>
@@ -16170,7 +16186,7 @@
         <v>19.118067345564235</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="52">
         <v>0.7</v>
       </c>
@@ -16245,7 +16261,7 @@
         <v>4.1888629385561202</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="52">
         <v>0.5</v>
       </c>
@@ -16320,7 +16336,7 @@
         <v>56.008452203917081</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
         <v>9</v>
       </c>
@@ -16387,7 +16403,7 @@
         <v>100.00000011739129</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="53" t="s">
         <v>105</v>
       </c>
@@ -16450,7 +16466,7 @@
         <v>0.11103687826086958</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
       <c r="L15" s="2">
         <v>32</v>
@@ -16480,15 +16496,15 @@
       <c r="Z15" s="13">
         <v>0.11783916521739132</v>
       </c>
-      <c r="AB15" s="224" t="s">
+      <c r="AB15" s="221" t="s">
         <v>44</v>
       </c>
-      <c r="AC15" s="225"/>
-      <c r="AD15" s="225"/>
-      <c r="AE15" s="226"/>
+      <c r="AC15" s="222"/>
+      <c r="AD15" s="222"/>
+      <c r="AE15" s="223"/>
       <c r="AF15" s="31"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="L16" s="2">
         <v>22.6</v>
       </c>
@@ -16551,7 +16567,7 @@
         <v>2.2624434389140274E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>54</v>
       </c>
@@ -16622,7 +16638,7 @@
         <v>4.2986425392484755E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>55</v>
       </c>
@@ -16640,6 +16656,12 @@
       </c>
       <c r="F18" s="6" t="s">
         <v>59</v>
+      </c>
+      <c r="G18" s="229" t="s">
+        <v>111</v>
+      </c>
+      <c r="H18" s="228" t="s">
+        <v>112</v>
       </c>
       <c r="L18" s="2">
         <v>11</v>
@@ -16694,7 +16716,7 @@
         <v>2.5343191042496417E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" s="69">
         <v>2</v>
       </c>
@@ -16715,6 +16737,20 @@
         <f>B14</f>
         <v>9.9492000000000018E-3</v>
       </c>
+      <c r="G19">
+        <v>0.135211641716665</v>
+      </c>
+      <c r="H19" s="41">
+        <f>G19*1000</f>
+        <v>135.21164171666499</v>
+      </c>
+      <c r="I19" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19" s="230">
+        <f>MIN(H19:H27)</f>
+        <v>117.74378495694799</v>
+      </c>
       <c r="L19" s="2">
         <v>8</v>
       </c>
@@ -16776,7 +16812,7 @@
         <v>6.7873303167420851E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" s="57">
         <v>3</v>
       </c>
@@ -16792,6 +16828,20 @@
         <v>0</v>
       </c>
       <c r="F20" s="150"/>
+      <c r="G20">
+        <v>0.12215472707606501</v>
+      </c>
+      <c r="H20" s="41">
+        <f t="shared" ref="H20:H27" si="14">G20*1000</f>
+        <v>122.154727076065</v>
+      </c>
+      <c r="I20" t="s">
+        <v>113</v>
+      </c>
+      <c r="J20" s="230">
+        <f>MAX(H19:H27)</f>
+        <v>180.81715694428999</v>
+      </c>
       <c r="L20" s="2">
         <v>5.6</v>
       </c>
@@ -16829,7 +16879,7 @@
         <v>0</v>
       </c>
       <c r="AD20" s="2">
-        <f t="shared" ref="AD20:AD30" si="14">AC20+AD19</f>
+        <f t="shared" ref="AD20:AD30" si="15">AC20+AD19</f>
         <v>0</v>
       </c>
       <c r="AE20" s="30">
@@ -16853,7 +16903,7 @@
         <v>3.6199095022624445E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" s="69">
         <v>4</v>
       </c>
@@ -16874,6 +16924,13 @@
         <f>D14</f>
         <v>7.6644E-3</v>
       </c>
+      <c r="G21">
+        <v>0.117743784956948</v>
+      </c>
+      <c r="H21" s="41">
+        <f t="shared" si="14"/>
+        <v>117.74378495694799</v>
+      </c>
       <c r="L21" s="2">
         <v>4</v>
       </c>
@@ -16911,7 +16968,7 @@
         <v>0</v>
       </c>
       <c r="AD21" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
       <c r="AE21" s="30">
@@ -16935,7 +16992,7 @@
         <v>5.4298642533936597E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>5</v>
       </c>
@@ -16956,6 +17013,13 @@
         <f>E14</f>
         <v>1.0039200000000002E-2</v>
       </c>
+      <c r="G22">
+        <v>0.179477914315882</v>
+      </c>
+      <c r="H22" s="41">
+        <f t="shared" si="14"/>
+        <v>179.477914315882</v>
+      </c>
       <c r="L22" s="2">
         <v>2.8</v>
       </c>
@@ -16968,7 +17032,7 @@
         <v>5.6</v>
       </c>
       <c r="S22" s="39">
-        <f t="shared" ref="S22:S31" si="15">AI20</f>
+        <f t="shared" ref="S22:S31" si="16">AI20</f>
         <v>5.565610865040331E-2</v>
       </c>
       <c r="T22" s="142">
@@ -16993,7 +17057,7 @@
         <v>5</v>
       </c>
       <c r="AD22" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>5</v>
       </c>
       <c r="AE22" s="30">
@@ -17017,7 +17081,7 @@
         <v>6.7873303167420851E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" s="69">
         <v>6</v>
       </c>
@@ -17038,6 +17102,13 @@
         <f>F14</f>
         <v>2.6683100000000001E-2</v>
       </c>
+      <c r="G23">
+        <v>0.18081715694428999</v>
+      </c>
+      <c r="H23" s="41">
+        <f t="shared" si="14"/>
+        <v>180.81715694428999</v>
+      </c>
       <c r="L23" s="2">
         <v>2</v>
       </c>
@@ -17050,7 +17121,7 @@
         <v>8</v>
       </c>
       <c r="S23" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6.108597290379697E-2</v>
       </c>
       <c r="T23" s="142">
@@ -17075,7 +17146,7 @@
         <v>10</v>
       </c>
       <c r="AD23" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>15</v>
       </c>
       <c r="AE23" s="30">
@@ -17099,7 +17170,7 @@
         <v>4.5248868778280549E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>7</v>
       </c>
@@ -17120,6 +17191,13 @@
         <f>G14</f>
         <v>1.41662E-2</v>
       </c>
+      <c r="G24">
+        <v>0.171886328011326</v>
+      </c>
+      <c r="H24" s="41">
+        <f t="shared" si="14"/>
+        <v>171.88632801132601</v>
+      </c>
       <c r="L24" s="2">
         <v>1.4</v>
       </c>
@@ -17132,7 +17210,7 @@
         <v>11</v>
       </c>
       <c r="S24" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>6.7873303220539055E-2</v>
       </c>
       <c r="T24" s="142">
@@ -17157,7 +17235,7 @@
         <v>25</v>
       </c>
       <c r="AD24" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>40</v>
       </c>
       <c r="AE24" s="30">
@@ -17181,7 +17259,7 @@
         <v>0.11312217194570137</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" s="69">
         <v>8</v>
       </c>
@@ -17202,6 +17280,13 @@
         <f>H14</f>
         <v>5.37464E-2</v>
       </c>
+      <c r="G25">
+        <v>0.175460189691059</v>
+      </c>
+      <c r="H25" s="41">
+        <f t="shared" si="14"/>
+        <v>175.46018969105901</v>
+      </c>
       <c r="L25" s="2">
         <v>1</v>
       </c>
@@ -17214,7 +17299,7 @@
         <v>16</v>
       </c>
       <c r="S25" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.1131221719988196</v>
       </c>
       <c r="T25" s="142">
@@ -17239,7 +17324,7 @@
         <v>27</v>
       </c>
       <c r="AD25" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>67</v>
       </c>
       <c r="AE25" s="30">
@@ -17263,7 +17348,7 @@
         <v>0.12217194570135748</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>9</v>
       </c>
@@ -17284,6 +17369,13 @@
         <f>I14</f>
         <v>2.2711099999999998E-2</v>
       </c>
+      <c r="G26">
+        <v>0.17515334349988301</v>
+      </c>
+      <c r="H26" s="41">
+        <f t="shared" si="14"/>
+        <v>175.15334349988302</v>
+      </c>
       <c r="L26" s="2">
         <v>0.7</v>
       </c>
@@ -17296,7 +17388,7 @@
         <v>22.6</v>
       </c>
       <c r="S26" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.22624434394452098</v>
       </c>
       <c r="T26" s="142">
@@ -17321,7 +17413,7 @@
         <v>43</v>
       </c>
       <c r="AD26" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>110</v>
       </c>
       <c r="AE26" s="30">
@@ -17345,7 +17437,7 @@
         <v>0.19457013574660631</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" s="69">
         <v>10</v>
       </c>
@@ -17366,6 +17458,13 @@
         <f>J14</f>
         <v>6.2585999999999996E-3</v>
       </c>
+      <c r="G27">
+        <v>0.140919340168809</v>
+      </c>
+      <c r="H27" s="41">
+        <f t="shared" si="14"/>
+        <v>140.91934016880899</v>
+      </c>
       <c r="L27" s="2">
         <v>0.5</v>
       </c>
@@ -17378,7 +17477,7 @@
         <v>32</v>
       </c>
       <c r="S27" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.34841628964587845</v>
       </c>
       <c r="T27" s="142">
@@ -17403,7 +17502,7 @@
         <v>43</v>
       </c>
       <c r="AD27" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>153</v>
       </c>
       <c r="AE27" s="30">
@@ -17427,7 +17526,7 @@
         <v>0.19457013574660631</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C28" s="1"/>
       <c r="L28" s="2" t="s">
         <v>78</v>
@@ -17441,7 +17540,7 @@
         <v>45</v>
       </c>
       <c r="S28" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.54298642539248476</v>
       </c>
       <c r="T28" s="142">
@@ -17466,7 +17565,7 @@
         <v>35</v>
       </c>
       <c r="AD28" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>188</v>
       </c>
       <c r="AE28" s="30">
@@ -17490,7 +17589,7 @@
         <v>0.15837104072398189</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="M29" s="50">
         <f>SUM(M10:M28)</f>
         <v>1.0000000000531182</v>
@@ -17500,7 +17599,7 @@
         <v>64</v>
       </c>
       <c r="S29" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.73755656113909107</v>
       </c>
       <c r="T29" s="142">
@@ -17525,7 +17624,7 @@
         <v>10</v>
       </c>
       <c r="AD29" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>198</v>
       </c>
       <c r="AE29" s="30">
@@ -17549,26 +17648,26 @@
         <v>4.5248868778280493E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A30" s="227" t="s">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A30" s="224" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="227"/>
-      <c r="C30" s="227"/>
-      <c r="D30" s="227"/>
-      <c r="E30" s="227"/>
-      <c r="F30" s="227"/>
-      <c r="G30" s="227"/>
-      <c r="H30" s="227"/>
-      <c r="I30" s="227"/>
-      <c r="J30" s="227"/>
+      <c r="B30" s="224"/>
+      <c r="C30" s="224"/>
+      <c r="D30" s="224"/>
+      <c r="E30" s="224"/>
+      <c r="F30" s="224"/>
+      <c r="G30" s="224"/>
+      <c r="H30" s="224"/>
+      <c r="I30" s="224"/>
+      <c r="J30" s="224"/>
       <c r="K30" s="25"/>
       <c r="Q30" s="49"/>
       <c r="R30" s="2">
         <v>90</v>
       </c>
       <c r="S30" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.89592760186307296</v>
       </c>
       <c r="T30" s="142">
@@ -17593,7 +17692,7 @@
         <v>13</v>
       </c>
       <c r="AD30" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="15"/>
         <v>211</v>
       </c>
       <c r="AE30" s="30">
@@ -17617,7 +17716,7 @@
         <v>5.8823529411764719E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" s="53" t="s">
         <v>70</v>
       </c>
@@ -17654,7 +17753,7 @@
         <v>128</v>
       </c>
       <c r="S31" s="39">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>0.94117647064135346</v>
       </c>
       <c r="T31" s="142">
@@ -17689,7 +17788,7 @@
       <c r="AG31" s="5"/>
       <c r="AI31" s="46"/>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>180</v>
       </c>
@@ -17754,7 +17853,7 @@
       <c r="AD32" s="1"/>
       <c r="AE32" s="1"/>
       <c r="AI32">
-        <f t="shared" ref="AI32" si="16">AC32/$AC$32</f>
+        <f t="shared" ref="AI32" si="17">AC32/$AC$32</f>
         <v>1</v>
       </c>
       <c r="AJ32" s="45">
@@ -17762,7 +17861,7 @@
         <v>1.0000000000531182</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>128</v>
       </c>
@@ -17822,7 +17921,7 @@
         <v>4.5248868778280542</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>90</v>
       </c>
@@ -17866,7 +17965,7 @@
         <v>0.56166232608695643</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>64</v>
       </c>
@@ -17910,7 +18009,7 @@
         <v>0.48313567391304357</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>45</v>
       </c>
@@ -17954,7 +18053,7 @@
         <v>0.40172391304347826</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>32</v>
       </c>
@@ -17998,7 +18097,7 @@
         <v>0.31800290000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>22.6</v>
       </c>
@@ -18042,7 +18141,7 @@
         <v>3.0056556521739126E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>16</v>
       </c>
@@ -18086,7 +18185,7 @@
         <v>0.22375436521739128</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="52">
         <v>11</v>
       </c>
@@ -18095,35 +18194,35 @@
         <v>0.402042375266353</v>
       </c>
       <c r="C40" s="30">
-        <f t="shared" ref="C40:J40" si="17">C3/1000/C$14</f>
+        <f t="shared" ref="C40:J40" si="18">C3/1000/C$14</f>
         <v>0.17209567038124818</v>
       </c>
       <c r="D40" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="E40" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="F40" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="G40" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="H40" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="I40" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="J40" s="30">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
       <c r="K40" s="5"/>
@@ -18139,44 +18238,44 @@
         <v>0.20053242608695654</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="52">
         <v>8</v>
       </c>
       <c r="B41" s="30">
-        <f t="shared" ref="B41:B50" si="18">(B4/1000)/B$14</f>
+        <f t="shared" ref="B41:B50" si="19">(B4/1000)/B$14</f>
         <v>0</v>
       </c>
       <c r="C41" s="30">
-        <f t="shared" ref="C41:J50" si="19">C4/1000/C$14</f>
+        <f t="shared" ref="C41:J50" si="20">C4/1000/C$14</f>
         <v>7.2083023004173657E-2</v>
       </c>
       <c r="D41" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E41" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F41" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="G41" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H41" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="I41" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.3855207365561331E-2</v>
       </c>
       <c r="J41" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="K41" s="5"/>
@@ -18192,44 +18291,44 @@
         <v>0.15758740869565219</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" s="52">
         <v>5.6</v>
       </c>
       <c r="B42" s="30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C42" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.12324166327061173</v>
       </c>
       <c r="D42" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E42" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F42" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.7990338453927762E-2</v>
       </c>
       <c r="G42" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H42" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.8103538097435364E-2</v>
       </c>
       <c r="I42" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.561646067341521E-2</v>
       </c>
       <c r="J42" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.7135142044546698E-2</v>
       </c>
       <c r="K42" s="5"/>
@@ -18245,44 +18344,44 @@
         <v>0.11821860000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" s="52">
         <v>4</v>
       </c>
       <c r="B43" s="30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C43" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.11361560405278175</v>
       </c>
       <c r="D43" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="E43" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="F43" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.9519396172108937E-2</v>
       </c>
       <c r="G43" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0</v>
       </c>
       <c r="H43" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.1070508908503638E-2</v>
       </c>
       <c r="I43" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>6.8997098335175325E-2</v>
       </c>
       <c r="J43" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9.0323714568753405E-2</v>
       </c>
       <c r="K43" s="42"/>
@@ -18298,44 +18397,44 @@
         <v>2.7713960869565214E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" s="52">
         <v>2.8</v>
       </c>
       <c r="B44" s="30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C44" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.10011804218602889</v>
       </c>
       <c r="D44" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.5227806481916389E-3</v>
       </c>
       <c r="E44" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>8.9947406167822125E-2</v>
       </c>
       <c r="F44" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5.7324673669850952E-2</v>
       </c>
       <c r="G44" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>7.1084694554644145E-3</v>
       </c>
       <c r="H44" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.18761442626855E-2</v>
       </c>
       <c r="I44" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.17348345082360608</v>
       </c>
       <c r="J44" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.12366983031348866</v>
       </c>
       <c r="Q44" s="49"/>
@@ -18350,44 +18449,44 @@
         <v>6.5921991304347824E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="52">
         <v>2</v>
       </c>
       <c r="B45" s="30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0</v>
       </c>
       <c r="C45" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9.499585447084781E-2</v>
       </c>
       <c r="D45" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>1.6700589739575177E-2</v>
       </c>
       <c r="E45" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>6.8561239939437399E-2</v>
       </c>
       <c r="F45" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>8.9659747180799818E-2</v>
       </c>
       <c r="G45" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>6.0143157656958107E-3</v>
       </c>
       <c r="H45" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>2.587336082044565E-2</v>
       </c>
       <c r="I45" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>6.4285745736666214E-3</v>
       </c>
       <c r="J45" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>6.9504361997890909E-2</v>
       </c>
       <c r="Q45" s="49"/>
@@ -18402,44 +18501,44 @@
         <v>3.0966113043478259E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" s="52">
         <v>1.4</v>
       </c>
       <c r="B46" s="30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>5.6486953724922608E-2</v>
       </c>
       <c r="C46" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9.3801379969365245E-2</v>
       </c>
       <c r="D46" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.0994728876363448E-2</v>
       </c>
       <c r="E46" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.10160172125268944</v>
       </c>
       <c r="F46" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.13225224955121406</v>
       </c>
       <c r="G46" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.3318744617469753E-2</v>
       </c>
       <c r="H46" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5.4831579417412145E-2</v>
       </c>
       <c r="I46" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.20840029765180901</v>
       </c>
       <c r="J46" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.14188476656121179</v>
       </c>
       <c r="Q46" s="49"/>
@@ -18454,44 +18553,44 @@
         <v>1.7120587434782608</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="52">
         <v>1</v>
       </c>
       <c r="B47" s="30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>7.0478028384191677E-2</v>
       </c>
       <c r="C47" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>6.7171624906901276E-2</v>
       </c>
       <c r="D47" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5.9365377589896143E-2</v>
       </c>
       <c r="E47" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.14009084389194357</v>
       </c>
       <c r="F47" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.14862590928340411</v>
       </c>
       <c r="G47" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>3.0509240304386495E-2</v>
       </c>
       <c r="H47" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9.8722891207597155E-2</v>
       </c>
       <c r="I47" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.18184940403591196</v>
       </c>
       <c r="J47" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.1102962323842393</v>
       </c>
       <c r="Q47" s="49"/>
@@ -18506,44 +18605,44 @@
         <v>3.3152842391304347</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="52">
         <v>0.7</v>
       </c>
       <c r="B48" s="30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>8.5132472962650252E-2</v>
       </c>
       <c r="C48" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>5.6379196469976543E-2</v>
       </c>
       <c r="D48" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.1082928865925578</v>
       </c>
       <c r="E48" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.19191768268387918</v>
       </c>
       <c r="F48" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.16183277055514539</v>
       </c>
       <c r="G48" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.10023859609493017</v>
       </c>
       <c r="H48" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.16070843814655492</v>
       </c>
       <c r="I48" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.16974519067768626</v>
       </c>
       <c r="J48" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.11927587639408177</v>
       </c>
       <c r="Q48" s="49"/>
@@ -18558,44 +18657,44 @@
         <v>3.8885630782608689</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A49" s="52">
         <v>0.5</v>
       </c>
       <c r="B49" s="30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.10734531419611627</v>
       </c>
       <c r="C49" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>4.2298449993676317E-2</v>
       </c>
       <c r="D49" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.16781483221126245</v>
       </c>
       <c r="E49" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.18674794804366879</v>
       </c>
       <c r="F49" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.14825863561580177</v>
       </c>
       <c r="G49" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.10299162795950925</v>
       </c>
       <c r="H49" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.20782787312266496</v>
       </c>
       <c r="I49" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>9.2465798662328129E-4</v>
       </c>
       <c r="J49" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.1152653948167322</v>
       </c>
       <c r="Q49" s="49"/>
@@ -18610,44 +18709,44 @@
         <v>21.30781896521739</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A50" s="52" t="s">
         <v>78</v>
       </c>
       <c r="B50" s="30">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>0.27851485546576604</v>
       </c>
       <c r="C50" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>6.4199491294388802E-2</v>
       </c>
       <c r="D50" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.60330880434215328</v>
       </c>
       <c r="E50" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.22113315802055938</v>
       </c>
       <c r="F50" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.1845362795177472</v>
       </c>
       <c r="G50" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.7198190058025441</v>
       </c>
       <c r="H50" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.41098566601670061</v>
       </c>
       <c r="I50" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.10069965787654496</v>
       </c>
       <c r="J50" s="30">
-        <f t="shared" si="19"/>
+        <f t="shared" si="20"/>
         <v>0.18264468091905539</v>
       </c>
       <c r="Q50" s="49"/>
@@ -18662,41 +18761,41 @@
         <v>8.1626277652173904</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B51" s="40">
         <f>SUM(B40:B50)</f>
         <v>0.99999999999999989</v>
       </c>
       <c r="C51" s="40">
-        <f t="shared" ref="C51:J51" si="20">SUM(C40:C50)</f>
+        <f t="shared" ref="C51:J51" si="21">SUM(C40:C50)</f>
         <v>1.0000000000000002</v>
       </c>
       <c r="D51" s="40">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="E51" s="40">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="F51" s="40">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="G51" s="40">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="H51" s="40">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>0.99999999999999989</v>
       </c>
       <c r="I51" s="40">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="J51" s="40">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>1</v>
       </c>
       <c r="Q51" s="49"/>
@@ -18711,7 +18810,7 @@
         <v>52.866804999999992</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -18730,73 +18829,73 @@
         <v>100.00000011739129</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A53" s="32" t="s">
         <v>73</v>
       </c>
       <c r="Q53" s="49"/>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A54" s="212" t="s">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A54" s="218" t="s">
         <v>74</v>
       </c>
-      <c r="B54" s="213"/>
-      <c r="C54" s="214" t="s">
+      <c r="B54" s="220"/>
+      <c r="C54" s="212" t="s">
         <v>88</v>
       </c>
-      <c r="D54" s="215"/>
-      <c r="E54" s="215"/>
-      <c r="F54" s="216"/>
-      <c r="G54" s="217" t="s">
+      <c r="D54" s="213"/>
+      <c r="E54" s="213"/>
+      <c r="F54" s="214"/>
+      <c r="G54" s="225" t="s">
         <v>89</v>
       </c>
-      <c r="H54" s="218"/>
-      <c r="I54" s="218"/>
-      <c r="J54" s="219"/>
-      <c r="K54" s="214" t="s">
+      <c r="H54" s="226"/>
+      <c r="I54" s="226"/>
+      <c r="J54" s="227"/>
+      <c r="K54" s="212" t="s">
         <v>90</v>
       </c>
-      <c r="L54" s="215"/>
-      <c r="M54" s="215"/>
-      <c r="N54" s="216"/>
-      <c r="O54" s="220" t="s">
+      <c r="L54" s="213"/>
+      <c r="M54" s="213"/>
+      <c r="N54" s="214"/>
+      <c r="O54" s="215" t="s">
         <v>91</v>
       </c>
-      <c r="P54" s="221"/>
-      <c r="Q54" s="221"/>
-      <c r="R54" s="222"/>
-      <c r="S54" s="214" t="s">
+      <c r="P54" s="216"/>
+      <c r="Q54" s="216"/>
+      <c r="R54" s="217"/>
+      <c r="S54" s="212" t="s">
         <v>92</v>
       </c>
-      <c r="T54" s="215"/>
-      <c r="U54" s="215"/>
-      <c r="V54" s="216"/>
-      <c r="W54" s="220" t="s">
+      <c r="T54" s="213"/>
+      <c r="U54" s="213"/>
+      <c r="V54" s="214"/>
+      <c r="W54" s="215" t="s">
         <v>93</v>
       </c>
-      <c r="X54" s="221"/>
-      <c r="Y54" s="221"/>
-      <c r="Z54" s="222"/>
-      <c r="AA54" s="214" t="s">
+      <c r="X54" s="216"/>
+      <c r="Y54" s="216"/>
+      <c r="Z54" s="217"/>
+      <c r="AA54" s="212" t="s">
         <v>94</v>
       </c>
-      <c r="AB54" s="215"/>
-      <c r="AC54" s="215"/>
-      <c r="AD54" s="216"/>
-      <c r="AE54" s="220" t="s">
+      <c r="AB54" s="213"/>
+      <c r="AC54" s="213"/>
+      <c r="AD54" s="214"/>
+      <c r="AE54" s="215" t="s">
         <v>95</v>
       </c>
-      <c r="AF54" s="221"/>
-      <c r="AG54" s="221"/>
-      <c r="AH54" s="222"/>
-      <c r="AI54" s="214" t="s">
+      <c r="AF54" s="216"/>
+      <c r="AG54" s="216"/>
+      <c r="AH54" s="217"/>
+      <c r="AI54" s="212" t="s">
         <v>96</v>
       </c>
-      <c r="AJ54" s="215"/>
-      <c r="AK54" s="215"/>
-      <c r="AL54" s="216"/>
+      <c r="AJ54" s="213"/>
+      <c r="AK54" s="213"/>
+      <c r="AL54" s="214"/>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>75</v>
       </c>
@@ -18912,7 +19011,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>1</v>
       </c>
@@ -18920,7 +19019,7 @@
         <v>180</v>
       </c>
       <c r="C56" s="60">
-        <f t="shared" ref="C56:C74" si="21">$D$19/(($M$3-$M$2)*$M$4*B56/1000)</f>
+        <f t="shared" ref="C56:C74" si="22">$D$19/(($M$3-$M$2)*$M$4*B56/1000)</f>
         <v>1.6386263944249357E-2</v>
       </c>
       <c r="D56" s="68">
@@ -18936,7 +19035,7 @@
         <v>0</v>
       </c>
       <c r="G56" s="152">
-        <f t="shared" ref="G56:G74" si="22">$D$20/(($M$3-$M$2)*$M$4*B56/1000)</f>
+        <f t="shared" ref="G56:G74" si="23">$D$20/(($M$3-$M$2)*$M$4*B56/1000)</f>
         <v>0</v>
       </c>
       <c r="H56" s="153">
@@ -18948,11 +19047,11 @@
         <v>5.8823529411764719E-2</v>
       </c>
       <c r="J56" s="152" t="e">
-        <f t="shared" ref="J56:J74" si="23">($M$3/$M$2-1)*$M$4*H56/(I56*$E$20^3)</f>
+        <f t="shared" ref="J56:J74" si="24">($M$3/$M$2-1)*$M$4*H56/(I56*$E$20^3)</f>
         <v>#DIV/0!</v>
       </c>
       <c r="K56" s="60">
-        <f t="shared" ref="K56:K74" si="24">$D$21/(($M$3-$M$2)*$M$4*B56/1000)</f>
+        <f t="shared" ref="K56:K74" si="25">$D$21/(($M$3-$M$2)*$M$4*B56/1000)</f>
         <v>1.3702029324133278E-2</v>
       </c>
       <c r="L56" s="68">
@@ -18964,11 +19063,11 @@
         <v>5.8823529411764719E-2</v>
       </c>
       <c r="N56" s="61">
-        <f t="shared" ref="N56:N74" si="25">($M$3/$M$2-1)*$M$4*L56/(M56*$E$21^3)</f>
+        <f t="shared" ref="N56:N74" si="26">($M$3/$M$2-1)*$M$4*L56/(M56*$E$21^3)</f>
         <v>0</v>
       </c>
       <c r="O56" s="64">
-        <f t="shared" ref="O56:O74" si="26">$D$22/(($M$3-$M$2)*$M$4*B56/1000)</f>
+        <f t="shared" ref="O56:O74" si="27">$D$22/(($M$3-$M$2)*$M$4*B56/1000)</f>
         <v>2.426301497928661E-2</v>
       </c>
       <c r="P56" s="65">
@@ -18980,11 +19079,11 @@
         <v>5.8823529411764719E-2</v>
       </c>
       <c r="R56" s="64">
-        <f t="shared" ref="R56:R74" si="27">($M$3/$M$2-1)*$M$4*P56/(Q56*$E$22^3)</f>
+        <f t="shared" ref="R56:R74" si="28">($M$3/$M$2-1)*$M$4*P56/(Q56*$E$22^3)</f>
         <v>0</v>
       </c>
       <c r="S56" s="60">
-        <f t="shared" ref="S56:S74" si="28">$D$23/(($M$3-$M$2)*$M$4*B56/1000)</f>
+        <f t="shared" ref="S56:S74" si="29">$D$23/(($M$3-$M$2)*$M$4*B56/1000)</f>
         <v>2.4525334847713867E-2</v>
       </c>
       <c r="T56" s="61">
@@ -18996,11 +19095,11 @@
         <v>5.8823529411764719E-2</v>
       </c>
       <c r="V56" s="61">
-        <f t="shared" ref="V56:V74" si="29">($M$3/$M$2-1)*$M$4*T56/(U56*$E$23^3)</f>
+        <f t="shared" ref="V56:V74" si="30">($M$3/$M$2-1)*$M$4*T56/(U56*$E$23^3)</f>
         <v>0</v>
       </c>
       <c r="W56" s="64">
-        <f t="shared" ref="W56:W74" si="30">$D$24/(($M$3-$M$2)*$M$4*B56/1000)</f>
+        <f t="shared" ref="W56:W74" si="31">$D$24/(($M$3-$M$2)*$M$4*B56/1000)</f>
         <v>2.2802695133861243E-2</v>
       </c>
       <c r="X56" s="65">
@@ -19012,11 +19111,11 @@
         <v>5.8823529411764719E-2</v>
       </c>
       <c r="Z56" s="64">
-        <f t="shared" ref="Z56:Z74" si="31">($M$3/$M$2-1)*$M$4*X56/(Y56*$E$24^3)</f>
+        <f t="shared" ref="Z56:Z74" si="32">($M$3/$M$2-1)*$M$4*X56/(Y56*$E$24^3)</f>
         <v>0</v>
       </c>
       <c r="AA56" s="60">
-        <f t="shared" ref="AA56:AA74" si="32">$D$25/(($M$3-$M$2)*$M$4*B56/1000)</f>
+        <f t="shared" ref="AA56:AA74" si="33">$D$25/(($M$3-$M$2)*$M$4*B56/1000)</f>
         <v>2.4002105850593772E-2</v>
       </c>
       <c r="AB56" s="61">
@@ -19028,11 +19127,11 @@
         <v>5.8823529411764719E-2</v>
       </c>
       <c r="AD56" s="68">
-        <f t="shared" ref="AD56:AD74" si="33">($M$3/$M$2-1)*$M$4*AB56/(AC56*$E$25^3)</f>
+        <f t="shared" ref="AD56:AD74" si="34">($M$3/$M$2-1)*$M$4*AB56/(AC56*$E$25^3)</f>
         <v>0</v>
       </c>
       <c r="AE56" s="64">
-        <f t="shared" ref="AE56:AE74" si="34">$D$26/(($M$3-$M$2)*$M$4*B56/1000)</f>
+        <f t="shared" ref="AE56:AE74" si="35">$D$26/(($M$3-$M$2)*$M$4*B56/1000)</f>
         <v>2.140392207389244E-2</v>
       </c>
       <c r="AF56" s="65">
@@ -19044,7 +19143,7 @@
         <v>5.8823529411764719E-2</v>
       </c>
       <c r="AH56" s="64">
-        <f t="shared" ref="AH56:AH74" si="35">($M$3/$M$2-1)*$M$4*AF56/(AG56*$E$26^3)</f>
+        <f t="shared" ref="AH56:AH74" si="36">($M$3/$M$2-1)*$M$4*AF56/(AG56*$E$26^3)</f>
         <v>0</v>
       </c>
       <c r="AI56" s="60">
@@ -19064,7 +19163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>2</v>
       </c>
@@ -19072,151 +19171,151 @@
         <v>128</v>
       </c>
       <c r="C57" s="60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2.3043183671600662E-2</v>
       </c>
       <c r="D57" s="68">
-        <f t="shared" ref="D57:D74" si="36">($B$14/1000/($M$6*60))*B33/($M$3*$M$5)</f>
+        <f t="shared" ref="D57:D74" si="37">($B$14/1000/($M$6*60))*B33/($M$3*$M$5)</f>
         <v>0</v>
       </c>
       <c r="E57" s="60">
-        <f t="shared" ref="E57:E74" si="37">M11</f>
+        <f t="shared" ref="E57:E74" si="38">M11</f>
         <v>4.5248868778280493E-2</v>
       </c>
       <c r="F57" s="61">
-        <f t="shared" ref="F57:F74" si="38">($M$3/$M$2-1)*$M$4*D57/(E57*$E$19^3)</f>
+        <f t="shared" ref="F57:F74" si="39">($M$3/$M$2-1)*$M$4*D57/(E57*$E$19^3)</f>
         <v>0</v>
       </c>
       <c r="G57" s="152">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H57" s="153">
-        <f t="shared" ref="H57:H74" si="39">($C$14/1000/($M$6*60))*C33/($M$3*$M$5)</f>
+        <f t="shared" ref="H57:H74" si="40">($C$14/1000/($M$6*60))*C33/($M$3*$M$5)</f>
         <v>0</v>
       </c>
       <c r="I57" s="152">
-        <f t="shared" ref="I57:I74" si="40">E57</f>
+        <f t="shared" ref="I57:I74" si="41">E57</f>
         <v>4.5248868778280493E-2</v>
       </c>
       <c r="J57" s="152" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K57" s="60">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>1.9268478737062424E-2</v>
       </c>
       <c r="L57" s="68">
-        <f t="shared" ref="L57:L74" si="41">($D$14/1000/($M$6*60))*D33/($M$3*$M$5)</f>
+        <f t="shared" ref="L57:L74" si="42">($D$14/1000/($M$6*60))*D33/($M$3*$M$5)</f>
         <v>0</v>
       </c>
       <c r="M57" s="60">
-        <f t="shared" ref="M57:M74" si="42">I57</f>
+        <f t="shared" ref="M57:M74" si="43">I57</f>
         <v>4.5248868778280493E-2</v>
       </c>
       <c r="N57" s="61">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O57" s="64">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>3.41198648146218E-2</v>
       </c>
       <c r="P57" s="65">
-        <f t="shared" ref="P57:P74" si="43">($E$14/1000/($M$6*60))*E33/($M$3*$M$5)</f>
+        <f t="shared" ref="P57:P74" si="44">($E$14/1000/($M$6*60))*E33/($M$3*$M$5)</f>
         <v>0</v>
       </c>
       <c r="Q57" s="64">
-        <f t="shared" ref="Q57:Q74" si="44">M57</f>
+        <f t="shared" ref="Q57:Q74" si="45">M57</f>
         <v>4.5248868778280493E-2</v>
       </c>
       <c r="R57" s="64">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="S57" s="60">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>3.4488752129597636E-2</v>
       </c>
       <c r="T57" s="61">
-        <f t="shared" ref="T57:T74" si="45">($F$14/1000/($M$6*60))*F33/($M$3*$M$5)</f>
+        <f t="shared" ref="T57:T74" si="46">($F$14/1000/($M$6*60))*F33/($M$3*$M$5)</f>
         <v>0</v>
       </c>
       <c r="U57" s="60">
-        <f t="shared" ref="U57:U74" si="46">Q57</f>
+        <f t="shared" ref="U57:U74" si="47">Q57</f>
         <v>4.5248868778280493E-2</v>
       </c>
       <c r="V57" s="61">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="W57" s="64">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>3.2066290031992378E-2</v>
       </c>
       <c r="X57" s="65">
-        <f t="shared" ref="X57:X74" si="47">($G$14/1000/($M$6*60))*G33/($M$3*$M$5)</f>
+        <f t="shared" ref="X57:X74" si="48">($G$14/1000/($M$6*60))*G33/($M$3*$M$5)</f>
         <v>0</v>
       </c>
       <c r="Y57" s="64">
-        <f t="shared" ref="Y57:Y74" si="48">U57</f>
+        <f t="shared" ref="Y57:Y74" si="49">U57</f>
         <v>4.5248868778280493E-2</v>
       </c>
       <c r="Z57" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AA57" s="60">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>3.3752961352397491E-2</v>
       </c>
       <c r="AB57" s="61">
-        <f t="shared" ref="AB57:AB74" si="49">($H$14/1000/($M$6*60))*H33/($M$3*$M$5)</f>
+        <f t="shared" ref="AB57:AB74" si="50">($H$14/1000/($M$6*60))*H33/($M$3*$M$5)</f>
         <v>0</v>
       </c>
       <c r="AC57" s="60">
-        <f t="shared" ref="AC57:AC74" si="50">Y57</f>
+        <f t="shared" ref="AC57:AC74" si="51">Y57</f>
         <v>4.5248868778280493E-2</v>
       </c>
       <c r="AD57" s="68">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AE57" s="64">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>3.0099265416411249E-2</v>
       </c>
       <c r="AF57" s="65">
-        <f t="shared" ref="AF57:AF74" si="51">($I$14/1000/($M$6*60))*I33/($M$3*$M$5)</f>
+        <f t="shared" ref="AF57:AF74" si="52">($I$14/1000/($M$6*60))*I33/($M$3*$M$5)</f>
         <v>0</v>
       </c>
       <c r="AG57" s="64">
-        <f t="shared" ref="AG57:AG74" si="52">AC57</f>
+        <f t="shared" ref="AG57:AG74" si="53">AC57</f>
         <v>4.5248868778280493E-2</v>
       </c>
       <c r="AH57" s="64">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AI57" s="60">
-        <f t="shared" ref="AI57:AI74" si="53">$D$27/(($M$3-$M$2)*$M$4*B57/1000)</f>
+        <f t="shared" ref="AI57:AI74" si="54">$D$27/(($M$3-$M$2)*$M$4*B57/1000)</f>
         <v>2.4349724920681444E-2</v>
       </c>
       <c r="AJ57" s="61">
-        <f t="shared" ref="AJ57:AJ74" si="54">($I$14/1000/($M$6*60))*J33/($M$3*$M$5)</f>
+        <f t="shared" ref="AJ57:AJ74" si="55">($I$14/1000/($M$6*60))*J33/($M$3*$M$5)</f>
         <v>0</v>
       </c>
       <c r="AK57" s="60">
-        <f t="shared" ref="AK57:AK74" si="55">AG57</f>
+        <f t="shared" ref="AK57:AK74" si="56">AG57</f>
         <v>4.5248868778280493E-2</v>
       </c>
       <c r="AL57" s="61">
-        <f t="shared" ref="AL57:AL74" si="56">($M$3/$M$2-1)*$M$4*AJ57/(AK57*$E$27^3)</f>
+        <f t="shared" ref="AL57:AL74" si="57">($M$3/$M$2-1)*$M$4*AJ57/(AK57*$E$27^3)</f>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>3</v>
       </c>
@@ -19224,151 +19323,151 @@
         <v>90</v>
       </c>
       <c r="C58" s="60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>3.2772527888498715E-2</v>
       </c>
       <c r="D58" s="68">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="E58" s="60">
+        <f t="shared" si="38"/>
+        <v>0.15837104072398189</v>
+      </c>
+      <c r="F58" s="61">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="G58" s="152">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="H58" s="153">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="I58" s="152">
+        <f t="shared" si="41"/>
+        <v>0.15837104072398189</v>
+      </c>
+      <c r="J58" s="152" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K58" s="60">
+        <f t="shared" si="25"/>
+        <v>2.7404058648266557E-2</v>
+      </c>
+      <c r="L58" s="68">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="M58" s="60">
+        <f t="shared" si="43"/>
+        <v>0.15837104072398189</v>
+      </c>
+      <c r="N58" s="61">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O58" s="64">
+        <f t="shared" si="27"/>
+        <v>4.8526029958573219E-2</v>
+      </c>
+      <c r="P58" s="65">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q58" s="64">
+        <f t="shared" si="45"/>
+        <v>0.15837104072398189</v>
+      </c>
+      <c r="R58" s="64">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="S58" s="60">
+        <f t="shared" si="29"/>
+        <v>4.9050669695427734E-2</v>
+      </c>
+      <c r="T58" s="61">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="U58" s="60">
+        <f t="shared" si="47"/>
+        <v>0.15837104072398189</v>
+      </c>
+      <c r="V58" s="61">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="W58" s="64">
+        <f t="shared" si="31"/>
+        <v>4.5605390267722486E-2</v>
+      </c>
+      <c r="X58" s="65">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="Y58" s="64">
+        <f t="shared" si="49"/>
+        <v>0.15837104072398189</v>
+      </c>
+      <c r="Z58" s="64">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AA58" s="60">
+        <f t="shared" si="33"/>
+        <v>4.8004211701187544E-2</v>
+      </c>
+      <c r="AB58" s="61">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AC58" s="60">
+        <f t="shared" si="51"/>
+        <v>0.15837104072398189</v>
+      </c>
+      <c r="AD58" s="68">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AE58" s="64">
+        <f t="shared" si="35"/>
+        <v>4.2807844147784879E-2</v>
+      </c>
+      <c r="AF58" s="65">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AG58" s="64">
+        <f t="shared" si="53"/>
+        <v>0.15837104072398189</v>
+      </c>
+      <c r="AH58" s="64">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E58" s="60">
-        <f t="shared" si="37"/>
+      <c r="AI58" s="60">
+        <f t="shared" si="54"/>
+        <v>3.463071988719138E-2</v>
+      </c>
+      <c r="AJ58" s="61">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AK58" s="60">
+        <f t="shared" si="56"/>
         <v>0.15837104072398189</v>
       </c>
-      <c r="F58" s="61">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="G58" s="152">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H58" s="153">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="I58" s="152">
-        <f t="shared" si="40"/>
-        <v>0.15837104072398189</v>
-      </c>
-      <c r="J58" s="152" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K58" s="60">
-        <f t="shared" si="24"/>
-        <v>2.7404058648266557E-2</v>
-      </c>
-      <c r="L58" s="68">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="M58" s="60">
-        <f t="shared" si="42"/>
-        <v>0.15837104072398189</v>
-      </c>
-      <c r="N58" s="61">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="O58" s="64">
-        <f t="shared" si="26"/>
-        <v>4.8526029958573219E-2</v>
-      </c>
-      <c r="P58" s="65">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="Q58" s="64">
-        <f t="shared" si="44"/>
-        <v>0.15837104072398189</v>
-      </c>
-      <c r="R58" s="64">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="S58" s="60">
-        <f t="shared" si="28"/>
-        <v>4.9050669695427734E-2</v>
-      </c>
-      <c r="T58" s="61">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="U58" s="60">
-        <f t="shared" si="46"/>
-        <v>0.15837104072398189</v>
-      </c>
-      <c r="V58" s="61">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="W58" s="64">
-        <f t="shared" si="30"/>
-        <v>4.5605390267722486E-2</v>
-      </c>
-      <c r="X58" s="65">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="Y58" s="64">
-        <f t="shared" si="48"/>
-        <v>0.15837104072398189</v>
-      </c>
-      <c r="Z58" s="64">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AA58" s="60">
-        <f t="shared" si="32"/>
-        <v>4.8004211701187544E-2</v>
-      </c>
-      <c r="AB58" s="61">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="AC58" s="60">
-        <f t="shared" si="50"/>
-        <v>0.15837104072398189</v>
-      </c>
-      <c r="AD58" s="68">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AE58" s="64">
-        <f t="shared" si="34"/>
-        <v>4.2807844147784879E-2</v>
-      </c>
-      <c r="AF58" s="65">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="AG58" s="64">
-        <f t="shared" si="52"/>
-        <v>0.15837104072398189</v>
-      </c>
-      <c r="AH58" s="64">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AI58" s="60">
-        <f t="shared" si="53"/>
-        <v>3.463071988719138E-2</v>
-      </c>
-      <c r="AJ58" s="61">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="AK58" s="60">
-        <f t="shared" si="55"/>
-        <v>0.15837104072398189</v>
-      </c>
       <c r="AL58" s="61">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>4</v>
       </c>
@@ -19376,151 +19475,151 @@
         <v>64</v>
       </c>
       <c r="C59" s="60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4.6086367343201325E-2</v>
       </c>
       <c r="D59" s="68">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="E59" s="60">
+        <f t="shared" si="38"/>
+        <v>0.19457013574660631</v>
+      </c>
+      <c r="F59" s="61">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="G59" s="152">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="H59" s="153">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="I59" s="152">
+        <f t="shared" si="41"/>
+        <v>0.19457013574660631</v>
+      </c>
+      <c r="J59" s="152" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K59" s="60">
+        <f t="shared" si="25"/>
+        <v>3.8536957474124847E-2</v>
+      </c>
+      <c r="L59" s="68">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="M59" s="60">
+        <f t="shared" si="43"/>
+        <v>0.19457013574660631</v>
+      </c>
+      <c r="N59" s="61">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O59" s="64">
+        <f t="shared" si="27"/>
+        <v>6.8239729629243601E-2</v>
+      </c>
+      <c r="P59" s="65">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q59" s="64">
+        <f t="shared" si="45"/>
+        <v>0.19457013574660631</v>
+      </c>
+      <c r="R59" s="64">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="S59" s="60">
+        <f t="shared" si="29"/>
+        <v>6.8977504259195271E-2</v>
+      </c>
+      <c r="T59" s="61">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="U59" s="60">
+        <f t="shared" si="47"/>
+        <v>0.19457013574660631</v>
+      </c>
+      <c r="V59" s="61">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="W59" s="64">
+        <f t="shared" si="31"/>
+        <v>6.4132580063984757E-2</v>
+      </c>
+      <c r="X59" s="65">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="Y59" s="64">
+        <f t="shared" si="49"/>
+        <v>0.19457013574660631</v>
+      </c>
+      <c r="Z59" s="64">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AA59" s="60">
+        <f t="shared" si="33"/>
+        <v>6.7505922704794982E-2</v>
+      </c>
+      <c r="AB59" s="61">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AC59" s="60">
+        <f t="shared" si="51"/>
+        <v>0.19457013574660631</v>
+      </c>
+      <c r="AD59" s="68">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AE59" s="64">
+        <f t="shared" si="35"/>
+        <v>6.0198530832822499E-2</v>
+      </c>
+      <c r="AF59" s="65">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AG59" s="64">
+        <f t="shared" si="53"/>
+        <v>0.19457013574660631</v>
+      </c>
+      <c r="AH59" s="64">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E59" s="60">
-        <f t="shared" si="37"/>
+      <c r="AI59" s="60">
+        <f t="shared" si="54"/>
+        <v>4.8699449841362888E-2</v>
+      </c>
+      <c r="AJ59" s="61">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AK59" s="60">
+        <f t="shared" si="56"/>
         <v>0.19457013574660631</v>
       </c>
-      <c r="F59" s="61">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="G59" s="152">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H59" s="153">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="I59" s="152">
-        <f t="shared" si="40"/>
-        <v>0.19457013574660631</v>
-      </c>
-      <c r="J59" s="152" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K59" s="60">
-        <f t="shared" si="24"/>
-        <v>3.8536957474124847E-2</v>
-      </c>
-      <c r="L59" s="68">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="M59" s="60">
-        <f t="shared" si="42"/>
-        <v>0.19457013574660631</v>
-      </c>
-      <c r="N59" s="61">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="O59" s="64">
-        <f t="shared" si="26"/>
-        <v>6.8239729629243601E-2</v>
-      </c>
-      <c r="P59" s="65">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="Q59" s="64">
-        <f t="shared" si="44"/>
-        <v>0.19457013574660631</v>
-      </c>
-      <c r="R59" s="64">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="S59" s="60">
-        <f t="shared" si="28"/>
-        <v>6.8977504259195271E-2</v>
-      </c>
-      <c r="T59" s="61">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="U59" s="60">
-        <f t="shared" si="46"/>
-        <v>0.19457013574660631</v>
-      </c>
-      <c r="V59" s="61">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="W59" s="64">
-        <f t="shared" si="30"/>
-        <v>6.4132580063984757E-2</v>
-      </c>
-      <c r="X59" s="65">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="Y59" s="64">
-        <f t="shared" si="48"/>
-        <v>0.19457013574660631</v>
-      </c>
-      <c r="Z59" s="64">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AA59" s="60">
-        <f t="shared" si="32"/>
-        <v>6.7505922704794982E-2</v>
-      </c>
-      <c r="AB59" s="61">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="AC59" s="60">
-        <f t="shared" si="50"/>
-        <v>0.19457013574660631</v>
-      </c>
-      <c r="AD59" s="68">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AE59" s="64">
-        <f t="shared" si="34"/>
-        <v>6.0198530832822499E-2</v>
-      </c>
-      <c r="AF59" s="65">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="AG59" s="64">
-        <f t="shared" si="52"/>
-        <v>0.19457013574660631</v>
-      </c>
-      <c r="AH59" s="64">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AI59" s="60">
-        <f t="shared" si="53"/>
-        <v>4.8699449841362888E-2</v>
-      </c>
-      <c r="AJ59" s="61">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="AK59" s="60">
-        <f t="shared" si="55"/>
-        <v>0.19457013574660631</v>
-      </c>
       <c r="AL59" s="61">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>5</v>
       </c>
@@ -19528,151 +19627,151 @@
         <v>45</v>
       </c>
       <c r="C60" s="60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>6.554505577699743E-2</v>
       </c>
       <c r="D60" s="68">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="E60" s="60">
+        <f t="shared" si="38"/>
+        <v>0.19457013574660631</v>
+      </c>
+      <c r="F60" s="61">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="G60" s="152">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="H60" s="153">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="I60" s="152">
+        <f t="shared" si="41"/>
+        <v>0.19457013574660631</v>
+      </c>
+      <c r="J60" s="152" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K60" s="60">
+        <f t="shared" si="25"/>
+        <v>5.4808117296533114E-2</v>
+      </c>
+      <c r="L60" s="68">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="M60" s="60">
+        <f t="shared" si="43"/>
+        <v>0.19457013574660631</v>
+      </c>
+      <c r="N60" s="61">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O60" s="64">
+        <f t="shared" si="27"/>
+        <v>9.7052059917146438E-2</v>
+      </c>
+      <c r="P60" s="65">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q60" s="64">
+        <f t="shared" si="45"/>
+        <v>0.19457013574660631</v>
+      </c>
+      <c r="R60" s="64">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="S60" s="60">
+        <f t="shared" si="29"/>
+        <v>9.8101339390855469E-2</v>
+      </c>
+      <c r="T60" s="61">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="U60" s="60">
+        <f t="shared" si="47"/>
+        <v>0.19457013574660631</v>
+      </c>
+      <c r="V60" s="61">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="W60" s="64">
+        <f t="shared" si="31"/>
+        <v>9.1210780535444971E-2</v>
+      </c>
+      <c r="X60" s="65">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="Y60" s="64">
+        <f t="shared" si="49"/>
+        <v>0.19457013574660631</v>
+      </c>
+      <c r="Z60" s="64">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AA60" s="60">
+        <f t="shared" si="33"/>
+        <v>9.6008423402375087E-2</v>
+      </c>
+      <c r="AB60" s="61">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AC60" s="60">
+        <f t="shared" si="51"/>
+        <v>0.19457013574660631</v>
+      </c>
+      <c r="AD60" s="68">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AE60" s="64">
+        <f t="shared" si="35"/>
+        <v>8.5615688295569758E-2</v>
+      </c>
+      <c r="AF60" s="65">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AG60" s="64">
+        <f t="shared" si="53"/>
+        <v>0.19457013574660631</v>
+      </c>
+      <c r="AH60" s="64">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E60" s="60">
-        <f t="shared" si="37"/>
+      <c r="AI60" s="60">
+        <f t="shared" si="54"/>
+        <v>6.926143977438276E-2</v>
+      </c>
+      <c r="AJ60" s="61">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AK60" s="60">
+        <f t="shared" si="56"/>
         <v>0.19457013574660631</v>
       </c>
-      <c r="F60" s="61">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="G60" s="152">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H60" s="153">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="I60" s="152">
-        <f t="shared" si="40"/>
-        <v>0.19457013574660631</v>
-      </c>
-      <c r="J60" s="152" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K60" s="60">
-        <f t="shared" si="24"/>
-        <v>5.4808117296533114E-2</v>
-      </c>
-      <c r="L60" s="68">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="M60" s="60">
-        <f t="shared" si="42"/>
-        <v>0.19457013574660631</v>
-      </c>
-      <c r="N60" s="61">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="O60" s="64">
-        <f t="shared" si="26"/>
-        <v>9.7052059917146438E-2</v>
-      </c>
-      <c r="P60" s="65">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="Q60" s="64">
-        <f t="shared" si="44"/>
-        <v>0.19457013574660631</v>
-      </c>
-      <c r="R60" s="64">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="S60" s="60">
-        <f t="shared" si="28"/>
-        <v>9.8101339390855469E-2</v>
-      </c>
-      <c r="T60" s="61">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="U60" s="60">
-        <f t="shared" si="46"/>
-        <v>0.19457013574660631</v>
-      </c>
-      <c r="V60" s="61">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="W60" s="64">
-        <f t="shared" si="30"/>
-        <v>9.1210780535444971E-2</v>
-      </c>
-      <c r="X60" s="65">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="Y60" s="64">
-        <f t="shared" si="48"/>
-        <v>0.19457013574660631</v>
-      </c>
-      <c r="Z60" s="64">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AA60" s="60">
-        <f t="shared" si="32"/>
-        <v>9.6008423402375087E-2</v>
-      </c>
-      <c r="AB60" s="61">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="AC60" s="60">
-        <f t="shared" si="50"/>
-        <v>0.19457013574660631</v>
-      </c>
-      <c r="AD60" s="68">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AE60" s="64">
-        <f t="shared" si="34"/>
-        <v>8.5615688295569758E-2</v>
-      </c>
-      <c r="AF60" s="65">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="AG60" s="64">
-        <f t="shared" si="52"/>
-        <v>0.19457013574660631</v>
-      </c>
-      <c r="AH60" s="64">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AI60" s="60">
-        <f t="shared" si="53"/>
-        <v>6.926143977438276E-2</v>
-      </c>
-      <c r="AJ60" s="61">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="AK60" s="60">
-        <f t="shared" si="55"/>
-        <v>0.19457013574660631</v>
-      </c>
       <c r="AL60" s="61">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>6</v>
       </c>
@@ -19680,151 +19779,151 @@
         <v>32</v>
       </c>
       <c r="C61" s="60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>9.2172734686402649E-2</v>
       </c>
       <c r="D61" s="68">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="E61" s="60">
+        <f t="shared" si="38"/>
+        <v>0.12217194570135748</v>
+      </c>
+      <c r="F61" s="61">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="G61" s="152">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="H61" s="153">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="I61" s="152">
+        <f t="shared" si="41"/>
+        <v>0.12217194570135748</v>
+      </c>
+      <c r="J61" s="152" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K61" s="60">
+        <f t="shared" si="25"/>
+        <v>7.7073914948249694E-2</v>
+      </c>
+      <c r="L61" s="68">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="M61" s="60">
+        <f t="shared" si="43"/>
+        <v>0.12217194570135748</v>
+      </c>
+      <c r="N61" s="61">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O61" s="64">
+        <f t="shared" si="27"/>
+        <v>0.1364794592584872</v>
+      </c>
+      <c r="P61" s="65">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q61" s="64">
+        <f t="shared" si="45"/>
+        <v>0.12217194570135748</v>
+      </c>
+      <c r="R61" s="64">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="S61" s="60">
+        <f t="shared" si="29"/>
+        <v>0.13795500851839054</v>
+      </c>
+      <c r="T61" s="61">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="U61" s="60">
+        <f t="shared" si="47"/>
+        <v>0.12217194570135748</v>
+      </c>
+      <c r="V61" s="61">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="W61" s="64">
+        <f t="shared" si="31"/>
+        <v>0.12826516012796951</v>
+      </c>
+      <c r="X61" s="65">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="Y61" s="64">
+        <f t="shared" si="49"/>
+        <v>0.12217194570135748</v>
+      </c>
+      <c r="Z61" s="64">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AA61" s="60">
+        <f t="shared" si="33"/>
+        <v>0.13501184540958996</v>
+      </c>
+      <c r="AB61" s="61">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AC61" s="60">
+        <f t="shared" si="51"/>
+        <v>0.12217194570135748</v>
+      </c>
+      <c r="AD61" s="68">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AE61" s="64">
+        <f t="shared" si="35"/>
+        <v>0.120397061665645</v>
+      </c>
+      <c r="AF61" s="65">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AG61" s="64">
+        <f t="shared" si="53"/>
+        <v>0.12217194570135748</v>
+      </c>
+      <c r="AH61" s="64">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E61" s="60">
-        <f t="shared" si="37"/>
+      <c r="AI61" s="60">
+        <f t="shared" si="54"/>
+        <v>9.7398899682725776E-2</v>
+      </c>
+      <c r="AJ61" s="61">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AK61" s="60">
+        <f t="shared" si="56"/>
         <v>0.12217194570135748</v>
       </c>
-      <c r="F61" s="61">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="G61" s="152">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H61" s="153">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="I61" s="152">
-        <f t="shared" si="40"/>
-        <v>0.12217194570135748</v>
-      </c>
-      <c r="J61" s="152" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K61" s="60">
-        <f t="shared" si="24"/>
-        <v>7.7073914948249694E-2</v>
-      </c>
-      <c r="L61" s="68">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="M61" s="60">
-        <f t="shared" si="42"/>
-        <v>0.12217194570135748</v>
-      </c>
-      <c r="N61" s="61">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="O61" s="64">
-        <f t="shared" si="26"/>
-        <v>0.1364794592584872</v>
-      </c>
-      <c r="P61" s="65">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="Q61" s="64">
-        <f t="shared" si="44"/>
-        <v>0.12217194570135748</v>
-      </c>
-      <c r="R61" s="64">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="S61" s="60">
-        <f t="shared" si="28"/>
-        <v>0.13795500851839054</v>
-      </c>
-      <c r="T61" s="61">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="U61" s="60">
-        <f t="shared" si="46"/>
-        <v>0.12217194570135748</v>
-      </c>
-      <c r="V61" s="61">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="W61" s="64">
-        <f t="shared" si="30"/>
-        <v>0.12826516012796951</v>
-      </c>
-      <c r="X61" s="65">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="Y61" s="64">
-        <f t="shared" si="48"/>
-        <v>0.12217194570135748</v>
-      </c>
-      <c r="Z61" s="64">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AA61" s="60">
-        <f t="shared" si="32"/>
-        <v>0.13501184540958996</v>
-      </c>
-      <c r="AB61" s="61">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="AC61" s="60">
-        <f t="shared" si="50"/>
-        <v>0.12217194570135748</v>
-      </c>
-      <c r="AD61" s="68">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AE61" s="64">
-        <f t="shared" si="34"/>
-        <v>0.120397061665645</v>
-      </c>
-      <c r="AF61" s="65">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="AG61" s="64">
-        <f t="shared" si="52"/>
-        <v>0.12217194570135748</v>
-      </c>
-      <c r="AH61" s="64">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AI61" s="60">
-        <f t="shared" si="53"/>
-        <v>9.7398899682725776E-2</v>
-      </c>
-      <c r="AJ61" s="61">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="AK61" s="60">
-        <f t="shared" si="55"/>
-        <v>0.12217194570135748</v>
-      </c>
       <c r="AL61" s="61">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>7</v>
       </c>
@@ -19832,151 +19931,151 @@
         <v>22.6</v>
       </c>
       <c r="C62" s="60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.13051006681260549</v>
       </c>
       <c r="D62" s="68">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="E62" s="60">
+        <f t="shared" si="38"/>
+        <v>0.11312217194570137</v>
+      </c>
+      <c r="F62" s="61">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="G62" s="152">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="H62" s="153">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="I62" s="152">
+        <f t="shared" si="41"/>
+        <v>0.11312217194570137</v>
+      </c>
+      <c r="J62" s="152" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K62" s="60">
+        <f t="shared" si="25"/>
+        <v>0.10913120700637124</v>
+      </c>
+      <c r="L62" s="68">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="M62" s="60">
+        <f t="shared" si="43"/>
+        <v>0.11312217194570137</v>
+      </c>
+      <c r="N62" s="61">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O62" s="64">
+        <f t="shared" si="27"/>
+        <v>0.19324525204741549</v>
+      </c>
+      <c r="P62" s="65">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q62" s="64">
+        <f t="shared" si="45"/>
+        <v>0.11312217194570137</v>
+      </c>
+      <c r="R62" s="64">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="S62" s="60">
+        <f t="shared" si="29"/>
+        <v>0.19533452533577417</v>
+      </c>
+      <c r="T62" s="61">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="U62" s="60">
+        <f t="shared" si="47"/>
+        <v>0.11312217194570137</v>
+      </c>
+      <c r="V62" s="61">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="W62" s="64">
+        <f t="shared" si="31"/>
+        <v>0.18161438602190369</v>
+      </c>
+      <c r="X62" s="65">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="Y62" s="64">
+        <f t="shared" si="49"/>
+        <v>0.11312217194570137</v>
+      </c>
+      <c r="Z62" s="64">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AA62" s="60">
+        <f t="shared" si="33"/>
+        <v>0.19116721473924242</v>
+      </c>
+      <c r="AB62" s="61">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AC62" s="60">
+        <f t="shared" si="51"/>
+        <v>0.11312217194570137</v>
+      </c>
+      <c r="AD62" s="68">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AE62" s="64">
+        <f t="shared" si="35"/>
+        <v>0.17047371563277167</v>
+      </c>
+      <c r="AF62" s="65">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AG62" s="64">
+        <f t="shared" si="53"/>
+        <v>0.11312217194570137</v>
+      </c>
+      <c r="AH62" s="64">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E62" s="60">
-        <f t="shared" si="37"/>
+      <c r="AI62" s="60">
+        <f t="shared" si="54"/>
+        <v>0.137909946453417</v>
+      </c>
+      <c r="AJ62" s="61">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AK62" s="60">
+        <f t="shared" si="56"/>
         <v>0.11312217194570137</v>
       </c>
-      <c r="F62" s="61">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="G62" s="152">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H62" s="153">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="I62" s="152">
-        <f t="shared" si="40"/>
-        <v>0.11312217194570137</v>
-      </c>
-      <c r="J62" s="152" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K62" s="60">
-        <f t="shared" si="24"/>
-        <v>0.10913120700637124</v>
-      </c>
-      <c r="L62" s="68">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="M62" s="60">
-        <f t="shared" si="42"/>
-        <v>0.11312217194570137</v>
-      </c>
-      <c r="N62" s="61">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="O62" s="64">
-        <f t="shared" si="26"/>
-        <v>0.19324525204741549</v>
-      </c>
-      <c r="P62" s="65">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="Q62" s="64">
-        <f t="shared" si="44"/>
-        <v>0.11312217194570137</v>
-      </c>
-      <c r="R62" s="64">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="S62" s="60">
-        <f t="shared" si="28"/>
-        <v>0.19533452533577417</v>
-      </c>
-      <c r="T62" s="61">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="U62" s="60">
-        <f t="shared" si="46"/>
-        <v>0.11312217194570137</v>
-      </c>
-      <c r="V62" s="61">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="W62" s="64">
-        <f t="shared" si="30"/>
-        <v>0.18161438602190369</v>
-      </c>
-      <c r="X62" s="65">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="Y62" s="64">
-        <f t="shared" si="48"/>
-        <v>0.11312217194570137</v>
-      </c>
-      <c r="Z62" s="64">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AA62" s="60">
-        <f t="shared" si="32"/>
-        <v>0.19116721473924242</v>
-      </c>
-      <c r="AB62" s="61">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="AC62" s="60">
-        <f t="shared" si="50"/>
-        <v>0.11312217194570137</v>
-      </c>
-      <c r="AD62" s="68">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AE62" s="64">
-        <f t="shared" si="34"/>
-        <v>0.17047371563277167</v>
-      </c>
-      <c r="AF62" s="65">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="AG62" s="64">
-        <f t="shared" si="52"/>
-        <v>0.11312217194570137</v>
-      </c>
-      <c r="AH62" s="64">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AI62" s="60">
-        <f t="shared" si="53"/>
-        <v>0.137909946453417</v>
-      </c>
-      <c r="AJ62" s="61">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="AK62" s="60">
-        <f t="shared" si="55"/>
-        <v>0.11312217194570137</v>
-      </c>
       <c r="AL62" s="61">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>8</v>
       </c>
@@ -19984,151 +20083,151 @@
         <v>16</v>
       </c>
       <c r="C63" s="60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.1843454693728053</v>
       </c>
       <c r="D63" s="68">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="E63" s="60">
+        <f t="shared" si="38"/>
+        <v>4.5248868778280549E-2</v>
+      </c>
+      <c r="F63" s="61">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="G63" s="152">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="H63" s="153">
+        <f t="shared" si="40"/>
+        <v>0</v>
+      </c>
+      <c r="I63" s="152">
+        <f t="shared" si="41"/>
+        <v>4.5248868778280549E-2</v>
+      </c>
+      <c r="J63" s="152" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K63" s="60">
+        <f t="shared" si="25"/>
+        <v>0.15414782989649939</v>
+      </c>
+      <c r="L63" s="68">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="M63" s="60">
+        <f t="shared" si="43"/>
+        <v>4.5248868778280549E-2</v>
+      </c>
+      <c r="N63" s="61">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O63" s="64">
+        <f t="shared" si="27"/>
+        <v>0.2729589185169744</v>
+      </c>
+      <c r="P63" s="65">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q63" s="64">
+        <f t="shared" si="45"/>
+        <v>4.5248868778280549E-2</v>
+      </c>
+      <c r="R63" s="64">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="S63" s="60">
+        <f t="shared" si="29"/>
+        <v>0.27591001703678109</v>
+      </c>
+      <c r="T63" s="61">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="U63" s="60">
+        <f t="shared" si="47"/>
+        <v>4.5248868778280549E-2</v>
+      </c>
+      <c r="V63" s="61">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="W63" s="64">
+        <f t="shared" si="31"/>
+        <v>0.25653032025593903</v>
+      </c>
+      <c r="X63" s="65">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="Y63" s="64">
+        <f t="shared" si="49"/>
+        <v>4.5248868778280549E-2</v>
+      </c>
+      <c r="Z63" s="64">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AA63" s="60">
+        <f t="shared" si="33"/>
+        <v>0.27002369081917993</v>
+      </c>
+      <c r="AB63" s="61">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AC63" s="60">
+        <f t="shared" si="51"/>
+        <v>4.5248868778280549E-2</v>
+      </c>
+      <c r="AD63" s="68">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AE63" s="64">
+        <f t="shared" si="35"/>
+        <v>0.24079412333128999</v>
+      </c>
+      <c r="AF63" s="65">
+        <f t="shared" si="52"/>
+        <v>0</v>
+      </c>
+      <c r="AG63" s="64">
+        <f t="shared" si="53"/>
+        <v>4.5248868778280549E-2</v>
+      </c>
+      <c r="AH63" s="64">
         <f t="shared" si="36"/>
         <v>0</v>
       </c>
-      <c r="E63" s="60">
-        <f t="shared" si="37"/>
+      <c r="AI63" s="60">
+        <f t="shared" si="54"/>
+        <v>0.19479779936545155</v>
+      </c>
+      <c r="AJ63" s="61">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AK63" s="60">
+        <f t="shared" si="56"/>
         <v>4.5248868778280549E-2</v>
       </c>
-      <c r="F63" s="61">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="G63" s="152">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H63" s="153">
-        <f t="shared" si="39"/>
-        <v>0</v>
-      </c>
-      <c r="I63" s="152">
-        <f t="shared" si="40"/>
-        <v>4.5248868778280549E-2</v>
-      </c>
-      <c r="J63" s="152" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K63" s="60">
-        <f t="shared" si="24"/>
-        <v>0.15414782989649939</v>
-      </c>
-      <c r="L63" s="68">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="M63" s="60">
-        <f t="shared" si="42"/>
-        <v>4.5248868778280549E-2</v>
-      </c>
-      <c r="N63" s="61">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="O63" s="64">
-        <f t="shared" si="26"/>
-        <v>0.2729589185169744</v>
-      </c>
-      <c r="P63" s="65">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="Q63" s="64">
-        <f t="shared" si="44"/>
-        <v>4.5248868778280549E-2</v>
-      </c>
-      <c r="R63" s="64">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="S63" s="60">
-        <f t="shared" si="28"/>
-        <v>0.27591001703678109</v>
-      </c>
-      <c r="T63" s="61">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="U63" s="60">
-        <f t="shared" si="46"/>
-        <v>4.5248868778280549E-2</v>
-      </c>
-      <c r="V63" s="61">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="W63" s="64">
-        <f t="shared" si="30"/>
-        <v>0.25653032025593903</v>
-      </c>
-      <c r="X63" s="65">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="Y63" s="64">
-        <f t="shared" si="48"/>
-        <v>4.5248868778280549E-2</v>
-      </c>
-      <c r="Z63" s="64">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AA63" s="60">
-        <f t="shared" si="32"/>
-        <v>0.27002369081917993</v>
-      </c>
-      <c r="AB63" s="61">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="AC63" s="60">
-        <f t="shared" si="50"/>
-        <v>4.5248868778280549E-2</v>
-      </c>
-      <c r="AD63" s="68">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AE63" s="64">
-        <f t="shared" si="34"/>
-        <v>0.24079412333128999</v>
-      </c>
-      <c r="AF63" s="65">
-        <f t="shared" si="51"/>
-        <v>0</v>
-      </c>
-      <c r="AG63" s="64">
-        <f t="shared" si="52"/>
-        <v>4.5248868778280549E-2</v>
-      </c>
-      <c r="AH63" s="64">
-        <f t="shared" si="35"/>
-        <v>0</v>
-      </c>
-      <c r="AI63" s="60">
-        <f t="shared" si="53"/>
-        <v>0.19479779936545155</v>
-      </c>
-      <c r="AJ63" s="61">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="AK63" s="60">
-        <f t="shared" si="55"/>
-        <v>4.5248868778280549E-2</v>
-      </c>
       <c r="AL63" s="61">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>9</v>
       </c>
@@ -20136,7 +20235,7 @@
         <v>11</v>
       </c>
       <c r="C64" s="60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.26813886454226221</v>
       </c>
       <c r="D64" s="68">
@@ -20144,143 +20243,143 @@
         <v>1.0062893081761007E-11</v>
       </c>
       <c r="E64" s="60">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>6.7873303167420851E-3</v>
       </c>
       <c r="F64" s="61">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>2.3004813693672412E-6</v>
       </c>
       <c r="G64" s="152">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H64" s="153">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>6.1617610062893081E-11</v>
       </c>
       <c r="I64" s="152">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>6.7873303167420851E-3</v>
       </c>
       <c r="J64" s="152" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K64" s="60">
-        <f t="shared" si="24"/>
+        <f t="shared" si="25"/>
         <v>0.22421502530399912</v>
       </c>
       <c r="L64" s="68">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>0</v>
       </c>
       <c r="M64" s="60">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>6.7873303167420851E-3</v>
       </c>
       <c r="N64" s="61">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
       <c r="O64" s="64">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>0.3970311542065082</v>
       </c>
       <c r="P64" s="65">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>0</v>
       </c>
       <c r="Q64" s="64">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>6.7873303167420851E-3</v>
       </c>
       <c r="R64" s="64">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="S64" s="60">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>0.40132366114440876</v>
       </c>
       <c r="T64" s="61">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>0</v>
       </c>
       <c r="U64" s="60">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>6.7873303167420851E-3</v>
       </c>
       <c r="V64" s="61">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
       <c r="W64" s="64">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>0.37313501128136578</v>
       </c>
       <c r="X64" s="65">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>0</v>
       </c>
       <c r="Y64" s="64">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>6.7873303167420851E-3</v>
       </c>
       <c r="Z64" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>0</v>
       </c>
       <c r="AA64" s="60">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>0.39276173210062537</v>
       </c>
       <c r="AB64" s="61">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>0</v>
       </c>
       <c r="AC64" s="60">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>6.7873303167420851E-3</v>
       </c>
       <c r="AD64" s="68">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>0</v>
       </c>
       <c r="AE64" s="64">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>0.35024599757278541</v>
       </c>
       <c r="AF64" s="65">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>0</v>
       </c>
       <c r="AG64" s="64">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>6.7873303167420851E-3</v>
       </c>
       <c r="AH64" s="64">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>0</v>
       </c>
       <c r="AI64" s="60">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>0.28334225362247495</v>
       </c>
       <c r="AJ64" s="61">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>0</v>
       </c>
       <c r="AK64" s="60">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>6.7873303167420851E-3</v>
       </c>
       <c r="AL64" s="61">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>10</v>
       </c>
@@ -20288,151 +20387,151 @@
         <v>8</v>
       </c>
       <c r="C65" s="60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.3686909387456106</v>
       </c>
       <c r="D65" s="68">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="E65" s="60">
+        <f t="shared" si="38"/>
+        <v>5.4298642533936597E-3</v>
+      </c>
+      <c r="F65" s="61">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="G65" s="152">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="H65" s="153">
+        <f t="shared" si="40"/>
+        <v>2.5808805031446548E-11</v>
+      </c>
+      <c r="I65" s="152">
+        <f t="shared" si="41"/>
+        <v>5.4298642533936597E-3</v>
+      </c>
+      <c r="J65" s="152" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K65" s="60">
+        <f t="shared" si="25"/>
+        <v>0.30829565979299878</v>
+      </c>
+      <c r="L65" s="68">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="M65" s="60">
+        <f t="shared" si="43"/>
+        <v>5.4298642533936597E-3</v>
+      </c>
+      <c r="N65" s="68">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O65" s="64">
+        <f t="shared" si="27"/>
+        <v>0.54591783703394881</v>
+      </c>
+      <c r="P65" s="65">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q65" s="64">
+        <f t="shared" si="45"/>
+        <v>5.4298642533936597E-3</v>
+      </c>
+      <c r="R65" s="64">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="S65" s="60">
+        <f t="shared" si="29"/>
+        <v>0.55182003407356217</v>
+      </c>
+      <c r="T65" s="61">
+        <f t="shared" si="46"/>
+        <v>0</v>
+      </c>
+      <c r="U65" s="60">
+        <f t="shared" si="47"/>
+        <v>5.4298642533936597E-3</v>
+      </c>
+      <c r="V65" s="61">
+        <f t="shared" si="30"/>
+        <v>0</v>
+      </c>
+      <c r="W65" s="64">
+        <f t="shared" si="31"/>
+        <v>0.51306064051187805</v>
+      </c>
+      <c r="X65" s="65">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="Y65" s="64">
+        <f t="shared" si="49"/>
+        <v>5.4298642533936597E-3</v>
+      </c>
+      <c r="Z65" s="64">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AA65" s="60">
+        <f t="shared" si="33"/>
+        <v>0.54004738163835986</v>
+      </c>
+      <c r="AB65" s="61">
+        <f t="shared" si="50"/>
+        <v>0</v>
+      </c>
+      <c r="AC65" s="60">
+        <f t="shared" si="51"/>
+        <v>5.4298642533936597E-3</v>
+      </c>
+      <c r="AD65" s="68">
+        <f t="shared" si="34"/>
+        <v>0</v>
+      </c>
+      <c r="AE65" s="64">
+        <f t="shared" si="35"/>
+        <v>0.48158824666257999</v>
+      </c>
+      <c r="AF65" s="65">
+        <f t="shared" si="52"/>
+        <v>2.5056603773584901E-12</v>
+      </c>
+      <c r="AG65" s="64">
+        <f t="shared" si="53"/>
+        <v>5.4298642533936597E-3</v>
+      </c>
+      <c r="AH65" s="64">
         <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="E65" s="60">
-        <f t="shared" si="37"/>
+        <v>4.79631787200728E-7</v>
+      </c>
+      <c r="AI65" s="60">
+        <f t="shared" si="54"/>
+        <v>0.3895955987309031</v>
+      </c>
+      <c r="AJ65" s="61">
+        <f t="shared" si="55"/>
+        <v>0</v>
+      </c>
+      <c r="AK65" s="60">
+        <f t="shared" si="56"/>
         <v>5.4298642533936597E-3</v>
       </c>
-      <c r="F65" s="61">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="G65" s="152">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H65" s="153">
-        <f t="shared" si="39"/>
-        <v>2.5808805031446548E-11</v>
-      </c>
-      <c r="I65" s="152">
-        <f t="shared" si="40"/>
-        <v>5.4298642533936597E-3</v>
-      </c>
-      <c r="J65" s="152" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K65" s="60">
-        <f t="shared" si="24"/>
-        <v>0.30829565979299878</v>
-      </c>
-      <c r="L65" s="68">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="M65" s="60">
-        <f t="shared" si="42"/>
-        <v>5.4298642533936597E-3</v>
-      </c>
-      <c r="N65" s="68">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="O65" s="64">
-        <f t="shared" si="26"/>
-        <v>0.54591783703394881</v>
-      </c>
-      <c r="P65" s="65">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="Q65" s="64">
-        <f t="shared" si="44"/>
-        <v>5.4298642533936597E-3</v>
-      </c>
-      <c r="R65" s="64">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="S65" s="60">
-        <f t="shared" si="28"/>
-        <v>0.55182003407356217</v>
-      </c>
-      <c r="T65" s="61">
-        <f t="shared" si="45"/>
-        <v>0</v>
-      </c>
-      <c r="U65" s="60">
-        <f t="shared" si="46"/>
-        <v>5.4298642533936597E-3</v>
-      </c>
-      <c r="V65" s="61">
-        <f t="shared" si="29"/>
-        <v>0</v>
-      </c>
-      <c r="W65" s="64">
-        <f t="shared" si="30"/>
-        <v>0.51306064051187805</v>
-      </c>
-      <c r="X65" s="65">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="Y65" s="64">
-        <f t="shared" si="48"/>
-        <v>5.4298642533936597E-3</v>
-      </c>
-      <c r="Z65" s="64">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AA65" s="60">
-        <f t="shared" si="32"/>
-        <v>0.54004738163835986</v>
-      </c>
-      <c r="AB65" s="61">
-        <f t="shared" si="49"/>
-        <v>0</v>
-      </c>
-      <c r="AC65" s="60">
-        <f t="shared" si="50"/>
-        <v>5.4298642533936597E-3</v>
-      </c>
-      <c r="AD65" s="68">
-        <f t="shared" si="33"/>
-        <v>0</v>
-      </c>
-      <c r="AE65" s="64">
-        <f t="shared" si="34"/>
-        <v>0.48158824666257999</v>
-      </c>
-      <c r="AF65" s="65">
-        <f t="shared" si="51"/>
-        <v>2.5056603773584901E-12</v>
-      </c>
-      <c r="AG65" s="64">
-        <f t="shared" si="52"/>
-        <v>5.4298642533936597E-3</v>
-      </c>
-      <c r="AH65" s="64">
-        <f t="shared" si="35"/>
-        <v>4.79631787200728E-7</v>
-      </c>
-      <c r="AI65" s="60">
-        <f t="shared" si="53"/>
-        <v>0.3895955987309031</v>
-      </c>
-      <c r="AJ65" s="61">
-        <f t="shared" si="54"/>
-        <v>0</v>
-      </c>
-      <c r="AK65" s="60">
-        <f t="shared" si="55"/>
-        <v>5.4298642533936597E-3</v>
-      </c>
       <c r="AL65" s="61">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <f>A65+1</f>
         <v>11</v>
@@ -20441,341 +20540,341 @@
         <v>5.6</v>
       </c>
       <c r="C66" s="60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.52670134106515798</v>
       </c>
       <c r="D66" s="68">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="E66" s="60">
+        <f t="shared" si="38"/>
+        <v>3.6199095022624445E-3</v>
+      </c>
+      <c r="F66" s="61">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="G66" s="152">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="H66" s="153">
+        <f t="shared" si="40"/>
+        <v>4.4125786163522011E-11</v>
+      </c>
+      <c r="I66" s="152">
+        <f t="shared" si="41"/>
+        <v>3.6199095022624445E-3</v>
+      </c>
+      <c r="J66" s="152" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K66" s="60">
+        <f t="shared" si="25"/>
+        <v>0.44042237113285543</v>
+      </c>
+      <c r="L66" s="68">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="M66" s="60">
+        <f t="shared" si="43"/>
+        <v>3.6199095022624445E-3</v>
+      </c>
+      <c r="N66" s="61">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O66" s="64">
+        <f t="shared" si="27"/>
+        <v>0.77988262433421263</v>
+      </c>
+      <c r="P66" s="65">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q66" s="64">
+        <f t="shared" si="45"/>
+        <v>3.6199095022624445E-3</v>
+      </c>
+      <c r="R66" s="64">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="S66" s="60">
+        <f t="shared" si="29"/>
+        <v>0.78831433439080301</v>
+      </c>
+      <c r="T66" s="61">
+        <f t="shared" si="46"/>
+        <v>2.5501886792452829E-12</v>
+      </c>
+      <c r="U66" s="60">
+        <f t="shared" si="47"/>
+        <v>3.6199095022624445E-3</v>
+      </c>
+      <c r="V66" s="61">
+        <f t="shared" si="30"/>
+        <v>5.9698985144301188E-7</v>
+      </c>
+      <c r="W66" s="64">
+        <f t="shared" si="31"/>
+        <v>0.73294377215982576</v>
+      </c>
+      <c r="X66" s="65">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="Y66" s="64">
+        <f t="shared" si="49"/>
+        <v>3.6199095022624445E-3</v>
+      </c>
+      <c r="Z66" s="64">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AA66" s="60">
+        <f t="shared" si="33"/>
+        <v>0.7714962594833713</v>
+      </c>
+      <c r="AB66" s="61">
+        <f t="shared" si="50"/>
+        <v>2.4477987421383646E-12</v>
+      </c>
+      <c r="AC66" s="60">
+        <f t="shared" si="51"/>
+        <v>3.6199095022624445E-3</v>
+      </c>
+      <c r="AD66" s="68">
+        <f t="shared" si="34"/>
+        <v>5.9185966025312658E-7</v>
+      </c>
+      <c r="AE66" s="64">
+        <f t="shared" si="35"/>
+        <v>0.68798320951797143</v>
+      </c>
+      <c r="AF66" s="65">
+        <f t="shared" si="52"/>
+        <v>2.6062893081761006E-12</v>
+      </c>
+      <c r="AG66" s="64">
+        <f t="shared" si="53"/>
+        <v>3.6199095022624445E-3</v>
+      </c>
+      <c r="AH66" s="64">
         <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="E66" s="60">
-        <f t="shared" si="37"/>
+        <v>7.4834116195776135E-7</v>
+      </c>
+      <c r="AI66" s="60">
+        <f t="shared" si="54"/>
+        <v>0.55656514104414734</v>
+      </c>
+      <c r="AJ66" s="61">
+        <f t="shared" si="55"/>
+        <v>2.6930589295293192E-12</v>
+      </c>
+      <c r="AK66" s="60">
+        <f t="shared" si="56"/>
         <v>3.6199095022624445E-3</v>
       </c>
-      <c r="F66" s="61">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="G66" s="152">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H66" s="153">
-        <f t="shared" si="39"/>
-        <v>4.4125786163522011E-11</v>
-      </c>
-      <c r="I66" s="152">
-        <f t="shared" si="40"/>
-        <v>3.6199095022624445E-3</v>
-      </c>
-      <c r="J66" s="152" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K66" s="60">
-        <f t="shared" si="24"/>
-        <v>0.44042237113285543</v>
-      </c>
-      <c r="L66" s="68">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="M66" s="60">
-        <f t="shared" si="42"/>
-        <v>3.6199095022624445E-3</v>
-      </c>
-      <c r="N66" s="61">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="O66" s="64">
-        <f t="shared" si="26"/>
-        <v>0.77988262433421263</v>
-      </c>
-      <c r="P66" s="65">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="Q66" s="64">
-        <f t="shared" si="44"/>
-        <v>3.6199095022624445E-3</v>
-      </c>
-      <c r="R66" s="64">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="S66" s="60">
-        <f t="shared" si="28"/>
-        <v>0.78831433439080301</v>
-      </c>
-      <c r="T66" s="61">
-        <f t="shared" si="45"/>
-        <v>2.5501886792452829E-12</v>
-      </c>
-      <c r="U66" s="60">
-        <f t="shared" si="46"/>
-        <v>3.6199095022624445E-3</v>
-      </c>
-      <c r="V66" s="61">
-        <f t="shared" si="29"/>
-        <v>5.9698985144301188E-7</v>
-      </c>
-      <c r="W66" s="64">
-        <f t="shared" si="30"/>
-        <v>0.73294377215982576</v>
-      </c>
-      <c r="X66" s="65">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="Y66" s="64">
-        <f t="shared" si="48"/>
-        <v>3.6199095022624445E-3</v>
-      </c>
-      <c r="Z66" s="64">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AA66" s="60">
-        <f t="shared" si="32"/>
-        <v>0.7714962594833713</v>
-      </c>
-      <c r="AB66" s="61">
-        <f t="shared" si="49"/>
-        <v>2.4477987421383646E-12</v>
-      </c>
-      <c r="AC66" s="60">
-        <f t="shared" si="50"/>
-        <v>3.6199095022624445E-3</v>
-      </c>
-      <c r="AD66" s="68">
-        <f t="shared" si="33"/>
-        <v>5.9185966025312658E-7</v>
-      </c>
-      <c r="AE66" s="64">
-        <f t="shared" si="34"/>
-        <v>0.68798320951797143</v>
-      </c>
-      <c r="AF66" s="65">
-        <f t="shared" si="51"/>
-        <v>2.6062893081761006E-12</v>
-      </c>
-      <c r="AG66" s="64">
-        <f t="shared" si="52"/>
-        <v>3.6199095022624445E-3</v>
-      </c>
-      <c r="AH66" s="64">
-        <f t="shared" si="35"/>
-        <v>7.4834116195776135E-7</v>
-      </c>
-      <c r="AI66" s="60">
-        <f t="shared" si="53"/>
-        <v>0.55656514104414734</v>
-      </c>
-      <c r="AJ66" s="61">
-        <f t="shared" si="54"/>
-        <v>2.6930589295293192E-12</v>
-      </c>
-      <c r="AK66" s="60">
-        <f t="shared" si="55"/>
-        <v>3.6199095022624445E-3</v>
-      </c>
       <c r="AL66" s="61">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>1.0627120967914573E-6</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
-        <f t="shared" ref="A67:A74" si="57">A66+1</f>
+        <f t="shared" ref="A67:A74" si="58">A66+1</f>
         <v>12</v>
       </c>
       <c r="B67" s="58">
         <v>4</v>
       </c>
       <c r="C67" s="60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>0.73738187749122119</v>
       </c>
       <c r="D67" s="68">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="E67" s="60">
+        <f t="shared" si="38"/>
+        <v>2.7149321266968368E-3</v>
+      </c>
+      <c r="F67" s="61">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="G67" s="152">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="H67" s="153">
+        <f t="shared" si="40"/>
+        <v>4.067924528301887E-11</v>
+      </c>
+      <c r="I67" s="152">
+        <f t="shared" si="41"/>
+        <v>2.7149321266968368E-3</v>
+      </c>
+      <c r="J67" s="152" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K67" s="60">
+        <f t="shared" si="25"/>
+        <v>0.61659131958599755</v>
+      </c>
+      <c r="L67" s="68">
+        <f t="shared" si="42"/>
+        <v>0</v>
+      </c>
+      <c r="M67" s="60">
+        <f t="shared" si="43"/>
+        <v>2.7149321266968368E-3</v>
+      </c>
+      <c r="N67" s="61">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="O67" s="64">
+        <f t="shared" si="27"/>
+        <v>1.0918356740678976</v>
+      </c>
+      <c r="P67" s="65">
+        <f t="shared" si="44"/>
+        <v>0</v>
+      </c>
+      <c r="Q67" s="64">
+        <f t="shared" si="45"/>
+        <v>2.7149321266968368E-3</v>
+      </c>
+      <c r="R67" s="64">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="S67" s="60">
+        <f t="shared" si="29"/>
+        <v>1.1036400681471243</v>
+      </c>
+      <c r="T67" s="61">
+        <f t="shared" si="46"/>
+        <v>2.6528301886792455E-12</v>
+      </c>
+      <c r="U67" s="60">
+        <f t="shared" si="47"/>
+        <v>2.7149321266968368E-3</v>
+      </c>
+      <c r="V67" s="61">
+        <f t="shared" si="30"/>
+        <v>8.2802380500036868E-7</v>
+      </c>
+      <c r="W67" s="64">
+        <f t="shared" si="31"/>
+        <v>1.0261212810237561</v>
+      </c>
+      <c r="X67" s="65">
+        <f t="shared" si="48"/>
+        <v>0</v>
+      </c>
+      <c r="Y67" s="64">
+        <f t="shared" si="49"/>
+        <v>2.7149321266968368E-3</v>
+      </c>
+      <c r="Z67" s="64">
+        <f t="shared" si="32"/>
+        <v>0</v>
+      </c>
+      <c r="AA67" s="60">
+        <f t="shared" si="33"/>
+        <v>1.0800947632767197</v>
+      </c>
+      <c r="AB67" s="61">
+        <f t="shared" si="50"/>
+        <v>1.4968553459119493E-12</v>
+      </c>
+      <c r="AC67" s="60">
+        <f t="shared" si="51"/>
+        <v>2.7149321266968368E-3</v>
+      </c>
+      <c r="AD67" s="68">
+        <f t="shared" si="34"/>
+        <v>4.8257142562604972E-7</v>
+      </c>
+      <c r="AE67" s="64">
+        <f t="shared" si="35"/>
+        <v>0.96317649332515998</v>
+      </c>
+      <c r="AF67" s="65">
+        <f t="shared" si="52"/>
+        <v>3.9421383647798748E-12</v>
+      </c>
+      <c r="AG67" s="64">
+        <f t="shared" si="53"/>
+        <v>2.7149321266968368E-3</v>
+      </c>
+      <c r="AH67" s="64">
         <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="E67" s="60">
-        <f t="shared" si="37"/>
+        <v>1.5092028324167451E-6</v>
+      </c>
+      <c r="AI67" s="60">
+        <f t="shared" si="54"/>
+        <v>0.77919119746180621</v>
+      </c>
+      <c r="AJ67" s="61">
+        <f t="shared" si="55"/>
+        <v>5.160631230043812E-12</v>
+      </c>
+      <c r="AK67" s="60">
+        <f t="shared" si="56"/>
         <v>2.7149321266968368E-3</v>
       </c>
-      <c r="F67" s="61">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="G67" s="152">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H67" s="153">
-        <f t="shared" si="39"/>
-        <v>4.067924528301887E-11</v>
-      </c>
-      <c r="I67" s="152">
-        <f t="shared" si="40"/>
-        <v>2.7149321266968368E-3</v>
-      </c>
-      <c r="J67" s="152" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K67" s="60">
-        <f t="shared" si="24"/>
-        <v>0.61659131958599755</v>
-      </c>
-      <c r="L67" s="68">
-        <f t="shared" si="41"/>
-        <v>0</v>
-      </c>
-      <c r="M67" s="60">
-        <f t="shared" si="42"/>
-        <v>2.7149321266968368E-3</v>
-      </c>
-      <c r="N67" s="61">
-        <f t="shared" si="25"/>
-        <v>0</v>
-      </c>
-      <c r="O67" s="64">
-        <f t="shared" si="26"/>
-        <v>1.0918356740678976</v>
-      </c>
-      <c r="P67" s="65">
-        <f t="shared" si="43"/>
-        <v>0</v>
-      </c>
-      <c r="Q67" s="64">
-        <f t="shared" si="44"/>
-        <v>2.7149321266968368E-3</v>
-      </c>
-      <c r="R67" s="64">
-        <f t="shared" si="27"/>
-        <v>0</v>
-      </c>
-      <c r="S67" s="60">
-        <f t="shared" si="28"/>
-        <v>1.1036400681471243</v>
-      </c>
-      <c r="T67" s="61">
-        <f t="shared" si="45"/>
-        <v>2.6528301886792455E-12</v>
-      </c>
-      <c r="U67" s="60">
-        <f t="shared" si="46"/>
-        <v>2.7149321266968368E-3</v>
-      </c>
-      <c r="V67" s="61">
-        <f t="shared" si="29"/>
-        <v>8.2802380500036868E-7</v>
-      </c>
-      <c r="W67" s="64">
-        <f t="shared" si="30"/>
-        <v>1.0261212810237561</v>
-      </c>
-      <c r="X67" s="65">
-        <f t="shared" si="47"/>
-        <v>0</v>
-      </c>
-      <c r="Y67" s="64">
-        <f t="shared" si="48"/>
-        <v>2.7149321266968368E-3</v>
-      </c>
-      <c r="Z67" s="64">
-        <f t="shared" si="31"/>
-        <v>0</v>
-      </c>
-      <c r="AA67" s="60">
-        <f t="shared" si="32"/>
-        <v>1.0800947632767197</v>
-      </c>
-      <c r="AB67" s="61">
-        <f t="shared" si="49"/>
-        <v>1.4968553459119493E-12</v>
-      </c>
-      <c r="AC67" s="60">
-        <f t="shared" si="50"/>
-        <v>2.7149321266968368E-3</v>
-      </c>
-      <c r="AD67" s="68">
-        <f t="shared" si="33"/>
-        <v>4.8257142562604972E-7</v>
-      </c>
-      <c r="AE67" s="64">
-        <f t="shared" si="34"/>
-        <v>0.96317649332515998</v>
-      </c>
-      <c r="AF67" s="65">
-        <f t="shared" si="51"/>
-        <v>3.9421383647798748E-12</v>
-      </c>
-      <c r="AG67" s="64">
-        <f t="shared" si="52"/>
-        <v>2.7149321266968368E-3</v>
-      </c>
-      <c r="AH67" s="64">
-        <f t="shared" si="35"/>
-        <v>1.5092028324167451E-6</v>
-      </c>
-      <c r="AI67" s="60">
-        <f t="shared" si="53"/>
-        <v>0.77919119746180621</v>
-      </c>
-      <c r="AJ67" s="61">
-        <f t="shared" si="54"/>
-        <v>5.160631230043812E-12</v>
-      </c>
-      <c r="AK67" s="60">
-        <f t="shared" si="55"/>
-        <v>2.7149321266968368E-3</v>
-      </c>
       <c r="AL67" s="61">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>2.7152594274178989E-6</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>13</v>
       </c>
       <c r="B68" s="58">
         <v>2.8</v>
       </c>
       <c r="C68" s="60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.053402682130316</v>
       </c>
       <c r="D68" s="68">
-        <f t="shared" si="36"/>
+        <f t="shared" si="37"/>
         <v>0</v>
       </c>
       <c r="E68" s="60">
-        <f t="shared" si="37"/>
+        <f t="shared" si="38"/>
         <v>1.8099547511312222E-3</v>
       </c>
       <c r="F68" s="61">
-        <f t="shared" si="38"/>
+        <f t="shared" si="39"/>
         <v>0</v>
       </c>
       <c r="G68" s="152">
-        <f t="shared" si="22"/>
+        <f t="shared" si="23"/>
         <v>0</v>
       </c>
       <c r="H68" s="153">
-        <f t="shared" si="39"/>
+        <f t="shared" si="40"/>
         <v>3.5846540880503154E-11</v>
       </c>
       <c r="I68" s="152">
-        <f t="shared" si="40"/>
+        <f t="shared" si="41"/>
         <v>1.8099547511312222E-3</v>
       </c>
       <c r="J68" s="152" t="e">
-        <f t="shared" si="23"/>
+        <f t="shared" si="24"/>
         <v>#DIV/0!</v>
       </c>
       <c r="K68" s="60">
@@ -20783,1044 +20882,1044 @@
         <v>0.88084474226571086</v>
       </c>
       <c r="L68" s="68">
-        <f t="shared" si="41"/>
+        <f t="shared" si="42"/>
         <v>6.7924528301886789E-14</v>
       </c>
       <c r="M68" s="60">
-        <f t="shared" si="42"/>
+        <f t="shared" si="43"/>
         <v>1.8099547511312222E-3</v>
       </c>
       <c r="N68" s="61">
-        <f t="shared" si="25"/>
+        <f t="shared" si="26"/>
         <v>7.6154635031688742E-8</v>
       </c>
       <c r="O68" s="64">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>1.5597652486684253</v>
       </c>
       <c r="P68" s="65">
-        <f t="shared" si="43"/>
+        <f t="shared" si="44"/>
         <v>2.2716981132075474E-12</v>
       </c>
       <c r="Q68" s="64">
-        <f t="shared" si="44"/>
+        <f t="shared" si="45"/>
         <v>1.8099547511312222E-3</v>
       </c>
       <c r="R68" s="64">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1.0808875554473613E-6</v>
       </c>
       <c r="S68" s="60">
-        <f t="shared" si="28"/>
+        <f t="shared" si="29"/>
         <v>1.576628668781606</v>
       </c>
       <c r="T68" s="61">
-        <f t="shared" si="45"/>
+        <f t="shared" si="46"/>
         <v>3.8480503144654095E-12</v>
       </c>
       <c r="U68" s="60">
-        <f t="shared" si="46"/>
+        <f t="shared" si="47"/>
         <v>1.8099547511312222E-3</v>
       </c>
       <c r="V68" s="61">
-        <f t="shared" si="29"/>
+        <f t="shared" si="30"/>
         <v>1.801629035744759E-6</v>
       </c>
       <c r="W68" s="64">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1.4658875443196515</v>
       </c>
       <c r="X68" s="65">
-        <f t="shared" si="47"/>
+        <f t="shared" si="48"/>
         <v>2.5333333333333333E-13</v>
       </c>
       <c r="Y68" s="64">
-        <f t="shared" si="48"/>
+        <f t="shared" si="49"/>
         <v>1.8099547511312222E-3</v>
       </c>
       <c r="Z68" s="64">
-        <f t="shared" si="31"/>
+        <f t="shared" si="32"/>
         <v>1.3230008254005486E-7</v>
       </c>
       <c r="AA68" s="60">
-        <f t="shared" si="32"/>
+        <f t="shared" si="33"/>
         <v>1.5429925189667426</v>
       </c>
       <c r="AB68" s="61">
-        <f t="shared" si="49"/>
+        <f t="shared" si="50"/>
         <v>1.6057861635220123E-12</v>
       </c>
       <c r="AC68" s="60">
-        <f t="shared" si="50"/>
+        <f t="shared" si="51"/>
         <v>1.8099547511312222E-3</v>
       </c>
       <c r="AD68" s="68">
-        <f t="shared" si="33"/>
+        <f t="shared" si="34"/>
         <v>7.7653447305153264E-7</v>
       </c>
       <c r="AE68" s="64">
-        <f t="shared" si="34"/>
+        <f t="shared" si="35"/>
         <v>1.3759664190359429</v>
       </c>
       <c r="AF68" s="65">
-        <f t="shared" si="51"/>
+        <f t="shared" si="52"/>
         <v>9.9119496855345908E-12</v>
       </c>
       <c r="AG68" s="64">
-        <f t="shared" si="52"/>
+        <f t="shared" si="53"/>
         <v>1.8099547511312222E-3</v>
       </c>
       <c r="AH68" s="64">
-        <f t="shared" si="35"/>
+        <f t="shared" si="36"/>
         <v>5.6920157878640537E-6</v>
       </c>
       <c r="AI68" s="60">
-        <f t="shared" si="53"/>
+        <f t="shared" si="54"/>
         <v>1.1131302820882947</v>
       </c>
       <c r="AJ68" s="61">
-        <f t="shared" si="54"/>
+        <f t="shared" si="55"/>
         <v>7.0658563100193013E-12</v>
       </c>
       <c r="AK68" s="60">
-        <f t="shared" si="55"/>
+        <f t="shared" si="56"/>
         <v>1.8099547511312222E-3</v>
       </c>
       <c r="AL68" s="61">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>5.5765366977395804E-6</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>14</v>
       </c>
       <c r="B69" s="58">
         <v>2</v>
       </c>
       <c r="C69" s="60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1.4747637549824424</v>
       </c>
       <c r="D69" s="68">
+        <f t="shared" si="37"/>
+        <v>0</v>
+      </c>
+      <c r="E69" s="60">
+        <f t="shared" si="38"/>
+        <v>1.3574660633484115E-3</v>
+      </c>
+      <c r="F69" s="61">
+        <f t="shared" si="39"/>
+        <v>0</v>
+      </c>
+      <c r="G69" s="152">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="H69" s="153">
+        <f t="shared" si="40"/>
+        <v>3.40125786163522E-11</v>
+      </c>
+      <c r="I69" s="152">
+        <f t="shared" si="41"/>
+        <v>1.3574660633484115E-3</v>
+      </c>
+      <c r="J69" s="152" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K69" s="60">
+        <f t="shared" si="25"/>
+        <v>1.2331826391719951</v>
+      </c>
+      <c r="L69" s="68">
+        <f t="shared" si="42"/>
+        <v>3.2201257861635218E-13</v>
+      </c>
+      <c r="M69" s="60">
+        <f t="shared" si="43"/>
+        <v>1.3574660633484115E-3</v>
+      </c>
+      <c r="N69" s="61">
+        <f t="shared" si="26"/>
+        <v>4.8137250785462698E-7</v>
+      </c>
+      <c r="O69" s="64">
+        <f t="shared" si="27"/>
+        <v>2.1836713481357952</v>
+      </c>
+      <c r="P69" s="65">
+        <f t="shared" si="44"/>
+        <v>1.7315723270440253E-12</v>
+      </c>
+      <c r="Q69" s="64">
+        <f t="shared" si="45"/>
+        <v>1.3574660633484115E-3</v>
+      </c>
+      <c r="R69" s="64">
+        <f t="shared" si="28"/>
+        <v>1.0985232992461006E-6</v>
+      </c>
+      <c r="S69" s="60">
+        <f t="shared" si="29"/>
+        <v>2.2072801362942487</v>
+      </c>
+      <c r="T69" s="61">
+        <f t="shared" si="46"/>
+        <v>6.0186163522012576E-12</v>
+      </c>
+      <c r="U69" s="60">
+        <f t="shared" si="47"/>
+        <v>1.3574660633484115E-3</v>
+      </c>
+      <c r="V69" s="61">
+        <f t="shared" si="30"/>
+        <v>3.7571629228694016E-6</v>
+      </c>
+      <c r="W69" s="64">
+        <f t="shared" si="31"/>
+        <v>2.0522425620475122</v>
+      </c>
+      <c r="X69" s="65">
+        <f t="shared" si="48"/>
+        <v>2.1433962264150944E-13</v>
+      </c>
+      <c r="Y69" s="64">
+        <f t="shared" si="49"/>
+        <v>1.3574660633484115E-3</v>
+      </c>
+      <c r="Z69" s="64">
+        <f t="shared" si="32"/>
+        <v>1.4924815666882116E-7</v>
+      </c>
+      <c r="AA69" s="60">
+        <f t="shared" si="33"/>
+        <v>2.1601895265534394</v>
+      </c>
+      <c r="AB69" s="61">
+        <f t="shared" si="50"/>
+        <v>3.4983647798742138E-12</v>
+      </c>
+      <c r="AC69" s="60">
+        <f t="shared" si="51"/>
+        <v>1.3574660633484115E-3</v>
+      </c>
+      <c r="AD69" s="68">
+        <f t="shared" si="34"/>
+        <v>2.2556767209263471E-6</v>
+      </c>
+      <c r="AE69" s="64">
+        <f t="shared" si="35"/>
+        <v>1.92635298665032</v>
+      </c>
+      <c r="AF69" s="65">
+        <f t="shared" si="52"/>
+        <v>3.6729559748427673E-13</v>
+      </c>
+      <c r="AG69" s="64">
+        <f t="shared" si="53"/>
+        <v>1.3574660633484115E-3</v>
+      </c>
+      <c r="AH69" s="64">
         <f t="shared" si="36"/>
-        <v>0</v>
-      </c>
-      <c r="E69" s="60">
-        <f t="shared" si="37"/>
+        <v>2.812298832582589E-7</v>
+      </c>
+      <c r="AI69" s="60">
+        <f t="shared" si="54"/>
+        <v>1.5583823949236124</v>
+      </c>
+      <c r="AJ69" s="61">
+        <f t="shared" si="55"/>
+        <v>3.9711207943906922E-12</v>
+      </c>
+      <c r="AK69" s="60">
+        <f t="shared" si="56"/>
         <v>1.3574660633484115E-3</v>
       </c>
-      <c r="F69" s="61">
-        <f t="shared" si="38"/>
-        <v>0</v>
-      </c>
-      <c r="G69" s="152">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H69" s="153">
-        <f t="shared" si="39"/>
-        <v>3.40125786163522E-11</v>
-      </c>
-      <c r="I69" s="152">
-        <f t="shared" si="40"/>
-        <v>1.3574660633484115E-3</v>
-      </c>
-      <c r="J69" s="152" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K69" s="60">
-        <f t="shared" si="24"/>
-        <v>1.2331826391719951</v>
-      </c>
-      <c r="L69" s="68">
-        <f t="shared" si="41"/>
-        <v>3.2201257861635218E-13</v>
-      </c>
-      <c r="M69" s="60">
-        <f t="shared" si="42"/>
-        <v>1.3574660633484115E-3</v>
-      </c>
-      <c r="N69" s="61">
-        <f t="shared" si="25"/>
-        <v>4.8137250785462698E-7</v>
-      </c>
-      <c r="O69" s="64">
-        <f t="shared" si="26"/>
-        <v>2.1836713481357952</v>
-      </c>
-      <c r="P69" s="65">
-        <f t="shared" si="43"/>
-        <v>1.7315723270440253E-12</v>
-      </c>
-      <c r="Q69" s="64">
-        <f t="shared" si="44"/>
-        <v>1.3574660633484115E-3</v>
-      </c>
-      <c r="R69" s="64">
-        <f t="shared" si="27"/>
-        <v>1.0985232992461006E-6</v>
-      </c>
-      <c r="S69" s="60">
-        <f t="shared" si="28"/>
-        <v>2.2072801362942487</v>
-      </c>
-      <c r="T69" s="61">
-        <f t="shared" si="45"/>
-        <v>6.0186163522012576E-12</v>
-      </c>
-      <c r="U69" s="60">
-        <f t="shared" si="46"/>
-        <v>1.3574660633484115E-3</v>
-      </c>
-      <c r="V69" s="61">
-        <f t="shared" si="29"/>
-        <v>3.7571629228694016E-6</v>
-      </c>
-      <c r="W69" s="64">
-        <f t="shared" si="30"/>
-        <v>2.0522425620475122</v>
-      </c>
-      <c r="X69" s="65">
-        <f t="shared" si="47"/>
-        <v>2.1433962264150944E-13</v>
-      </c>
-      <c r="Y69" s="64">
-        <f t="shared" si="48"/>
-        <v>1.3574660633484115E-3</v>
-      </c>
-      <c r="Z69" s="64">
-        <f t="shared" si="31"/>
-        <v>1.4924815666882116E-7</v>
-      </c>
-      <c r="AA69" s="60">
-        <f t="shared" si="32"/>
-        <v>2.1601895265534394</v>
-      </c>
-      <c r="AB69" s="61">
-        <f t="shared" si="49"/>
-        <v>3.4983647798742138E-12</v>
-      </c>
-      <c r="AC69" s="60">
-        <f t="shared" si="50"/>
-        <v>1.3574660633484115E-3</v>
-      </c>
-      <c r="AD69" s="68">
-        <f t="shared" si="33"/>
-        <v>2.2556767209263471E-6</v>
-      </c>
-      <c r="AE69" s="64">
-        <f t="shared" si="34"/>
-        <v>1.92635298665032</v>
-      </c>
-      <c r="AF69" s="65">
-        <f t="shared" si="51"/>
-        <v>3.6729559748427673E-13</v>
-      </c>
-      <c r="AG69" s="64">
-        <f t="shared" si="52"/>
-        <v>1.3574660633484115E-3</v>
-      </c>
-      <c r="AH69" s="64">
-        <f t="shared" si="35"/>
-        <v>2.812298832582589E-7</v>
-      </c>
-      <c r="AI69" s="60">
-        <f t="shared" si="53"/>
-        <v>1.5583823949236124</v>
-      </c>
-      <c r="AJ69" s="61">
-        <f t="shared" si="54"/>
-        <v>3.9711207943906922E-12</v>
-      </c>
-      <c r="AK69" s="60">
-        <f t="shared" si="55"/>
-        <v>1.3574660633484115E-3</v>
-      </c>
       <c r="AL69" s="61">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>4.178800109417273E-6</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>15</v>
       </c>
       <c r="B70" s="58">
         <v>1.4</v>
       </c>
       <c r="C70" s="60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2.1068053642606319</v>
       </c>
       <c r="D70" s="68">
+        <f t="shared" si="37"/>
+        <v>1.4138364779874215E-12</v>
+      </c>
+      <c r="E70" s="60">
+        <f t="shared" si="38"/>
+        <v>9.0497737556561458E-4</v>
+      </c>
+      <c r="F70" s="61">
+        <f t="shared" si="39"/>
+        <v>2.4241322429707223E-6</v>
+      </c>
+      <c r="G70" s="152">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="H70" s="153">
+        <f t="shared" si="40"/>
+        <v>3.3584905660377357E-11</v>
+      </c>
+      <c r="I70" s="152">
+        <f t="shared" si="41"/>
+        <v>9.0497737556561458E-4</v>
+      </c>
+      <c r="J70" s="152" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K70" s="60">
+        <f t="shared" si="25"/>
+        <v>1.7616894845314217</v>
+      </c>
+      <c r="L70" s="68">
+        <f t="shared" si="42"/>
+        <v>7.9044025157232712E-13</v>
+      </c>
+      <c r="M70" s="60">
+        <f t="shared" si="43"/>
+        <v>9.0497737556561458E-4</v>
+      </c>
+      <c r="N70" s="61">
+        <f t="shared" si="26"/>
+        <v>1.7724286168115935E-6</v>
+      </c>
+      <c r="O70" s="64">
+        <f t="shared" si="27"/>
+        <v>3.1195304973368505</v>
+      </c>
+      <c r="P70" s="65">
+        <f t="shared" si="44"/>
+        <v>2.5660377358490567E-12</v>
+      </c>
+      <c r="Q70" s="64">
+        <f t="shared" si="45"/>
+        <v>9.0497737556561458E-4</v>
+      </c>
+      <c r="R70" s="64">
+        <f t="shared" si="28"/>
+        <v>2.4418722182863879E-6</v>
+      </c>
+      <c r="S70" s="60">
+        <f t="shared" si="29"/>
+        <v>3.153257337563212</v>
+      </c>
+      <c r="T70" s="61">
+        <f t="shared" si="46"/>
+        <v>8.8777358490566047E-12</v>
+      </c>
+      <c r="U70" s="60">
+        <f t="shared" si="47"/>
+        <v>9.0497737556561458E-4</v>
+      </c>
+      <c r="V70" s="61">
+        <f t="shared" si="30"/>
+        <v>8.3129820923635666E-6</v>
+      </c>
+      <c r="W70" s="64">
+        <f t="shared" si="31"/>
+        <v>2.931775088639303</v>
+      </c>
+      <c r="X70" s="65">
+        <f t="shared" si="48"/>
+        <v>1.1874213836477989E-12</v>
+      </c>
+      <c r="Y70" s="64">
+        <f t="shared" si="49"/>
+        <v>9.0497737556561458E-4</v>
+      </c>
+      <c r="Z70" s="64">
+        <f t="shared" si="32"/>
+        <v>1.2402311610507579E-6</v>
+      </c>
+      <c r="AA70" s="60">
+        <f t="shared" si="33"/>
+        <v>3.0859850379334852</v>
+      </c>
+      <c r="AB70" s="61">
+        <f t="shared" si="50"/>
+        <v>7.41383647798742E-12</v>
+      </c>
+      <c r="AC70" s="60">
+        <f t="shared" si="51"/>
+        <v>9.0497737556561458E-4</v>
+      </c>
+      <c r="AD70" s="68">
+        <f t="shared" si="34"/>
+        <v>7.1704436537141096E-6</v>
+      </c>
+      <c r="AE70" s="64">
+        <f t="shared" si="35"/>
+        <v>2.7519328380718857</v>
+      </c>
+      <c r="AF70" s="65">
+        <f t="shared" si="52"/>
+        <v>1.1906918238993708E-11</v>
+      </c>
+      <c r="AG70" s="64">
+        <f t="shared" si="53"/>
+        <v>9.0497737556561458E-4</v>
+      </c>
+      <c r="AH70" s="64">
         <f t="shared" si="36"/>
-        <v>1.4138364779874215E-12</v>
-      </c>
-      <c r="E70" s="60">
-        <f t="shared" si="37"/>
+        <v>1.3675284631452009E-5</v>
+      </c>
+      <c r="AI70" s="60">
+        <f t="shared" si="54"/>
+        <v>2.2262605641765894</v>
+      </c>
+      <c r="AJ70" s="61">
+        <f t="shared" si="55"/>
+        <v>8.1065638285492748E-12</v>
+      </c>
+      <c r="AK70" s="60">
+        <f t="shared" si="56"/>
         <v>9.0497737556561458E-4</v>
       </c>
-      <c r="F70" s="61">
-        <f t="shared" si="38"/>
-        <v>2.4241322429707223E-6</v>
-      </c>
-      <c r="G70" s="152">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H70" s="153">
-        <f t="shared" si="39"/>
-        <v>3.3584905660377357E-11</v>
-      </c>
-      <c r="I70" s="152">
-        <f t="shared" si="40"/>
-        <v>9.0497737556561458E-4</v>
-      </c>
-      <c r="J70" s="152" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K70" s="60">
-        <f t="shared" si="24"/>
-        <v>1.7616894845314217</v>
-      </c>
-      <c r="L70" s="68">
-        <f t="shared" si="41"/>
-        <v>7.9044025157232712E-13</v>
-      </c>
-      <c r="M70" s="60">
-        <f t="shared" si="42"/>
-        <v>9.0497737556561458E-4</v>
-      </c>
-      <c r="N70" s="61">
-        <f t="shared" si="25"/>
-        <v>1.7724286168115935E-6</v>
-      </c>
-      <c r="O70" s="64">
-        <f t="shared" si="26"/>
-        <v>3.1195304973368505</v>
-      </c>
-      <c r="P70" s="65">
-        <f t="shared" si="43"/>
-        <v>2.5660377358490567E-12</v>
-      </c>
-      <c r="Q70" s="64">
-        <f t="shared" si="44"/>
-        <v>9.0497737556561458E-4</v>
-      </c>
-      <c r="R70" s="64">
-        <f t="shared" si="27"/>
-        <v>2.4418722182863879E-6</v>
-      </c>
-      <c r="S70" s="60">
-        <f t="shared" si="28"/>
-        <v>3.153257337563212</v>
-      </c>
-      <c r="T70" s="61">
-        <f t="shared" si="45"/>
-        <v>8.8777358490566047E-12</v>
-      </c>
-      <c r="U70" s="60">
-        <f t="shared" si="46"/>
-        <v>9.0497737556561458E-4</v>
-      </c>
-      <c r="V70" s="61">
-        <f t="shared" si="29"/>
-        <v>8.3129820923635666E-6</v>
-      </c>
-      <c r="W70" s="64">
-        <f t="shared" si="30"/>
-        <v>2.931775088639303</v>
-      </c>
-      <c r="X70" s="65">
-        <f t="shared" si="47"/>
-        <v>1.1874213836477989E-12</v>
-      </c>
-      <c r="Y70" s="64">
-        <f t="shared" si="48"/>
-        <v>9.0497737556561458E-4</v>
-      </c>
-      <c r="Z70" s="64">
-        <f t="shared" si="31"/>
-        <v>1.2402311610507579E-6</v>
-      </c>
-      <c r="AA70" s="60">
-        <f t="shared" si="32"/>
-        <v>3.0859850379334852</v>
-      </c>
-      <c r="AB70" s="61">
-        <f t="shared" si="49"/>
-        <v>7.41383647798742E-12</v>
-      </c>
-      <c r="AC70" s="60">
-        <f t="shared" si="50"/>
-        <v>9.0497737556561458E-4</v>
-      </c>
-      <c r="AD70" s="68">
-        <f t="shared" si="33"/>
-        <v>7.1704436537141096E-6</v>
-      </c>
-      <c r="AE70" s="64">
-        <f t="shared" si="34"/>
-        <v>2.7519328380718857</v>
-      </c>
-      <c r="AF70" s="65">
-        <f t="shared" si="51"/>
-        <v>1.1906918238993708E-11</v>
-      </c>
-      <c r="AG70" s="64">
-        <f t="shared" si="52"/>
-        <v>9.0497737556561458E-4</v>
-      </c>
-      <c r="AH70" s="64">
-        <f t="shared" si="35"/>
-        <v>1.3675284631452009E-5</v>
-      </c>
-      <c r="AI70" s="60">
-        <f t="shared" si="53"/>
-        <v>2.2262605641765894</v>
-      </c>
-      <c r="AJ70" s="61">
-        <f t="shared" si="54"/>
-        <v>8.1065638285492748E-12</v>
-      </c>
-      <c r="AK70" s="60">
-        <f t="shared" si="55"/>
-        <v>9.0497737556561458E-4</v>
-      </c>
       <c r="AL70" s="61">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>1.2795774128146584E-5</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>16</v>
       </c>
       <c r="B71" s="58">
         <v>1</v>
       </c>
       <c r="C71" s="60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2.9495275099648848</v>
       </c>
       <c r="D71" s="68">
+        <f t="shared" si="37"/>
+        <v>1.7640251572327042E-12</v>
+      </c>
+      <c r="E71" s="60">
+        <f t="shared" si="38"/>
+        <v>2.5343191042496417E-2</v>
+      </c>
+      <c r="F71" s="61">
+        <f t="shared" si="39"/>
+        <v>1.0800362307330651E-7</v>
+      </c>
+      <c r="G71" s="152">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="H71" s="153">
+        <f t="shared" si="40"/>
+        <v>2.405031446540881E-11</v>
+      </c>
+      <c r="I71" s="152">
+        <f t="shared" si="41"/>
+        <v>2.5343191042496417E-2</v>
+      </c>
+      <c r="J71" s="152" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K71" s="60">
+        <f t="shared" si="25"/>
+        <v>2.4663652783439902</v>
+      </c>
+      <c r="L71" s="68">
+        <f t="shared" si="42"/>
+        <v>1.1446540880503145E-12</v>
+      </c>
+      <c r="M71" s="60">
+        <f t="shared" si="43"/>
+        <v>2.5343191042496417E-2</v>
+      </c>
+      <c r="N71" s="61">
+        <f t="shared" si="26"/>
+        <v>9.1653782733607663E-8</v>
+      </c>
+      <c r="O71" s="64">
+        <f t="shared" si="27"/>
+        <v>4.3673426962715904</v>
+      </c>
+      <c r="P71" s="65">
+        <f t="shared" si="44"/>
+        <v>3.53811320754717E-12</v>
+      </c>
+      <c r="Q71" s="64">
+        <f t="shared" si="45"/>
+        <v>2.5343191042496417E-2</v>
+      </c>
+      <c r="R71" s="64">
+        <f t="shared" si="28"/>
+        <v>1.2022867042038037E-7</v>
+      </c>
+      <c r="S71" s="60">
+        <f t="shared" si="29"/>
+        <v>4.4145602725884974</v>
+      </c>
+      <c r="T71" s="61">
+        <f t="shared" si="46"/>
+        <v>9.9768553459119503E-12</v>
+      </c>
+      <c r="U71" s="60">
+        <f t="shared" si="47"/>
+        <v>2.5343191042496417E-2</v>
+      </c>
+      <c r="V71" s="61">
+        <f t="shared" si="30"/>
+        <v>3.3359898932795121E-7</v>
+      </c>
+      <c r="W71" s="64">
+        <f t="shared" si="31"/>
+        <v>4.1044851240950244</v>
+      </c>
+      <c r="X71" s="65">
+        <f t="shared" si="48"/>
+        <v>1.0872955974842767E-12</v>
+      </c>
+      <c r="Y71" s="64">
+        <f t="shared" si="49"/>
+        <v>2.5343191042496417E-2</v>
+      </c>
+      <c r="Z71" s="64">
+        <f t="shared" si="32"/>
+        <v>4.0552891656858944E-8</v>
+      </c>
+      <c r="AA71" s="60">
+        <f t="shared" si="33"/>
+        <v>4.3203790531068789</v>
+      </c>
+      <c r="AB71" s="61">
+        <f t="shared" si="50"/>
+        <v>1.3348427672955974E-11</v>
+      </c>
+      <c r="AC71" s="60">
+        <f t="shared" si="51"/>
+        <v>2.5343191042496417E-2</v>
+      </c>
+      <c r="AD71" s="68">
+        <f t="shared" si="34"/>
+        <v>4.6100916755262078E-7</v>
+      </c>
+      <c r="AE71" s="64">
+        <f t="shared" si="35"/>
+        <v>3.8527059733006399</v>
+      </c>
+      <c r="AF71" s="65">
+        <f t="shared" si="52"/>
+        <v>1.0389937106918238E-11</v>
+      </c>
+      <c r="AG71" s="64">
+        <f t="shared" si="53"/>
+        <v>2.5343191042496417E-2</v>
+      </c>
+      <c r="AH71" s="64">
         <f t="shared" si="36"/>
-        <v>1.7640251572327042E-12</v>
-      </c>
-      <c r="E71" s="60">
-        <f t="shared" si="37"/>
+        <v>4.2611453265156593E-7</v>
+      </c>
+      <c r="AI71" s="60">
+        <f t="shared" si="54"/>
+        <v>3.1167647898472248</v>
+      </c>
+      <c r="AJ71" s="61">
+        <f t="shared" si="55"/>
+        <v>6.3017578950986087E-12</v>
+      </c>
+      <c r="AK71" s="60">
+        <f t="shared" si="56"/>
         <v>2.5343191042496417E-2</v>
       </c>
-      <c r="F71" s="61">
-        <f t="shared" si="38"/>
-        <v>1.0800362307330651E-7</v>
-      </c>
-      <c r="G71" s="152">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H71" s="153">
-        <f t="shared" si="39"/>
-        <v>2.405031446540881E-11</v>
-      </c>
-      <c r="I71" s="152">
-        <f t="shared" si="40"/>
-        <v>2.5343191042496417E-2</v>
-      </c>
-      <c r="J71" s="152" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K71" s="60">
-        <f t="shared" si="24"/>
-        <v>2.4663652783439902</v>
-      </c>
-      <c r="L71" s="68">
-        <f t="shared" si="41"/>
-        <v>1.1446540880503145E-12</v>
-      </c>
-      <c r="M71" s="60">
-        <f t="shared" si="42"/>
-        <v>2.5343191042496417E-2</v>
-      </c>
-      <c r="N71" s="61">
-        <f t="shared" si="25"/>
-        <v>9.1653782733607663E-8</v>
-      </c>
-      <c r="O71" s="64">
-        <f t="shared" si="26"/>
-        <v>4.3673426962715904</v>
-      </c>
-      <c r="P71" s="65">
-        <f t="shared" si="43"/>
-        <v>3.53811320754717E-12</v>
-      </c>
-      <c r="Q71" s="64">
-        <f t="shared" si="44"/>
-        <v>2.5343191042496417E-2</v>
-      </c>
-      <c r="R71" s="64">
-        <f t="shared" si="27"/>
-        <v>1.2022867042038037E-7</v>
-      </c>
-      <c r="S71" s="60">
-        <f t="shared" si="28"/>
-        <v>4.4145602725884974</v>
-      </c>
-      <c r="T71" s="61">
-        <f t="shared" si="45"/>
-        <v>9.9768553459119503E-12</v>
-      </c>
-      <c r="U71" s="60">
-        <f t="shared" si="46"/>
-        <v>2.5343191042496417E-2</v>
-      </c>
-      <c r="V71" s="61">
-        <f t="shared" si="29"/>
-        <v>3.3359898932795121E-7</v>
-      </c>
-      <c r="W71" s="64">
-        <f t="shared" si="30"/>
-        <v>4.1044851240950244</v>
-      </c>
-      <c r="X71" s="65">
-        <f t="shared" si="47"/>
-        <v>1.0872955974842767E-12</v>
-      </c>
-      <c r="Y71" s="64">
-        <f t="shared" si="48"/>
-        <v>2.5343191042496417E-2</v>
-      </c>
-      <c r="Z71" s="64">
-        <f t="shared" si="31"/>
-        <v>4.0552891656858944E-8</v>
-      </c>
-      <c r="AA71" s="60">
-        <f t="shared" si="32"/>
-        <v>4.3203790531068789</v>
-      </c>
-      <c r="AB71" s="61">
-        <f t="shared" si="49"/>
-        <v>1.3348427672955974E-11</v>
-      </c>
-      <c r="AC71" s="60">
-        <f t="shared" si="50"/>
-        <v>2.5343191042496417E-2</v>
-      </c>
-      <c r="AD71" s="68">
-        <f t="shared" si="33"/>
-        <v>4.6100916755262078E-7</v>
-      </c>
-      <c r="AE71" s="64">
-        <f t="shared" si="34"/>
-        <v>3.8527059733006399</v>
-      </c>
-      <c r="AF71" s="65">
-        <f t="shared" si="51"/>
-        <v>1.0389937106918238E-11</v>
-      </c>
-      <c r="AG71" s="64">
-        <f t="shared" si="52"/>
-        <v>2.5343191042496417E-2</v>
-      </c>
-      <c r="AH71" s="64">
-        <f t="shared" si="35"/>
-        <v>4.2611453265156593E-7</v>
-      </c>
-      <c r="AI71" s="60">
-        <f t="shared" si="53"/>
-        <v>3.1167647898472248</v>
-      </c>
-      <c r="AJ71" s="61">
-        <f t="shared" si="54"/>
-        <v>6.3017578950986087E-12</v>
-      </c>
-      <c r="AK71" s="60">
-        <f t="shared" si="55"/>
-        <v>2.5343191042496417E-2</v>
-      </c>
       <c r="AL71" s="61">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>3.5519586185859211E-7</v>
       </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>17</v>
       </c>
       <c r="B72" s="58">
         <v>0.7</v>
       </c>
       <c r="C72" s="60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>4.2136107285212638</v>
       </c>
       <c r="D72" s="68">
+        <f t="shared" si="37"/>
+        <v>2.1308176100628931E-12</v>
+      </c>
+      <c r="E72" s="60">
+        <f t="shared" si="38"/>
+        <v>1.8954130943692853E-3</v>
+      </c>
+      <c r="F72" s="61">
+        <f t="shared" si="39"/>
+        <v>1.7443645343935165E-6</v>
+      </c>
+      <c r="G72" s="152">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="H72" s="153">
+        <f t="shared" si="40"/>
+        <v>2.018616352201258E-11</v>
+      </c>
+      <c r="I72" s="152">
+        <f t="shared" si="41"/>
+        <v>1.8954130943692853E-3</v>
+      </c>
+      <c r="J72" s="152" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K72" s="60">
+        <f t="shared" si="25"/>
+        <v>3.5233789690628434</v>
+      </c>
+      <c r="L72" s="68">
+        <f t="shared" si="42"/>
+        <v>2.088050314465409E-12</v>
+      </c>
+      <c r="M72" s="60">
+        <f t="shared" si="43"/>
+        <v>1.8954130943692853E-3</v>
+      </c>
+      <c r="N72" s="61">
+        <f t="shared" si="26"/>
+        <v>2.2354991567442641E-6</v>
+      </c>
+      <c r="O72" s="64">
+        <f t="shared" si="27"/>
+        <v>6.239060994673701</v>
+      </c>
+      <c r="P72" s="65">
+        <f t="shared" si="44"/>
+        <v>4.847044025157234E-12</v>
+      </c>
+      <c r="Q72" s="64">
+        <f t="shared" si="45"/>
+        <v>1.8954130943692853E-3</v>
+      </c>
+      <c r="R72" s="64">
+        <f t="shared" si="28"/>
+        <v>2.2022707205326916E-6</v>
+      </c>
+      <c r="S72" s="60">
+        <f t="shared" si="29"/>
+        <v>6.3065146751264241</v>
+      </c>
+      <c r="T72" s="61">
+        <f t="shared" si="46"/>
+        <v>1.0863396226415096E-11</v>
+      </c>
+      <c r="U72" s="60">
+        <f t="shared" si="47"/>
+        <v>1.8954130943692853E-3</v>
+      </c>
+      <c r="V72" s="61">
+        <f t="shared" si="30"/>
+        <v>4.8568432992854902E-6</v>
+      </c>
+      <c r="W72" s="64">
+        <f t="shared" si="31"/>
+        <v>5.8635501772786061</v>
+      </c>
+      <c r="X72" s="65">
+        <f t="shared" si="48"/>
+        <v>3.5723270440251568E-12</v>
+      </c>
+      <c r="Y72" s="64">
+        <f t="shared" si="49"/>
+        <v>1.8954130943692853E-3</v>
+      </c>
+      <c r="Z72" s="64">
+        <f t="shared" si="32"/>
+        <v>1.7814877075002325E-6</v>
+      </c>
+      <c r="AA72" s="60">
+        <f t="shared" si="33"/>
+        <v>6.1719700758669704</v>
+      </c>
+      <c r="AB72" s="61">
+        <f t="shared" si="50"/>
+        <v>2.172955974842767E-11</v>
+      </c>
+      <c r="AC72" s="60">
+        <f t="shared" si="51"/>
+        <v>1.8954130943692853E-3</v>
+      </c>
+      <c r="AD72" s="68">
+        <f t="shared" si="34"/>
+        <v>1.0034316546228117E-5</v>
+      </c>
+      <c r="AE72" s="64">
+        <f t="shared" si="35"/>
+        <v>5.5038656761437714</v>
+      </c>
+      <c r="AF72" s="65">
+        <f t="shared" si="52"/>
+        <v>9.6983647798742133E-12</v>
+      </c>
+      <c r="AG72" s="64">
+        <f t="shared" si="53"/>
+        <v>1.8954130943692853E-3</v>
+      </c>
+      <c r="AH72" s="64">
         <f t="shared" si="36"/>
-        <v>2.1308176100628931E-12</v>
-      </c>
-      <c r="E72" s="60">
-        <f t="shared" si="37"/>
+        <v>5.3182575243426037E-6</v>
+      </c>
+      <c r="AI72" s="60">
+        <f t="shared" si="54"/>
+        <v>4.4525211283531787</v>
+      </c>
+      <c r="AJ72" s="61">
+        <f t="shared" si="55"/>
+        <v>6.8148084437072457E-12</v>
+      </c>
+      <c r="AK72" s="60">
+        <f t="shared" si="56"/>
         <v>1.8954130943692853E-3</v>
       </c>
-      <c r="F72" s="61">
-        <f t="shared" si="38"/>
-        <v>1.7443645343935165E-6</v>
-      </c>
-      <c r="G72" s="152">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H72" s="153">
-        <f t="shared" si="39"/>
-        <v>2.018616352201258E-11</v>
-      </c>
-      <c r="I72" s="152">
-        <f t="shared" si="40"/>
-        <v>1.8954130943692853E-3</v>
-      </c>
-      <c r="J72" s="152" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K72" s="60">
-        <f t="shared" si="24"/>
-        <v>3.5233789690628434</v>
-      </c>
-      <c r="L72" s="68">
-        <f t="shared" si="41"/>
-        <v>2.088050314465409E-12</v>
-      </c>
-      <c r="M72" s="60">
-        <f t="shared" si="42"/>
-        <v>1.8954130943692853E-3</v>
-      </c>
-      <c r="N72" s="61">
-        <f t="shared" si="25"/>
-        <v>2.2354991567442641E-6</v>
-      </c>
-      <c r="O72" s="64">
-        <f t="shared" si="26"/>
-        <v>6.239060994673701</v>
-      </c>
-      <c r="P72" s="65">
-        <f t="shared" si="43"/>
-        <v>4.847044025157234E-12</v>
-      </c>
-      <c r="Q72" s="64">
-        <f t="shared" si="44"/>
-        <v>1.8954130943692853E-3</v>
-      </c>
-      <c r="R72" s="64">
-        <f t="shared" si="27"/>
-        <v>2.2022707205326916E-6</v>
-      </c>
-      <c r="S72" s="60">
-        <f t="shared" si="28"/>
-        <v>6.3065146751264241</v>
-      </c>
-      <c r="T72" s="61">
-        <f t="shared" si="45"/>
-        <v>1.0863396226415096E-11</v>
-      </c>
-      <c r="U72" s="60">
-        <f t="shared" si="46"/>
-        <v>1.8954130943692853E-3</v>
-      </c>
-      <c r="V72" s="61">
-        <f t="shared" si="29"/>
-        <v>4.8568432992854902E-6</v>
-      </c>
-      <c r="W72" s="64">
-        <f t="shared" si="30"/>
-        <v>5.8635501772786061</v>
-      </c>
-      <c r="X72" s="65">
-        <f t="shared" si="47"/>
-        <v>3.5723270440251568E-12</v>
-      </c>
-      <c r="Y72" s="64">
-        <f t="shared" si="48"/>
-        <v>1.8954130943692853E-3</v>
-      </c>
-      <c r="Z72" s="64">
-        <f t="shared" si="31"/>
-        <v>1.7814877075002325E-6</v>
-      </c>
-      <c r="AA72" s="60">
-        <f t="shared" si="32"/>
-        <v>6.1719700758669704</v>
-      </c>
-      <c r="AB72" s="61">
-        <f t="shared" si="49"/>
-        <v>2.172955974842767E-11</v>
-      </c>
-      <c r="AC72" s="60">
-        <f t="shared" si="50"/>
-        <v>1.8954130943692853E-3</v>
-      </c>
-      <c r="AD72" s="68">
-        <f t="shared" si="33"/>
-        <v>1.0034316546228117E-5</v>
-      </c>
-      <c r="AE72" s="64">
-        <f t="shared" si="34"/>
-        <v>5.5038656761437714</v>
-      </c>
-      <c r="AF72" s="65">
-        <f t="shared" si="51"/>
-        <v>9.6983647798742133E-12</v>
-      </c>
-      <c r="AG72" s="64">
-        <f t="shared" si="52"/>
-        <v>1.8954130943692853E-3</v>
-      </c>
-      <c r="AH72" s="64">
-        <f t="shared" si="35"/>
-        <v>5.3182575243426037E-6</v>
-      </c>
-      <c r="AI72" s="60">
-        <f t="shared" si="53"/>
-        <v>4.4525211283531787</v>
-      </c>
-      <c r="AJ72" s="61">
-        <f t="shared" si="54"/>
-        <v>6.8148084437072457E-12</v>
-      </c>
-      <c r="AK72" s="60">
-        <f t="shared" si="55"/>
-        <v>1.8954130943692853E-3</v>
-      </c>
       <c r="AL72" s="61">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>5.1359082527392634E-6</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>18</v>
       </c>
       <c r="B73" s="58">
         <v>0.5</v>
       </c>
       <c r="C73" s="60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>5.8990550199297695</v>
       </c>
       <c r="D73" s="68">
+        <f t="shared" si="37"/>
+        <v>2.6867924528301891E-12</v>
+      </c>
+      <c r="E73" s="60">
+        <f t="shared" si="38"/>
+        <v>8.650709206137662E-3</v>
+      </c>
+      <c r="F73" s="61">
+        <f t="shared" si="39"/>
+        <v>4.8192255617582104E-7</v>
+      </c>
+      <c r="G73" s="152">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="H73" s="153">
+        <f t="shared" si="40"/>
+        <v>1.5144654088050317E-11</v>
+      </c>
+      <c r="I73" s="152">
+        <f t="shared" si="41"/>
+        <v>8.650709206137662E-3</v>
+      </c>
+      <c r="J73" s="152" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K73" s="60">
+        <f t="shared" si="25"/>
+        <v>4.9327305566879804</v>
+      </c>
+      <c r="L73" s="68">
+        <f t="shared" si="42"/>
+        <v>3.2357232704402514E-12</v>
+      </c>
+      <c r="M73" s="60">
+        <f t="shared" si="43"/>
+        <v>8.650709206137662E-3</v>
+      </c>
+      <c r="N73" s="61">
+        <f t="shared" si="26"/>
+        <v>7.5902675808667702E-7</v>
+      </c>
+      <c r="O73" s="64">
+        <f t="shared" si="27"/>
+        <v>8.7346853925431809</v>
+      </c>
+      <c r="P73" s="65">
+        <f t="shared" si="44"/>
+        <v>4.7164779874213837E-12</v>
+      </c>
+      <c r="Q73" s="64">
+        <f t="shared" si="45"/>
+        <v>8.650709206137662E-3</v>
+      </c>
+      <c r="R73" s="64">
+        <f t="shared" si="28"/>
+        <v>4.6953039925833273E-7</v>
+      </c>
+      <c r="S73" s="60">
+        <f t="shared" si="29"/>
+        <v>8.8291205451769947</v>
+      </c>
+      <c r="T73" s="61">
+        <f t="shared" si="46"/>
+        <v>9.9522012578616371E-12</v>
+      </c>
+      <c r="U73" s="60">
+        <f t="shared" si="47"/>
+        <v>8.650709206137662E-3</v>
+      </c>
+      <c r="V73" s="61">
+        <f t="shared" si="30"/>
+        <v>9.7489935864045726E-7</v>
+      </c>
+      <c r="W73" s="64">
+        <f t="shared" si="31"/>
+        <v>8.2089702481900488</v>
+      </c>
+      <c r="X73" s="65">
+        <f t="shared" si="48"/>
+        <v>3.6704402515723266E-12</v>
+      </c>
+      <c r="Y73" s="64">
+        <f t="shared" si="49"/>
+        <v>8.650709206137662E-3</v>
+      </c>
+      <c r="Z73" s="64">
+        <f t="shared" si="32"/>
+        <v>4.0105315822105996E-7</v>
+      </c>
+      <c r="AA73" s="60">
+        <f t="shared" si="33"/>
+        <v>8.6407581062137577</v>
+      </c>
+      <c r="AB73" s="61">
+        <f t="shared" si="50"/>
+        <v>2.8100628930817605E-11</v>
+      </c>
+      <c r="AC73" s="60">
+        <f t="shared" si="51"/>
+        <v>8.650709206137662E-3</v>
+      </c>
+      <c r="AD73" s="68">
+        <f t="shared" si="34"/>
+        <v>2.8431846987713314E-6</v>
+      </c>
+      <c r="AE73" s="64">
+        <f t="shared" si="35"/>
+        <v>7.7054119466012798</v>
+      </c>
+      <c r="AF73" s="65">
+        <f t="shared" si="52"/>
+        <v>5.2830188679245285E-14</v>
+      </c>
+      <c r="AG73" s="64">
+        <f t="shared" si="53"/>
+        <v>8.650709206137662E-3</v>
+      </c>
+      <c r="AH73" s="64">
         <f t="shared" si="36"/>
-        <v>2.6867924528301891E-12</v>
-      </c>
-      <c r="E73" s="60">
-        <f t="shared" si="37"/>
+        <v>6.3475360068846906E-9</v>
+      </c>
+      <c r="AI73" s="60">
+        <f t="shared" si="54"/>
+        <v>6.2335295796944497</v>
+      </c>
+      <c r="AJ73" s="61">
+        <f t="shared" si="55"/>
+        <v>6.5856702093642426E-12</v>
+      </c>
+      <c r="AK73" s="60">
+        <f t="shared" si="56"/>
         <v>8.650709206137662E-3</v>
       </c>
-      <c r="F73" s="61">
-        <f t="shared" si="38"/>
-        <v>4.8192255617582104E-7</v>
-      </c>
-      <c r="G73" s="152">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H73" s="153">
-        <f t="shared" si="39"/>
-        <v>1.5144654088050317E-11</v>
-      </c>
-      <c r="I73" s="152">
-        <f t="shared" si="40"/>
-        <v>8.650709206137662E-3</v>
-      </c>
-      <c r="J73" s="152" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K73" s="60">
-        <f t="shared" si="24"/>
-        <v>4.9327305566879804</v>
-      </c>
-      <c r="L73" s="68">
-        <f t="shared" si="41"/>
-        <v>3.2357232704402514E-12</v>
-      </c>
-      <c r="M73" s="60">
-        <f t="shared" si="42"/>
-        <v>8.650709206137662E-3</v>
-      </c>
-      <c r="N73" s="61">
-        <f t="shared" si="25"/>
-        <v>7.5902675808667702E-7</v>
-      </c>
-      <c r="O73" s="64">
-        <f t="shared" si="26"/>
-        <v>8.7346853925431809</v>
-      </c>
-      <c r="P73" s="65">
-        <f t="shared" si="43"/>
-        <v>4.7164779874213837E-12</v>
-      </c>
-      <c r="Q73" s="64">
-        <f t="shared" si="44"/>
-        <v>8.650709206137662E-3</v>
-      </c>
-      <c r="R73" s="64">
-        <f t="shared" si="27"/>
-        <v>4.6953039925833273E-7</v>
-      </c>
-      <c r="S73" s="60">
-        <f t="shared" si="28"/>
-        <v>8.8291205451769947</v>
-      </c>
-      <c r="T73" s="61">
-        <f t="shared" si="45"/>
-        <v>9.9522012578616371E-12</v>
-      </c>
-      <c r="U73" s="60">
-        <f t="shared" si="46"/>
-        <v>8.650709206137662E-3</v>
-      </c>
-      <c r="V73" s="61">
-        <f t="shared" si="29"/>
-        <v>9.7489935864045726E-7</v>
-      </c>
-      <c r="W73" s="64">
-        <f t="shared" si="30"/>
-        <v>8.2089702481900488</v>
-      </c>
-      <c r="X73" s="65">
-        <f t="shared" si="47"/>
-        <v>3.6704402515723266E-12</v>
-      </c>
-      <c r="Y73" s="64">
-        <f t="shared" si="48"/>
-        <v>8.650709206137662E-3</v>
-      </c>
-      <c r="Z73" s="64">
-        <f t="shared" si="31"/>
-        <v>4.0105315822105996E-7</v>
-      </c>
-      <c r="AA73" s="60">
-        <f t="shared" si="32"/>
-        <v>8.6407581062137577</v>
-      </c>
-      <c r="AB73" s="61">
-        <f t="shared" si="49"/>
-        <v>2.8100628930817605E-11</v>
-      </c>
-      <c r="AC73" s="60">
-        <f t="shared" si="50"/>
-        <v>8.650709206137662E-3</v>
-      </c>
-      <c r="AD73" s="68">
-        <f t="shared" si="33"/>
-        <v>2.8431846987713314E-6</v>
-      </c>
-      <c r="AE73" s="64">
-        <f t="shared" si="34"/>
-        <v>7.7054119466012798</v>
-      </c>
-      <c r="AF73" s="65">
-        <f t="shared" si="51"/>
-        <v>5.2830188679245285E-14</v>
-      </c>
-      <c r="AG73" s="64">
-        <f t="shared" si="52"/>
-        <v>8.650709206137662E-3</v>
-      </c>
-      <c r="AH73" s="64">
-        <f t="shared" si="35"/>
-        <v>6.3475360068846906E-9</v>
-      </c>
-      <c r="AI73" s="60">
-        <f t="shared" si="53"/>
-        <v>6.2335295796944497</v>
-      </c>
-      <c r="AJ73" s="61">
-        <f t="shared" si="54"/>
-        <v>6.5856702093642426E-12</v>
-      </c>
-      <c r="AK73" s="60">
-        <f t="shared" si="55"/>
-        <v>8.650709206137662E-3</v>
-      </c>
       <c r="AL73" s="61">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>1.0874661466213577E-6</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
-        <f t="shared" si="57"/>
+        <f t="shared" si="58"/>
         <v>19</v>
       </c>
       <c r="B74" s="58">
         <v>0.1</v>
       </c>
       <c r="C74" s="60">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>29.495275099648843</v>
       </c>
       <c r="D74" s="68">
+        <f t="shared" si="37"/>
+        <v>6.9710691823899367E-12</v>
+      </c>
+      <c r="E74" s="60">
+        <f t="shared" si="38"/>
+        <v>9.3595554883954112E-3</v>
+      </c>
+      <c r="F74" s="61">
+        <f t="shared" si="39"/>
+        <v>1.1556837770843574E-6</v>
+      </c>
+      <c r="G74" s="152">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="H74" s="153">
+        <f t="shared" si="40"/>
+        <v>2.298616352201258E-11</v>
+      </c>
+      <c r="I74" s="152">
+        <f t="shared" si="41"/>
+        <v>9.3595554883954112E-3</v>
+      </c>
+      <c r="J74" s="152" t="e">
+        <f t="shared" si="24"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K74" s="60">
+        <f t="shared" si="25"/>
+        <v>24.6636527834399</v>
+      </c>
+      <c r="L74" s="68">
+        <f t="shared" si="42"/>
+        <v>1.1632704402515723E-11</v>
+      </c>
+      <c r="M74" s="60">
+        <f t="shared" si="43"/>
+        <v>9.3595554883954112E-3</v>
+      </c>
+      <c r="N74" s="61">
+        <f t="shared" si="26"/>
+        <v>2.5221034526019734E-6</v>
+      </c>
+      <c r="O74" s="64">
+        <f t="shared" si="27"/>
+        <v>43.673426962715901</v>
+      </c>
+      <c r="P74" s="65">
+        <f t="shared" si="44"/>
+        <v>5.5849056603773594E-12</v>
+      </c>
+      <c r="Q74" s="64">
+        <f t="shared" si="45"/>
+        <v>9.3595554883954112E-3</v>
+      </c>
+      <c r="R74" s="64">
+        <f t="shared" si="28"/>
+        <v>5.1387588192948751E-7</v>
+      </c>
+      <c r="S74" s="60">
+        <f t="shared" si="29"/>
+        <v>44.145602725884963</v>
+      </c>
+      <c r="T74" s="61">
+        <f t="shared" si="46"/>
+        <v>1.2387421383647801E-11</v>
+      </c>
+      <c r="U74" s="60">
+        <f t="shared" si="47"/>
+        <v>9.3595554883954112E-3</v>
+      </c>
+      <c r="V74" s="61">
+        <f t="shared" si="30"/>
+        <v>1.1215484411997474E-6</v>
+      </c>
+      <c r="W74" s="64">
+        <f t="shared" si="31"/>
+        <v>41.044851240950237</v>
+      </c>
+      <c r="X74" s="65">
+        <f t="shared" si="48"/>
+        <v>2.5653081761006288E-11</v>
+      </c>
+      <c r="Y74" s="64">
+        <f t="shared" si="49"/>
+        <v>9.3595554883954112E-3</v>
+      </c>
+      <c r="Z74" s="64">
+        <f t="shared" si="32"/>
+        <v>2.5907160591276902E-6</v>
+      </c>
+      <c r="AA74" s="60">
+        <f t="shared" si="33"/>
+        <v>43.203790531068783</v>
+      </c>
+      <c r="AB74" s="61">
+        <f t="shared" si="50"/>
+        <v>5.5569811320754711E-11</v>
+      </c>
+      <c r="AC74" s="60">
+        <f t="shared" si="51"/>
+        <v>9.3595554883954112E-3</v>
+      </c>
+      <c r="AD74" s="68">
+        <f t="shared" si="34"/>
+        <v>5.1966616997421235E-6</v>
+      </c>
+      <c r="AE74" s="64">
+        <f t="shared" si="35"/>
+        <v>38.527059733006396</v>
+      </c>
+      <c r="AF74" s="65">
+        <f t="shared" si="52"/>
+        <v>5.7534591194968549E-12</v>
+      </c>
+      <c r="AG74" s="64">
+        <f t="shared" si="53"/>
+        <v>9.3595554883954112E-3</v>
+      </c>
+      <c r="AH74" s="64">
         <f t="shared" si="36"/>
-        <v>6.9710691823899367E-12</v>
-      </c>
-      <c r="E74" s="60">
-        <f t="shared" si="37"/>
+        <v>6.3892301602453366E-7</v>
+      </c>
+      <c r="AI74" s="60">
+        <f t="shared" si="54"/>
+        <v>31.167647898472243</v>
+      </c>
+      <c r="AJ74" s="61">
+        <f t="shared" si="55"/>
+        <v>1.0435375126593103E-11</v>
+      </c>
+      <c r="AK74" s="60">
+        <f t="shared" si="56"/>
         <v>9.3595554883954112E-3</v>
       </c>
-      <c r="F74" s="61">
-        <f t="shared" si="38"/>
-        <v>1.1556837770843574E-6</v>
-      </c>
-      <c r="G74" s="152">
-        <f t="shared" si="22"/>
-        <v>0</v>
-      </c>
-      <c r="H74" s="153">
-        <f t="shared" si="39"/>
-        <v>2.298616352201258E-11</v>
-      </c>
-      <c r="I74" s="152">
-        <f t="shared" si="40"/>
-        <v>9.3595554883954112E-3</v>
-      </c>
-      <c r="J74" s="152" t="e">
-        <f t="shared" si="23"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="K74" s="60">
-        <f t="shared" si="24"/>
-        <v>24.6636527834399</v>
-      </c>
-      <c r="L74" s="68">
-        <f t="shared" si="41"/>
-        <v>1.1632704402515723E-11</v>
-      </c>
-      <c r="M74" s="60">
-        <f t="shared" si="42"/>
-        <v>9.3595554883954112E-3</v>
-      </c>
-      <c r="N74" s="61">
-        <f t="shared" si="25"/>
-        <v>2.5221034526019734E-6</v>
-      </c>
-      <c r="O74" s="64">
-        <f t="shared" si="26"/>
-        <v>43.673426962715901</v>
-      </c>
-      <c r="P74" s="65">
-        <f t="shared" si="43"/>
-        <v>5.5849056603773594E-12</v>
-      </c>
-      <c r="Q74" s="64">
-        <f t="shared" si="44"/>
-        <v>9.3595554883954112E-3</v>
-      </c>
-      <c r="R74" s="64">
-        <f t="shared" si="27"/>
-        <v>5.1387588192948751E-7</v>
-      </c>
-      <c r="S74" s="60">
-        <f t="shared" si="28"/>
-        <v>44.145602725884963</v>
-      </c>
-      <c r="T74" s="61">
-        <f t="shared" si="45"/>
-        <v>1.2387421383647801E-11</v>
-      </c>
-      <c r="U74" s="60">
-        <f t="shared" si="46"/>
-        <v>9.3595554883954112E-3</v>
-      </c>
-      <c r="V74" s="61">
-        <f t="shared" si="29"/>
-        <v>1.1215484411997474E-6</v>
-      </c>
-      <c r="W74" s="64">
-        <f t="shared" si="30"/>
-        <v>41.044851240950237</v>
-      </c>
-      <c r="X74" s="65">
-        <f t="shared" si="47"/>
-        <v>2.5653081761006288E-11</v>
-      </c>
-      <c r="Y74" s="64">
-        <f t="shared" si="48"/>
-        <v>9.3595554883954112E-3</v>
-      </c>
-      <c r="Z74" s="64">
-        <f t="shared" si="31"/>
-        <v>2.5907160591276902E-6</v>
-      </c>
-      <c r="AA74" s="60">
-        <f t="shared" si="32"/>
-        <v>43.203790531068783</v>
-      </c>
-      <c r="AB74" s="61">
-        <f t="shared" si="49"/>
-        <v>5.5569811320754711E-11</v>
-      </c>
-      <c r="AC74" s="60">
-        <f t="shared" si="50"/>
-        <v>9.3595554883954112E-3</v>
-      </c>
-      <c r="AD74" s="68">
-        <f t="shared" si="33"/>
-        <v>5.1966616997421235E-6</v>
-      </c>
-      <c r="AE74" s="64">
-        <f t="shared" si="34"/>
-        <v>38.527059733006396</v>
-      </c>
-      <c r="AF74" s="65">
-        <f t="shared" si="51"/>
-        <v>5.7534591194968549E-12</v>
-      </c>
-      <c r="AG74" s="64">
-        <f t="shared" si="52"/>
-        <v>9.3595554883954112E-3</v>
-      </c>
-      <c r="AH74" s="64">
-        <f t="shared" si="35"/>
-        <v>6.3892301602453366E-7</v>
-      </c>
-      <c r="AI74" s="60">
-        <f t="shared" si="53"/>
-        <v>31.167647898472243</v>
-      </c>
-      <c r="AJ74" s="61">
-        <f t="shared" si="54"/>
-        <v>1.0435375126593103E-11</v>
-      </c>
-      <c r="AK74" s="60">
-        <f t="shared" si="55"/>
-        <v>9.3595554883954112E-3</v>
-      </c>
       <c r="AL74" s="61">
-        <f t="shared" si="56"/>
+        <f t="shared" si="57"/>
         <v>1.5926499154138236E-6</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
       <c r="P75" s="66"/>
       <c r="Q75" s="66"/>
       <c r="X75" s="67"/>
       <c r="Y75" s="67"/>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A77" s="32" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A78" s="71" t="s">
         <v>76</v>
       </c>
@@ -21864,7 +21963,7 @@
       <c r="Y78"/>
       <c r="Z78"/>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A79" s="74">
         <f>B56</f>
         <v>180</v>
@@ -21918,7 +22017,7 @@
       <c r="Y79"/>
       <c r="Z79"/>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A80" s="78"/>
       <c r="B80" s="79" t="s">
         <v>87</v>
@@ -21963,7 +22062,7 @@
       <c r="Y80"/>
       <c r="Z80"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="74">
         <f>B57</f>
         <v>128</v>
@@ -22023,7 +22122,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="78"/>
       <c r="B82" s="79" t="s">
         <v>87</v>
@@ -22072,7 +22171,7 @@
       <c r="Y82" s="2"/>
       <c r="Z82" s="30"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="74">
         <f>B58</f>
         <v>90</v>
@@ -22124,7 +22223,7 @@
       <c r="Y83" s="2"/>
       <c r="Z83" s="30"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="78"/>
       <c r="B84" s="79" t="s">
         <v>87</v>
@@ -22173,7 +22272,7 @@
       <c r="Y84" s="34"/>
       <c r="Z84" s="30"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="74">
         <f>B59</f>
         <v>64</v>
@@ -22225,7 +22324,7 @@
       <c r="Y85" s="34"/>
       <c r="Z85" s="30"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="78"/>
       <c r="B86" s="79" t="s">
         <v>87</v>
@@ -22274,7 +22373,7 @@
       <c r="Y86" s="34"/>
       <c r="Z86" s="30"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="74">
         <f>B60</f>
         <v>45</v>
@@ -22326,7 +22425,7 @@
       <c r="Y87" s="34"/>
       <c r="Z87" s="134"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="78"/>
       <c r="B88" s="79" t="s">
         <v>87</v>
@@ -22375,7 +22474,7 @@
       <c r="Y88" s="34"/>
       <c r="Z88" s="30"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="74">
         <f>B61</f>
         <v>32</v>
@@ -22427,7 +22526,7 @@
       <c r="Y89" s="34"/>
       <c r="Z89" s="30"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="78"/>
       <c r="B90" s="79" t="s">
         <v>87</v>
@@ -22476,7 +22575,7 @@
       <c r="Y90" s="34"/>
       <c r="Z90" s="30"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="74">
         <f>B62</f>
         <v>22.6</v>
@@ -22528,7 +22627,7 @@
       <c r="Y91" s="34"/>
       <c r="Z91" s="30"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" s="78"/>
       <c r="B92" s="79" t="s">
         <v>87</v>
@@ -22587,7 +22686,7 @@
         <v>9.4915254237288124E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" s="74">
         <f>B63</f>
         <v>16</v>
@@ -22641,15 +22740,15 @@
         <v>9.9999999999999995E-7</v>
       </c>
       <c r="Y93" s="197">
-        <f t="shared" ref="Y93:Y95" si="58">($W$79-X93)/W93</f>
+        <f t="shared" ref="Y93:Y95" si="59">($W$79-X93)/W93</f>
         <v>49.750000000000007</v>
       </c>
       <c r="Z93" s="127">
-        <f t="shared" ref="Z93:Z96" si="59">V93/$W$78</f>
+        <f t="shared" ref="Z93:Z96" si="60">V93/$W$78</f>
         <v>6.7796610169491525E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" s="74"/>
       <c r="B94" s="79" t="s">
         <v>87</v>
@@ -22700,15 +22799,15 @@
         <v>1.9999999999999999E-6</v>
       </c>
       <c r="Y94" s="197">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>19.8</v>
       </c>
       <c r="Z94" s="127">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>4.7457627118644062E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" s="74">
         <f>B64</f>
         <v>11</v>
@@ -22762,15 +22861,15 @@
         <v>-4.9999999999999998E-7</v>
       </c>
       <c r="Y95" s="197">
-        <f t="shared" si="58"/>
+        <f t="shared" si="59"/>
         <v>20.05</v>
       </c>
       <c r="Z95" s="127">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>3.3898305084745763E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" s="78"/>
       <c r="B96" s="79" t="s">
         <v>87</v>
@@ -22825,11 +22924,11 @@
         <v>6.5333333333333341</v>
       </c>
       <c r="Z96" s="127">
-        <f t="shared" si="59"/>
+        <f t="shared" si="60"/>
         <v>2.3728813559322031E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" s="74">
         <f>B65</f>
         <v>8</v>
@@ -22891,7 +22990,7 @@
         <v>1.6949152542372881E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" s="78"/>
       <c r="B98" s="79" t="s">
         <v>87</v>
@@ -22950,7 +23049,7 @@
         <v>1.1864406779661016E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" s="74">
         <f>B66</f>
         <v>5.6</v>
@@ -23012,7 +23111,7 @@
         <v>8.4745762711864406E-3</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" s="78"/>
       <c r="B100" s="79" t="s">
         <v>87</v>
@@ -23071,7 +23170,7 @@
         <v>1.6949152542372883E-3</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101" s="174">
         <f>B67</f>
         <v>4</v>
@@ -23116,7 +23215,7 @@
         <v>0.77919119746180621</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102" s="179"/>
       <c r="B102" s="180" t="s">
         <v>87</v>
@@ -23158,7 +23257,7 @@
         <v>2.7152594274178989E-6</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103" s="183">
         <f>B68</f>
         <v>2.8</v>
@@ -23207,7 +23306,7 @@
       </c>
       <c r="O103" s="1"/>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104" s="188"/>
       <c r="B104" s="189" t="s">
         <v>87</v>
@@ -23258,7 +23357,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105" s="165">
         <f>B69</f>
         <v>2</v>
@@ -23314,7 +23413,7 @@
         <v>104.82641239372772</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106" s="19"/>
       <c r="B106" s="170" t="s">
         <v>87</v>
@@ -23359,15 +23458,15 @@
         <v>1.4</v>
       </c>
       <c r="O106" s="41">
-        <f t="shared" ref="O106:O111" si="60">4.8438*N106^(-0.581)</f>
+        <f t="shared" ref="O106:O110" si="61">4.8438*N106^(-0.581)</f>
         <v>3.9836925564145389</v>
       </c>
       <c r="P106" s="41">
-        <f t="shared" ref="P106:P112" si="61">O106*($M$3-$M$2)*$M$4*($N$105/1000)</f>
+        <f t="shared" ref="P106:P110" si="62">O106*($M$3-$M$2)*$M$4*($N$105/1000)</f>
         <v>128.96407912880787</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107" s="120">
         <f>B70</f>
         <v>1.4</v>
@@ -23415,15 +23514,15 @@
         <v>1</v>
       </c>
       <c r="O107" s="41">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>4.8437999999999999</v>
       </c>
       <c r="P107" s="41">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>156.8083374</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108" s="120"/>
       <c r="B108" s="124" t="s">
         <v>87</v>
@@ -23468,15 +23567,15 @@
         <v>0.7</v>
       </c>
       <c r="O108" s="41">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>5.9591489608347707</v>
       </c>
       <c r="P108" s="41">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>192.91552930910404</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109" s="81">
         <f>B71</f>
         <v>1</v>
@@ -23524,15 +23623,15 @@
         <v>0.5</v>
       </c>
       <c r="O109" s="41">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>7.2457714363557439</v>
       </c>
       <c r="P109" s="41">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>234.56735870914449</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110" s="85"/>
       <c r="B110" s="86" t="s">
         <v>87</v>
@@ -23577,15 +23676,15 @@
         <v>0.2</v>
       </c>
       <c r="O110" s="41">
-        <f t="shared" si="60"/>
+        <f t="shared" si="61"/>
         <v>12.339221929456972</v>
       </c>
       <c r="P110" s="41">
-        <f t="shared" si="61"/>
+        <f t="shared" si="62"/>
         <v>399.45763152231058</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111" s="98">
         <f>B72</f>
         <v>0.7</v>
@@ -23632,7 +23731,7 @@
       <c r="O111" s="41"/>
       <c r="P111" s="41"/>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112" s="102"/>
       <c r="B112" s="103" t="s">
         <v>87</v>
@@ -23685,7 +23784,7 @@
         <v>14.672500445119912</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="94">
         <f>B73</f>
         <v>0.5</v>
@@ -23730,7 +23829,7 @@
         <v>6.2335295796944497</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="97"/>
       <c r="B114" s="59" t="s">
         <v>87</v>
@@ -23772,7 +23871,7 @@
         <v>1.0874661466213577E-6</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="87">
         <f>B74</f>
         <v>0.1</v>
@@ -23817,7 +23916,7 @@
         <v>31.167647898472243</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="91"/>
       <c r="B116" s="92" t="s">
         <v>87</v>
@@ -23861,21 +23960,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="G54:J54"/>
+    <mergeCell ref="K54:N54"/>
+    <mergeCell ref="O54:R54"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="AB15:AE15"/>
+    <mergeCell ref="A30:J30"/>
     <mergeCell ref="S54:V54"/>
     <mergeCell ref="W54:Z54"/>
     <mergeCell ref="AA54:AD54"/>
     <mergeCell ref="AE54:AH54"/>
     <mergeCell ref="AI54:AL54"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="L8:M8"/>
-    <mergeCell ref="AB15:AE15"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="G54:J54"/>
-    <mergeCell ref="K54:N54"/>
-    <mergeCell ref="O54:R54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -23891,48 +23990,48 @@
       <selection activeCell="M112" sqref="M112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.109375" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
     <col min="5" max="5" width="11" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="9.109375" customWidth="1"/>
-    <col min="12" max="12" width="17.6640625" customWidth="1"/>
-    <col min="13" max="13" width="12.109375" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" customWidth="1"/>
+    <col min="12" max="12" width="17.7109375" customWidth="1"/>
+    <col min="13" max="13" width="12.140625" customWidth="1"/>
     <col min="15" max="15" width="11" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="10.88671875" customWidth="1"/>
-    <col min="18" max="18" width="18.44140625" customWidth="1"/>
-    <col min="21" max="21" width="10.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="12.5546875" customWidth="1"/>
-    <col min="24" max="24" width="8.88671875" style="1"/>
+    <col min="17" max="17" width="10.85546875" customWidth="1"/>
+    <col min="18" max="18" width="18.42578125" customWidth="1"/>
+    <col min="21" max="21" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.5703125" customWidth="1"/>
+    <col min="24" max="24" width="8.85546875" style="1"/>
     <col min="25" max="25" width="11" style="1" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="8.88671875" style="1"/>
+    <col min="26" max="26" width="8.85546875" style="1"/>
     <col min="35" max="35" width="12" bestFit="1" customWidth="1"/>
     <col min="38" max="38" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A1" s="212" t="s">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A1" s="218" t="s">
         <v>71</v>
       </c>
-      <c r="B1" s="223"/>
-      <c r="C1" s="223"/>
-      <c r="D1" s="223"/>
-      <c r="E1" s="223"/>
-      <c r="F1" s="223"/>
-      <c r="G1" s="223"/>
-      <c r="H1" s="223"/>
-      <c r="I1" s="223"/>
-      <c r="J1" s="223"/>
+      <c r="B1" s="219"/>
+      <c r="C1" s="219"/>
+      <c r="D1" s="219"/>
+      <c r="E1" s="219"/>
+      <c r="F1" s="219"/>
+      <c r="G1" s="219"/>
+      <c r="H1" s="219"/>
+      <c r="I1" s="219"/>
+      <c r="J1" s="219"/>
       <c r="K1" s="25"/>
-      <c r="L1" s="212" t="s">
+      <c r="L1" s="218" t="s">
         <v>60</v>
       </c>
-      <c r="M1" s="223"/>
-      <c r="N1" s="213"/>
+      <c r="M1" s="219"/>
+      <c r="N1" s="220"/>
       <c r="Q1" s="49"/>
       <c r="R1" s="1" t="s">
         <v>52</v>
@@ -23971,7 +24070,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2" s="53" t="s">
         <v>70</v>
       </c>
@@ -24058,7 +24157,7 @@
         <v>0.14369522173913041</v>
       </c>
     </row>
-    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3" s="51">
         <v>11.2</v>
       </c>
@@ -24144,7 +24243,7 @@
         <v>0.96557273478260874</v>
       </c>
     </row>
-    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A4" s="52">
         <v>8</v>
       </c>
@@ -24230,7 +24329,7 @@
         <v>0.72795068403010044</v>
       </c>
     </row>
-    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A5" s="52">
         <v>5.6</v>
       </c>
@@ -24316,7 +24415,7 @@
         <v>4.0363869782461155</v>
       </c>
     </row>
-    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6" s="52">
         <v>4</v>
       </c>
@@ -24395,7 +24494,7 @@
         <v>1.9437556084810153</v>
       </c>
     </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A7" s="52">
         <v>2.8</v>
       </c>
@@ -24458,7 +24557,7 @@
         <v>0.8005262470803336</v>
       </c>
     </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A8" s="52">
         <v>2</v>
       </c>
@@ -24489,10 +24588,10 @@
       <c r="J8" s="106">
         <v>0.435</v>
       </c>
-      <c r="L8" s="212" t="s">
+      <c r="L8" s="218" t="s">
         <v>38</v>
       </c>
-      <c r="M8" s="213"/>
+      <c r="M8" s="220"/>
       <c r="Q8" s="49"/>
       <c r="R8" s="7"/>
       <c r="W8" s="1">
@@ -24525,7 +24624,7 @@
         <v>1.8410135952059168</v>
       </c>
     </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A9" s="52">
         <v>1.4</v>
       </c>
@@ -24595,7 +24694,7 @@
         <v>10.225716559788639</v>
       </c>
     </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A10" s="52">
         <v>1</v>
       </c>
@@ -24673,7 +24772,7 @@
         <v>19.118067345564235</v>
       </c>
     </row>
-    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11" s="52">
         <v>0.7</v>
       </c>
@@ -24748,7 +24847,7 @@
         <v>4.1888629385561202</v>
       </c>
     </row>
-    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12" s="52">
         <v>0.5</v>
       </c>
@@ -24823,7 +24922,7 @@
         <v>56.008452203917081</v>
       </c>
     </row>
-    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13" s="52" t="s">
         <v>9</v>
       </c>
@@ -24890,7 +24989,7 @@
         <v>100.00000011739129</v>
       </c>
     </row>
-    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14" s="53" t="s">
         <v>105</v>
       </c>
@@ -24953,7 +25052,7 @@
         <v>0.11103687826086958</v>
       </c>
     </row>
-    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C15" s="1"/>
       <c r="L15" s="2">
         <v>32</v>
@@ -24983,15 +25082,15 @@
       <c r="Z15" s="13">
         <v>0.11783916521739132</v>
       </c>
-      <c r="AB15" s="224" t="s">
+      <c r="AB15" s="221" t="s">
         <v>44</v>
       </c>
-      <c r="AC15" s="225"/>
-      <c r="AD15" s="225"/>
-      <c r="AE15" s="226"/>
+      <c r="AC15" s="222"/>
+      <c r="AD15" s="222"/>
+      <c r="AE15" s="223"/>
       <c r="AF15" s="31"/>
     </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
       <c r="L16" s="2">
         <v>22.6</v>
       </c>
@@ -25054,7 +25153,7 @@
         <v>2.2624434389140274E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A17" s="32" t="s">
         <v>54</v>
       </c>
@@ -25125,7 +25224,7 @@
         <v>4.2986425392484755E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>55</v>
       </c>
@@ -25197,7 +25296,7 @@
         <v>2.5343191042496417E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19" s="69">
         <v>2</v>
       </c>
@@ -25279,7 +25378,7 @@
         <v>6.7873303167420851E-3</v>
       </c>
     </row>
-    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20" s="57">
         <v>3</v>
       </c>
@@ -25359,7 +25458,7 @@
         <v>3.6199095022624445E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21" s="69">
         <v>4</v>
       </c>
@@ -25441,7 +25540,7 @@
         <v>5.4298642533936597E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>5</v>
       </c>
@@ -25523,7 +25622,7 @@
         <v>6.7873303167420851E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A23" s="69">
         <v>6</v>
       </c>
@@ -25605,7 +25704,7 @@
         <v>4.5248868778280549E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>7</v>
       </c>
@@ -25687,7 +25786,7 @@
         <v>0.11312217194570137</v>
       </c>
     </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A25" s="69">
         <v>8</v>
       </c>
@@ -25769,7 +25868,7 @@
         <v>0.12217194570135748</v>
       </c>
     </row>
-    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>9</v>
       </c>
@@ -25851,7 +25950,7 @@
         <v>0.19457013574660631</v>
       </c>
     </row>
-    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27" s="69">
         <v>10</v>
       </c>
@@ -25933,7 +26032,7 @@
         <v>0.19457013574660631</v>
       </c>
     </row>
-    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="C28" s="1"/>
       <c r="L28" s="2" t="s">
         <v>78</v>
@@ -25996,7 +26095,7 @@
         <v>0.15837104072398189</v>
       </c>
     </row>
-    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="M29" s="50">
         <f>SUM(M10:M28)</f>
         <v>1.0000000000531182</v>
@@ -26055,19 +26154,19 @@
         <v>4.5248868778280493E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
-      <c r="A30" s="227" t="s">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A30" s="224" t="s">
         <v>72</v>
       </c>
-      <c r="B30" s="227"/>
-      <c r="C30" s="227"/>
-      <c r="D30" s="227"/>
-      <c r="E30" s="227"/>
-      <c r="F30" s="227"/>
-      <c r="G30" s="227"/>
-      <c r="H30" s="227"/>
-      <c r="I30" s="227"/>
-      <c r="J30" s="227"/>
+      <c r="B30" s="224"/>
+      <c r="C30" s="224"/>
+      <c r="D30" s="224"/>
+      <c r="E30" s="224"/>
+      <c r="F30" s="224"/>
+      <c r="G30" s="224"/>
+      <c r="H30" s="224"/>
+      <c r="I30" s="224"/>
+      <c r="J30" s="224"/>
       <c r="K30" s="25"/>
       <c r="Q30" s="49"/>
       <c r="R30" s="2">
@@ -26123,7 +26222,7 @@
         <v>5.8823529411764719E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A31" s="53" t="s">
         <v>70</v>
       </c>
@@ -26195,7 +26294,7 @@
       <c r="AG31" s="5"/>
       <c r="AI31" s="46"/>
     </row>
-    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>180</v>
       </c>
@@ -26268,7 +26367,7 @@
         <v>1.0000000000531182</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>128</v>
       </c>
@@ -26328,7 +26427,7 @@
         <v>4.5248868778280542</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>90</v>
       </c>
@@ -26372,7 +26471,7 @@
         <v>0.56166232608695643</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>64</v>
       </c>
@@ -26416,7 +26515,7 @@
         <v>0.48313567391304357</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>45</v>
       </c>
@@ -26460,7 +26559,7 @@
         <v>0.40172391304347826</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>32</v>
       </c>
@@ -26504,7 +26603,7 @@
         <v>0.31800290000000003</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>22.6</v>
       </c>
@@ -26548,7 +26647,7 @@
         <v>3.0056556521739126E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>16</v>
       </c>
@@ -26592,7 +26691,7 @@
         <v>0.22375436521739128</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" s="52">
         <v>11</v>
       </c>
@@ -26645,7 +26744,7 @@
         <v>0.20053242608695654</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" s="52">
         <v>8</v>
       </c>
@@ -26698,7 +26797,7 @@
         <v>0.15758740869565219</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" s="52">
         <v>5.6</v>
       </c>
@@ -26751,7 +26850,7 @@
         <v>0.11821860000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" s="52">
         <v>4</v>
       </c>
@@ -26804,7 +26903,7 @@
         <v>2.7713960869565214E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" s="52">
         <v>2.8</v>
       </c>
@@ -26856,7 +26955,7 @@
         <v>6.5921991304347824E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" s="52">
         <v>2</v>
       </c>
@@ -26908,7 +27007,7 @@
         <v>3.0966113043478259E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" s="52">
         <v>1.4</v>
       </c>
@@ -26960,7 +27059,7 @@
         <v>1.7120587434782608</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" s="52">
         <v>1</v>
       </c>
@@ -27012,7 +27111,7 @@
         <v>3.3152842391304347</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" s="52">
         <v>0.7</v>
       </c>
@@ -27064,7 +27163,7 @@
         <v>3.8885630782608689</v>
       </c>
     </row>
-    <row r="49" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A49" s="52">
         <v>0.5</v>
       </c>
@@ -27116,7 +27215,7 @@
         <v>21.30781896521739</v>
       </c>
     </row>
-    <row r="50" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A50" s="52" t="s">
         <v>78</v>
       </c>
@@ -27168,7 +27267,7 @@
         <v>8.1626277652173904</v>
       </c>
     </row>
-    <row r="51" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B51" s="40">
         <f>SUM(B40:B50)</f>
         <v>0.99999999999999989</v>
@@ -27217,7 +27316,7 @@
         <v>52.866804999999992</v>
       </c>
     </row>
-    <row r="52" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:38" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -27236,73 +27335,73 @@
         <v>100.00000011739129</v>
       </c>
     </row>
-    <row r="53" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A53" s="32" t="s">
         <v>73</v>
       </c>
       <c r="Q53" s="49"/>
     </row>
-    <row r="54" spans="1:38" x14ac:dyDescent="0.3">
-      <c r="A54" s="212" t="s">
+    <row r="54" spans="1:38" x14ac:dyDescent="0.25">
+      <c r="A54" s="218" t="s">
         <v>74</v>
       </c>
-      <c r="B54" s="213"/>
-      <c r="C54" s="214" t="s">
+      <c r="B54" s="220"/>
+      <c r="C54" s="212" t="s">
         <v>88</v>
       </c>
-      <c r="D54" s="215"/>
-      <c r="E54" s="215"/>
-      <c r="F54" s="216"/>
-      <c r="G54" s="217" t="s">
+      <c r="D54" s="213"/>
+      <c r="E54" s="213"/>
+      <c r="F54" s="214"/>
+      <c r="G54" s="225" t="s">
         <v>89</v>
       </c>
-      <c r="H54" s="218"/>
-      <c r="I54" s="218"/>
-      <c r="J54" s="219"/>
-      <c r="K54" s="214" t="s">
+      <c r="H54" s="226"/>
+      <c r="I54" s="226"/>
+      <c r="J54" s="227"/>
+      <c r="K54" s="212" t="s">
         <v>90</v>
       </c>
-      <c r="L54" s="215"/>
-      <c r="M54" s="215"/>
-      <c r="N54" s="216"/>
-      <c r="O54" s="220" t="s">
+      <c r="L54" s="213"/>
+      <c r="M54" s="213"/>
+      <c r="N54" s="214"/>
+      <c r="O54" s="215" t="s">
         <v>91</v>
       </c>
-      <c r="P54" s="221"/>
-      <c r="Q54" s="221"/>
-      <c r="R54" s="222"/>
-      <c r="S54" s="214" t="s">
+      <c r="P54" s="216"/>
+      <c r="Q54" s="216"/>
+      <c r="R54" s="217"/>
+      <c r="S54" s="212" t="s">
         <v>92</v>
       </c>
-      <c r="T54" s="215"/>
-      <c r="U54" s="215"/>
-      <c r="V54" s="216"/>
-      <c r="W54" s="220" t="s">
+      <c r="T54" s="213"/>
+      <c r="U54" s="213"/>
+      <c r="V54" s="214"/>
+      <c r="W54" s="215" t="s">
         <v>93</v>
       </c>
-      <c r="X54" s="221"/>
-      <c r="Y54" s="221"/>
-      <c r="Z54" s="222"/>
-      <c r="AA54" s="214" t="s">
+      <c r="X54" s="216"/>
+      <c r="Y54" s="216"/>
+      <c r="Z54" s="217"/>
+      <c r="AA54" s="212" t="s">
         <v>94</v>
       </c>
-      <c r="AB54" s="215"/>
-      <c r="AC54" s="215"/>
-      <c r="AD54" s="216"/>
-      <c r="AE54" s="220" t="s">
+      <c r="AB54" s="213"/>
+      <c r="AC54" s="213"/>
+      <c r="AD54" s="214"/>
+      <c r="AE54" s="215" t="s">
         <v>95</v>
       </c>
-      <c r="AF54" s="221"/>
-      <c r="AG54" s="221"/>
-      <c r="AH54" s="222"/>
-      <c r="AI54" s="214" t="s">
+      <c r="AF54" s="216"/>
+      <c r="AG54" s="216"/>
+      <c r="AH54" s="217"/>
+      <c r="AI54" s="212" t="s">
         <v>96</v>
       </c>
-      <c r="AJ54" s="215"/>
-      <c r="AK54" s="215"/>
-      <c r="AL54" s="216"/>
+      <c r="AJ54" s="213"/>
+      <c r="AK54" s="213"/>
+      <c r="AL54" s="214"/>
     </row>
-    <row r="55" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
         <v>75</v>
       </c>
@@ -27418,7 +27517,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="56" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>1</v>
       </c>
@@ -27570,7 +27669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>2</v>
       </c>
@@ -27722,7 +27821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>3</v>
       </c>
@@ -27874,7 +27973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>4</v>
       </c>
@@ -28026,7 +28125,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>5</v>
       </c>
@@ -28178,7 +28277,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>6</v>
       </c>
@@ -28330,7 +28429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>7</v>
       </c>
@@ -28482,7 +28581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>8</v>
       </c>
@@ -28634,7 +28733,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>9</v>
       </c>
@@ -28786,7 +28885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>10</v>
       </c>
@@ -28938,7 +29037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <f>A65+1</f>
         <v>11</v>
@@ -29091,7 +29190,7 @@
         <v>4.4250813266616357E-6</v>
       </c>
     </row>
-    <row r="67" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <f t="shared" ref="A67:A74" si="57">A66+1</f>
         <v>12</v>
@@ -29244,7 +29343,7 @@
         <v>1.1306207791917831E-5</v>
       </c>
     </row>
-    <row r="68" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <f t="shared" si="57"/>
         <v>13</v>
@@ -29397,7 +29496,7 @@
         <v>2.3220426758210894E-5</v>
       </c>
     </row>
-    <row r="69" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <f t="shared" si="57"/>
         <v>14</v>
@@ -29550,7 +29649,7 @@
         <v>1.7400319792974639E-5</v>
       </c>
     </row>
-    <row r="70" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <f t="shared" si="57"/>
         <v>15</v>
@@ -29703,7 +29802,7 @@
         <v>5.3280979228142622E-5</v>
       </c>
     </row>
-    <row r="71" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <f t="shared" si="57"/>
         <v>16</v>
@@ -29856,7 +29955,7 @@
         <v>1.4790182405596351E-6</v>
       </c>
     </row>
-    <row r="72" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <f t="shared" si="57"/>
         <v>17</v>
@@ -30009,7 +30108,7 @@
         <v>2.1385671409275137E-5</v>
       </c>
     </row>
-    <row r="73" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <f t="shared" si="57"/>
         <v>18</v>
@@ -30162,7 +30261,7 @@
         <v>4.5281559825277573E-6</v>
       </c>
     </row>
-    <row r="74" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <f t="shared" si="57"/>
         <v>19</v>
@@ -30315,18 +30414,18 @@
         <v>6.6317165504044697E-6</v>
       </c>
     </row>
-    <row r="75" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:38" x14ac:dyDescent="0.25">
       <c r="P75" s="66"/>
       <c r="Q75" s="66"/>
       <c r="X75" s="67"/>
       <c r="Y75" s="67"/>
     </row>
-    <row r="77" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A77" s="32" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="78" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A78" s="71" t="s">
         <v>76</v>
       </c>
@@ -30370,7 +30469,7 @@
       <c r="Y78"/>
       <c r="Z78"/>
     </row>
-    <row r="79" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A79" s="74">
         <f>B56</f>
         <v>180</v>
@@ -30424,7 +30523,7 @@
       <c r="Y79"/>
       <c r="Z79"/>
     </row>
-    <row r="80" spans="1:38" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:38" x14ac:dyDescent="0.25">
       <c r="A80" s="78"/>
       <c r="B80" s="79" t="s">
         <v>87</v>
@@ -30469,7 +30568,7 @@
       <c r="Y80"/>
       <c r="Z80"/>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="74">
         <f>B57</f>
         <v>128</v>
@@ -30529,7 +30628,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="78"/>
       <c r="B82" s="79" t="s">
         <v>87</v>
@@ -30578,7 +30677,7 @@
       <c r="Y82" s="2"/>
       <c r="Z82" s="30"/>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="74">
         <f>B58</f>
         <v>90</v>
@@ -30630,7 +30729,7 @@
       <c r="Y83" s="2"/>
       <c r="Z83" s="30"/>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="78"/>
       <c r="B84" s="79" t="s">
         <v>87</v>
@@ -30679,7 +30778,7 @@
       <c r="Y84" s="34"/>
       <c r="Z84" s="30"/>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="74">
         <f>B59</f>
         <v>64</v>
@@ -30731,7 +30830,7 @@
       <c r="Y85" s="34"/>
       <c r="Z85" s="30"/>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="78"/>
       <c r="B86" s="79" t="s">
         <v>87</v>
@@ -30780,7 +30879,7 @@
       <c r="Y86" s="34"/>
       <c r="Z86" s="30"/>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="74">
         <f>B60</f>
         <v>45</v>
@@ -30832,7 +30931,7 @@
       <c r="Y87" s="34"/>
       <c r="Z87" s="134"/>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="78"/>
       <c r="B88" s="79" t="s">
         <v>87</v>
@@ -30881,7 +30980,7 @@
       <c r="Y88" s="34"/>
       <c r="Z88" s="30"/>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="74">
         <f>B61</f>
         <v>32</v>
@@ -30933,7 +31032,7 @@
       <c r="Y89" s="34"/>
       <c r="Z89" s="30"/>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="78"/>
       <c r="B90" s="79" t="s">
         <v>87</v>
@@ -30982,7 +31081,7 @@
       <c r="Y90" s="34"/>
       <c r="Z90" s="30"/>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="74">
         <f>B62</f>
         <v>22.6</v>
@@ -31034,7 +31133,7 @@
       <c r="Y91" s="34"/>
       <c r="Z91" s="30"/>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" s="78"/>
       <c r="B92" s="79" t="s">
         <v>87</v>
@@ -31093,7 +31192,7 @@
         <v>5.6</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" s="74">
         <f>B63</f>
         <v>16</v>
@@ -31155,7 +31254,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" s="74"/>
       <c r="B94" s="79" t="s">
         <v>87</v>
@@ -31214,7 +31313,7 @@
         <v>2.8</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" s="74">
         <f>B64</f>
         <v>11</v>
@@ -31276,7 +31375,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" s="78"/>
       <c r="B96" s="79" t="s">
         <v>87</v>
@@ -31335,7 +31434,7 @@
         <v>1.4</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" s="74">
         <f>B65</f>
         <v>8</v>
@@ -31397,7 +31496,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" s="78"/>
       <c r="B98" s="79" t="s">
         <v>87</v>
@@ -31457,7 +31556,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" s="74">
         <f>B66</f>
         <v>5.6</v>
@@ -31519,7 +31618,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" s="78"/>
       <c r="B100" s="79" t="s">
         <v>87</v>
@@ -31578,7 +31677,7 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101" s="174">
         <f>B67</f>
         <v>4</v>
@@ -31623,7 +31722,7 @@
         <v>0.30105114447387948</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102" s="179"/>
       <c r="B102" s="180" t="s">
         <v>87</v>
@@ -31665,7 +31764,7 @@
         <v>1.1306207791917831E-5</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103" s="183">
         <f>B68</f>
         <v>2.8</v>
@@ -31714,7 +31813,7 @@
       </c>
       <c r="O103" s="1"/>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104" s="188"/>
       <c r="B104" s="189" t="s">
         <v>87</v>
@@ -31765,7 +31864,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105" s="165">
         <f>B69</f>
         <v>2</v>
@@ -31824,7 +31923,7 @@
         <v>24.95575235493418</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106" s="19"/>
       <c r="B106" s="170" t="s">
         <v>87</v>
@@ -31880,7 +31979,7 @@
         <v>31.010299517052808</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107" s="120">
         <f>B70</f>
         <v>1.4</v>
@@ -31939,7 +32038,7 @@
         <v>38.062554750000004</v>
       </c>
     </row>
-    <row r="108" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A108" s="120"/>
       <c r="B108" s="124" t="s">
         <v>87</v>
@@ -31995,7 +32094,7 @@
         <v>47.296960091381493</v>
       </c>
     </row>
-    <row r="109" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A109" s="81">
         <f>B71</f>
         <v>1</v>
@@ -32054,7 +32153,7 @@
         <v>58.05307143185783</v>
       </c>
     </row>
-    <row r="110" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A110" s="85"/>
       <c r="B110" s="86" t="s">
         <v>87</v>
@@ -32110,7 +32209,7 @@
         <v>101.43099068962043</v>
       </c>
     </row>
-    <row r="111" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A111" s="98">
         <f>B72</f>
         <v>0.7</v>
@@ -32155,7 +32254,7 @@
         <v>1.7202922541364543</v>
       </c>
     </row>
-    <row r="112" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A112" s="102"/>
       <c r="B112" s="103" t="s">
         <v>87</v>
@@ -32197,7 +32296,7 @@
         <v>2.1385671409275137E-5</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="94">
         <f>B73</f>
         <v>0.5</v>
@@ -32242,7 +32341,7 @@
         <v>2.4084091557910359</v>
       </c>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="97"/>
       <c r="B114" s="59" t="s">
         <v>87</v>
@@ -32284,7 +32383,7 @@
         <v>4.5281559825277573E-6</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="87">
         <f>B74</f>
         <v>0.1</v>
@@ -32329,7 +32428,7 @@
         <v>12.042045778955178</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="91"/>
       <c r="B116" s="92" t="s">
         <v>87</v>
@@ -32373,21 +32472,21 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="AB15:AE15"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="L1:N1"/>
+    <mergeCell ref="A30:J30"/>
+    <mergeCell ref="L8:M8"/>
+    <mergeCell ref="A54:B54"/>
+    <mergeCell ref="C54:F54"/>
+    <mergeCell ref="G54:J54"/>
+    <mergeCell ref="K54:N54"/>
+    <mergeCell ref="O54:R54"/>
     <mergeCell ref="S54:V54"/>
     <mergeCell ref="W54:Z54"/>
     <mergeCell ref="AA54:AD54"/>
     <mergeCell ref="AE54:AH54"/>
     <mergeCell ref="AI54:AL54"/>
-    <mergeCell ref="A54:B54"/>
-    <mergeCell ref="C54:F54"/>
-    <mergeCell ref="G54:J54"/>
-    <mergeCell ref="K54:N54"/>
-    <mergeCell ref="O54:R54"/>
-    <mergeCell ref="AB15:AE15"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="L1:N1"/>
-    <mergeCell ref="A30:J30"/>
-    <mergeCell ref="L8:M8"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -32404,19 +32503,19 @@
       <selection activeCell="AC33" sqref="AC33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="1"/>
-    <col min="26" max="26" width="13.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.5546875" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="26" max="26" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
         <v>10</v>
       </c>
@@ -32505,7 +32604,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="9">
         <v>0.37</v>
       </c>
@@ -32597,7 +32696,7 @@
         <v>0.10345145454545455</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="9">
         <v>0.44</v>
       </c>
@@ -32689,7 +32788,7 @@
         <v>0.10918303181818181</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="9">
         <v>0.52</v>
       </c>
@@ -32781,7 +32880,7 @@
         <v>0.11806485454545455</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="9">
         <v>0.61</v>
       </c>
@@ -32873,7 +32972,7 @@
         <v>0.13053725909090907</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="9">
         <v>0.72</v>
       </c>
@@ -32965,7 +33064,7 @@
         <v>0.14702484090909088</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="9">
         <v>0.85</v>
       </c>
@@ -33057,7 +33156,7 @@
         <v>0.16995316363636359</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="9">
         <v>1.01</v>
       </c>
@@ -33149,7 +33248,7 @@
         <v>0.20881921818181817</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="9">
         <v>1.19</v>
       </c>
@@ -33241,7 +33340,7 @@
         <v>0.28798042727272721</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="9">
         <v>1.4</v>
       </c>
@@ -33333,7 +33432,7 @@
         <v>0.4164124818181818</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A12" s="9">
         <v>1.65</v>
       </c>
@@ -33425,7 +33524,7 @@
         <v>0.51386996818181818</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A13" s="9">
         <v>1.95</v>
       </c>
@@ -33517,7 +33616,7 @@
         <v>0.59205577272727272</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
         <v>2.2999999999999998</v>
       </c>
@@ -33609,7 +33708,7 @@
         <v>0.6660419500000001</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A15" s="9">
         <v>2.72</v>
       </c>
@@ -33701,7 +33800,7 @@
         <v>0.72373427272727275</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A16" s="9">
         <v>3.2</v>
       </c>
@@ -33793,7 +33892,7 @@
         <v>0.77374282727272736</v>
       </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A17" s="9">
         <v>3.78</v>
       </c>
@@ -33885,7 +33984,7 @@
         <v>0.83793021818181801</v>
       </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A18" s="9">
         <v>4.46</v>
       </c>
@@ -33977,7 +34076,7 @@
         <v>0.9276544636363635</v>
       </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A19" s="9">
         <v>5.27</v>
       </c>
@@ -34069,7 +34168,7 @@
         <v>1.0303185818181819</v>
       </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A20" s="9">
         <v>6.21</v>
       </c>
@@ -34161,7 +34260,7 @@
         <v>1.1507959272727271</v>
       </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A21" s="9">
         <v>7.33</v>
       </c>
@@ -34253,7 +34352,7 @@
         <v>1.2857054272727275</v>
       </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A22" s="9">
         <v>8.65</v>
       </c>
@@ -34345,7 +34444,7 @@
         <v>1.4414075272727267</v>
       </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A23" s="9">
         <v>10.210000000000001</v>
       </c>
@@ -34437,7 +34536,7 @@
         <v>1.6246772090909092</v>
       </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A24" s="9">
         <v>12.05</v>
       </c>
@@ -34529,7 +34628,7 @@
         <v>1.8360353999999999</v>
       </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>14.22</v>
       </c>
@@ -34621,7 +34720,7 @@
         <v>2.132178763636364</v>
       </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
         <v>16.78</v>
       </c>
@@ -34713,7 +34812,7 @@
         <v>2.4587393727272731</v>
       </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
         <v>19.809999999999999</v>
       </c>
@@ -34805,7 +34904,7 @@
         <v>2.7979305863636363</v>
       </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
         <v>23.37</v>
       </c>
@@ -34897,7 +34996,7 @@
         <v>1.1893333681818183</v>
       </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
         <v>25</v>
       </c>
@@ -34989,7 +35088,7 @@
         <v>1.8825031136363639</v>
       </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
         <v>27.58</v>
       </c>
@@ -35081,7 +35180,7 @@
         <v>3.3140245409090907</v>
       </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
         <v>32.549999999999997</v>
       </c>
@@ -35173,7 +35272,7 @@
         <v>3.4339506454545448</v>
       </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
         <v>38.409999999999997</v>
       </c>
@@ -35265,7 +35364,7 @@
         <v>3.4267308181818183</v>
       </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
         <v>45.32</v>
       </c>
@@ -35357,7 +35456,7 @@
         <v>3.2748958136363631</v>
       </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
         <v>53.48</v>
       </c>
@@ -35449,7 +35548,7 @@
         <v>2.9197439590909102</v>
       </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
         <v>63.11</v>
       </c>
@@ -35541,7 +35640,7 @@
         <v>2.4945463636363634</v>
       </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
         <v>74.48</v>
       </c>
@@ -35633,7 +35732,7 @@
         <v>1.9734895909090913</v>
       </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
         <v>87.89</v>
       </c>
@@ -35725,7 +35824,7 @@
         <v>1.5051432454545455</v>
       </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
         <v>103.72</v>
       </c>
@@ -35817,7 +35916,7 @@
         <v>1.0947431136363637</v>
       </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
         <v>122.39</v>
       </c>
@@ -35909,7 +36008,7 @@
         <v>9.8260886363636363E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
         <v>125</v>
       </c>
@@ -36001,7 +36100,7 @@
         <v>0.73149481818181816</v>
       </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
         <v>144.43</v>
       </c>
@@ -36093,7 +36192,7 @@
         <v>0.61875227272727262</v>
       </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
         <v>170.44</v>
       </c>
@@ -36185,7 +36284,7 @@
         <v>0.47022736363636364</v>
       </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A43" s="9">
         <v>201.13</v>
       </c>
@@ -36277,7 +36376,7 @@
         <v>0.35589850454545446</v>
       </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A44" s="9">
         <v>237.35</v>
       </c>
@@ -36369,7 +36468,7 @@
         <v>9.0109809090909085E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A45" s="9">
         <v>250</v>
       </c>
@@ -36461,7 +36560,7 @@
         <v>0.21433984545454551</v>
       </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A46" s="9">
         <v>280.08999999999997</v>
       </c>
@@ -36553,7 +36652,7 @@
         <v>0.12128648636363637</v>
       </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A47" s="9">
         <v>300</v>
       </c>
@@ -36645,7 +36744,7 @@
         <v>1.8120921590909094</v>
       </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A48" s="9">
         <v>330.52</v>
       </c>
@@ -36737,7 +36836,7 @@
         <v>3.484536859090908</v>
       </c>
     </row>
-    <row r="49" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A49" s="9">
         <v>390.04</v>
       </c>
@@ -36829,7 +36928,7 @@
         <v>4.0028678454545457</v>
       </c>
     </row>
-    <row r="50" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A50" s="9">
         <v>460.27</v>
       </c>
@@ -36921,7 +37020,7 @@
         <v>20.949027127272725</v>
       </c>
     </row>
-    <row r="51" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A51" s="9">
         <v>850</v>
       </c>
@@ -37013,7 +37112,7 @@
         <v>3.67216955</v>
       </c>
     </row>
-    <row r="52" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A52" s="9">
         <v>1000</v>
       </c>
@@ -37105,7 +37204,7 @@
         <v>14.385586940909089</v>
       </c>
     </row>
-    <row r="53" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A53" s="9">
         <v>5000</v>
       </c>
@@ -37197,12 +37296,12 @@
         <v>100.0000000409091</v>
       </c>
     </row>
-    <row r="55" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A55" s="18" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="56" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A56" s="19" t="s">
         <v>10</v>
       </c>
@@ -37279,7 +37378,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="57" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A57" s="19">
         <v>0.37</v>
       </c>
@@ -37358,7 +37457,7 @@
         <v>0.10345145454545455</v>
       </c>
     </row>
-    <row r="58" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A58" s="19">
         <v>0.44</v>
       </c>
@@ -37437,7 +37536,7 @@
         <v>0.10918303181818181</v>
       </c>
     </row>
-    <row r="59" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A59" s="19">
         <v>0.52</v>
       </c>
@@ -37516,7 +37615,7 @@
         <v>0.11806485454545455</v>
       </c>
     </row>
-    <row r="60" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A60" s="19">
         <v>0.61</v>
       </c>
@@ -37595,7 +37694,7 @@
         <v>0.13053725909090907</v>
       </c>
     </row>
-    <row r="61" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A61" s="19">
         <v>0.72</v>
       </c>
@@ -37674,7 +37773,7 @@
         <v>0.14702484090909088</v>
       </c>
     </row>
-    <row r="62" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A62" s="19">
         <v>0.85</v>
       </c>
@@ -37753,7 +37852,7 @@
         <v>0.16995316363636359</v>
       </c>
     </row>
-    <row r="63" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A63" s="19">
         <v>1.01</v>
       </c>
@@ -37832,7 +37931,7 @@
         <v>0.20881921818181817</v>
       </c>
     </row>
-    <row r="64" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A64" s="19">
         <v>1.19</v>
       </c>
@@ -37911,7 +38010,7 @@
         <v>0.28798042727272721</v>
       </c>
     </row>
-    <row r="65" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A65" s="19">
         <v>1.4</v>
       </c>
@@ -37990,7 +38089,7 @@
         <v>0.4164124818181818</v>
       </c>
     </row>
-    <row r="66" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A66" s="19">
         <v>1.65</v>
       </c>
@@ -38069,7 +38168,7 @@
         <v>0.51386996818181818</v>
       </c>
     </row>
-    <row r="67" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A67" s="19">
         <v>1.95</v>
       </c>
@@ -38148,7 +38247,7 @@
         <v>0.59205577272727272</v>
       </c>
     </row>
-    <row r="68" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A68" s="19">
         <v>2.2999999999999998</v>
       </c>
@@ -38227,7 +38326,7 @@
         <v>0.6660419500000001</v>
       </c>
     </row>
-    <row r="69" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A69" s="19">
         <v>2.72</v>
       </c>
@@ -38306,7 +38405,7 @@
         <v>0.72373427272727275</v>
       </c>
     </row>
-    <row r="70" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A70" s="19">
         <v>3.2</v>
       </c>
@@ -38385,7 +38484,7 @@
         <v>0.77374282727272736</v>
       </c>
     </row>
-    <row r="71" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A71" s="19">
         <v>3.78</v>
       </c>
@@ -38464,7 +38563,7 @@
         <v>0.83793021818181801</v>
       </c>
     </row>
-    <row r="72" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A72" s="19">
         <v>4.46</v>
       </c>
@@ -38543,7 +38642,7 @@
         <v>0.9276544636363635</v>
       </c>
     </row>
-    <row r="73" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A73" s="19">
         <v>5.27</v>
       </c>
@@ -38622,7 +38721,7 @@
         <v>1.0303185818181819</v>
       </c>
     </row>
-    <row r="74" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A74" s="19">
         <v>6.21</v>
       </c>
@@ -38701,7 +38800,7 @@
         <v>1.1507959272727271</v>
       </c>
     </row>
-    <row r="75" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A75" s="19">
         <v>7.33</v>
       </c>
@@ -38780,7 +38879,7 @@
         <v>1.2857054272727275</v>
       </c>
     </row>
-    <row r="76" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A76" s="19">
         <v>8.65</v>
       </c>
@@ -38859,7 +38958,7 @@
         <v>1.4414075272727267</v>
       </c>
     </row>
-    <row r="77" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A77" s="19">
         <v>10.210000000000001</v>
       </c>
@@ -38938,7 +39037,7 @@
         <v>1.6246772090909092</v>
       </c>
     </row>
-    <row r="78" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A78" s="19">
         <v>12.05</v>
       </c>
@@ -39017,7 +39116,7 @@
         <v>1.8360353999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A79" s="19">
         <v>14.22</v>
       </c>
@@ -39096,7 +39195,7 @@
         <v>2.132178763636364</v>
       </c>
     </row>
-    <row r="80" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A80" s="19">
         <v>16.78</v>
       </c>
@@ -39175,7 +39274,7 @@
         <v>2.4587393727272731</v>
       </c>
     </row>
-    <row r="81" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A81" s="19">
         <v>19.809999999999999</v>
       </c>
@@ -39254,7 +39353,7 @@
         <v>2.7979305863636363</v>
       </c>
     </row>
-    <row r="82" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A82" s="19">
         <v>23.37</v>
       </c>
@@ -39333,7 +39432,7 @@
         <v>1.1893333681818183</v>
       </c>
     </row>
-    <row r="83" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A83" s="19">
         <v>25</v>
       </c>
@@ -39412,7 +39511,7 @@
         <v>1.8825031136363639</v>
       </c>
     </row>
-    <row r="84" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A84" s="19">
         <v>27.58</v>
       </c>
@@ -39491,7 +39590,7 @@
         <v>3.3140245409090907</v>
       </c>
     </row>
-    <row r="85" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A85" s="19">
         <v>32.549999999999997</v>
       </c>
@@ -39570,7 +39669,7 @@
         <v>3.4339506454545448</v>
       </c>
     </row>
-    <row r="86" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A86" s="19">
         <v>38.409999999999997</v>
       </c>
@@ -39649,7 +39748,7 @@
         <v>3.4267308181818183</v>
       </c>
     </row>
-    <row r="87" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A87" s="19">
         <v>45.32</v>
       </c>
@@ -39728,7 +39827,7 @@
         <v>3.2748958136363631</v>
       </c>
     </row>
-    <row r="88" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A88" s="19">
         <v>53.48</v>
       </c>
@@ -39807,7 +39906,7 @@
         <v>2.9197439590909102</v>
       </c>
     </row>
-    <row r="89" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A89" s="19">
         <v>63.11</v>
       </c>
@@ -39886,7 +39985,7 @@
         <v>2.4945463636363634</v>
       </c>
     </row>
-    <row r="90" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A90" s="19">
         <v>74.48</v>
       </c>
@@ -39965,7 +40064,7 @@
         <v>1.9734895909090913</v>
       </c>
     </row>
-    <row r="91" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A91" s="19">
         <v>87.89</v>
       </c>
@@ -40044,7 +40143,7 @@
         <v>1.5051432454545455</v>
       </c>
     </row>
-    <row r="92" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A92" s="19">
         <v>103.72</v>
       </c>
@@ -40123,7 +40222,7 @@
         <v>1.0947431136363637</v>
       </c>
     </row>
-    <row r="93" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A93" s="19">
         <v>122.39</v>
       </c>
@@ -40202,7 +40301,7 @@
         <v>9.8260886363636363E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A94" s="19">
         <v>125</v>
       </c>
@@ -40281,7 +40380,7 @@
         <v>0.73149481818181816</v>
       </c>
     </row>
-    <row r="95" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A95" s="19">
         <v>144.43</v>
       </c>
@@ -40360,7 +40459,7 @@
         <v>0.61875227272727262</v>
       </c>
     </row>
-    <row r="96" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A96" s="19">
         <v>170.44</v>
       </c>
@@ -40439,7 +40538,7 @@
         <v>0.47022736363636364</v>
       </c>
     </row>
-    <row r="97" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A97" s="19">
         <v>201.13</v>
       </c>
@@ -40518,7 +40617,7 @@
         <v>0.35589850454545446</v>
       </c>
     </row>
-    <row r="98" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A98" s="19">
         <v>237.35</v>
       </c>
@@ -40597,7 +40696,7 @@
         <v>9.0109809090909085E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A99" s="19">
         <v>250</v>
       </c>
@@ -40676,7 +40775,7 @@
         <v>0.21433984545454551</v>
       </c>
     </row>
-    <row r="100" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A100" s="19">
         <v>280.08999999999997</v>
       </c>
@@ -40755,7 +40854,7 @@
         <v>0.12128648636363637</v>
       </c>
     </row>
-    <row r="101" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A101" s="19">
         <v>300</v>
       </c>
@@ -40834,7 +40933,7 @@
         <v>1.8120921590909094</v>
       </c>
     </row>
-    <row r="102" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A102" s="19">
         <v>330.52</v>
       </c>
@@ -40913,7 +41012,7 @@
         <v>3.484536859090908</v>
       </c>
     </row>
-    <row r="103" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A103" s="19">
         <v>390.04</v>
       </c>
@@ -40992,7 +41091,7 @@
         <v>4.0028678454545457</v>
       </c>
     </row>
-    <row r="104" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A104" s="19">
         <v>460.27</v>
       </c>
@@ -41071,7 +41170,7 @@
         <v>20.949027127272725</v>
       </c>
     </row>
-    <row r="105" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A105" s="19">
         <v>850</v>
       </c>
@@ -41150,7 +41249,7 @@
         <v>3.67216955</v>
       </c>
     </row>
-    <row r="106" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A106" s="19">
         <v>1000</v>
       </c>
@@ -41229,7 +41328,7 @@
         <v>14.385586940909089</v>
       </c>
     </row>
-    <row r="107" spans="1:26" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:26" x14ac:dyDescent="0.25">
       <c r="A107" s="19">
         <v>5000</v>
       </c>
